--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC36B92-A25D-4F90-B5C9-66BD893FF123}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D3AB51-98A6-47FE-ACB4-F832589AE451}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="23640" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -347,6 +347,9 @@
   <si>
     <t>Worst case RT-inj. Plumbing pressure (located at bottom of plumbing tree, just above injector) (psi)</t>
   </si>
+  <si>
+    <t>gees</t>
+  </si>
 </sst>
 </file>
 
@@ -519,12 +522,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -538,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -890,12 +893,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -987,188 +984,170 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,7 +1156,7 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,59 +1211,89 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,232 +2095,232 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>223.31823120327286</c:v>
+                  <c:v>1004.9320404147279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>222.69017899119618</c:v>
+                  <c:v>1002.1058054603827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222.05744900882178</c:v>
+                  <c:v>999.25852053969811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221.42053365302311</c:v>
+                  <c:v>996.392401438604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220.77918672536347</c:v>
+                  <c:v>993.50634026413559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220.13316202740614</c:v>
+                  <c:v>990.59922912332752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>219.48221336071435</c:v>
+                  <c:v>987.66996012321454</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>218.82683312216156</c:v>
+                  <c:v>984.72074904972692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218.16603651800088</c:v>
+                  <c:v>981.747164331004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>217.50056214354254</c:v>
+                  <c:v>978.75252964594142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>216.82967140347631</c:v>
+                  <c:v>975.73352131564343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>216.15361049623894</c:v>
+                  <c:v>972.69124723307516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>215.47188702495697</c:v>
+                  <c:v>969.62349161230622</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>214.78450098963037</c:v>
+                  <c:v>966.53025445333662</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>214.09145239025921</c:v>
+                  <c:v>963.41153575616647</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>213.3924950284067</c:v>
+                  <c:v>960.26622762783006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>212.68738270563617</c:v>
+                  <c:v>957.09322217536271</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>211.97611542194761</c:v>
+                  <c:v>953.89251939876419</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>211.25820078046758</c:v>
+                  <c:v>950.66190351210389</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>210.53363878119603</c:v>
+                  <c:v>947.40137451538214</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209.80218322569627</c:v>
+                  <c:v>944.10982451563325</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>209.06383411396837</c:v>
+                  <c:v>940.78725351285755</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>208.31809904913879</c:v>
+                  <c:v>937.43144572112442</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>207.5647318327708</c:v>
+                  <c:v>934.0412932474685</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>206.80373246486451</c:v>
+                  <c:v>930.61679609189025</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>206.03436235010963</c:v>
+                  <c:v>927.15463057549334</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>205.25686768694297</c:v>
+                  <c:v>923.65590459124348</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>204.47075607849104</c:v>
+                  <c:v>920.11840235320949</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>203.67578132631715</c:v>
+                  <c:v>916.54101596842713</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>202.8714510335478</c:v>
+                  <c:v>912.92152965096511</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>202.05751900174639</c:v>
+                  <c:v>909.25883550785863</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>201.23349283403934</c:v>
+                  <c:v>905.55071775317697</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>200.39912633199</c:v>
+                  <c:v>901.79606849395498</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>199.5539270987249</c:v>
+                  <c:v>897.99267194426204</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>198.6974027373706</c:v>
+                  <c:v>894.13831231816766</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>197.82906085105367</c:v>
+                  <c:v>890.23077382974145</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>196.94865524133738</c:v>
+                  <c:v>886.26894858601827</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>196.05520111447493</c:v>
+                  <c:v>882.248405015137</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195.14820607359269</c:v>
+                  <c:v>878.16692733116713</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>194.22717772181733</c:v>
+                  <c:v>874.02229974817794</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>193.29137746383873</c:v>
+                  <c:v>869.81119858727425</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>192.33982050590993</c:v>
+                  <c:v>865.5291922765947</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>191.3720144511575</c:v>
+                  <c:v>861.17406503020868</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>191.15311668553016</c:v>
+                  <c:v>860.18902508488566</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>190.38697450583456</c:v>
+                  <c:v>856.74138527625553</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>189.38346967775749</c:v>
+                  <c:v>852.22561354990864</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>188.36051517317946</c:v>
+                  <c:v>847.62231827930748</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>187.31712619835349</c:v>
+                  <c:v>842.92706789259069</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>186.25182556265935</c:v>
+                  <c:v>838.13321503196698</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>185.40506707262836</c:v>
+                  <c:v>834.32280182682757</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>185.16313607547664</c:v>
+                  <c:v>833.23411233964487</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>184.04933434774836</c:v>
+                  <c:v>828.22200456486758</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>182.9089431888541</c:v>
+                  <c:v>823.09024434984326</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>181.73974681286342</c:v>
+                  <c:v>817.82886065788534</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>180.53952943384584</c:v>
+                  <c:v>812.42788245230622</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>179.30558286899745</c:v>
+                  <c:v>806.87512291048836</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>178.03519893551419</c:v>
+                  <c:v>801.15839520981376</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>176.72468465684534</c:v>
+                  <c:v>795.261080955804</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>175.37059325487681</c:v>
+                  <c:v>789.16766964694568</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>173.96800076087413</c:v>
+                  <c:v>782.85600342393366</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>172.5114908092294</c:v>
+                  <c:v>776.30170864153229</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>170.9949084390247</c:v>
+                  <c:v>769.47708797561097</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>169.41062149872147</c:v>
+                  <c:v>762.34779674424658</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>167.7490282492877</c:v>
+                  <c:v>754.87062712179454</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>165.99880356263418</c:v>
+                  <c:v>746.99461603185375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164.14492933412086</c:v>
+                  <c:v>738.65218200354389</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>162.16844828412025</c:v>
+                  <c:v>729.75801727854116</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>160.04449437052338</c:v>
+                  <c:v>720.2002246673552</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>157.73786121687914</c:v>
+                  <c:v>709.82037547595621</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>155.1990629374065</c:v>
+                  <c:v>698.39578321832914</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>152.35276281046862</c:v>
+                  <c:v>685.5874326471087</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>149.07536922083131</c:v>
+                  <c:v>670.83916149374079</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>145.14013340827398</c:v>
+                  <c:v>653.13060033723286</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>140.04505676032142</c:v>
+                  <c:v>630.20275542144634</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>132.1553816571425</c:v>
+                  <c:v>594.69921745714123</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>111.28440158094624</c:v>
+                  <c:v>500.77980711425806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,235 +2591,235 @@
             <c:numRef>
               <c:f>'N2O Pressure Calcs'!$H$4:$H$79</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>647.80249759524088</c:v>
+                  <c:v>1457.7522794547278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>653.08756481991622</c:v>
+                  <c:v>1460.7594728603826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>658.42511263818176</c:v>
+                  <c:v>1463.8021811196982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>663.81267020860707</c:v>
+                  <c:v>1466.8797192586039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>669.25147295190743</c:v>
+                  <c:v>1469.9924297641355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>674.7427562887982</c:v>
+                  <c:v>1473.1406551233276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>680.28485487999433</c:v>
+                  <c:v>1476.3218370632144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>685.88109940406548</c:v>
+                  <c:v>1479.5410921297268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>691.52917964387291</c:v>
+                  <c:v>1482.792538371004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>697.22974047727052</c:v>
+                  <c:v>1486.0794994659414</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>702.98503778640429</c:v>
+                  <c:v>1489.4015524956435</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>708.79238577055889</c:v>
+                  <c:v>1492.756904593075</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>714.65280489116503</c:v>
+                  <c:v>1496.1447903523062</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>720.56774552822242</c:v>
+                  <c:v>1499.5666601533367</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>726.53720768173116</c:v>
+                  <c:v>1503.0225139961665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>732.56242677240675</c:v>
+                  <c:v>1506.5126943678301</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>738.64028708096419</c:v>
+                  <c:v>1510.0331926153626</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>744.77368936740356</c:v>
+                  <c:v>1513.5869094987643</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>750.96365409315547</c:v>
+                  <c:v>1517.1730796121037</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>757.20728049822003</c:v>
+                  <c:v>1520.7888021953822</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>763.50725438331233</c:v>
+                  <c:v>1524.4358701156334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>769.86357574843237</c:v>
+                  <c:v>1528.1142833728577</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>776.27581467501068</c:v>
+                  <c:v>1531.8218261811244</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>782.74520658376287</c:v>
+                  <c:v>1535.5588410274686</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>789.27030109468853</c:v>
+                  <c:v>1539.3238775318903</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>795.85335408993365</c:v>
+                  <c:v>1543.1165127754934</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>802.49313014878294</c:v>
+                  <c:v>1546.9364042712434</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>809.190649732667</c:v>
+                  <c:v>1550.7827866132095</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>815.94569788230115</c:v>
+                  <c:v>1554.654551908427</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>822.75784467911581</c:v>
+                  <c:v>1558.5494843709653</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>829.6297759238264</c:v>
+                  <c:v>1562.4693768678585</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>836.55816093786336</c:v>
+                  <c:v>1566.409112853177</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>843.54713590194206</c:v>
+                  <c:v>1570.3719355739549</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>850.59337013749291</c:v>
+                  <c:v>1574.3527284842621</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>857.69788410594651</c:v>
+                  <c:v>1578.3507261781676</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>864.86169826873379</c:v>
+                  <c:v>1582.3651632497415</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>872.08604804656943</c:v>
+                  <c:v>1586.3963821860184</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>879.36717284231486</c:v>
+                  <c:v>1590.437050655137</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>886.70899387740064</c:v>
+                  <c:v>1594.489304011167</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>894.11108123325732</c:v>
+                  <c:v>1598.550926468178</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>901.5713396520307</c:v>
+                  <c:v>1602.6171439672744</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>909.09181005658195</c:v>
+                  <c:v>1606.6864256965946</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>916.67061214834143</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="0.0000">
-                  <c:v>918.36820652652568</c:v>
+                  <c:v>1610.7551054902087</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1611.6587826115524</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>924.30978685017044</c:v>
+                  <c:v>1614.8216525362554</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>932.00825936564547</c:v>
+                  <c:v>1618.8805273699086</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>939.76516985762748</c:v>
+                  <c:v>1622.9272984193076</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>947.58110886897748</c:v>
+                  <c:v>1626.9589844925908</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>955.4547866439874</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="0.0000">
-                  <c:v>961.62491917740169</c:v>
+                  <c:v>1630.9689382319671</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1634.0679741934941</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>963.38781418694862</c:v>
+                  <c:v>1634.9534130396448</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>971.37868678286839</c:v>
+                  <c:v>1638.9046536648675</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>979.42611467603808</c:v>
+                  <c:v>1642.8160127498431</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>987.52961361289545</c:v>
+                  <c:v>1646.6789696378855</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>995.68869933987787</c:v>
+                  <c:v>1650.4850036723062</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1003.9024576848534</c:v>
+                  <c:v>1654.2233784104883</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1012.1685240956901</c:v>
+                  <c:v>1657.8819070298136</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1020.4865749431173</c:v>
+                  <c:v>1661.446871895804</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1028.852150417149</c:v>
+                  <c:v>1664.9013121269459</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1037.2653024720901</c:v>
+                  <c:v>1668.2274210039336</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1045.7227523836773</c:v>
+                  <c:v>1671.4022752615324</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1054.2176757897928</c:v>
+                  <c:v>1674.396727195611</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1062.7492104726095</c:v>
+                  <c:v>1677.1822336442465</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1071.3075226400238</c:v>
+                  <c:v>1679.7141364017946</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1079.8870753049382</c:v>
+                  <c:v>1681.9458235318539</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1088.4776567109848</c:v>
+                  <c:v>1683.8126143235438</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1097.0627149932404</c:v>
+                  <c:v>1685.2292010185413</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1105.6248904039473</c:v>
+                  <c:v>1686.0880375673551</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1114.1392452853911</c:v>
+                  <c:v>1686.2364967959561</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1122.5625728213427</c:v>
+                  <c:v>1685.4518922183292</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1130.8392481306767</c:v>
+                  <c:v>1683.4053612471087</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1138.8642624124632</c:v>
+                  <c:v>1679.5436423737408</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1146.4497908254741</c:v>
+                  <c:v>1672.8565188372329</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1153.1691344281614</c:v>
+                  <c:v>1661.0965999214463</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1157.6181696499746</c:v>
+                  <c:v>1636.9306824171413</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1147.9642712462744</c:v>
+                  <c:v>1551.5801171142582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3970,8 +3979,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3983,44 +3992,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="D5" s="151" t="s">
+      <c r="B5" s="143"/>
+      <c r="D5" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="151"/>
+      <c r="E5" s="143"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4052,7 +4061,7 @@
       </c>
       <c r="E8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.24758573918060386</v>
+        <v>0.3421953447511793</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4060,14 +4069,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>0.11668179315760205</v>
+        <v>0.15780530538942372</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4082,7 +4091,7 @@
       </c>
       <c r="E10" s="13">
         <f>MAX(E8:E9)</f>
-        <v>0.24758573918060386</v>
+        <v>0.3421953447511793</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,21 +4105,21 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="143">
+      <c r="E12" s="135">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>0.11925060065034104</v>
+        <v>0.16254064878379706</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="145">
+      <c r="E13" s="137">
         <f>E12</f>
-        <v>0.11925060065034104</v>
+        <v>0.16254064878379706</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4122,51 +4131,51 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="58">
         <f>'N2O Pressure Calcs'!H53</f>
-        <v>961.62491917740169</v>
+        <v>1634.0679741934941</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="147">
+      <c r="B17" s="139">
         <f>B10*B16</f>
-        <v>1923.2498383548034</v>
+        <v>3268.1359483869883</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="148">
+      <c r="B19" s="140">
         <f>'N2O Pressure Calcs'!J53</f>
-        <v>1032.2008799630817</v>
+        <v>1951.6597977290542</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="21"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4174,23 +4183,23 @@
       <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4210,9 +4219,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,27 +4235,27 @@
     <col min="8" max="8" width="16" style="35" customWidth="1"/>
     <col min="9" max="9" width="22" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="46" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="159" t="s">
+      <c r="A1" s="73"/>
+      <c r="B1" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="46"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
       </c>
@@ -4276,15 +4285,15 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="153" t="s">
+      <c r="G2" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154" t="s">
+      <c r="H2" s="146"/>
+      <c r="I2" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="155"/>
-      <c r="K2" s="45"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
       </c>
@@ -4327,7 +4336,7 @@
       <c r="J3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="45"/>
       <c r="L3" t="s">
         <v>13</v>
       </c>
@@ -4358,20 +4367,20 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="36">
-        <f>C4*$M$3*($M$2+$M$4)</f>
-        <v>223.31823120327286</v>
-      </c>
-      <c r="H4" s="35">
-        <f t="shared" ref="H4:H46" si="0">B4+(C4*$M$3*$M$2)</f>
-        <v>647.80249759524088</v>
+        <f>C4*($M$3*$P$5)*($M$2+$M$4)</f>
+        <v>1004.9320404147279</v>
+      </c>
+      <c r="H4" s="172">
+        <f>B4+G4</f>
+        <v>1457.7522794547278</v>
       </c>
       <c r="I4" s="37">
-        <f t="shared" ref="I4:I46" si="1">C4*$M$3*$M$1</f>
-        <v>85.007917944096008</v>
+        <f>C4*($M$3*$P$5)*$M$1</f>
+        <v>382.53563074843203</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" ref="J4:J33" si="2">H4+I4</f>
-        <v>732.81041553933687</v>
+        <f t="shared" ref="J4:J67" si="0">H4+I4</f>
+        <v>1840.2879102031598</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4396,26 +4405,32 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="36">
-        <f t="shared" ref="G5:G68" si="3">C5*$M$3*($M$2+$M$4)</f>
-        <v>222.69017899119618</v>
-      </c>
-      <c r="H5" s="35">
+        <f t="shared" ref="G5:G68" si="1">C5*($M$3*$P$5)*($M$2+$M$4)</f>
+        <v>1002.1058054603827</v>
+      </c>
+      <c r="H5" s="172">
+        <f t="shared" ref="H5:H68" si="2">B5+G5</f>
+        <v>1460.7594728603826</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" ref="I5:I68" si="3">C5*($M$3*$P$5)*$M$1</f>
+        <v>381.45980121228001</v>
+      </c>
+      <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>653.08756481991622</v>
-      </c>
-      <c r="I5" s="37">
-        <f t="shared" si="1"/>
-        <v>84.768844713840011</v>
-      </c>
-      <c r="J5" s="35">
-        <f t="shared" si="2"/>
-        <v>737.85640953375628</v>
+        <v>1842.2192740726628</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
       </c>
       <c r="M5">
         <v>0.87815195180003003</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5">
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4434,20 +4449,20 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="36">
+        <f t="shared" si="1"/>
+        <v>999.25852053969811</v>
+      </c>
+      <c r="H6" s="172">
+        <f t="shared" si="2"/>
+        <v>1463.8021811196982</v>
+      </c>
+      <c r="I6" s="37">
         <f t="shared" si="3"/>
-        <v>222.05744900882178</v>
-      </c>
-      <c r="H6" s="35">
+        <v>380.37595883364003</v>
+      </c>
+      <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>658.42511263818176</v>
-      </c>
-      <c r="I6" s="37">
-        <f t="shared" si="1"/>
-        <v>84.527990851920009</v>
-      </c>
-      <c r="J6" s="35">
-        <f t="shared" si="2"/>
-        <v>742.95310349010174</v>
+        <v>1844.1781399533381</v>
       </c>
       <c r="L6" t="s">
         <v>37</v>
@@ -4472,25 +4487,25 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="36">
+        <f t="shared" si="1"/>
+        <v>996.392401438604</v>
+      </c>
+      <c r="H7" s="172">
+        <f t="shared" si="2"/>
+        <v>1466.8797192586039</v>
+      </c>
+      <c r="I7" s="37">
         <f t="shared" si="3"/>
-        <v>221.42053365302311</v>
-      </c>
-      <c r="H7" s="35">
+        <v>379.28494706961601</v>
+      </c>
+      <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>663.81267020860707</v>
-      </c>
-      <c r="I7" s="37">
-        <f t="shared" si="1"/>
-        <v>84.285543793247996</v>
-      </c>
-      <c r="J7" s="35">
-        <f t="shared" si="2"/>
-        <v>748.09821400185501</v>
-      </c>
-      <c r="L7" s="42" t="s">
+        <v>1846.1646663282199</v>
+      </c>
+      <c r="L7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="40">
         <f>M5*M6</f>
         <v>1.0976899397500375</v>
       </c>
@@ -4511,20 +4526,20 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="36">
+        <f t="shared" si="1"/>
+        <v>993.50634026413559</v>
+      </c>
+      <c r="H8" s="172">
+        <f t="shared" si="2"/>
+        <v>1469.9924297641355</v>
+      </c>
+      <c r="I8" s="37">
         <f t="shared" si="3"/>
-        <v>220.77918672536347</v>
-      </c>
-      <c r="H8" s="35">
+        <v>378.18634419165596</v>
+      </c>
+      <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>669.25147295190743</v>
-      </c>
-      <c r="I8" s="37">
-        <f t="shared" si="1"/>
-        <v>84.041409820368003</v>
-      </c>
-      <c r="J8" s="35">
-        <f t="shared" si="2"/>
-        <v>753.29288277227545</v>
+        <v>1848.1787739557915</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4543,20 +4558,20 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="36">
+        <f t="shared" si="1"/>
+        <v>990.59922912332752</v>
+      </c>
+      <c r="H9" s="172">
+        <f t="shared" si="2"/>
+        <v>1473.1406551233276</v>
+      </c>
+      <c r="I9" s="37">
         <f t="shared" si="3"/>
-        <v>220.13316202740614</v>
-      </c>
-      <c r="H9" s="35">
+        <v>377.079728471208</v>
+      </c>
+      <c r="J9" s="35">
         <f t="shared" si="0"/>
-        <v>674.7427562887982</v>
-      </c>
-      <c r="I9" s="37">
-        <f t="shared" si="1"/>
-        <v>83.795495215824019</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="2"/>
-        <v>758.53825150462217</v>
+        <v>1850.2203835945356</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4575,20 +4590,20 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="36">
+        <f t="shared" si="1"/>
+        <v>987.66996012321454</v>
+      </c>
+      <c r="H10" s="172">
+        <f t="shared" si="2"/>
+        <v>1476.3218370632144</v>
+      </c>
+      <c r="I10" s="37">
         <f t="shared" si="3"/>
-        <v>219.48221336071435</v>
-      </c>
-      <c r="H10" s="35">
+        <v>375.96467817972001</v>
+      </c>
+      <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>680.28485487999433</v>
-      </c>
-      <c r="I10" s="37">
-        <f t="shared" si="1"/>
-        <v>83.547706262160006</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="2"/>
-        <v>763.8325611421543</v>
+        <v>1852.2865152429345</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4607,20 +4622,20 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="36">
+        <f t="shared" si="1"/>
+        <v>984.72074904972692</v>
+      </c>
+      <c r="H11" s="172">
+        <f t="shared" si="2"/>
+        <v>1479.5410921297268</v>
+      </c>
+      <c r="I11" s="37">
         <f t="shared" si="3"/>
-        <v>218.82683312216156</v>
-      </c>
-      <c r="H11" s="35">
+        <v>374.84203677429599</v>
+      </c>
+      <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>685.88109940406548</v>
-      </c>
-      <c r="I11" s="37">
-        <f t="shared" si="1"/>
-        <v>83.298230394287998</v>
-      </c>
-      <c r="J11" s="35">
-        <f t="shared" si="2"/>
-        <v>769.17932979835348</v>
+        <v>1854.3831289040229</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4639,20 +4654,20 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="36">
+        <f t="shared" si="1"/>
+        <v>981.747164331004</v>
+      </c>
+      <c r="H12" s="172">
+        <f t="shared" si="2"/>
+        <v>1482.792538371004</v>
+      </c>
+      <c r="I12" s="37">
         <f t="shared" si="3"/>
-        <v>218.16603651800088</v>
-      </c>
-      <c r="H12" s="35">
+        <v>373.710117340728</v>
+      </c>
+      <c r="J12" s="35">
         <f t="shared" si="0"/>
-        <v>691.52917964387291</v>
-      </c>
-      <c r="I12" s="37">
-        <f t="shared" si="1"/>
-        <v>83.046692742383996</v>
-      </c>
-      <c r="J12" s="35">
-        <f t="shared" si="2"/>
-        <v>774.57587238625695</v>
+        <v>1856.5026557117319</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4671,20 +4686,20 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="36">
+        <f t="shared" si="1"/>
+        <v>978.75252964594142</v>
+      </c>
+      <c r="H13" s="172">
+        <f t="shared" si="2"/>
+        <v>1486.0794994659414</v>
+      </c>
+      <c r="I13" s="37">
         <f t="shared" si="3"/>
-        <v>217.50056214354254</v>
-      </c>
-      <c r="H13" s="35">
+        <v>372.57018506467205</v>
+      </c>
+      <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>697.22974047727052</v>
-      </c>
-      <c r="I13" s="37">
-        <f t="shared" si="1"/>
-        <v>82.793374458816004</v>
-      </c>
-      <c r="J13" s="35">
-        <f t="shared" si="2"/>
-        <v>780.02311493608659</v>
+        <v>1858.6496845306133</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4703,20 +4718,20 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="36">
+        <f t="shared" si="1"/>
+        <v>975.73352131564343</v>
+      </c>
+      <c r="H14" s="172">
+        <f t="shared" si="2"/>
+        <v>1489.4015524956435</v>
+      </c>
+      <c r="I14" s="37">
         <f t="shared" si="3"/>
-        <v>216.82967140347631</v>
-      </c>
-      <c r="H14" s="35">
+        <v>371.42097476047206</v>
+      </c>
+      <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>702.98503778640429</v>
-      </c>
-      <c r="I14" s="37">
-        <f t="shared" si="1"/>
-        <v>82.537994391216003</v>
-      </c>
-      <c r="J14" s="35">
-        <f t="shared" si="2"/>
-        <v>785.52303217762028</v>
+        <v>1860.8225272561156</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4735,20 +4750,20 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="36">
+        <f t="shared" si="1"/>
+        <v>972.69124723307516</v>
+      </c>
+      <c r="H15" s="172">
+        <f t="shared" si="2"/>
+        <v>1492.756904593075</v>
+      </c>
+      <c r="I15" s="37">
         <f t="shared" si="3"/>
-        <v>216.15361049623894</v>
-      </c>
-      <c r="H15" s="35">
+        <v>370.26290815668</v>
+      </c>
+      <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>708.79238577055889</v>
-      </c>
-      <c r="I15" s="37">
-        <f t="shared" si="1"/>
-        <v>82.280646257040004</v>
-      </c>
-      <c r="J15" s="35">
-        <f t="shared" si="2"/>
-        <v>791.07303202759886</v>
+        <v>1863.0198127497549</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4767,20 +4782,20 @@
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="36">
+        <f t="shared" si="1"/>
+        <v>969.62349161230622</v>
+      </c>
+      <c r="H16" s="172">
+        <f t="shared" si="2"/>
+        <v>1496.1447903523062</v>
+      </c>
+      <c r="I16" s="37">
         <f t="shared" si="3"/>
-        <v>215.47188702495697</v>
-      </c>
-      <c r="H16" s="35">
+        <v>369.09514179619202</v>
+      </c>
+      <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>714.65280489116503</v>
-      </c>
-      <c r="I16" s="37">
-        <f t="shared" si="1"/>
-        <v>82.021142621376015</v>
-      </c>
-      <c r="J16" s="35">
-        <f t="shared" si="2"/>
-        <v>796.67394751254108</v>
+        <v>1865.2399321484982</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4799,20 +4814,20 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="36">
+        <f t="shared" si="1"/>
+        <v>966.53025445333662</v>
+      </c>
+      <c r="H17" s="172">
+        <f t="shared" si="2"/>
+        <v>1499.5666601533367</v>
+      </c>
+      <c r="I17" s="37">
         <f t="shared" si="3"/>
-        <v>214.78450098963037</v>
-      </c>
-      <c r="H17" s="35">
+        <v>367.91767567900803</v>
+      </c>
+      <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>720.56774552822242</v>
-      </c>
-      <c r="I17" s="37">
-        <f t="shared" si="1"/>
-        <v>81.759483484224006</v>
-      </c>
-      <c r="J17" s="35">
-        <f t="shared" si="2"/>
-        <v>802.32722901244642</v>
+        <v>1867.4843358323446</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4831,20 +4846,20 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="36">
+        <f t="shared" si="1"/>
+        <v>963.41153575616647</v>
+      </c>
+      <c r="H18" s="172">
+        <f t="shared" si="2"/>
+        <v>1503.0225139961665</v>
+      </c>
+      <c r="I18" s="37">
         <f t="shared" si="3"/>
-        <v>214.09145239025921</v>
-      </c>
-      <c r="H18" s="35">
+        <v>366.73050980512807</v>
+      </c>
+      <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>726.53720768173116</v>
-      </c>
-      <c r="I18" s="37">
-        <f t="shared" si="1"/>
-        <v>81.495668845584021</v>
-      </c>
-      <c r="J18" s="35">
-        <f t="shared" si="2"/>
-        <v>808.03287652731524</v>
+        <v>1869.7530238012946</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4863,20 +4878,20 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="36">
+        <f t="shared" si="1"/>
+        <v>960.26622762783006</v>
+      </c>
+      <c r="H19" s="172">
+        <f t="shared" si="2"/>
+        <v>1506.5126943678301</v>
+      </c>
+      <c r="I19" s="37">
         <f t="shared" si="3"/>
-        <v>213.3924950284067</v>
-      </c>
-      <c r="H19" s="35">
+        <v>365.53322244599997</v>
+      </c>
+      <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>732.56242677240675</v>
-      </c>
-      <c r="I19" s="37">
-        <f t="shared" si="1"/>
-        <v>81.229604988000006</v>
-      </c>
-      <c r="J19" s="35">
-        <f t="shared" si="2"/>
-        <v>813.79203176040676</v>
+        <v>1872.04591681383</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4895,20 +4910,20 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="36">
+        <f t="shared" si="1"/>
+        <v>957.09322217536271</v>
+      </c>
+      <c r="H20" s="172">
+        <f t="shared" si="2"/>
+        <v>1510.0331926153626</v>
+      </c>
+      <c r="I20" s="37">
         <f t="shared" si="3"/>
-        <v>212.68738270563617</v>
-      </c>
-      <c r="H20" s="35">
+        <v>364.32539187307202</v>
+      </c>
+      <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>738.64028708096419</v>
-      </c>
-      <c r="I20" s="37">
-        <f t="shared" si="1"/>
-        <v>80.961198194015992</v>
-      </c>
-      <c r="J20" s="35">
-        <f t="shared" si="2"/>
-        <v>819.60148527498018</v>
+        <v>1874.3585844884346</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4927,20 +4942,20 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="36">
+        <f t="shared" si="1"/>
+        <v>953.89251939876419</v>
+      </c>
+      <c r="H21" s="172">
+        <f t="shared" si="2"/>
+        <v>1513.5869094987643</v>
+      </c>
+      <c r="I21" s="37">
         <f t="shared" si="3"/>
-        <v>211.97611542194761</v>
-      </c>
-      <c r="H21" s="35">
+        <v>363.107018086344</v>
+      </c>
+      <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>744.77368936740356</v>
-      </c>
-      <c r="I21" s="37">
-        <f t="shared" si="1"/>
-        <v>80.690448463632009</v>
-      </c>
-      <c r="J21" s="35">
-        <f t="shared" si="2"/>
-        <v>825.4641378310356</v>
+        <v>1876.6939275851082</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4959,20 +4974,20 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="36">
+        <f t="shared" si="1"/>
+        <v>950.66190351210389</v>
+      </c>
+      <c r="H22" s="172">
+        <f t="shared" si="2"/>
+        <v>1517.1730796121037</v>
+      </c>
+      <c r="I22" s="37">
         <f t="shared" si="3"/>
-        <v>211.25820078046758</v>
-      </c>
-      <c r="H22" s="35">
+        <v>361.87725762871196</v>
+      </c>
+      <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>750.96365409315547</v>
-      </c>
-      <c r="I22" s="37">
-        <f t="shared" si="1"/>
-        <v>80.417168361936007</v>
-      </c>
-      <c r="J22" s="35">
-        <f t="shared" si="2"/>
-        <v>831.38082245509145</v>
+        <v>1879.0503372408157</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4991,20 +5006,20 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="36">
+        <f t="shared" si="1"/>
+        <v>947.40137451538214</v>
+      </c>
+      <c r="H23" s="172">
+        <f t="shared" si="2"/>
+        <v>1520.7888021953822</v>
+      </c>
+      <c r="I23" s="37">
         <f t="shared" si="3"/>
-        <v>210.53363878119603</v>
-      </c>
-      <c r="H23" s="35">
+        <v>360.63611050017607</v>
+      </c>
+      <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>757.20728049822003</v>
-      </c>
-      <c r="I23" s="37">
-        <f t="shared" si="1"/>
-        <v>80.141357888928013</v>
-      </c>
-      <c r="J23" s="35">
-        <f t="shared" si="2"/>
-        <v>837.34863838714807</v>
+        <v>1881.4249126955583</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5023,20 +5038,20 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="36">
+        <f t="shared" si="1"/>
+        <v>944.10982451563325</v>
+      </c>
+      <c r="H24" s="172">
+        <f t="shared" si="2"/>
+        <v>1524.4358701156334</v>
+      </c>
+      <c r="I24" s="37">
         <f t="shared" si="3"/>
-        <v>209.80218322569627</v>
-      </c>
-      <c r="H24" s="35">
+        <v>359.383154972184</v>
+      </c>
+      <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>763.50725438331233</v>
-      </c>
-      <c r="I24" s="37">
-        <f t="shared" si="1"/>
-        <v>79.862923327152004</v>
-      </c>
-      <c r="J24" s="35">
-        <f t="shared" si="2"/>
-        <v>843.3701777104643</v>
+        <v>1883.8190250878174</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5055,20 +5070,20 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="36">
+        <f t="shared" si="1"/>
+        <v>940.78725351285755</v>
+      </c>
+      <c r="H25" s="172">
+        <f t="shared" si="2"/>
+        <v>1528.1142833728577</v>
+      </c>
+      <c r="I25" s="37">
         <f t="shared" si="3"/>
-        <v>209.06383411396837</v>
-      </c>
-      <c r="H25" s="35">
+        <v>358.11839104473603</v>
+      </c>
+      <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>769.86357574843237</v>
-      </c>
-      <c r="I25" s="37">
-        <f t="shared" si="1"/>
-        <v>79.581864676608006</v>
-      </c>
-      <c r="J25" s="35">
-        <f t="shared" si="2"/>
-        <v>849.44544042504037</v>
+        <v>1886.2326744175937</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5087,20 +5102,20 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="36">
-        <f>C26*$M$3*($M$2+$M$4)</f>
-        <v>208.31809904913879</v>
-      </c>
-      <c r="H26" s="35">
+        <f t="shared" si="1"/>
+        <v>937.43144572112442</v>
+      </c>
+      <c r="H26" s="172">
+        <f t="shared" si="2"/>
+        <v>1531.8218261811244</v>
+      </c>
+      <c r="I26" s="37">
+        <f t="shared" si="3"/>
+        <v>356.84097526072804</v>
+      </c>
+      <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>776.27581467501068</v>
-      </c>
-      <c r="I26" s="37">
-        <f t="shared" si="1"/>
-        <v>79.297994502384014</v>
-      </c>
-      <c r="J26" s="35">
-        <f t="shared" si="2"/>
-        <v>855.57380917739465</v>
+        <v>1888.6628014418525</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5119,20 +5134,20 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="36">
+        <f t="shared" si="1"/>
+        <v>934.0412932474685</v>
+      </c>
+      <c r="H27" s="172">
+        <f t="shared" si="2"/>
+        <v>1535.5588410274686</v>
+      </c>
+      <c r="I27" s="37">
         <f t="shared" si="3"/>
-        <v>207.5647318327708</v>
-      </c>
-      <c r="H27" s="35">
+        <v>355.55048589160799</v>
+      </c>
+      <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>782.74520658376287</v>
-      </c>
-      <c r="I27" s="37">
-        <f t="shared" si="1"/>
-        <v>79.011219087024003</v>
-      </c>
-      <c r="J27" s="35">
-        <f t="shared" si="2"/>
-        <v>861.75642567078683</v>
+        <v>1891.1093269190765</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5151,20 +5166,20 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="36">
+        <f t="shared" si="1"/>
+        <v>930.61679609189025</v>
+      </c>
+      <c r="H28" s="172">
+        <f t="shared" si="2"/>
+        <v>1539.3238775318903</v>
+      </c>
+      <c r="I28" s="37">
         <f t="shared" si="3"/>
-        <v>206.80373246486451</v>
-      </c>
-      <c r="H28" s="35">
+        <v>354.24692293737604</v>
+      </c>
+      <c r="J28" s="35">
         <f t="shared" si="0"/>
-        <v>789.27030109468853</v>
-      </c>
-      <c r="I28" s="37">
-        <f t="shared" si="1"/>
-        <v>78.721538430528014</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" si="2"/>
-        <v>867.99183952521651</v>
+        <v>1893.5708004692663</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5183,20 +5198,20 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="36">
+        <f t="shared" si="1"/>
+        <v>927.15463057549334</v>
+      </c>
+      <c r="H29" s="172">
+        <f t="shared" si="2"/>
+        <v>1543.1165127754934</v>
+      </c>
+      <c r="I29" s="37">
         <f t="shared" si="3"/>
-        <v>206.03436235010963</v>
-      </c>
-      <c r="H29" s="35">
+        <v>352.92902121237603</v>
+      </c>
+      <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>795.85335408993365</v>
-      </c>
-      <c r="I29" s="37">
-        <f t="shared" si="1"/>
-        <v>78.428671380528002</v>
-      </c>
-      <c r="J29" s="35">
-        <f t="shared" si="2"/>
-        <v>874.28202547046169</v>
+        <v>1896.0455339878695</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5215,20 +5230,20 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="36">
+        <f t="shared" si="1"/>
+        <v>923.65590459124348</v>
+      </c>
+      <c r="H30" s="172">
+        <f t="shared" si="2"/>
+        <v>1546.9364042712434</v>
+      </c>
+      <c r="I30" s="37">
         <f t="shared" si="3"/>
-        <v>205.25686768694297</v>
-      </c>
-      <c r="H30" s="35">
+        <v>351.59720244516006</v>
+      </c>
+      <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>802.49313014878294</v>
-      </c>
-      <c r="I30" s="37">
-        <f t="shared" si="1"/>
-        <v>78.132711654480005</v>
-      </c>
-      <c r="J30" s="35">
-        <f t="shared" si="2"/>
-        <v>880.62584180326292</v>
+        <v>1898.5336067164035</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5247,20 +5262,20 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="36">
+        <f t="shared" si="1"/>
+        <v>920.11840235320949</v>
+      </c>
+      <c r="H31" s="172">
+        <f t="shared" si="2"/>
+        <v>1550.7827866132095</v>
+      </c>
+      <c r="I31" s="37">
         <f t="shared" si="3"/>
-        <v>204.47075607849104</v>
-      </c>
-      <c r="H31" s="35">
+        <v>350.25062317862398</v>
+      </c>
+      <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>809.190649732667</v>
-      </c>
-      <c r="I31" s="37">
-        <f t="shared" si="1"/>
-        <v>77.833471817472002</v>
-      </c>
-      <c r="J31" s="35">
-        <f t="shared" si="2"/>
-        <v>887.02412155013894</v>
+        <v>1901.0334097918335</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5279,20 +5294,20 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="36">
+        <f t="shared" si="1"/>
+        <v>916.54101596842713</v>
+      </c>
+      <c r="H32" s="172">
+        <f t="shared" si="2"/>
+        <v>1554.654551908427</v>
+      </c>
+      <c r="I32" s="37">
         <f t="shared" si="3"/>
-        <v>203.67578132631715</v>
-      </c>
-      <c r="H32" s="35">
+        <v>348.88886168421601</v>
+      </c>
+      <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>815.94569788230115</v>
-      </c>
-      <c r="I32" s="37">
-        <f t="shared" si="1"/>
-        <v>77.530858152048012</v>
-      </c>
-      <c r="J32" s="35">
-        <f t="shared" si="2"/>
-        <v>893.47655603434919</v>
+        <v>1903.543413592643</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5311,20 +5326,20 @@
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="36">
+        <f t="shared" si="1"/>
+        <v>912.92152965096511</v>
+      </c>
+      <c r="H33" s="172">
+        <f t="shared" si="2"/>
+        <v>1558.5494843709653</v>
+      </c>
+      <c r="I33" s="37">
         <f t="shared" si="3"/>
-        <v>202.8714510335478</v>
-      </c>
-      <c r="H33" s="35">
+        <v>347.51107450483198</v>
+      </c>
+      <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>822.75784467911581</v>
-      </c>
-      <c r="I33" s="37">
-        <f t="shared" si="1"/>
-        <v>77.224683223295997</v>
-      </c>
-      <c r="J33" s="35">
-        <f t="shared" si="2"/>
-        <v>899.98252790241179</v>
+        <v>1906.0605588757971</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5343,20 +5358,20 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="36">
+        <f t="shared" si="1"/>
+        <v>909.25883550785863</v>
+      </c>
+      <c r="H34" s="172">
+        <f t="shared" si="2"/>
+        <v>1562.4693768678585</v>
+      </c>
+      <c r="I34" s="37">
         <f t="shared" si="3"/>
-        <v>202.05751900174639</v>
-      </c>
-      <c r="H34" s="35">
+        <v>346.11683991192001</v>
+      </c>
+      <c r="J34" s="35">
         <f t="shared" si="0"/>
-        <v>829.6297759238264</v>
-      </c>
-      <c r="I34" s="37">
-        <f t="shared" si="1"/>
-        <v>76.914853313760005</v>
-      </c>
-      <c r="J34" s="35">
-        <f t="shared" ref="J34:J79" si="4">H34+I34</f>
-        <v>906.54462923758638</v>
+        <v>1908.5862167797786</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5375,20 +5390,20 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="36">
+        <f t="shared" si="1"/>
+        <v>905.55071775317697</v>
+      </c>
+      <c r="H35" s="172">
+        <f t="shared" si="2"/>
+        <v>1566.409112853177</v>
+      </c>
+      <c r="I35" s="37">
         <f t="shared" si="3"/>
-        <v>201.23349283403934</v>
-      </c>
-      <c r="H35" s="35">
+        <v>344.70531444837599</v>
+      </c>
+      <c r="J35" s="35">
         <f t="shared" si="0"/>
-        <v>836.55816093786336</v>
-      </c>
-      <c r="I35" s="37">
-        <f t="shared" si="1"/>
-        <v>76.601180988528014</v>
-      </c>
-      <c r="J35" s="35">
-        <f t="shared" si="4"/>
-        <v>913.15934192639133</v>
+        <v>1911.114427301553</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5407,20 +5422,20 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="36">
+        <f t="shared" si="1"/>
+        <v>901.79606849395498</v>
+      </c>
+      <c r="H36" s="172">
+        <f t="shared" si="2"/>
+        <v>1570.3719355739549</v>
+      </c>
+      <c r="I36" s="37">
         <f t="shared" si="3"/>
-        <v>200.39912633199</v>
-      </c>
-      <c r="H36" s="35">
+        <v>343.27607638564803</v>
+      </c>
+      <c r="J36" s="35">
         <f t="shared" si="0"/>
-        <v>843.54713590194206</v>
-      </c>
-      <c r="I36" s="37">
-        <f t="shared" si="1"/>
-        <v>76.283572530144014</v>
-      </c>
-      <c r="J36" s="35">
-        <f t="shared" si="4"/>
-        <v>919.83070843208611</v>
+        <v>1913.6480119596031</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5439,20 +5454,20 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="36">
+        <f t="shared" si="1"/>
+        <v>897.99267194426204</v>
+      </c>
+      <c r="H37" s="172">
+        <f t="shared" si="2"/>
+        <v>1574.3527284842621</v>
+      </c>
+      <c r="I37" s="37">
         <f t="shared" si="3"/>
-        <v>199.5539270987249</v>
-      </c>
-      <c r="H37" s="35">
+        <v>341.82828226663207</v>
+      </c>
+      <c r="J37" s="35">
         <f t="shared" si="0"/>
-        <v>850.59337013749291</v>
-      </c>
-      <c r="I37" s="37">
-        <f t="shared" si="1"/>
-        <v>75.96184050369601</v>
-      </c>
-      <c r="J37" s="35">
-        <f t="shared" si="4"/>
-        <v>926.55521064118898</v>
+        <v>1916.1810107508941</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5471,20 +5486,20 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="36">
+        <f t="shared" si="1"/>
+        <v>894.13831231816766</v>
+      </c>
+      <c r="H38" s="172">
+        <f t="shared" si="2"/>
+        <v>1578.3507261781676</v>
+      </c>
+      <c r="I38" s="37">
         <f t="shared" si="3"/>
-        <v>198.6974027373706</v>
-      </c>
-      <c r="H38" s="35">
+        <v>340.36108863422402</v>
+      </c>
+      <c r="J38" s="35">
         <f t="shared" si="0"/>
-        <v>857.69788410594651</v>
-      </c>
-      <c r="I38" s="37">
-        <f t="shared" si="1"/>
-        <v>75.63579747427201</v>
-      </c>
-      <c r="J38" s="35">
-        <f t="shared" si="4"/>
-        <v>933.33368158021858</v>
+        <v>1918.7118148123916</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -5503,20 +5518,20 @@
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="36">
+        <f t="shared" si="1"/>
+        <v>890.23077382974145</v>
+      </c>
+      <c r="H39" s="172">
+        <f t="shared" si="2"/>
+        <v>1582.3651632497415</v>
+      </c>
+      <c r="I39" s="37">
         <f t="shared" si="3"/>
-        <v>197.82906085105367</v>
-      </c>
-      <c r="H39" s="35">
+        <v>338.87365203131998</v>
+      </c>
+      <c r="J39" s="35">
         <f t="shared" si="0"/>
-        <v>864.86169826873379</v>
-      </c>
-      <c r="I39" s="37">
-        <f t="shared" si="1"/>
-        <v>75.305256006960008</v>
-      </c>
-      <c r="J39" s="35">
-        <f t="shared" si="4"/>
-        <v>940.1669542756938</v>
+        <v>1921.2388152810615</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5535,20 +5550,20 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="36">
+        <f t="shared" si="1"/>
+        <v>886.26894858601827</v>
+      </c>
+      <c r="H40" s="172">
+        <f t="shared" si="2"/>
+        <v>1586.3963821860184</v>
+      </c>
+      <c r="I40" s="37">
         <f t="shared" si="3"/>
-        <v>196.94865524133738</v>
-      </c>
-      <c r="H40" s="35">
+        <v>337.36555072936801</v>
+      </c>
+      <c r="J40" s="35">
         <f t="shared" si="0"/>
-        <v>872.08604804656943</v>
-      </c>
-      <c r="I40" s="37">
-        <f t="shared" si="1"/>
-        <v>74.970122384304005</v>
-      </c>
-      <c r="J40" s="35">
-        <f t="shared" si="4"/>
-        <v>947.05617043087341</v>
+        <v>1923.7619329153863</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5567,20 +5582,20 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="36">
+        <f t="shared" si="1"/>
+        <v>882.248405015137</v>
+      </c>
+      <c r="H41" s="172">
+        <f t="shared" si="2"/>
+        <v>1590.437050655137</v>
+      </c>
+      <c r="I41" s="37">
         <f t="shared" si="3"/>
-        <v>196.05520111447493</v>
-      </c>
-      <c r="H41" s="35">
+        <v>335.83509781416001</v>
+      </c>
+      <c r="J41" s="35">
         <f t="shared" si="0"/>
-        <v>879.36717284231486</v>
-      </c>
-      <c r="I41" s="37">
-        <f t="shared" si="1"/>
-        <v>74.630021736480018</v>
-      </c>
-      <c r="J41" s="35">
-        <f t="shared" si="4"/>
-        <v>953.99719457879485</v>
+        <v>1926.272148469297</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -5599,20 +5614,20 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="36">
+        <f t="shared" si="1"/>
+        <v>878.16692733116713</v>
+      </c>
+      <c r="H42" s="172">
+        <f t="shared" si="2"/>
+        <v>1594.489304011167</v>
+      </c>
+      <c r="I42" s="37">
         <f t="shared" si="3"/>
-        <v>195.14820607359269</v>
-      </c>
-      <c r="H42" s="35">
+        <v>334.28144982859203</v>
+      </c>
+      <c r="J42" s="35">
         <f t="shared" si="0"/>
-        <v>886.70899387740064</v>
-      </c>
-      <c r="I42" s="37">
-        <f t="shared" si="1"/>
-        <v>74.284766628575994</v>
-      </c>
-      <c r="J42" s="35">
-        <f t="shared" si="4"/>
-        <v>960.99376050597664</v>
+        <v>1928.770753839759</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -5631,20 +5646,20 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="36">
+        <f t="shared" si="1"/>
+        <v>874.02229974817794</v>
+      </c>
+      <c r="H43" s="172">
+        <f t="shared" si="2"/>
+        <v>1598.550926468178</v>
+      </c>
+      <c r="I43" s="37">
         <f t="shared" si="3"/>
-        <v>194.22717772181733</v>
-      </c>
-      <c r="H43" s="35">
+        <v>332.70376331555997</v>
+      </c>
+      <c r="J43" s="35">
         <f t="shared" si="0"/>
-        <v>894.11108123325732</v>
-      </c>
-      <c r="I43" s="37">
-        <f t="shared" si="1"/>
-        <v>73.934169625679999</v>
-      </c>
-      <c r="J43" s="35">
-        <f t="shared" si="4"/>
-        <v>968.04525085893738</v>
+        <v>1931.2546897837378</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5663,20 +5678,20 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="36">
+        <f t="shared" si="1"/>
+        <v>869.81119858727425</v>
+      </c>
+      <c r="H44" s="172">
+        <f t="shared" si="2"/>
+        <v>1602.6171439672744</v>
+      </c>
+      <c r="I44" s="37">
         <f t="shared" si="3"/>
-        <v>193.29137746383873</v>
-      </c>
-      <c r="H44" s="35">
+        <v>331.10077308940799</v>
+      </c>
+      <c r="J44" s="35">
         <f t="shared" si="0"/>
-        <v>901.5713396520307</v>
-      </c>
-      <c r="I44" s="37">
-        <f t="shared" si="1"/>
-        <v>73.577949575424014</v>
-      </c>
-      <c r="J44" s="35">
-        <f t="shared" si="4"/>
-        <v>975.14928922745469</v>
+        <v>1933.7179170566824</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5695,20 +5710,20 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="36">
+        <f t="shared" si="1"/>
+        <v>865.5291922765947</v>
+      </c>
+      <c r="H45" s="172">
+        <f t="shared" si="2"/>
+        <v>1606.6864256965946</v>
+      </c>
+      <c r="I45" s="37">
         <f t="shared" si="3"/>
-        <v>192.33982050590993</v>
-      </c>
-      <c r="H45" s="35">
+        <v>329.470792235928</v>
+      </c>
+      <c r="J45" s="35">
         <f t="shared" si="0"/>
-        <v>909.09181005658195</v>
-      </c>
-      <c r="I45" s="37">
-        <f t="shared" si="1"/>
-        <v>73.215731607984011</v>
-      </c>
-      <c r="J45" s="35">
-        <f t="shared" si="4"/>
-        <v>982.30754166456597</v>
+        <v>1936.1572179325226</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -5727,60 +5742,60 @@
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="36">
+        <f t="shared" si="1"/>
+        <v>861.17406503020868</v>
+      </c>
+      <c r="H46" s="172">
+        <f t="shared" si="2"/>
+        <v>1610.7551054902087</v>
+      </c>
+      <c r="I46" s="37">
         <f t="shared" si="3"/>
-        <v>191.3720144511575</v>
-      </c>
-      <c r="H46" s="35">
+        <v>327.81297729801599</v>
+      </c>
+      <c r="J46" s="35">
         <f t="shared" si="0"/>
-        <v>916.67061214834143</v>
-      </c>
-      <c r="I46" s="37">
-        <f t="shared" si="1"/>
-        <v>72.847328288447997</v>
-      </c>
-      <c r="J46" s="35">
-        <f t="shared" si="4"/>
-        <v>989.51794043678944</v>
+        <v>1938.5680827882247</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="65">
+      <c r="A47" s="63">
         <v>70</v>
       </c>
-      <c r="B47" s="66">
+      <c r="B47" s="64">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="41">
         <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>1.5065010984888887</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="42">
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="36">
-        <f>G46+(((G48-G46)/($A$48-$A$46))*($A$47-$A$46))</f>
-        <v>191.15311668553016</v>
-      </c>
-      <c r="H47" s="43">
-        <f t="shared" ref="H47:J47" si="5">H46+(((H48-H46)/($A$48-$A$46))*($A$47-$A$46))</f>
-        <v>918.36820652652568</v>
-      </c>
-      <c r="I47" s="40">
-        <f t="shared" si="5"/>
-        <v>72.764003057013326</v>
-      </c>
-      <c r="J47" s="43">
-        <f t="shared" si="5"/>
-        <v>991.13220958353895</v>
-      </c>
-      <c r="K47" s="41" t="s">
+        <f t="shared" si="1"/>
+        <v>860.18902508488566</v>
+      </c>
+      <c r="H47" s="172">
+        <f t="shared" si="2"/>
+        <v>1611.6587826115524</v>
+      </c>
+      <c r="I47" s="37">
+        <f t="shared" si="3"/>
+        <v>327.43801375655994</v>
+      </c>
+      <c r="J47" s="35">
+        <f t="shared" si="0"/>
+        <v>1939.0967963681123</v>
+      </c>
+      <c r="K47" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="51"/>
+      <c r="L47" s="49"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
@@ -5798,20 +5813,20 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="36">
+        <f t="shared" si="1"/>
+        <v>856.74138527625553</v>
+      </c>
+      <c r="H48" s="172">
+        <f t="shared" si="2"/>
+        <v>1614.8216525362554</v>
+      </c>
+      <c r="I48" s="37">
         <f t="shared" si="3"/>
-        <v>190.38697450583456</v>
-      </c>
-      <c r="H48" s="35">
-        <f>B48+(C48*$M$3*$M$2)</f>
-        <v>924.30978685017044</v>
-      </c>
-      <c r="I48" s="37">
-        <f>C48*$M$3*$M$1</f>
-        <v>72.472364746992</v>
+        <v>326.12564136146403</v>
       </c>
       <c r="J48" s="35">
-        <f t="shared" si="4"/>
-        <v>996.7821515971624</v>
+        <f t="shared" si="0"/>
+        <v>1940.9472938977194</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5830,20 +5845,20 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="36">
+        <f t="shared" si="1"/>
+        <v>852.22561354990864</v>
+      </c>
+      <c r="H49" s="172">
+        <f t="shared" si="2"/>
+        <v>1618.8805273699086</v>
+      </c>
+      <c r="I49" s="37">
         <f t="shared" si="3"/>
-        <v>189.38346967775749</v>
-      </c>
-      <c r="H49" s="35">
-        <f>B49+(C49*$M$3*$M$2)</f>
-        <v>932.00825936564547</v>
-      </c>
-      <c r="I49" s="37">
-        <f>C49*$M$3*$M$1</f>
-        <v>72.090372396335994</v>
+        <v>324.40667578351196</v>
       </c>
       <c r="J49" s="35">
-        <f t="shared" si="4"/>
-        <v>1004.0986317619814</v>
+        <f t="shared" si="0"/>
+        <v>1943.2872031534205</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5862,20 +5877,20 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="36">
+        <f t="shared" si="1"/>
+        <v>847.62231827930748</v>
+      </c>
+      <c r="H50" s="172">
+        <f t="shared" si="2"/>
+        <v>1622.9272984193076</v>
+      </c>
+      <c r="I50" s="37">
         <f t="shared" si="3"/>
-        <v>188.36051517317946</v>
-      </c>
-      <c r="H50" s="35">
-        <f>B50+(C50*$M$3*$M$2)</f>
-        <v>939.76516985762748</v>
-      </c>
-      <c r="I50" s="37">
-        <f>C50*$M$3*$M$1</f>
-        <v>71.700976366656008</v>
+        <v>322.654393649952</v>
       </c>
       <c r="J50" s="35">
-        <f t="shared" si="4"/>
-        <v>1011.4661462242835</v>
+        <f t="shared" si="0"/>
+        <v>1945.5816920692596</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5894,20 +5909,20 @@
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="36">
+        <f t="shared" si="1"/>
+        <v>842.92706789259069</v>
+      </c>
+      <c r="H51" s="172">
+        <f t="shared" si="2"/>
+        <v>1626.9589844925908</v>
+      </c>
+      <c r="I51" s="37">
         <f t="shared" si="3"/>
-        <v>187.31712619835349</v>
-      </c>
-      <c r="H51" s="35">
-        <f>B51+(C51*$M$3*$M$2)</f>
-        <v>947.58110886897748</v>
-      </c>
-      <c r="I51" s="37">
-        <f>C51*$M$3*$M$1</f>
-        <v>71.303801788127998</v>
+        <v>320.86710804657599</v>
       </c>
       <c r="J51" s="35">
-        <f t="shared" si="4"/>
-        <v>1018.8849106571055</v>
+        <f t="shared" si="0"/>
+        <v>1947.8260925391669</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5926,60 +5941,60 @@
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="36">
+        <f t="shared" si="1"/>
+        <v>838.13321503196698</v>
+      </c>
+      <c r="H52" s="172">
+        <f t="shared" si="2"/>
+        <v>1630.9689382319671</v>
+      </c>
+      <c r="I52" s="37">
         <f t="shared" si="3"/>
-        <v>186.25182556265935</v>
-      </c>
-      <c r="H52" s="35">
-        <f>B52+(C52*$M$3*$M$2)</f>
-        <v>955.4547866439874</v>
-      </c>
-      <c r="I52" s="36">
-        <f>C52*$M$3*$M$1</f>
-        <v>70.898286356016001</v>
+        <v>319.04228860207201</v>
       </c>
       <c r="J52" s="35">
-        <f t="shared" si="4"/>
-        <v>1026.3530730000034</v>
+        <f t="shared" si="0"/>
+        <v>1950.011226834039</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="77">
+      <c r="A53" s="177">
         <v>75</v>
       </c>
-      <c r="B53" s="78">
+      <c r="B53" s="178">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="79">
-        <f t="shared" ref="C53:D53" si="6">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
+      <c r="C53" s="179">
+        <f t="shared" ref="C53:D53" si="4">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="80">
-        <f t="shared" si="6"/>
+      <c r="D53" s="180">
+        <f t="shared" si="4"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="36">
-        <f>G52+(((G54-G52)/($A$54-$A$52))*($A$53-$A$52))</f>
-        <v>185.40506707262836</v>
-      </c>
-      <c r="H53" s="80">
-        <f t="shared" ref="H53" si="7">H52+(((H54-H52)/($A$54-$A$52))*($A$53-$A$52))</f>
-        <v>961.62491917740169</v>
-      </c>
-      <c r="I53" s="82">
-        <f t="shared" ref="I53" si="8">I52+(((I54-I52)/($A$54-$A$52))*($A$53-$A$52))</f>
-        <v>70.57596078568001</v>
-      </c>
-      <c r="J53" s="80">
-        <f t="shared" ref="J53" si="9">J52+(((J54-J52)/($A$54-$A$52))*($A$53-$A$52))</f>
-        <v>1032.2008799630817</v>
-      </c>
-      <c r="K53" s="42" t="s">
+      <c r="E53" s="181"/>
+      <c r="F53" s="181"/>
+      <c r="G53" s="173">
+        <f>C53*($M$3*$P$5)*($M$2+$M$4)</f>
+        <v>834.32280182682757</v>
+      </c>
+      <c r="H53" s="174">
+        <f t="shared" si="2"/>
+        <v>1634.0679741934941</v>
+      </c>
+      <c r="I53" s="175">
+        <f t="shared" si="3"/>
+        <v>317.59182353556002</v>
+      </c>
+      <c r="J53" s="176">
+        <f t="shared" si="0"/>
+        <v>1951.6597977290542</v>
+      </c>
+      <c r="K53" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="76" t="s">
+      <c r="L53" s="74" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5999,20 +6014,20 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="36">
+        <f t="shared" si="1"/>
+        <v>833.23411233964487</v>
+      </c>
+      <c r="H54" s="172">
+        <f t="shared" si="2"/>
+        <v>1634.9534130396448</v>
+      </c>
+      <c r="I54" s="37">
         <f t="shared" si="3"/>
-        <v>185.16313607547664</v>
-      </c>
-      <c r="H54" s="35">
-        <f t="shared" ref="H54:H79" si="10">B54+(C54*$M$3*$M$2)</f>
-        <v>963.38781418694862</v>
-      </c>
-      <c r="I54" s="37">
-        <f t="shared" ref="I54:I79" si="11">C54*$M$3*$M$1</f>
-        <v>70.483867765584009</v>
+        <v>317.17740494512805</v>
       </c>
       <c r="J54" s="35">
-        <f t="shared" si="4"/>
-        <v>1033.8716819525325</v>
+        <f t="shared" si="0"/>
+        <v>1952.1308179847729</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -6031,20 +6046,20 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="36">
+        <f t="shared" si="1"/>
+        <v>828.22200456486758</v>
+      </c>
+      <c r="H55" s="172">
+        <f t="shared" si="2"/>
+        <v>1638.9046536648675</v>
+      </c>
+      <c r="I55" s="37">
         <f t="shared" si="3"/>
-        <v>184.04933434774836</v>
-      </c>
-      <c r="H55" s="35">
-        <f t="shared" si="10"/>
-        <v>971.37868678286839</v>
-      </c>
-      <c r="I55" s="37">
-        <f t="shared" si="11"/>
-        <v>70.059889994640017</v>
+        <v>315.26950497588007</v>
       </c>
       <c r="J55" s="35">
-        <f t="shared" si="4"/>
-        <v>1041.4385767775084</v>
+        <f t="shared" si="0"/>
+        <v>1954.1741586407475</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -6063,20 +6078,20 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="36">
+        <f t="shared" si="1"/>
+        <v>823.09024434984326</v>
+      </c>
+      <c r="H56" s="172">
+        <f t="shared" si="2"/>
+        <v>1642.8160127498431</v>
+      </c>
+      <c r="I56" s="37">
         <f t="shared" si="3"/>
-        <v>182.9089431888541</v>
-      </c>
-      <c r="H56" s="35">
-        <f t="shared" si="10"/>
-        <v>979.42611467603808</v>
-      </c>
-      <c r="I56" s="37">
-        <f t="shared" si="11"/>
-        <v>69.625790738448003</v>
+        <v>313.31605832301602</v>
       </c>
       <c r="J56" s="35">
-        <f t="shared" si="4"/>
-        <v>1049.0519054144861</v>
+        <f t="shared" si="0"/>
+        <v>1956.1320710728592</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -6095,20 +6110,20 @@
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="36">
+        <f t="shared" si="1"/>
+        <v>817.82886065788534</v>
+      </c>
+      <c r="H57" s="172">
+        <f t="shared" si="2"/>
+        <v>1646.6789696378855</v>
+      </c>
+      <c r="I57" s="37">
         <f t="shared" si="3"/>
-        <v>181.73974681286342</v>
-      </c>
-      <c r="H57" s="35">
-        <f t="shared" si="10"/>
-        <v>987.52961361289545</v>
-      </c>
-      <c r="I57" s="37">
-        <f t="shared" si="11"/>
-        <v>69.180726539904001</v>
+        <v>311.31326942956798</v>
       </c>
       <c r="J57" s="35">
-        <f t="shared" si="4"/>
-        <v>1056.7103401527995</v>
+        <f t="shared" si="0"/>
+        <v>1957.9922390674535</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -6127,20 +6142,20 @@
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="36">
+        <f t="shared" si="1"/>
+        <v>812.42788245230622</v>
+      </c>
+      <c r="H58" s="172">
+        <f t="shared" si="2"/>
+        <v>1650.4850036723062</v>
+      </c>
+      <c r="I58" s="37">
         <f t="shared" si="3"/>
-        <v>180.53952943384584</v>
-      </c>
-      <c r="H58" s="35">
-        <f t="shared" si="10"/>
-        <v>995.68869933987787</v>
-      </c>
-      <c r="I58" s="37">
-        <f t="shared" si="11"/>
-        <v>68.723853941903997</v>
+        <v>309.25734273856801</v>
       </c>
       <c r="J58" s="35">
-        <f t="shared" si="4"/>
-        <v>1064.4125532817818</v>
+        <f t="shared" si="0"/>
+        <v>1959.7423464108742</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -6159,20 +6174,20 @@
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="36">
+        <f t="shared" si="1"/>
+        <v>806.87512291048836</v>
+      </c>
+      <c r="H59" s="172">
+        <f t="shared" si="2"/>
+        <v>1654.2233784104883</v>
+      </c>
+      <c r="I59" s="37">
         <f t="shared" si="3"/>
-        <v>179.30558286899745</v>
-      </c>
-      <c r="H59" s="35">
-        <f t="shared" si="10"/>
-        <v>1003.9024576848534</v>
-      </c>
-      <c r="I59" s="37">
-        <f t="shared" si="11"/>
-        <v>68.254142052432002</v>
+        <v>307.14363923594402</v>
       </c>
       <c r="J59" s="35">
-        <f t="shared" si="4"/>
-        <v>1072.1565997372854</v>
+        <f t="shared" si="0"/>
+        <v>1961.3670176464323</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -6191,20 +6206,20 @@
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="36">
+        <f t="shared" si="1"/>
+        <v>801.15839520981376</v>
+      </c>
+      <c r="H60" s="172">
+        <f t="shared" si="2"/>
+        <v>1657.8819070298136</v>
+      </c>
+      <c r="I60" s="37">
         <f t="shared" si="3"/>
-        <v>178.03519893551419</v>
-      </c>
-      <c r="H60" s="35">
-        <f t="shared" si="10"/>
-        <v>1012.1685240956901</v>
-      </c>
-      <c r="I60" s="37">
-        <f t="shared" si="11"/>
-        <v>67.770559979471997</v>
+        <v>304.96751990762397</v>
       </c>
       <c r="J60" s="35">
-        <f t="shared" si="4"/>
-        <v>1079.9390840751621</v>
+        <f t="shared" si="0"/>
+        <v>1962.8494269374376</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -6223,20 +6238,20 @@
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="36">
+        <f t="shared" si="1"/>
+        <v>795.261080955804</v>
+      </c>
+      <c r="H61" s="172">
+        <f t="shared" si="2"/>
+        <v>1661.446871895804</v>
+      </c>
+      <c r="I61" s="37">
         <f t="shared" si="3"/>
-        <v>176.72468465684534</v>
-      </c>
-      <c r="H61" s="35">
-        <f t="shared" si="10"/>
-        <v>1020.4865749431173</v>
-      </c>
-      <c r="I61" s="37">
-        <f t="shared" si="11"/>
-        <v>67.271701961183993</v>
+        <v>302.72265882532798</v>
       </c>
       <c r="J61" s="35">
-        <f t="shared" si="4"/>
-        <v>1087.7582769043013</v>
+        <f t="shared" si="0"/>
+        <v>1964.1695307211319</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -6255,20 +6270,20 @@
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="36">
+        <f t="shared" si="1"/>
+        <v>789.16766964694568</v>
+      </c>
+      <c r="H62" s="172">
+        <f t="shared" si="2"/>
+        <v>1664.9013121269459</v>
+      </c>
+      <c r="I62" s="37">
         <f t="shared" si="3"/>
-        <v>175.37059325487681</v>
-      </c>
-      <c r="H62" s="35">
-        <f t="shared" si="10"/>
-        <v>1028.852150417149</v>
-      </c>
-      <c r="I62" s="37">
-        <f t="shared" si="11"/>
-        <v>66.756255953183995</v>
+        <v>300.40315178932798</v>
       </c>
       <c r="J62" s="35">
-        <f t="shared" si="4"/>
-        <v>1095.6084063703329</v>
+        <f t="shared" si="0"/>
+        <v>1965.3044639162738</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -6287,20 +6302,20 @@
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
       <c r="G63" s="36">
+        <f t="shared" si="1"/>
+        <v>782.85600342393366</v>
+      </c>
+      <c r="H63" s="172">
+        <f t="shared" si="2"/>
+        <v>1668.2274210039336</v>
+      </c>
+      <c r="I63" s="37">
         <f t="shared" si="3"/>
-        <v>173.96800076087413</v>
-      </c>
-      <c r="H63" s="35">
-        <f t="shared" si="10"/>
-        <v>1037.2653024720901</v>
-      </c>
-      <c r="I63" s="37">
-        <f t="shared" si="11"/>
-        <v>66.222347606352002</v>
+        <v>298.00056422858404</v>
       </c>
       <c r="J63" s="35">
-        <f t="shared" si="4"/>
-        <v>1103.4876500784421</v>
+        <f t="shared" si="0"/>
+        <v>1966.2279852325178</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -6319,20 +6334,20 @@
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="36">
+        <f t="shared" si="1"/>
+        <v>776.30170864153229</v>
+      </c>
+      <c r="H64" s="172">
+        <f t="shared" si="2"/>
+        <v>1671.4022752615324</v>
+      </c>
+      <c r="I64" s="37">
         <f t="shared" si="3"/>
-        <v>172.5114908092294</v>
-      </c>
-      <c r="H64" s="35">
-        <f t="shared" si="10"/>
-        <v>1045.7227523836773</v>
-      </c>
-      <c r="I64" s="37">
-        <f t="shared" si="11"/>
-        <v>65.667915136656006</v>
+        <v>295.50561811495197</v>
       </c>
       <c r="J64" s="35">
-        <f t="shared" si="4"/>
-        <v>1111.3906675203334</v>
+        <f t="shared" si="0"/>
+        <v>1966.9078933764845</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6351,20 +6366,20 @@
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="36">
+        <f t="shared" si="1"/>
+        <v>769.47708797561097</v>
+      </c>
+      <c r="H65" s="172">
+        <f t="shared" si="2"/>
+        <v>1674.396727195611</v>
+      </c>
+      <c r="I65" s="37">
         <f t="shared" si="3"/>
-        <v>170.9949084390247</v>
-      </c>
-      <c r="H65" s="35">
-        <f t="shared" si="10"/>
-        <v>1054.2176757897928</v>
-      </c>
-      <c r="I65" s="37">
-        <f t="shared" si="11"/>
-        <v>65.090615607696009</v>
+        <v>292.90777023463204</v>
       </c>
       <c r="J65" s="35">
-        <f t="shared" si="4"/>
-        <v>1119.3082913974888</v>
+        <f t="shared" si="0"/>
+        <v>1967.3044974302429</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -6383,20 +6398,20 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="36">
+        <f t="shared" si="1"/>
+        <v>762.34779674424658</v>
+      </c>
+      <c r="H66" s="172">
+        <f t="shared" si="2"/>
+        <v>1677.1822336442465</v>
+      </c>
+      <c r="I66" s="37">
         <f t="shared" si="3"/>
-        <v>169.41062149872147</v>
-      </c>
-      <c r="H66" s="35">
-        <f t="shared" si="10"/>
-        <v>1062.7492104726095</v>
-      </c>
-      <c r="I66" s="37">
-        <f t="shared" si="11"/>
-        <v>64.487543778336004</v>
+        <v>290.193947002512</v>
       </c>
       <c r="J66" s="35">
-        <f t="shared" si="4"/>
-        <v>1127.2367542509455</v>
+        <f t="shared" si="0"/>
+        <v>1967.3761806467585</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -6415,20 +6430,20 @@
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="36">
+        <f t="shared" si="1"/>
+        <v>754.87062712179454</v>
+      </c>
+      <c r="H67" s="172">
+        <f t="shared" si="2"/>
+        <v>1679.7141364017946</v>
+      </c>
+      <c r="I67" s="37">
         <f t="shared" si="3"/>
-        <v>167.7490282492877</v>
-      </c>
-      <c r="H67" s="35">
-        <f t="shared" si="10"/>
-        <v>1071.3075226400238</v>
-      </c>
-      <c r="I67" s="37">
-        <f t="shared" si="11"/>
-        <v>63.855044667792001</v>
+        <v>287.34770100506398</v>
       </c>
       <c r="J67" s="35">
-        <f t="shared" si="4"/>
-        <v>1135.1625673078158</v>
+        <f t="shared" si="0"/>
+        <v>1967.0618374068586</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -6447,20 +6462,20 @@
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="36">
+        <f t="shared" si="1"/>
+        <v>746.99461603185375</v>
+      </c>
+      <c r="H68" s="172">
+        <f t="shared" si="2"/>
+        <v>1681.9458235318539</v>
+      </c>
+      <c r="I68" s="37">
         <f t="shared" si="3"/>
-        <v>165.99880356263418</v>
-      </c>
-      <c r="H68" s="35">
-        <f t="shared" si="10"/>
-        <v>1079.8870753049382</v>
-      </c>
-      <c r="I68" s="37">
-        <f t="shared" si="11"/>
-        <v>63.18880727308801</v>
+        <v>284.34963272889604</v>
       </c>
       <c r="J68" s="35">
-        <f t="shared" si="4"/>
-        <v>1143.0758825780263</v>
+        <f t="shared" ref="J68:J79" si="5">H68+I68</f>
+        <v>1966.2954562607499</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -6479,20 +6494,20 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="36">
-        <f t="shared" ref="G69:G79" si="12">C69*$M$3*($M$2+$M$4)</f>
-        <v>164.14492933412086</v>
-      </c>
-      <c r="H69" s="35">
-        <f t="shared" si="10"/>
-        <v>1088.4776567109848</v>
+        <f t="shared" ref="G69:G79" si="6">C69*($M$3*$P$5)*($M$2+$M$4)</f>
+        <v>738.65218200354389</v>
+      </c>
+      <c r="H69" s="172">
+        <f t="shared" ref="H69:H79" si="7">B69+G69</f>
+        <v>1683.8126143235438</v>
       </c>
       <c r="I69" s="37">
-        <f t="shared" si="11"/>
-        <v>62.483114829408009</v>
+        <f t="shared" ref="I69:I79" si="8">C69*($M$3*$P$5)*$M$1</f>
+        <v>281.17401673233599</v>
       </c>
       <c r="J69" s="35">
-        <f t="shared" si="4"/>
-        <v>1150.9607715403927</v>
+        <f t="shared" si="5"/>
+        <v>1964.9866310558798</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -6511,20 +6526,20 @@
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="36">
-        <f t="shared" si="12"/>
-        <v>162.16844828412025</v>
-      </c>
-      <c r="H70" s="35">
-        <f t="shared" si="10"/>
-        <v>1097.0627149932404</v>
+        <f t="shared" si="6"/>
+        <v>729.75801727854116</v>
+      </c>
+      <c r="H70" s="172">
+        <f t="shared" si="7"/>
+        <v>1685.2292010185413</v>
       </c>
       <c r="I70" s="37">
-        <f t="shared" si="11"/>
-        <v>61.730751092640013</v>
+        <f t="shared" si="8"/>
+        <v>277.78837991688005</v>
       </c>
       <c r="J70" s="35">
-        <f t="shared" si="4"/>
-        <v>1158.7934660858805</v>
+        <f t="shared" si="5"/>
+        <v>1963.0175809354214</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -6543,20 +6558,20 @@
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="G71" s="36">
-        <f t="shared" si="12"/>
-        <v>160.04449437052338</v>
-      </c>
-      <c r="H71" s="35">
-        <f t="shared" si="10"/>
-        <v>1105.6248904039473</v>
+        <f t="shared" si="6"/>
+        <v>720.2002246673552</v>
+      </c>
+      <c r="H71" s="172">
+        <f t="shared" si="7"/>
+        <v>1686.0880375673551</v>
       </c>
       <c r="I71" s="37">
-        <f t="shared" si="11"/>
-        <v>60.922250599728002</v>
+        <f t="shared" si="8"/>
+        <v>274.15012769877598</v>
       </c>
       <c r="J71" s="35">
-        <f t="shared" si="4"/>
-        <v>1166.5471410036753</v>
+        <f t="shared" si="5"/>
+        <v>1960.2381652661311</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -6575,20 +6590,20 @@
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
       <c r="G72" s="36">
-        <f t="shared" si="12"/>
-        <v>157.73786121687914</v>
-      </c>
-      <c r="H72" s="35">
-        <f t="shared" si="10"/>
-        <v>1114.1392452853911</v>
+        <f t="shared" si="6"/>
+        <v>709.82037547595621</v>
+      </c>
+      <c r="H72" s="172">
+        <f t="shared" si="7"/>
+        <v>1686.2364967959561</v>
       </c>
       <c r="I72" s="37">
-        <f t="shared" si="11"/>
-        <v>60.044211754464001</v>
+        <f t="shared" si="8"/>
+        <v>270.19895289508804</v>
       </c>
       <c r="J72" s="35">
-        <f t="shared" si="4"/>
-        <v>1174.1834570398551</v>
+        <f t="shared" si="5"/>
+        <v>1956.4354496910441</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6607,20 +6622,20 @@
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="36">
-        <f t="shared" si="12"/>
-        <v>155.1990629374065</v>
-      </c>
-      <c r="H73" s="35">
-        <f t="shared" si="10"/>
-        <v>1122.5625728213427</v>
+        <f t="shared" si="6"/>
+        <v>698.39578321832914</v>
+      </c>
+      <c r="H73" s="172">
+        <f t="shared" si="7"/>
+        <v>1685.4518922183292</v>
       </c>
       <c r="I73" s="37">
-        <f t="shared" si="11"/>
-        <v>59.077797348192007</v>
+        <f t="shared" si="8"/>
+        <v>265.85008806686398</v>
       </c>
       <c r="J73" s="35">
-        <f t="shared" si="4"/>
-        <v>1181.6403701695347</v>
+        <f t="shared" si="5"/>
+        <v>1951.3019802851932</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6639,20 +6654,20 @@
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
       <c r="G74" s="36">
-        <f t="shared" si="12"/>
-        <v>152.35276281046862</v>
-      </c>
-      <c r="H74" s="35">
-        <f t="shared" si="10"/>
-        <v>1130.8392481306767</v>
+        <f t="shared" si="6"/>
+        <v>685.5874326471087</v>
+      </c>
+      <c r="H74" s="172">
+        <f t="shared" si="7"/>
+        <v>1683.4053612471087</v>
       </c>
       <c r="I74" s="37">
-        <f t="shared" si="11"/>
-        <v>57.994329839376007</v>
+        <f t="shared" si="8"/>
+        <v>260.974484277192</v>
       </c>
       <c r="J74" s="35">
-        <f t="shared" si="4"/>
-        <v>1188.8335779700526</v>
+        <f t="shared" si="5"/>
+        <v>1944.3798455243007</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6671,20 +6686,20 @@
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="36">
-        <f t="shared" si="12"/>
-        <v>149.07536922083131</v>
-      </c>
-      <c r="H75" s="35">
-        <f t="shared" si="10"/>
-        <v>1138.8642624124632</v>
+        <f t="shared" si="6"/>
+        <v>670.83916149374079</v>
+      </c>
+      <c r="H75" s="172">
+        <f t="shared" si="7"/>
+        <v>1679.5436423737408</v>
       </c>
       <c r="I75" s="37">
-        <f t="shared" si="11"/>
-        <v>56.746763065104005</v>
+        <f t="shared" si="8"/>
+        <v>255.36043379296802</v>
       </c>
       <c r="J75" s="35">
-        <f t="shared" si="4"/>
-        <v>1195.6110254775672</v>
+        <f t="shared" si="5"/>
+        <v>1934.9040761667088</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -6703,20 +6718,20 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="36">
-        <f t="shared" si="12"/>
-        <v>145.14013340827398</v>
-      </c>
-      <c r="H76" s="35">
-        <f t="shared" si="10"/>
-        <v>1146.4497908254741</v>
+        <f t="shared" si="6"/>
+        <v>653.13060033723286</v>
+      </c>
+      <c r="H76" s="172">
+        <f t="shared" si="7"/>
+        <v>1672.8565188372329</v>
       </c>
       <c r="I76" s="37">
-        <f t="shared" si="11"/>
-        <v>55.248783248400002</v>
+        <f t="shared" si="8"/>
+        <v>248.61952461780001</v>
       </c>
       <c r="J76" s="35">
-        <f t="shared" si="4"/>
-        <v>1201.6985740738742</v>
+        <f t="shared" si="5"/>
+        <v>1921.4760434550328</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6735,20 +6750,20 @@
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="36">
-        <f t="shared" si="12"/>
-        <v>140.04505676032142</v>
-      </c>
-      <c r="H77" s="35">
-        <f t="shared" si="10"/>
-        <v>1153.1691344281614</v>
+        <f t="shared" si="6"/>
+        <v>630.20275542144634</v>
+      </c>
+      <c r="H77" s="172">
+        <f t="shared" si="7"/>
+        <v>1661.0965999214463</v>
       </c>
       <c r="I77" s="37">
-        <f t="shared" si="11"/>
-        <v>53.309300496480006</v>
+        <f t="shared" si="8"/>
+        <v>239.89185223416001</v>
       </c>
       <c r="J77" s="35">
-        <f t="shared" si="4"/>
-        <v>1206.4784349246415</v>
+        <f t="shared" si="5"/>
+        <v>1900.9884521556064</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6767,20 +6782,20 @@
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="36">
-        <f t="shared" si="12"/>
-        <v>132.1553816571425</v>
-      </c>
-      <c r="H78" s="35">
-        <f t="shared" si="10"/>
-        <v>1157.6181696499746</v>
+        <f t="shared" si="6"/>
+        <v>594.69921745714123</v>
+      </c>
+      <c r="H78" s="172">
+        <f t="shared" si="7"/>
+        <v>1636.9306824171413</v>
       </c>
       <c r="I78" s="37">
-        <f t="shared" si="11"/>
-        <v>50.306030901504002</v>
+        <f t="shared" si="8"/>
+        <v>226.37713905676799</v>
       </c>
       <c r="J78" s="35">
-        <f t="shared" si="4"/>
-        <v>1207.9242005514786</v>
+        <f t="shared" si="5"/>
+        <v>1863.3078214739094</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6799,22 +6814,22 @@
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
       <c r="G79" s="36">
-        <f t="shared" si="12"/>
-        <v>111.28440158094624</v>
-      </c>
-      <c r="H79" s="38">
-        <f t="shared" si="10"/>
-        <v>1147.9642712462744</v>
-      </c>
-      <c r="I79" s="39">
-        <f t="shared" si="11"/>
-        <v>42.361321004016006</v>
-      </c>
-      <c r="J79" s="38">
-        <f t="shared" si="4"/>
-        <v>1190.3255922502904</v>
-      </c>
-      <c r="K79" s="50"/>
+        <f t="shared" si="6"/>
+        <v>500.77980711425806</v>
+      </c>
+      <c r="H79" s="172">
+        <f t="shared" si="7"/>
+        <v>1551.5801171142582</v>
+      </c>
+      <c r="I79" s="37">
+        <f t="shared" si="8"/>
+        <v>190.62594451807203</v>
+      </c>
+      <c r="J79" s="35">
+        <f t="shared" si="5"/>
+        <v>1742.2060616323301</v>
+      </c>
+      <c r="K79" s="48"/>
       <c r="L79" s="22"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -9046,9 +9061,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="H53:J53 H47:J47" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -9068,7 +9080,7 @@
     <col min="1" max="1" width="11.42578125" style="24"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="23"/>
-    <col min="5" max="5" width="11.42578125" style="62"/>
+    <col min="5" max="5" width="11.42578125" style="60"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" style="24" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" customWidth="1"/>
@@ -9081,42 +9093,42 @@
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="72" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="172" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="175" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="93"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="177" t="s">
+      <c r="N1" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="163" t="s">
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="53"/>
+      <c r="S1" s="51"/>
       <c r="T1" t="s">
         <v>60</v>
       </c>
@@ -9131,45 +9143,45 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="134" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="176"/>
-      <c r="J2" s="166" t="s">
+      <c r="I2" s="162"/>
+      <c r="J2" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="167"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="87" t="s">
+      <c r="K2" s="170"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="87" t="s">
+      <c r="P2" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="70"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="68"/>
       <c r="T2" t="s">
         <v>14</v>
       </c>
@@ -9185,51 +9197,51 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="111" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="130" t="s">
+      <c r="F3" s="160"/>
+      <c r="G3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="130" t="s">
+      <c r="H3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="130" t="s">
+      <c r="J3" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="107" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="127" t="s">
+      <c r="N3" s="165"/>
+      <c r="O3" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="127" t="s">
+      <c r="P3" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="127" t="s">
+      <c r="Q3" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="128" t="s">
+      <c r="R3" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="53"/>
+      <c r="S3" s="51"/>
       <c r="T3" t="s">
         <v>13</v>
       </c>
@@ -9245,66 +9257,66 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="101">
+      <c r="A4" s="93">
         <v>32</v>
       </c>
-      <c r="B4" s="105">
+      <c r="B4" s="97">
         <v>452.82023903999999</v>
       </c>
-      <c r="C4" s="103">
+      <c r="C4" s="95">
         <v>1.75999830112</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="96">
         <v>0.16525852904319999</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="94">
+      <c r="E4" s="50"/>
+      <c r="F4" s="86">
         <f t="shared" ref="F4:F35" si="0">($C$53-C4)/(D4-C4)</f>
         <v>0.18736491688811011</v>
       </c>
-      <c r="G4" s="136">
+      <c r="G4" s="128">
         <f t="shared" ref="G4:G35" si="1">$U$7/((C4*(1-F4))+(D4*F4))</f>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="75">
         <f>G4*F4</f>
         <v>0.14075320424349502</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="76">
         <f>H4-$G$55</f>
         <v>9.914634262639932E-2</v>
       </c>
-      <c r="J4" s="83">
+      <c r="J4" s="75">
         <f>IF(I4&gt;0, ('BPV Calcs'!$B$8/12)+(I4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.7010850340974093</v>
       </c>
-      <c r="K4" s="95">
+      <c r="K4" s="87">
         <f>J4*12</f>
         <v>8.4130204091689116</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="121">
+      <c r="N4" s="113">
         <f>($C$47-C4)/(D4-C4)</f>
         <v>0.15895834986355586</v>
       </c>
-      <c r="O4" s="88">
+      <c r="O4" s="80">
         <f t="shared" ref="O4:O47" si="2">$U$7/((C4*(1-N4))+(D4*N4))</f>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P4" s="89">
+      <c r="P4" s="81">
         <f>O4*N4</f>
         <v>0.11582267126091907</v>
       </c>
-      <c r="Q4" s="89">
+      <c r="Q4" s="81">
         <f t="shared" ref="Q4:Q47" si="3">P4-$G$55</f>
         <v>7.4215809643823349E-2</v>
       </c>
-      <c r="R4" s="122">
+      <c r="R4" s="114">
         <f>IF(Q4&gt;0, ('BPV Calcs'!$B$8/12)+(Q4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.59289744056078075</v>
       </c>
-      <c r="S4" s="52"/>
+      <c r="S4" s="50"/>
       <c r="T4" t="s">
         <v>61</v>
       </c>
@@ -9313,66 +9325,66 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="101">
+      <c r="A5" s="93">
         <v>32.9</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="97">
         <v>458.65366740000002</v>
       </c>
-      <c r="C5" s="103">
+      <c r="C5" s="95">
         <v>1.7550485447999999</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="96">
         <v>0.16772615040639999</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="94">
+      <c r="E5" s="50"/>
+      <c r="F5" s="86">
         <f t="shared" si="0"/>
         <v>0.18512214630827489</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="75">
         <f t="shared" ref="H5:H53" si="4">G5*F5</f>
         <v>0.13906837897984459</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="76">
         <f t="shared" ref="I5:I53" si="5">H5-$G$55</f>
         <v>9.7461517362748884E-2</v>
       </c>
-      <c r="J5" s="83">
+      <c r="J5" s="75">
         <f>IF(I5&gt;0, ('BPV Calcs'!$B$8/12)+(I5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.69377363040895035</v>
       </c>
-      <c r="K5" s="95">
+      <c r="K5" s="87">
         <f t="shared" ref="K5:K53" si="6">J5*12</f>
         <v>8.3252835649074051</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="121">
+      <c r="N5" s="113">
         <f t="shared" ref="N5:N47" si="7">($C$47-C5)/(D5-C5)</f>
         <v>0.15658283861487579</v>
       </c>
-      <c r="O5" s="88">
+      <c r="O5" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P5" s="89">
+      <c r="P5" s="81">
         <f t="shared" ref="P5:P45" si="8">O5*N5</f>
         <v>0.11409178981512741</v>
       </c>
-      <c r="Q5" s="89">
+      <c r="Q5" s="81">
         <f t="shared" si="3"/>
         <v>7.2484928198031706E-2</v>
       </c>
-      <c r="R5" s="122">
+      <c r="R5" s="114">
         <f>IF(Q5&gt;0, ('BPV Calcs'!$B$8/12)+(Q5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.58538617321450004</v>
       </c>
-      <c r="S5" s="52"/>
+      <c r="S5" s="50"/>
       <c r="T5" t="s">
         <v>36</v>
       </c>
@@ -9381,66 +9393,66 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="101">
+      <c r="A6" s="93">
         <v>33.799999999999997</v>
       </c>
-      <c r="B6" s="105">
+      <c r="B6" s="97">
         <v>464.54366057999999</v>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="95">
         <v>1.7500619224</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="96">
         <v>0.1702317244288</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="94">
+      <c r="E6" s="50"/>
+      <c r="F6" s="86">
         <f t="shared" si="0"/>
         <v>0.18284364136366457</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H6" s="83">
+      <c r="H6" s="75">
         <f t="shared" si="4"/>
         <v>0.13735670916905462</v>
       </c>
-      <c r="I6" s="84">
+      <c r="I6" s="76">
         <f t="shared" si="5"/>
         <v>9.5749847551958922E-2</v>
       </c>
-      <c r="J6" s="83">
+      <c r="J6" s="75">
         <f>IF(I6&gt;0, ('BPV Calcs'!$B$8/12)+(I6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.68634573314385428</v>
       </c>
-      <c r="K6" s="95">
+      <c r="K6" s="87">
         <f t="shared" si="6"/>
         <v>8.2361487977262513</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="121">
+      <c r="N6" s="113">
         <f t="shared" si="7"/>
         <v>0.1541689886823846</v>
       </c>
-      <c r="O6" s="88">
+      <c r="O6" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P6" s="89">
+      <c r="P6" s="81">
         <f t="shared" si="8"/>
         <v>0.112332973449431</v>
       </c>
-      <c r="Q6" s="89">
+      <c r="Q6" s="81">
         <f t="shared" si="3"/>
         <v>7.0726111832335292E-2</v>
       </c>
-      <c r="R6" s="122">
+      <c r="R6" s="114">
         <f>IF(Q6&gt;0, ('BPV Calcs'!$B$8/12)+(Q6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.57775368055136589</v>
       </c>
-      <c r="S6" s="52"/>
+      <c r="S6" s="50"/>
       <c r="T6" t="s">
         <v>37</v>
       </c>
@@ -9449,3009 +9461,3009 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="101">
+      <c r="A7" s="93">
         <v>34.700000000000003</v>
       </c>
-      <c r="B7" s="105">
+      <c r="B7" s="97">
         <v>470.48731781999993</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="95">
         <v>1.7450423145599998</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="96">
         <v>0.17277604664159998</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="94">
+      <c r="E7" s="50"/>
+      <c r="F7" s="86">
         <f t="shared" si="0"/>
         <v>0.18053067987595114</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="75">
         <f t="shared" si="4"/>
         <v>0.1356191547426735</v>
       </c>
-      <c r="I7" s="84">
+      <c r="I7" s="76">
         <f t="shared" si="5"/>
         <v>9.4012293125577795E-2</v>
       </c>
-      <c r="J7" s="83">
+      <c r="J7" s="75">
         <f>IF(I7&gt;0, ('BPV Calcs'!$B$8/12)+(I7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.67880550798458983</v>
       </c>
-      <c r="K7" s="95">
+      <c r="K7" s="87">
         <f t="shared" si="6"/>
         <v>8.1456660958150771</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="121">
+      <c r="N7" s="113">
         <f t="shared" si="7"/>
         <v>0.15171807787171285</v>
       </c>
-      <c r="O7" s="88">
+      <c r="O7" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P7" s="89">
+      <c r="P7" s="81">
         <f t="shared" si="8"/>
         <v>0.11054715321816959</v>
       </c>
-      <c r="Q7" s="89">
+      <c r="Q7" s="81">
         <f t="shared" si="3"/>
         <v>6.8940291601073872E-2</v>
       </c>
-      <c r="R7" s="122">
+      <c r="R7" s="114">
         <f>IF(Q7&gt;0, ('BPV Calcs'!$B$8/12)+(Q7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.57000400293941</v>
       </c>
-      <c r="S7" s="52"/>
-      <c r="T7" s="42" t="s">
+      <c r="S7" s="50"/>
+      <c r="T7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="40">
         <f>U5*U6</f>
         <v>1.0976899397500375</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="101">
+      <c r="A8" s="93">
         <v>35.6</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="97">
         <v>476.48608949999999</v>
       </c>
-      <c r="C8" s="103">
+      <c r="C8" s="95">
         <v>1.73998778096</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="96">
         <v>0.17536002899519998</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="94">
+      <c r="E8" s="50"/>
+      <c r="F8" s="86">
         <f t="shared" si="0"/>
         <v>0.17818152870115089</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="75">
         <f t="shared" si="4"/>
         <v>0.13385441371966245</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="76">
         <f t="shared" si="5"/>
         <v>9.2247552102566743E-2</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="75">
         <f>IF(I8&gt;0, ('BPV Calcs'!$B$8/12)+(I8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.67114730490371821</v>
       </c>
-      <c r="K8" s="95">
+      <c r="K8" s="87">
         <f t="shared" si="6"/>
         <v>8.0537676588446185</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="121">
+      <c r="N8" s="113">
         <f t="shared" si="7"/>
         <v>0.14922826351373839</v>
       </c>
-      <c r="O8" s="88">
+      <c r="O8" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P8" s="89">
+      <c r="P8" s="81">
         <f t="shared" si="8"/>
         <v>0.10873298648750131</v>
       </c>
-      <c r="Q8" s="89">
+      <c r="Q8" s="81">
         <f t="shared" si="3"/>
         <v>6.712612487040559E-2</v>
       </c>
-      <c r="R8" s="122">
+      <c r="R8" s="114">
         <f>IF(Q8&gt;0, ('BPV Calcs'!$B$8/12)+(Q8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.56213131393583393</v>
       </c>
-      <c r="S8" s="52"/>
+      <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="101">
+      <c r="A9" s="93">
         <v>36.5</v>
       </c>
-      <c r="B9" s="105">
+      <c r="B9" s="97">
         <v>482.54142600000006</v>
       </c>
-      <c r="C9" s="103">
+      <c r="C9" s="95">
         <v>1.73489638128</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="96">
         <v>0.17798456403679999</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="94">
+      <c r="E9" s="50"/>
+      <c r="F9" s="86">
         <f t="shared" si="0"/>
         <v>0.17579439116722953</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="75">
         <f t="shared" si="4"/>
         <v>0.13206113639512471</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="76">
         <f t="shared" si="5"/>
         <v>9.0454274778029004E-2</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="75">
         <f>IF(I9&gt;0, ('BPV Calcs'!$B$8/12)+(I9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.66336526677316021</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="87">
         <f t="shared" si="6"/>
         <v>7.9603832012779225</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="121">
+      <c r="N9" s="113">
         <f t="shared" si="7"/>
         <v>0.14669763583368992</v>
       </c>
-      <c r="O9" s="88">
+      <c r="O9" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P9" s="89">
+      <c r="P9" s="81">
         <f t="shared" si="8"/>
         <v>0.10688908172803678</v>
       </c>
-      <c r="Q9" s="89">
+      <c r="Q9" s="81">
         <f t="shared" si="3"/>
         <v>6.5282220110941064E-2</v>
       </c>
-      <c r="R9" s="122">
+      <c r="R9" s="114">
         <f>IF(Q9&gt;0, ('BPV Calcs'!$B$8/12)+(Q9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.55412957491257986</v>
       </c>
-      <c r="S9" s="52"/>
+      <c r="S9" s="50"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="101">
+      <c r="A10" s="93">
         <v>37.4</v>
       </c>
-      <c r="B10" s="105">
+      <c r="B10" s="97">
         <v>488.65187693999997</v>
       </c>
-      <c r="C10" s="103">
+      <c r="C10" s="95">
         <v>1.7297661752</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="96">
         <v>0.18065056371679999</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="94">
+      <c r="E10" s="50"/>
+      <c r="F10" s="86">
         <f t="shared" si="0"/>
         <v>0.17336740843776965</v>
       </c>
-      <c r="G10" s="136">
+      <c r="G10" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="75">
         <f t="shared" si="4"/>
         <v>0.13023792636472664</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="76">
         <f t="shared" si="5"/>
         <v>8.8631064747630939E-2</v>
       </c>
-      <c r="J10" s="83">
+      <c r="J10" s="75">
         <f>IF(I10&gt;0, ('BPV Calcs'!$B$8/12)+(I10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.65545333380973458</v>
       </c>
-      <c r="K10" s="95">
+      <c r="K10" s="87">
         <f t="shared" si="6"/>
         <v>7.865440005716815</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="121">
+      <c r="N10" s="113">
         <f t="shared" si="7"/>
         <v>0.14412421839668005</v>
       </c>
-      <c r="O10" s="88">
+      <c r="O10" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P10" s="89">
+      <c r="P10" s="81">
         <f t="shared" si="8"/>
         <v>0.10501399883947034</v>
       </c>
-      <c r="Q10" s="89">
+      <c r="Q10" s="81">
         <f t="shared" si="3"/>
         <v>6.3407137222374621E-2</v>
       </c>
-      <c r="R10" s="122">
+      <c r="R10" s="114">
         <f>IF(Q10&gt;0, ('BPV Calcs'!$B$8/12)+(Q10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.54599253646508672</v>
       </c>
-      <c r="S10" s="52"/>
+      <c r="S10" s="50"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="101">
+      <c r="A11" s="93">
         <v>38.299999999999997</v>
       </c>
-      <c r="B11" s="105">
+      <c r="B11" s="97">
         <v>494.82034307999999</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="95">
         <v>1.7246010433599999</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="96">
         <v>0.18335905640479999</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="94">
+      <c r="E11" s="50"/>
+      <c r="F11" s="86">
         <f t="shared" si="0"/>
         <v>0.17090179823980461</v>
       </c>
-      <c r="G11" s="136">
+      <c r="G11" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="75">
         <f t="shared" si="4"/>
         <v>0.12838569841542352</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="76">
         <f t="shared" si="5"/>
         <v>8.6778836798327819E-2</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="75">
         <f>IF(I11&gt;0, ('BPV Calcs'!$B$8/12)+(I11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.64741547578814962</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="87">
         <f t="shared" si="6"/>
         <v>7.7689857094577954</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="121">
+      <c r="N11" s="113">
         <f t="shared" si="7"/>
         <v>0.14150921576045203</v>
       </c>
-      <c r="O11" s="88">
+      <c r="O11" s="80">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P11" s="89">
+      <c r="P11" s="81">
         <f t="shared" si="8"/>
         <v>0.10310861550514253</v>
       </c>
-      <c r="Q11" s="89">
+      <c r="Q11" s="81">
         <f t="shared" si="3"/>
         <v>6.1501753888046816E-2</v>
       </c>
-      <c r="R11" s="122">
+      <c r="R11" s="114">
         <f>IF(Q11&gt;0, ('BPV Calcs'!$B$8/12)+(Q11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.53772400735462633</v>
       </c>
-      <c r="S11" s="52"/>
+      <c r="S11" s="50"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="101">
+      <c r="A12" s="93">
         <v>39.200000000000003</v>
       </c>
-      <c r="B12" s="105">
+      <c r="B12" s="97">
         <v>501.04537404000001</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="95">
         <v>1.7193932244799999</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="96">
         <v>0.18611099285759999</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="94">
+      <c r="E12" s="50"/>
+      <c r="F12" s="86">
         <f t="shared" si="0"/>
         <v>0.16839248697229939</v>
       </c>
-      <c r="G12" s="136">
+      <c r="G12" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="75">
         <f t="shared" si="4"/>
         <v>0.12650064113142523</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="76">
         <f t="shared" si="5"/>
         <v>8.4893779514329526E-2</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="75">
         <f>IF(I12&gt;0, ('BPV Calcs'!$B$8/12)+(I12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.63923515283328125</v>
       </c>
-      <c r="K12" s="95">
+      <c r="K12" s="87">
         <f t="shared" si="6"/>
         <v>7.6708218339993746</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="121">
+      <c r="N12" s="113">
         <f t="shared" si="7"/>
         <v>0.13884731825649951</v>
       </c>
-      <c r="O12" s="88">
+      <c r="O12" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P12" s="89">
+      <c r="P12" s="81">
         <f t="shared" si="8"/>
         <v>0.1011690629129371</v>
       </c>
-      <c r="Q12" s="89">
+      <c r="Q12" s="81">
         <f t="shared" si="3"/>
         <v>5.9562201295841395E-2</v>
       </c>
-      <c r="R12" s="122">
+      <c r="R12" s="114">
         <f>IF(Q12&gt;0, ('BPV Calcs'!$B$8/12)+(Q12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.52930719863115905</v>
       </c>
-      <c r="S12" s="52"/>
+      <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="101">
+      <c r="A13" s="93">
         <v>40.1</v>
       </c>
-      <c r="B13" s="105">
+      <c r="B13" s="97">
         <v>507.32696982000004</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="95">
         <v>1.71414853952</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="96">
         <v>0.1889074790576</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="94">
+      <c r="E13" s="50"/>
+      <c r="F13" s="86">
         <f t="shared" si="0"/>
         <v>0.16584166910419268</v>
       </c>
-      <c r="G13" s="136">
+      <c r="G13" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="75">
         <f t="shared" si="4"/>
         <v>0.12458440305259647</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="76">
         <f t="shared" si="5"/>
         <v>8.2977541435500762E-2</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="75">
         <f>IF(I13&gt;0, ('BPV Calcs'!$B$8/12)+(I13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.63091951888607967</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="87">
         <f t="shared" si="6"/>
         <v>7.571034226632956</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="121">
+      <c r="N13" s="113">
         <f t="shared" si="7"/>
         <v>0.13614073631623833</v>
       </c>
-      <c r="O13" s="88">
+      <c r="O13" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P13" s="89">
+      <c r="P13" s="81">
         <f t="shared" si="8"/>
         <v>9.9196951661299826E-2</v>
       </c>
-      <c r="Q13" s="89">
+      <c r="Q13" s="81">
         <f t="shared" si="3"/>
         <v>5.7590090044204116E-2</v>
       </c>
-      <c r="R13" s="122">
+      <c r="R13" s="114">
         <f>IF(Q13&gt;0, ('BPV Calcs'!$B$8/12)+(Q13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.52074909958649518</v>
       </c>
-      <c r="S13" s="52"/>
+      <c r="S13" s="50"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="101">
+      <c r="A14" s="93">
         <v>41</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14" s="97">
         <v>513.66803117999996</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C14" s="95">
         <v>1.7088611675200001</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="96">
         <v>0.19174958218079999</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="94">
+      <c r="E14" s="50"/>
+      <c r="F14" s="86">
         <f t="shared" si="0"/>
         <v>0.16324517830239926</v>
       </c>
-      <c r="G14" s="136">
+      <c r="G14" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="75">
         <f t="shared" si="4"/>
         <v>0.12263385432548642</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="76">
         <f t="shared" si="5"/>
         <v>8.1026992708390699E-2</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="75">
         <f>IF(I14&gt;0, ('BPV Calcs'!$B$8/12)+(I14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.62245499175344854</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="87">
         <f t="shared" si="6"/>
         <v>7.4694599010413825</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="121">
+      <c r="N14" s="113">
         <f t="shared" si="7"/>
         <v>0.1333850924260572</v>
       </c>
-      <c r="O14" s="88">
+      <c r="O14" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P14" s="89">
+      <c r="P14" s="81">
         <f t="shared" si="8"/>
         <v>9.718909213911324E-2</v>
       </c>
-      <c r="Q14" s="89">
+      <c r="Q14" s="81">
         <f t="shared" si="3"/>
         <v>5.558223052201753E-2</v>
       </c>
-      <c r="R14" s="122">
+      <c r="R14" s="114">
         <f>IF(Q14&gt;0, ('BPV Calcs'!$B$8/12)+(Q14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.51203586870543893</v>
       </c>
-      <c r="S14" s="52"/>
+      <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="101">
+      <c r="A15" s="93">
         <v>41.9</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15" s="97">
         <v>520.06565735999993</v>
       </c>
-      <c r="C15" s="103">
+      <c r="C15" s="95">
         <v>1.7035330488</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="96">
         <v>0.19463846641919999</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="94">
+      <c r="E15" s="50"/>
+      <c r="F15" s="86">
         <f t="shared" si="0"/>
         <v>0.16060302380499611</v>
       </c>
-      <c r="G15" s="136">
+      <c r="G15" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="75">
         <f t="shared" si="4"/>
         <v>0.12064900188996915</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="76">
         <f t="shared" si="5"/>
         <v>7.9042140272873429E-2</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="75">
         <f>IF(I15&gt;0, ('BPV Calcs'!$B$8/12)+(I15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.61384160155140144</v>
       </c>
-      <c r="K15" s="95">
+      <c r="K15" s="87">
         <f t="shared" si="6"/>
         <v>7.3660992186168173</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="121">
+      <c r="N15" s="113">
         <f t="shared" si="7"/>
         <v>0.13058032854768797</v>
       </c>
-      <c r="O15" s="88">
+      <c r="O15" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P15" s="89">
+      <c r="P15" s="81">
         <f t="shared" si="8"/>
         <v>9.5145442057644081E-2</v>
       </c>
-      <c r="Q15" s="89">
+      <c r="Q15" s="81">
         <f t="shared" si="3"/>
         <v>5.3538580440548371E-2</v>
       </c>
-      <c r="R15" s="122">
+      <c r="R15" s="114">
         <f>IF(Q15&gt;0, ('BPV Calcs'!$B$8/12)+(Q15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.50316732247341056</v>
       </c>
-      <c r="S15" s="52"/>
+      <c r="S15" s="50"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="101">
+      <c r="A16" s="93">
         <v>42.8</v>
       </c>
-      <c r="B16" s="105">
+      <c r="B16" s="97">
         <v>526.52129874000002</v>
       </c>
-      <c r="C16" s="103">
+      <c r="C16" s="95">
         <v>1.6981603027200001</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="96">
         <v>0.19757531536799999</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="94">
+      <c r="E16" s="50"/>
+      <c r="F16" s="86">
         <f t="shared" si="0"/>
         <v>0.15791193997714462</v>
       </c>
-      <c r="G16" s="136">
+      <c r="G16" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="75">
         <f t="shared" si="4"/>
         <v>0.11862739251960797</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="76">
         <f t="shared" si="5"/>
         <v>7.7020530902512263E-2</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="75">
         <f>IF(I16&gt;0, ('BPV Calcs'!$B$8/12)+(I16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.60506870235172006</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K16" s="87">
         <f t="shared" si="6"/>
         <v>7.2608244282206407</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="121">
+      <c r="N16" s="113">
         <f t="shared" si="7"/>
         <v>0.12772299193084816</v>
       </c>
-      <c r="O16" s="88">
+      <c r="O16" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P16" s="89">
+      <c r="P16" s="81">
         <f t="shared" si="8"/>
         <v>9.3063485621017156E-2</v>
       </c>
-      <c r="Q16" s="89">
+      <c r="Q16" s="81">
         <f t="shared" si="3"/>
         <v>5.1456624003921446E-2</v>
       </c>
-      <c r="R16" s="122">
+      <c r="R16" s="114">
         <f>IF(Q16&gt;0, ('BPV Calcs'!$B$8/12)+(Q16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.49413254343823371</v>
       </c>
-      <c r="S16" s="52"/>
+      <c r="S16" s="50"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="101">
+      <c r="A17" s="93">
         <v>43.7</v>
       </c>
-      <c r="B17" s="105">
+      <c r="B17" s="97">
         <v>533.03640570000005</v>
       </c>
-      <c r="C17" s="103">
+      <c r="C17" s="95">
         <v>1.69274292928</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="96">
         <v>0.20056135142879999</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="94">
+      <c r="E17" s="50"/>
+      <c r="F17" s="86">
         <f t="shared" si="0"/>
         <v>0.15517073555268265</v>
       </c>
-      <c r="G17" s="136">
+      <c r="G17" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="75">
         <f t="shared" si="4"/>
         <v>0.11656813130551485</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="76">
         <f t="shared" si="5"/>
         <v>7.4961269688419152E-2</v>
       </c>
-      <c r="J17" s="83">
+      <c r="J17" s="75">
         <f>IF(I17&gt;0, ('BPV Calcs'!$B$8/12)+(I17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.59613241064180122</v>
       </c>
-      <c r="K17" s="95">
+      <c r="K17" s="87">
         <f t="shared" si="6"/>
         <v>7.1535889277016143</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="121">
+      <c r="N17" s="113">
         <f t="shared" si="7"/>
         <v>0.1248117746228357</v>
       </c>
-      <c r="O17" s="88">
+      <c r="O17" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P17" s="89">
+      <c r="P17" s="81">
         <f t="shared" si="8"/>
         <v>9.0942269808671011E-2</v>
       </c>
-      <c r="Q17" s="89">
+      <c r="Q17" s="81">
         <f t="shared" si="3"/>
         <v>4.9335408191575301E-2</v>
       </c>
-      <c r="R17" s="122">
+      <c r="R17" s="114">
         <f>IF(Q17&gt;0, ('BPV Calcs'!$B$8/12)+(Q17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.48492739590809608</v>
       </c>
-      <c r="S17" s="52"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="101">
+      <c r="A18" s="93">
         <v>44.6</v>
       </c>
-      <c r="B18" s="105">
+      <c r="B18" s="97">
         <v>539.61097824000001</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="95">
         <v>1.6872809284800001</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="96">
         <v>0.20359789401919998</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="94">
+      <c r="E18" s="50"/>
+      <c r="F18" s="86">
         <f t="shared" si="0"/>
         <v>0.15237817442287846</v>
       </c>
-      <c r="G18" s="136">
+      <c r="G18" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H18" s="83">
+      <c r="H18" s="75">
         <f t="shared" si="4"/>
         <v>0.11447028965194368</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="76">
         <f t="shared" si="5"/>
         <v>7.2863428034847966E-2</v>
       </c>
-      <c r="J18" s="83">
+      <c r="J18" s="75">
         <f>IF(I18&gt;0, ('BPV Calcs'!$B$8/12)+(I18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.5870286967228332</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K18" s="87">
         <f t="shared" si="6"/>
         <v>7.0443443606739979</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="121">
+      <c r="N18" s="113">
         <f t="shared" si="7"/>
         <v>0.12184531722222625</v>
       </c>
-      <c r="O18" s="88">
+      <c r="O18" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P18" s="89">
+      <c r="P18" s="81">
         <f t="shared" si="8"/>
         <v>8.8780804112686948E-2</v>
       </c>
-      <c r="Q18" s="89">
+      <c r="Q18" s="81">
         <f t="shared" si="3"/>
         <v>4.7173942495591238E-2</v>
       </c>
-      <c r="R18" s="122">
+      <c r="R18" s="114">
         <f>IF(Q18&gt;0, ('BPV Calcs'!$B$8/12)+(Q18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.47554758151247428</v>
       </c>
-      <c r="S18" s="52"/>
+      <c r="S18" s="50"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="101">
+      <c r="A19" s="93">
         <v>45.5</v>
       </c>
-      <c r="B19" s="105">
+      <c r="B19" s="97">
         <v>546.24646674000007</v>
       </c>
-      <c r="C19" s="103">
+      <c r="C19" s="95">
         <v>1.6817723599999999</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="96">
         <v>0.20668630136319999</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="94">
+      <c r="E19" s="50"/>
+      <c r="F19" s="86">
         <f t="shared" si="0"/>
         <v>0.14953184761109797</v>
       </c>
-      <c r="G19" s="136">
+      <c r="G19" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H19" s="83">
+      <c r="H19" s="75">
         <f t="shared" si="4"/>
         <v>0.11233205787549259</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="76">
         <f t="shared" si="5"/>
         <v>7.0725196258396877E-2</v>
       </c>
-      <c r="J19" s="83">
+      <c r="J19" s="75">
         <f>IF(I19&gt;0, ('BPV Calcs'!$B$8/12)+(I19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.57774970736149589</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K19" s="87">
         <f t="shared" si="6"/>
         <v>6.9329964883379507</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="121">
+      <c r="N19" s="113">
         <f t="shared" si="7"/>
         <v>0.11882104131137136</v>
       </c>
-      <c r="O19" s="88">
+      <c r="O19" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P19" s="89">
+      <c r="P19" s="81">
         <f t="shared" si="8"/>
         <v>8.6577209806845648E-2</v>
       </c>
-      <c r="Q19" s="89">
+      <c r="Q19" s="81">
         <f t="shared" si="3"/>
         <v>4.4970348189749938E-2</v>
       </c>
-      <c r="R19" s="122">
+      <c r="R19" s="114">
         <f>IF(Q19&gt;0, ('BPV Calcs'!$B$8/12)+(Q19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.46598494740246116</v>
       </c>
-      <c r="S19" s="52"/>
+      <c r="S19" s="50"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="101">
+      <c r="A20" s="93">
         <v>46.4</v>
       </c>
-      <c r="B20" s="105">
+      <c r="B20" s="97">
         <v>552.93997044000002</v>
       </c>
-      <c r="C20" s="103">
+      <c r="C20" s="95">
         <v>1.6762152835199999</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="96">
         <v>0.2098279704912</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="94">
+      <c r="E20" s="50"/>
+      <c r="F20" s="86">
         <f t="shared" si="0"/>
         <v>0.14662924681830652</v>
       </c>
-      <c r="G20" s="136">
+      <c r="G20" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H20" s="83">
+      <c r="H20" s="75">
         <f t="shared" si="4"/>
         <v>0.11015155167929216</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="76">
         <f t="shared" si="5"/>
         <v>6.8544690062196462E-2</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="75">
         <f>IF(I20&gt;0, ('BPV Calcs'!$B$8/12)+(I20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.56828726553470044</v>
       </c>
-      <c r="K20" s="95">
+      <c r="K20" s="87">
         <f t="shared" si="6"/>
         <v>6.8194471864164052</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="121">
+      <c r="N20" s="113">
         <f t="shared" si="7"/>
         <v>0.11573626116593252</v>
       </c>
-      <c r="O20" s="88">
+      <c r="O20" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P20" s="89">
+      <c r="P20" s="81">
         <f t="shared" si="8"/>
         <v>8.4329529977481194E-2</v>
       </c>
-      <c r="Q20" s="89">
+      <c r="Q20" s="81">
         <f t="shared" si="3"/>
         <v>4.2722668360385484E-2</v>
       </c>
-      <c r="R20" s="122">
+      <c r="R20" s="114">
         <f>IF(Q20&gt;0, ('BPV Calcs'!$B$8/12)+(Q20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.45623100142987749</v>
       </c>
-      <c r="S20" s="52"/>
+      <c r="S20" s="50"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="101">
+      <c r="A21" s="93">
         <v>47.3</v>
       </c>
-      <c r="B21" s="105">
+      <c r="B21" s="97">
         <v>559.69439009999996</v>
       </c>
-      <c r="C21" s="103">
+      <c r="C21" s="95">
         <v>1.6706096990399999</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="96">
         <v>0.21302437604639998</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="94">
+      <c r="E21" s="50"/>
+      <c r="F21" s="86">
         <f t="shared" si="0"/>
         <v>0.14366890189539364</v>
       </c>
-      <c r="G21" s="136">
+      <c r="G21" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H21" s="83">
+      <c r="H21" s="75">
         <f t="shared" si="4"/>
         <v>0.10792766665061956</v>
       </c>
-      <c r="I21" s="84">
+      <c r="I21" s="76">
         <f t="shared" si="5"/>
         <v>6.6320805033523861E-2</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="75">
         <f>IF(I21&gt;0, ('BPV Calcs'!$B$8/12)+(I21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.55863657857496385</v>
       </c>
-      <c r="K21" s="95">
+      <c r="K21" s="87">
         <f t="shared" si="6"/>
         <v>6.7036389428995662</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="121">
+      <c r="N21" s="113">
         <f t="shared" si="7"/>
         <v>0.11258936129657487</v>
       </c>
-      <c r="O21" s="88">
+      <c r="O21" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P21" s="89">
+      <c r="P21" s="81">
         <f t="shared" si="8"/>
         <v>8.2036587521973195E-2</v>
       </c>
-      <c r="Q21" s="89">
+      <c r="Q21" s="81">
         <f t="shared" si="3"/>
         <v>4.0429725904877485E-2</v>
       </c>
-      <c r="R21" s="122">
+      <c r="R21" s="114">
         <f>IF(Q21&gt;0, ('BPV Calcs'!$B$8/12)+(Q21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.44628063548492347</v>
       </c>
-      <c r="S21" s="52"/>
+      <c r="S21" s="50"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="101">
+      <c r="A22" s="93">
         <v>48.2</v>
       </c>
-      <c r="B22" s="105">
+      <c r="B22" s="97">
         <v>566.51117609999994</v>
       </c>
-      <c r="C22" s="103">
+      <c r="C22" s="95">
         <v>1.66495172592</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="96">
         <v>0.21627710909119999</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="94">
+      <c r="E22" s="50"/>
+      <c r="F22" s="86">
         <f t="shared" si="0"/>
         <v>0.14064697985759764</v>
       </c>
-      <c r="G22" s="136">
+      <c r="G22" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H22" s="83">
+      <c r="H22" s="75">
         <f t="shared" si="4"/>
         <v>0.10565752335560866</v>
       </c>
-      <c r="I22" s="84">
+      <c r="I22" s="76">
         <f t="shared" si="5"/>
         <v>6.4050661738512954E-2</v>
       </c>
-      <c r="J22" s="83">
+      <c r="J22" s="75">
         <f>IF(I22&gt;0, ('BPV Calcs'!$B$8/12)+(I22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.54878515100050351</v>
       </c>
-      <c r="K22" s="95">
+      <c r="K22" s="87">
         <f t="shared" si="6"/>
         <v>6.5854218120060422</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="121">
+      <c r="N22" s="113">
         <f t="shared" si="7"/>
         <v>0.10937627096550176</v>
       </c>
-      <c r="O22" s="88">
+      <c r="O22" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P22" s="89">
+      <c r="P22" s="81">
         <f t="shared" si="8"/>
         <v>7.9695416356904122E-2</v>
       </c>
-      <c r="Q22" s="89">
+      <c r="Q22" s="81">
         <f t="shared" si="3"/>
         <v>3.8088554739808413E-2</v>
       </c>
-      <c r="R22" s="122">
+      <c r="R22" s="114">
         <f>IF(Q22&gt;0, ('BPV Calcs'!$B$8/12)+(Q22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.43612097806471545</v>
       </c>
-      <c r="S22" s="52"/>
+      <c r="S22" s="50"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="101">
+      <c r="A23" s="93">
         <v>49.1</v>
       </c>
-      <c r="B23" s="105">
+      <c r="B23" s="97">
         <v>573.38742767999997</v>
       </c>
-      <c r="C23" s="103">
+      <c r="C23" s="95">
         <v>1.6592413641600001</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="96">
         <v>0.21958774128479999</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="94">
+      <c r="E23" s="50"/>
+      <c r="F23" s="86">
         <f t="shared" si="0"/>
         <v>0.13756180288548553</v>
       </c>
-      <c r="G23" s="136">
+      <c r="G23" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H23" s="83">
+      <c r="H23" s="75">
         <f t="shared" si="4"/>
         <v>0.10333986137440462</v>
       </c>
-      <c r="I23" s="84">
+      <c r="I23" s="76">
         <f t="shared" si="5"/>
         <v>6.1732999757308914E-2</v>
       </c>
-      <c r="J23" s="83">
+      <c r="J23" s="75">
         <f>IF(I23&gt;0, ('BPV Calcs'!$B$8/12)+(I23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.53872751314121492</v>
       </c>
-      <c r="K23" s="95">
+      <c r="K23" s="87">
         <f t="shared" si="6"/>
         <v>6.4647301576945786</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="121">
+      <c r="N23" s="113">
         <f t="shared" si="7"/>
         <v>0.10609514903040819</v>
       </c>
-      <c r="O23" s="88">
+      <c r="O23" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P23" s="89">
+      <c r="P23" s="81">
         <f t="shared" si="8"/>
         <v>7.730467496092501E-2</v>
       </c>
-      <c r="Q23" s="89">
+      <c r="Q23" s="81">
         <f t="shared" si="3"/>
         <v>3.56978133438293E-2</v>
       </c>
-      <c r="R23" s="122">
+      <c r="R23" s="114">
         <f>IF(Q23&gt;0, ('BPV Calcs'!$B$8/12)+(Q23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.42574620755418724</v>
       </c>
-      <c r="S23" s="52"/>
+      <c r="S23" s="50"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="101">
+      <c r="A24" s="93">
         <v>50</v>
       </c>
-      <c r="B24" s="105">
+      <c r="B24" s="97">
         <v>580.32604560000004</v>
       </c>
-      <c r="C24" s="103">
+      <c r="C24" s="95">
         <v>1.6534766734399999</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="96">
         <v>0.22295801891519998</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="94">
+      <c r="E24" s="50"/>
+      <c r="F24" s="86">
         <f t="shared" si="0"/>
         <v>0.13441045075864813</v>
       </c>
-      <c r="G24" s="136">
+      <c r="G24" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H24" s="83">
+      <c r="H24" s="75">
         <f t="shared" si="4"/>
         <v>0.10097248696451551</v>
       </c>
-      <c r="I24" s="84">
+      <c r="I24" s="76">
         <f t="shared" si="5"/>
         <v>5.93656253474198E-2</v>
       </c>
-      <c r="J24" s="83">
+      <c r="J24" s="75">
         <f>IF(I24&gt;0, ('BPV Calcs'!$B$8/12)+(I24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.52845414511554523</v>
       </c>
-      <c r="K24" s="95">
+      <c r="K24" s="87">
         <f t="shared" si="6"/>
         <v>6.3414497413865423</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="121">
+      <c r="N24" s="113">
         <f t="shared" si="7"/>
         <v>0.10274285797407841</v>
       </c>
-      <c r="O24" s="88">
+      <c r="O24" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P24" s="89">
+      <c r="P24" s="81">
         <f t="shared" si="8"/>
         <v>7.4862077228113361E-2</v>
       </c>
-      <c r="Q24" s="89">
+      <c r="Q24" s="81">
         <f t="shared" si="3"/>
         <v>3.3255215611017651E-2</v>
       </c>
-      <c r="R24" s="122">
+      <c r="R24" s="114">
         <f>IF(Q24&gt;0, ('BPV Calcs'!$B$8/12)+(Q24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.41514640325495267</v>
       </c>
-      <c r="S24" s="52"/>
+      <c r="S24" s="50"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="101">
+      <c r="A25" s="93">
         <v>50.9</v>
       </c>
-      <c r="B25" s="105">
+      <c r="B25" s="97">
         <v>587.32702986000004</v>
       </c>
-      <c r="C25" s="103">
+      <c r="C25" s="95">
         <v>1.6476576537600001</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="96">
         <v>0.22638970767359998</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="94">
+      <c r="E25" s="50"/>
+      <c r="F25" s="86">
         <f t="shared" si="0"/>
         <v>0.13119105233236464</v>
       </c>
-      <c r="G25" s="136">
+      <c r="G25" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H25" s="75">
         <f t="shared" si="4"/>
         <v>9.8553994475302747E-2</v>
       </c>
-      <c r="I25" s="84">
+      <c r="I25" s="76">
         <f t="shared" si="5"/>
         <v>5.6947132858207038E-2</v>
       </c>
-      <c r="J25" s="83">
+      <c r="J25" s="75">
         <f>IF(I25&gt;0, ('BPV Calcs'!$B$8/12)+(I25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.51795894701540002</v>
       </c>
-      <c r="K25" s="95">
+      <c r="K25" s="87">
         <f t="shared" si="6"/>
         <v>6.2155073641848002</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="121">
+      <c r="N25" s="113">
         <f t="shared" si="7"/>
         <v>9.9317342419351473E-2</v>
       </c>
-      <c r="O25" s="88">
+      <c r="O25" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P25" s="89">
+      <c r="P25" s="81">
         <f t="shared" si="8"/>
         <v>7.2366125538033149E-2</v>
       </c>
-      <c r="Q25" s="89">
+      <c r="Q25" s="81">
         <f t="shared" si="3"/>
         <v>3.0759263920937439E-2</v>
       </c>
-      <c r="R25" s="122">
+      <c r="R25" s="114">
         <f>IF(Q25&gt;0, ('BPV Calcs'!$B$8/12)+(Q25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.40431506615027929</v>
       </c>
-      <c r="S25" s="52"/>
+      <c r="S25" s="50"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="101">
+      <c r="A26" s="93">
         <v>51.8</v>
       </c>
-      <c r="B26" s="105">
+      <c r="B26" s="97">
         <v>594.39038045999996</v>
       </c>
-      <c r="C26" s="103">
+      <c r="C26" s="95">
         <v>1.6417804244800001</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="96">
         <v>0.22988470907359998</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="94">
+      <c r="E26" s="50"/>
+      <c r="F26" s="86">
         <f t="shared" si="0"/>
         <v>0.12789925363670013</v>
       </c>
-      <c r="G26" s="136">
+      <c r="G26" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H26" s="83">
+      <c r="H26" s="75">
         <f t="shared" si="4"/>
         <v>9.6081113095828549E-2</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="76">
         <f t="shared" si="5"/>
         <v>5.4474251478732839E-2</v>
       </c>
-      <c r="J26" s="83">
+      <c r="J26" s="75">
         <f>IF(I26&gt;0, ('BPV Calcs'!$B$8/12)+(I26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.50722772495392887</v>
       </c>
-      <c r="K26" s="95">
+      <c r="K26" s="87">
         <f t="shared" si="6"/>
         <v>6.0867326994471469</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="121">
+      <c r="N26" s="113">
         <f t="shared" si="7"/>
         <v>9.5813964526532028E-2</v>
       </c>
-      <c r="O26" s="88">
+      <c r="O26" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P26" s="89">
+      <c r="P26" s="81">
         <f t="shared" si="8"/>
         <v>6.9813440596782211E-2</v>
       </c>
-      <c r="Q26" s="89">
+      <c r="Q26" s="81">
         <f t="shared" si="3"/>
         <v>2.8206578979686502E-2</v>
       </c>
-      <c r="R26" s="122">
+      <c r="R26" s="114">
         <f>IF(Q26&gt;0, ('BPV Calcs'!$B$8/12)+(Q26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.39323753158476704</v>
       </c>
-      <c r="S26" s="52"/>
+      <c r="S26" s="50"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="101">
+      <c r="A27" s="93">
         <v>52.7</v>
       </c>
-      <c r="B27" s="105">
+      <c r="B27" s="97">
         <v>601.51754778000009</v>
       </c>
-      <c r="C27" s="103">
+      <c r="C27" s="95">
         <v>1.6358430452799999</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="96">
         <v>0.23344498283839998</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="94">
+      <c r="E27" s="50"/>
+      <c r="F27" s="86">
         <f t="shared" si="0"/>
         <v>0.12453171014032675</v>
       </c>
-      <c r="G27" s="136">
+      <c r="G27" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H27" s="83">
+      <c r="H27" s="75">
         <f t="shared" si="4"/>
         <v>9.3551330330643362E-2</v>
       </c>
-      <c r="I27" s="84">
+      <c r="I27" s="76">
         <f t="shared" si="5"/>
         <v>5.1944468713547652E-2</v>
       </c>
-      <c r="J27" s="83">
+      <c r="J27" s="75">
         <f>IF(I27&gt;0, ('BPV Calcs'!$B$8/12)+(I27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.49624957580135731</v>
       </c>
-      <c r="K27" s="95">
+      <c r="K27" s="87">
         <f t="shared" si="6"/>
         <v>5.9549949096162873</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="121">
+      <c r="N27" s="113">
         <f t="shared" si="7"/>
         <v>9.2229125421012484E-2</v>
       </c>
-      <c r="O27" s="88">
+      <c r="O27" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P27" s="89">
+      <c r="P27" s="81">
         <f t="shared" si="8"/>
         <v>6.7201400137138059E-2</v>
       </c>
-      <c r="Q27" s="89">
+      <c r="Q27" s="81">
         <f t="shared" si="3"/>
         <v>2.5594538520042349E-2</v>
       </c>
-      <c r="R27" s="122">
+      <c r="R27" s="114">
         <f>IF(Q27&gt;0, ('BPV Calcs'!$B$8/12)+(Q27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.38190242006722691</v>
       </c>
-      <c r="S27" s="52"/>
+      <c r="S27" s="50"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="101">
+      <c r="A28" s="93">
         <v>53.6</v>
       </c>
-      <c r="B28" s="105">
+      <c r="B28" s="97">
         <v>608.70708144000002</v>
       </c>
-      <c r="C28" s="103">
+      <c r="C28" s="95">
         <v>1.6298455161600001</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="96">
         <v>0.23707262451360001</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="94">
+      <c r="E28" s="50"/>
+      <c r="F28" s="86">
         <f t="shared" si="0"/>
         <v>0.12108614470086151</v>
       </c>
-      <c r="G28" s="136">
+      <c r="G28" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H28" s="83">
+      <c r="H28" s="75">
         <f t="shared" si="4"/>
         <v>9.0962935533526718E-2</v>
       </c>
-      <c r="I28" s="84">
+      <c r="I28" s="76">
         <f t="shared" si="5"/>
         <v>4.9356073916431008E-2</v>
       </c>
-      <c r="J28" s="83">
+      <c r="J28" s="75">
         <f>IF(I28&gt;0, ('BPV Calcs'!$B$8/12)+(I28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.48501707610235389</v>
       </c>
-      <c r="K28" s="95">
+      <c r="K28" s="87">
         <f t="shared" si="6"/>
         <v>5.8202049132282472</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="121">
+      <c r="N28" s="113">
         <f t="shared" si="7"/>
         <v>8.8560323374262145E-2</v>
       </c>
-      <c r="O28" s="88">
+      <c r="O28" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P28" s="89">
+      <c r="P28" s="81">
         <f t="shared" si="8"/>
         <v>6.4528181311282753E-2</v>
       </c>
-      <c r="Q28" s="89">
+      <c r="Q28" s="81">
         <f t="shared" si="3"/>
         <v>2.2921319694187044E-2</v>
       </c>
-      <c r="R28" s="122">
+      <c r="R28" s="114">
         <f>IF(Q28&gt;0, ('BPV Calcs'!$B$8/12)+(Q28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.37030182123653899</v>
       </c>
-      <c r="S28" s="52"/>
+      <c r="S28" s="50"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="101">
+      <c r="A29" s="93">
         <v>54.5</v>
       </c>
-      <c r="B29" s="105">
+      <c r="B29" s="97">
         <v>615.96188219999999</v>
       </c>
-      <c r="C29" s="103">
+      <c r="C29" s="95">
         <v>1.6237820161600001</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="96">
         <v>0.2407698072576</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="94">
+      <c r="E29" s="50"/>
+      <c r="F29" s="86">
         <f t="shared" si="0"/>
         <v>0.11755644588442445</v>
       </c>
-      <c r="G29" s="136">
+      <c r="G29" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H29" s="83">
+      <c r="H29" s="75">
         <f t="shared" si="4"/>
         <v>8.8311337642739754E-2</v>
       </c>
-      <c r="I29" s="84">
+      <c r="I29" s="76">
         <f t="shared" si="5"/>
         <v>4.6704476025644044E-2</v>
       </c>
-      <c r="J29" s="83">
+      <c r="J29" s="75">
         <f>IF(I29&gt;0, ('BPV Calcs'!$B$8/12)+(I29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.47351030265986327</v>
       </c>
-      <c r="K29" s="95">
+      <c r="K29" s="87">
         <f t="shared" si="6"/>
         <v>5.6821236319183592</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="121">
+      <c r="N29" s="113">
         <f t="shared" si="7"/>
         <v>8.4801071831599392E-2</v>
       </c>
-      <c r="O29" s="88">
+      <c r="O29" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P29" s="89">
+      <c r="P29" s="81">
         <f t="shared" si="8"/>
         <v>6.1789057786241962E-2</v>
       </c>
-      <c r="Q29" s="89">
+      <c r="Q29" s="81">
         <f t="shared" si="3"/>
         <v>2.0182196169146252E-2</v>
       </c>
-      <c r="R29" s="122">
+      <c r="R29" s="114">
         <f>IF(Q29&gt;0, ('BPV Calcs'!$B$8/12)+(Q29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.35841522487773503</v>
       </c>
-      <c r="S29" s="52"/>
+      <c r="S29" s="50"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="101">
+      <c r="A30" s="93">
         <v>55.4</v>
       </c>
-      <c r="B30" s="105">
+      <c r="B30" s="97">
         <v>623.28049967999993</v>
       </c>
-      <c r="C30" s="103">
+      <c r="C30" s="95">
         <v>1.6176544856000001</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="96">
         <v>0.24453885945439999</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="94">
+      <c r="E30" s="50"/>
+      <c r="F30" s="86">
         <f t="shared" si="0"/>
         <v>0.11394121977368245</v>
       </c>
-      <c r="G30" s="136">
+      <c r="G30" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H30" s="83">
+      <c r="H30" s="75">
         <f t="shared" si="4"/>
         <v>8.5595489512774417E-2</v>
       </c>
-      <c r="I30" s="84">
+      <c r="I30" s="76">
         <f t="shared" si="5"/>
         <v>4.3988627895678707E-2</v>
       </c>
-      <c r="J30" s="83">
+      <c r="J30" s="75">
         <f>IF(I30&gt;0, ('BPV Calcs'!$B$8/12)+(I30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.46172471132103166</v>
       </c>
-      <c r="K30" s="95">
+      <c r="K30" s="87">
         <f t="shared" si="6"/>
         <v>5.5406965358523799</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="121">
+      <c r="N30" s="113">
         <f t="shared" si="7"/>
         <v>8.0949764895709625E-2</v>
       </c>
-      <c r="O30" s="88">
+      <c r="O30" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P30" s="89">
+      <c r="P30" s="81">
         <f t="shared" si="8"/>
         <v>5.8982859448480231E-2</v>
       </c>
-      <c r="Q30" s="89">
+      <c r="Q30" s="81">
         <f t="shared" si="3"/>
         <v>1.7375997831384521E-2</v>
       </c>
-      <c r="R30" s="122">
+      <c r="R30" s="114">
         <f>IF(Q30&gt;0, ('BPV Calcs'!$B$8/12)+(Q30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.34623755321058242</v>
       </c>
-      <c r="S30" s="52"/>
+      <c r="S30" s="50"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="101">
+      <c r="A31" s="93">
         <v>56.3</v>
       </c>
-      <c r="B31" s="105">
+      <c r="B31" s="97">
         <v>630.66438426000002</v>
       </c>
-      <c r="C31" s="103">
+      <c r="C31" s="95">
         <v>1.6114590438399998</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="96">
         <v>0.24838222590720002</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="94">
+      <c r="E31" s="50"/>
+      <c r="F31" s="86">
         <f t="shared" si="0"/>
         <v>0.11023518674553594</v>
       </c>
-      <c r="G31" s="136">
+      <c r="G31" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H31" s="83">
+      <c r="H31" s="75">
         <f t="shared" si="4"/>
         <v>8.2811424958921173E-2</v>
       </c>
-      <c r="I31" s="84">
+      <c r="I31" s="76">
         <f t="shared" si="5"/>
         <v>4.1204563341825463E-2</v>
       </c>
-      <c r="J31" s="83">
+      <c r="J31" s="75">
         <f>IF(I31&gt;0, ('BPV Calcs'!$B$8/12)+(I31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.44964309058141411</v>
       </c>
-      <c r="K31" s="95">
+      <c r="K31" s="87">
         <f t="shared" si="6"/>
         <v>5.3957170869769691</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="121">
+      <c r="N31" s="113">
         <f t="shared" si="7"/>
         <v>7.7000755915053343E-2</v>
       </c>
-      <c r="O31" s="88">
+      <c r="O31" s="80">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P31" s="89">
+      <c r="P31" s="81">
         <f t="shared" si="8"/>
         <v>5.6105471948134568E-2</v>
       </c>
-      <c r="Q31" s="89">
+      <c r="Q31" s="81">
         <f t="shared" si="3"/>
         <v>1.4498610331038858E-2</v>
       </c>
-      <c r="R31" s="122">
+      <c r="R31" s="114">
         <f>IF(Q31&gt;0, ('BPV Calcs'!$B$8/12)+(Q31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.33375095175876668</v>
       </c>
-      <c r="S31" s="52"/>
+      <c r="S31" s="50"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="101">
+      <c r="A32" s="93">
         <v>57.2</v>
       </c>
-      <c r="B32" s="105">
+      <c r="B32" s="97">
         <v>638.11353594000002</v>
       </c>
-      <c r="C32" s="103">
+      <c r="C32" s="95">
         <v>1.60519375056</v>
       </c>
-      <c r="D32" s="104">
+      <c r="D32" s="96">
         <v>0.25230250664479997</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="94">
+      <c r="E32" s="50"/>
+      <c r="F32" s="86">
         <f t="shared" si="0"/>
         <v>0.10643407956180023</v>
       </c>
-      <c r="G32" s="136">
+      <c r="G32" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H32" s="83">
+      <c r="H32" s="75">
         <f t="shared" si="4"/>
         <v>7.9955938325298792E-2</v>
       </c>
-      <c r="I32" s="84">
+      <c r="I32" s="76">
         <f t="shared" si="5"/>
         <v>3.8349076708203082E-2</v>
       </c>
-      <c r="J32" s="83">
+      <c r="J32" s="75">
         <f>IF(I32&gt;0, ('BPV Calcs'!$B$8/12)+(I32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.4372515292985677</v>
       </c>
-      <c r="K32" s="95">
+      <c r="K32" s="87">
         <f t="shared" si="6"/>
         <v>5.2470183515828124</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="121">
+      <c r="N32" s="113">
         <f t="shared" si="7"/>
         <v>7.2949435155999456E-2</v>
       </c>
-      <c r="O32" s="88">
+      <c r="O32" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P32" s="89">
+      <c r="P32" s="81">
         <f t="shared" si="8"/>
         <v>5.3153536470374449E-2</v>
       </c>
-      <c r="Q32" s="89">
+      <c r="Q32" s="81">
         <f t="shared" si="3"/>
         <v>1.1546674853278739E-2</v>
       </c>
-      <c r="R32" s="122">
+      <c r="R32" s="114">
         <f>IF(Q32&gt;0, ('BPV Calcs'!$B$8/12)+(Q32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.32094084473708895</v>
       </c>
-      <c r="S32" s="52"/>
+      <c r="S32" s="50"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="101">
+      <c r="A33" s="93">
         <v>58.1</v>
       </c>
-      <c r="B33" s="105">
+      <c r="B33" s="97">
         <v>645.62795472000005</v>
       </c>
-      <c r="C33" s="103">
+      <c r="C33" s="95">
         <v>1.5988547251199998</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="96">
         <v>0.25630243751839998</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="94">
+      <c r="E33" s="50"/>
+      <c r="F33" s="86">
         <f t="shared" si="0"/>
         <v>0.10253210256655709</v>
       </c>
-      <c r="G33" s="136">
+      <c r="G33" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H33" s="83">
+      <c r="H33" s="75">
         <f t="shared" si="4"/>
         <v>7.7024675770458517E-2</v>
       </c>
-      <c r="I33" s="84">
+      <c r="I33" s="76">
         <f t="shared" si="5"/>
         <v>3.5417814153362807E-2</v>
       </c>
-      <c r="J33" s="83">
+      <c r="J33" s="75">
         <f>IF(I33&gt;0, ('BPV Calcs'!$B$8/12)+(I33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.42453113370759338</v>
       </c>
-      <c r="K33" s="95">
+      <c r="K33" s="87">
         <f t="shared" si="6"/>
         <v>5.0943736044911203</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
-      <c r="N33" s="121">
+      <c r="N33" s="113">
         <f t="shared" si="7"/>
         <v>6.8789593883226779E-2</v>
       </c>
-      <c r="O33" s="88">
+      <c r="O33" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P33" s="89">
+      <c r="P33" s="81">
         <f t="shared" si="8"/>
         <v>5.0122529111229636E-2</v>
       </c>
-      <c r="Q33" s="89">
+      <c r="Q33" s="81">
         <f t="shared" si="3"/>
         <v>8.5156674941339258E-3</v>
       </c>
-      <c r="R33" s="122">
+      <c r="R33" s="114">
         <f>IF(Q33&gt;0, ('BPV Calcs'!$B$8/12)+(Q33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.30778760038379444</v>
       </c>
-      <c r="S33" s="52"/>
+      <c r="S33" s="50"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="101">
+      <c r="A34" s="93">
         <v>59</v>
       </c>
-      <c r="B34" s="105">
+      <c r="B34" s="97">
         <v>653.21054135999998</v>
       </c>
-      <c r="C34" s="103">
+      <c r="C34" s="95">
         <v>1.5924400272000001</v>
       </c>
-      <c r="D34" s="104">
+      <c r="D34" s="96">
         <v>0.26038490960479999</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="94">
+      <c r="E34" s="50"/>
+      <c r="F34" s="86">
         <f t="shared" si="0"/>
         <v>9.8524459836365458E-2</v>
       </c>
-      <c r="G34" s="136">
+      <c r="G34" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H34" s="83">
+      <c r="H34" s="75">
         <f t="shared" si="4"/>
         <v>7.4014034476952761E-2</v>
       </c>
-      <c r="I34" s="84">
+      <c r="I34" s="76">
         <f t="shared" si="5"/>
         <v>3.2407172859857052E-2</v>
       </c>
-      <c r="J34" s="83">
+      <c r="J34" s="75">
         <f>IF(I34&gt;0, ('BPV Calcs'!$B$8/12)+(I34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.41146626915880763</v>
       </c>
-      <c r="K34" s="95">
+      <c r="K34" s="87">
         <f t="shared" si="6"/>
         <v>4.9375952299056918</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="121">
+      <c r="N34" s="113">
         <f t="shared" si="7"/>
         <v>6.4516045601971481E-2</v>
       </c>
-      <c r="O34" s="88">
+      <c r="O34" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P34" s="89">
+      <c r="P34" s="81">
         <f t="shared" si="8"/>
         <v>4.7008670807325716E-2</v>
       </c>
-      <c r="Q34" s="89">
+      <c r="Q34" s="81">
         <f t="shared" si="3"/>
         <v>5.4018091902300058E-3</v>
       </c>
-      <c r="R34" s="122">
+      <c r="R34" s="114">
         <f>IF(Q34&gt;0, ('BPV Calcs'!$B$8/12)+(Q34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.29427481921907328</v>
       </c>
-      <c r="S34" s="52"/>
+      <c r="S34" s="50"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="101">
+      <c r="A35" s="93">
         <v>59.9</v>
       </c>
-      <c r="B35" s="105">
+      <c r="B35" s="97">
         <v>660.85839510000005</v>
       </c>
-      <c r="C35" s="103">
+      <c r="C35" s="95">
         <v>1.58594577616</v>
       </c>
-      <c r="D35" s="104">
+      <c r="D35" s="96">
         <v>0.26455302741599995</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="94">
+      <c r="E35" s="50"/>
+      <c r="F35" s="86">
         <f t="shared" si="0"/>
         <v>9.4404755900095283E-2</v>
       </c>
-      <c r="G35" s="136">
+      <c r="G35" s="128">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H35" s="83">
+      <c r="H35" s="75">
         <f t="shared" si="4"/>
         <v>7.0919210007167707E-2</v>
       </c>
-      <c r="I35" s="84">
+      <c r="I35" s="76">
         <f t="shared" si="5"/>
         <v>2.9312348390071997E-2</v>
       </c>
-      <c r="J35" s="83">
+      <c r="J35" s="75">
         <f>IF(I35&gt;0, ('BPV Calcs'!$B$8/12)+(I35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.39803608649731681</v>
       </c>
-      <c r="K35" s="95">
+      <c r="K35" s="87">
         <f t="shared" si="6"/>
         <v>4.7764330379678022</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="121">
+      <c r="N35" s="113">
         <f t="shared" si="7"/>
         <v>6.0121926464803473E-2</v>
       </c>
-      <c r="O35" s="88">
+      <c r="O35" s="80">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P35" s="89">
+      <c r="P35" s="81">
         <f t="shared" si="8"/>
         <v>4.3806960316858386E-2</v>
       </c>
-      <c r="Q35" s="89">
+      <c r="Q35" s="81">
         <f t="shared" si="3"/>
         <v>2.2000986997626759E-3</v>
       </c>
-      <c r="R35" s="122">
+      <c r="R35" s="114">
         <f>IF(Q35&gt;0, ('BPV Calcs'!$B$8/12)+(Q35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.28038079804404548</v>
       </c>
-      <c r="S35" s="52"/>
+      <c r="S35" s="50"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="101">
+      <c r="A36" s="93">
         <v>60.8</v>
       </c>
-      <c r="B36" s="105">
+      <c r="B36" s="97">
         <v>668.57586708000008</v>
       </c>
-      <c r="C36" s="103">
+      <c r="C36" s="95">
         <v>1.5793700316800001</v>
       </c>
-      <c r="D36" s="104">
+      <c r="D36" s="96">
         <v>0.2688100700928</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="94">
+      <c r="E36" s="50"/>
+      <c r="F36" s="86">
         <f t="shared" ref="F36:F53" si="9">($C$53-C36)/(D36-C36)</f>
         <v>9.0167576361954008E-2</v>
       </c>
-      <c r="G36" s="136">
+      <c r="G36" s="128">
         <f t="shared" ref="G36:G53" si="10">$U$7/((C36*(1-F36))+(D36*F36))</f>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H36" s="83">
+      <c r="H36" s="75">
         <f t="shared" si="4"/>
         <v>6.7736134931781461E-2</v>
       </c>
-      <c r="I36" s="84">
+      <c r="I36" s="76">
         <f t="shared" si="5"/>
         <v>2.6129273314685751E-2</v>
       </c>
-      <c r="J36" s="83">
+      <c r="J36" s="75">
         <f>IF(I36&gt;0, ('BPV Calcs'!$B$8/12)+(I36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.38422293486140346</v>
       </c>
-      <c r="K36" s="95">
+      <c r="K36" s="87">
         <f t="shared" si="6"/>
         <v>4.6106752183368416</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="121">
+      <c r="N36" s="113">
         <f t="shared" si="7"/>
         <v>5.5601372945089003E-2</v>
       </c>
-      <c r="O36" s="88">
+      <c r="O36" s="80">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P36" s="89">
+      <c r="P36" s="81">
         <f t="shared" si="8"/>
         <v>4.0513125267106653E-2</v>
       </c>
-      <c r="Q36" s="89">
+      <c r="Q36" s="81">
         <f t="shared" si="3"/>
         <v>-1.0937363499890565E-3</v>
       </c>
-      <c r="R36" s="122" t="str">
+      <c r="R36" s="114" t="str">
         <f>IF(Q36&gt;0, ('BPV Calcs'!$B$8/12)+(Q36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="S36" s="52"/>
+      <c r="S36" s="50"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="101">
+      <c r="A37" s="93">
         <v>61.7</v>
       </c>
-      <c r="B37" s="105">
+      <c r="B37" s="97">
         <v>676.36005653999996</v>
       </c>
-      <c r="C37" s="103">
+      <c r="C37" s="95">
         <v>1.5727089131200001</v>
       </c>
-      <c r="D37" s="104">
+      <c r="D37" s="96">
         <v>0.27315953021120004</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="94">
+      <c r="E37" s="50"/>
+      <c r="F37" s="86">
         <f t="shared" si="9"/>
         <v>8.5805817247007074E-2</v>
       </c>
-      <c r="G37" s="136">
+      <c r="G37" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H37" s="83">
+      <c r="H37" s="75">
         <f t="shared" si="4"/>
         <v>6.4459472567430315E-2</v>
       </c>
-      <c r="I37" s="84">
+      <c r="I37" s="76">
         <f t="shared" si="5"/>
         <v>2.2852610950334605E-2</v>
       </c>
-      <c r="J37" s="83">
+      <c r="J37" s="75">
         <f>IF(I37&gt;0, ('BPV Calcs'!$B$8/12)+(I37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.37000365538274377</v>
       </c>
-      <c r="K37" s="95">
+      <c r="K37" s="87">
         <f t="shared" si="6"/>
         <v>4.4400438645929254</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="121">
+      <c r="N37" s="113">
         <f t="shared" si="7"/>
         <v>5.0946747774153422E-2</v>
       </c>
-      <c r="O37" s="88">
+      <c r="O37" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P37" s="89">
+      <c r="P37" s="81">
         <f t="shared" si="8"/>
         <v>3.7121600874214893E-2</v>
       </c>
-      <c r="Q37" s="89">
+      <c r="Q37" s="81">
         <f t="shared" si="3"/>
         <v>-4.4852607428808172E-3</v>
       </c>
-      <c r="R37" s="122" t="str">
+      <c r="R37" s="114" t="str">
         <f>IF(Q37&gt;0, ('BPV Calcs'!$B$8/12)+(Q37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="S37" s="52" t="s">
+      <c r="S37" s="50" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="101">
+      <c r="A38" s="93">
         <v>62.6</v>
       </c>
-      <c r="B38" s="105">
+      <c r="B38" s="97">
         <v>684.21241385999997</v>
       </c>
-      <c r="C38" s="103">
+      <c r="C38" s="95">
         <v>1.56595853984</v>
       </c>
-      <c r="D38" s="104">
+      <c r="D38" s="96">
         <v>0.27760515258880003</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="94">
+      <c r="E38" s="50"/>
+      <c r="F38" s="86">
         <f t="shared" si="9"/>
         <v>8.1311947956176495E-2</v>
       </c>
-      <c r="G38" s="136">
+      <c r="G38" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H38" s="83">
+      <c r="H38" s="75">
         <f t="shared" si="4"/>
         <v>6.1083565740040757E-2</v>
       </c>
-      <c r="I38" s="84">
+      <c r="I38" s="76">
         <f t="shared" si="5"/>
         <v>1.9476704122945047E-2</v>
       </c>
-      <c r="J38" s="83">
+      <c r="J38" s="75">
         <f>IF(I38&gt;0, ('BPV Calcs'!$B$8/12)+(I38/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.35535369840370878</v>
       </c>
-      <c r="K38" s="95">
+      <c r="K38" s="87">
         <f t="shared" si="6"/>
         <v>4.2642443808445059</v>
       </c>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="121">
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="113">
         <f t="shared" si="7"/>
         <v>4.6149947630415508E-2</v>
       </c>
-      <c r="O38" s="88">
+      <c r="O38" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P38" s="89">
+      <c r="P38" s="81">
         <f t="shared" si="8"/>
         <v>3.3626482771709584E-2</v>
       </c>
-      <c r="Q38" s="89">
+      <c r="Q38" s="81">
         <f t="shared" si="3"/>
         <v>-7.9803788453861255E-3</v>
       </c>
-      <c r="R38" s="122">
+      <c r="R38" s="114">
         <v>0.24521116920246497</v>
       </c>
-      <c r="S38" s="52">
+      <c r="S38" s="50">
         <f>((1/3)*PI()*(R38^2)*((3*('BPV Calcs'!$B$8/12))-R38))-P38</f>
         <v>2.0936732477815634E-3</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="101">
+      <c r="A39" s="93">
         <v>63.5</v>
       </c>
-      <c r="B39" s="105">
+      <c r="B39" s="97">
         <v>692.13438942000005</v>
       </c>
-      <c r="C39" s="103">
+      <c r="C39" s="95">
         <v>1.5591150311999999</v>
       </c>
-      <c r="D39" s="104">
+      <c r="D39" s="96">
         <v>0.28215091488159999</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="94">
+      <c r="E39" s="50"/>
+      <c r="F39" s="86">
         <f t="shared" si="9"/>
         <v>7.6677969006389013E-2</v>
       </c>
-      <c r="G39" s="136">
+      <c r="G39" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H39" s="83">
+      <c r="H39" s="75">
         <f t="shared" si="4"/>
         <v>5.7602405038173606E-2</v>
       </c>
-      <c r="I39" s="84">
+      <c r="I39" s="76">
         <f t="shared" si="5"/>
         <v>1.5995543421077896E-2</v>
       </c>
-      <c r="J39" s="83">
+      <c r="J39" s="75">
         <f>IF(I39&gt;0, ('BPV Calcs'!$B$8/12)+(I39/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.34024698571078288</v>
       </c>
-      <c r="K39" s="95">
+      <c r="K39" s="87">
         <f t="shared" si="6"/>
         <v>4.0829638285293948</v>
       </c>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="121">
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="113">
         <f t="shared" si="7"/>
         <v>4.1202358029293618E-2</v>
       </c>
-      <c r="O39" s="88">
+      <c r="O39" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P39" s="89">
+      <c r="P39" s="81">
         <f t="shared" si="8"/>
         <v>3.0021494141690707E-2</v>
       </c>
-      <c r="Q39" s="89">
+      <c r="Q39" s="81">
         <f t="shared" si="3"/>
         <v>-1.1585367475405003E-2</v>
       </c>
-      <c r="R39" s="122">
+      <c r="R39" s="114">
         <v>0.22780916988569017</v>
       </c>
-      <c r="S39" s="52">
+      <c r="S39" s="50">
         <f>((1/3)*PI()*(R39^2)*((3*('BPV Calcs'!$B$8/12))-R39))-P39</f>
         <v>1.7543651536303488E-3</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="101">
+      <c r="A40" s="93">
         <v>64.400000000000006</v>
       </c>
-      <c r="B40" s="105">
+      <c r="B40" s="97">
         <v>700.12743360000002</v>
       </c>
-      <c r="C40" s="103">
+      <c r="C40" s="95">
         <v>1.5521764468799999</v>
       </c>
-      <c r="D40" s="104">
+      <c r="D40" s="96">
         <v>0.28680106639039998</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="94">
+      <c r="E40" s="50"/>
+      <c r="F40" s="86">
         <f t="shared" si="9"/>
         <v>7.1896792063500151E-2</v>
       </c>
-      <c r="G40" s="136">
+      <c r="G40" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H40" s="83">
+      <c r="H40" s="75">
         <f t="shared" si="4"/>
         <v>5.4010665528217192E-2</v>
       </c>
-      <c r="I40" s="84">
+      <c r="I40" s="76">
         <f t="shared" si="5"/>
         <v>1.2403803911121482E-2</v>
       </c>
-      <c r="J40" s="83">
+      <c r="J40" s="75">
         <f>IF(I40&gt;0, ('BPV Calcs'!$B$8/12)+(I40/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.3246604094244197</v>
       </c>
-      <c r="K40" s="95">
+      <c r="K40" s="87">
         <f t="shared" si="6"/>
         <v>3.8959249130930367</v>
       </c>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="121">
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="113">
         <f t="shared" si="7"/>
         <v>3.6096283439178707E-2</v>
       </c>
-      <c r="O40" s="88">
+      <c r="O40" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P40" s="89">
+      <c r="P40" s="81">
         <f t="shared" si="8"/>
         <v>2.6301027747869639E-2</v>
       </c>
-      <c r="Q40" s="89">
+      <c r="Q40" s="81">
         <f t="shared" si="3"/>
         <v>-1.5305833869226071E-2</v>
       </c>
-      <c r="R40" s="122">
+      <c r="R40" s="114">
         <v>0.21248930599027482</v>
       </c>
-      <c r="S40" s="52">
+      <c r="S40" s="50">
         <f>((1/3)*PI()*(R40^2)*((3*('BPV Calcs'!$B$8/12))-R40))-P40</f>
         <v>2.0691309400583079E-3</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="101">
+      <c r="A41" s="93">
         <v>65.3</v>
       </c>
-      <c r="B41" s="105">
+      <c r="B41" s="97">
         <v>708.18864564</v>
       </c>
-      <c r="C41" s="103">
+      <c r="C41" s="95">
         <v>1.5451350256</v>
       </c>
-      <c r="D41" s="104">
+      <c r="D41" s="96">
         <v>0.29156020567359997</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="94">
+      <c r="E41" s="50"/>
+      <c r="F41" s="86">
         <f t="shared" si="9"/>
         <v>6.6956521460969767E-2</v>
       </c>
-      <c r="G41" s="136">
+      <c r="G41" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H41" s="83">
+      <c r="H41" s="75">
         <f t="shared" si="4"/>
         <v>5.0299410888420645E-2</v>
       </c>
-      <c r="I41" s="84">
+      <c r="I41" s="76">
         <f t="shared" si="5"/>
         <v>8.6925492713249355E-3</v>
       </c>
-      <c r="J41" s="83">
+      <c r="J41" s="75">
         <f>IF(I41&gt;0, ('BPV Calcs'!$B$8/12)+(I41/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.30855518982234165</v>
       </c>
-      <c r="K41" s="95">
+      <c r="K41" s="87">
         <f t="shared" si="6"/>
         <v>3.7026622778680998</v>
       </c>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="121">
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="113">
         <f t="shared" si="7"/>
         <v>3.0819003777835637E-2</v>
       </c>
-      <c r="O41" s="88">
+      <c r="O41" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P41" s="89">
+      <c r="P41" s="81">
         <f t="shared" si="8"/>
         <v>2.2455815288805175E-2</v>
       </c>
-      <c r="Q41" s="89">
+      <c r="Q41" s="81">
         <f t="shared" si="3"/>
         <v>-1.9151046328290535E-2</v>
       </c>
-      <c r="R41" s="122">
+      <c r="R41" s="114">
         <v>0.1907150772829011</v>
       </c>
-      <c r="S41" s="52">
+      <c r="S41" s="50">
         <f>((1/3)*PI()*(R41^2)*((3*('BPV Calcs'!$B$8/12))-R41))-P41</f>
         <v>1.2273017576219479E-3</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="101">
+      <c r="A42" s="93">
         <v>66.2</v>
       </c>
-      <c r="B42" s="105">
+      <c r="B42" s="97">
         <v>716.32237667999993</v>
       </c>
-      <c r="C42" s="103">
+      <c r="C42" s="95">
         <v>1.5379868867199999</v>
       </c>
-      <c r="D42" s="104">
+      <c r="D42" s="96">
         <v>0.29643326114399998</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="94">
+      <c r="E42" s="50"/>
+      <c r="F42" s="86">
         <f t="shared" si="9"/>
         <v>6.1847405437448669E-2</v>
       </c>
-      <c r="G42" s="136">
+      <c r="G42" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H42" s="83">
+      <c r="H42" s="75">
         <f t="shared" si="4"/>
         <v>4.6461315352147849E-2</v>
       </c>
-      <c r="I42" s="84">
+      <c r="I42" s="76">
         <f t="shared" si="5"/>
         <v>4.8544537350521388E-3</v>
       </c>
-      <c r="J42" s="83">
+      <c r="J42" s="75">
         <f>IF(I42&gt;0, ('BPV Calcs'!$B$8/12)+(I42/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.29189953628604387</v>
       </c>
-      <c r="K42" s="95">
+      <c r="K42" s="87">
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="168" t="s">
+      <c r="L42" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="M42" s="52"/>
-      <c r="N42" s="121">
+      <c r="M42" s="50"/>
+      <c r="N42" s="113">
         <f t="shared" si="7"/>
         <v>2.5359990565452944E-2</v>
       </c>
-      <c r="O42" s="88">
+      <c r="O42" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P42" s="89">
+      <c r="P42" s="81">
         <f t="shared" si="8"/>
         <v>1.8478185342032709E-2</v>
       </c>
-      <c r="Q42" s="89">
+      <c r="Q42" s="81">
         <f t="shared" si="3"/>
         <v>-2.3128676275063001E-2</v>
       </c>
-      <c r="R42" s="122">
+      <c r="R42" s="114">
         <v>0.17168996493983751</v>
       </c>
-      <c r="S42" s="52">
+      <c r="S42" s="50">
         <f>((1/3)*PI()*(R42^2)*((3*('BPV Calcs'!$B$8/12))-R42))-P42</f>
         <v>1.3027920242960137E-3</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="101">
+      <c r="A43" s="93">
         <v>67.099999999999994</v>
       </c>
-      <c r="B43" s="105">
+      <c r="B43" s="97">
         <v>724.52862672000003</v>
       </c>
-      <c r="C43" s="103">
+      <c r="C43" s="95">
         <v>1.5307281495999998</v>
       </c>
-      <c r="D43" s="104">
+      <c r="D43" s="96">
         <v>0.301425510472</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="94">
+      <c r="E43" s="50"/>
+      <c r="F43" s="86">
         <f t="shared" si="9"/>
         <v>5.6559004365802502E-2</v>
       </c>
-      <c r="G43" s="136">
+      <c r="G43" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H43" s="83">
+      <c r="H43" s="75">
         <f t="shared" si="4"/>
         <v>4.2488536410808235E-2</v>
       </c>
-      <c r="I43" s="84">
+      <c r="I43" s="76">
         <f t="shared" si="5"/>
         <v>8.8167479371252522E-4</v>
       </c>
-      <c r="J43" s="83">
+      <c r="J43" s="75">
         <f>IF(I43&gt;0, ('BPV Calcs'!$B$8/12)+(I43/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.27465941576327285</v>
       </c>
-      <c r="K43" s="95">
+      <c r="K43" s="87">
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="168"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="121">
+      <c r="L43" s="171"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="113">
         <f t="shared" si="7"/>
         <v>1.9707963149169245E-2</v>
       </c>
-      <c r="O43" s="88">
+      <c r="O43" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P43" s="89">
+      <c r="P43" s="81">
         <f t="shared" si="8"/>
         <v>1.4359918425221848E-2</v>
       </c>
-      <c r="Q43" s="89">
+      <c r="Q43" s="81">
         <f t="shared" si="3"/>
         <v>-2.724694319187386E-2</v>
       </c>
-      <c r="R43" s="122">
+      <c r="R43" s="114">
         <v>0.14850498963246994</v>
       </c>
-      <c r="S43" s="52">
+      <c r="S43" s="50">
         <f>((1/3)*PI()*(R43^2)*((3*('BPV Calcs'!$B$8/12))-R43))-P43</f>
         <v>9.7479009578968663E-4</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="101">
+      <c r="A44" s="93">
         <v>68</v>
       </c>
-      <c r="B44" s="105">
+      <c r="B44" s="97">
         <v>732.80594538000003</v>
       </c>
-      <c r="C44" s="103">
+      <c r="C44" s="95">
         <v>1.5233529932800001</v>
       </c>
-      <c r="D44" s="104">
+      <c r="D44" s="96">
         <v>0.30654265819839999</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="94">
+      <c r="E44" s="50"/>
+      <c r="F44" s="86">
         <f t="shared" si="9"/>
         <v>5.1078607093820678E-2</v>
       </c>
-      <c r="G44" s="136">
+      <c r="G44" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H44" s="83">
+      <c r="H44" s="75">
         <f t="shared" si="4"/>
         <v>3.8371525129451856E-2</v>
       </c>
-      <c r="I44" s="84">
+      <c r="I44" s="76">
         <f t="shared" si="5"/>
         <v>-3.2353364876438542E-3</v>
       </c>
-      <c r="J44" s="83" t="str">
+      <c r="J44" s="75" t="str">
         <f>IF(I44&gt;0, ('BPV Calcs'!$B$8/12)+(I44/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>Need to Use Goal Seek tool</v>
       </c>
-      <c r="K44" s="95" t="e">
+      <c r="K44" s="87" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L44" s="52" t="s">
+      <c r="L44" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="52"/>
-      <c r="N44" s="121">
+      <c r="M44" s="50"/>
+      <c r="N44" s="113">
         <f t="shared" si="7"/>
         <v>1.3849237062883164E-2</v>
       </c>
-      <c r="O44" s="88">
+      <c r="O44" s="80">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P44" s="89">
+      <c r="P44" s="81">
         <f t="shared" si="8"/>
         <v>1.0091043552765345E-2</v>
       </c>
-      <c r="Q44" s="89">
+      <c r="Q44" s="81">
         <f t="shared" si="3"/>
         <v>-3.1515818064330361E-2</v>
       </c>
-      <c r="R44" s="122">
+      <c r="R44" s="114">
         <v>0.12149580367635861</v>
       </c>
-      <c r="S44" s="52">
+      <c r="S44" s="50">
         <f>((1/3)*PI()*(R44^2)*((3*('BPV Calcs'!$B$8/12))-R44))-P44</f>
         <v>5.9044695958249474E-4</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="101">
+      <c r="A45" s="93">
         <v>68.900000000000006</v>
       </c>
-      <c r="B45" s="105">
+      <c r="B45" s="97">
         <v>741.15723342000001</v>
       </c>
-      <c r="C45" s="103">
+      <c r="C45" s="95">
         <v>1.51585365648</v>
       </c>
-      <c r="D45" s="104">
+      <c r="D45" s="96">
         <v>0.31179093275039999</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="94">
+      <c r="E45" s="50"/>
+      <c r="F45" s="86">
         <f t="shared" si="9"/>
         <v>4.5391024185220959E-2</v>
       </c>
-      <c r="G45" s="136">
+      <c r="G45" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H45" s="83">
+      <c r="H45" s="75">
         <f t="shared" si="4"/>
         <v>3.4098870824249061E-2</v>
       </c>
-      <c r="I45" s="84">
+      <c r="I45" s="76">
         <f t="shared" si="5"/>
         <v>-7.5079907928466486E-3</v>
       </c>
-      <c r="J45" s="131">
+      <c r="J45" s="123">
         <v>0.24687064833561331</v>
       </c>
-      <c r="K45" s="96">
+      <c r="K45" s="88">
         <f t="shared" si="6"/>
         <v>2.9624477800273596</v>
       </c>
-      <c r="L45" s="52">
+      <c r="L45" s="50">
         <f>((1/3)*PI()*(J45^2)*((3*('BPV Calcs'!$B$8/12))-J45))-H45</f>
         <v>2.0004865604307878E-3</v>
       </c>
-      <c r="M45" s="52"/>
-      <c r="N45" s="121">
+      <c r="M45" s="50"/>
+      <c r="N45" s="113">
         <f t="shared" si="7"/>
         <v>7.7675006515787424E-3</v>
       </c>
-      <c r="O45" s="88">
+      <c r="O45" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P45" s="89">
+      <c r="P45" s="81">
         <f t="shared" si="8"/>
         <v>5.6596754763685508E-3</v>
       </c>
-      <c r="Q45" s="89">
+      <c r="Q45" s="81">
         <f t="shared" si="3"/>
         <v>-3.5947186140727158E-2</v>
       </c>
-      <c r="R45" s="122">
+      <c r="R45" s="114">
         <v>9.2278680376457742E-2</v>
       </c>
-      <c r="S45" s="52">
+      <c r="S45" s="50">
         <f>((1/3)*PI()*(R45^2)*((3*('BPV Calcs'!$B$8/12))-R45))-P45</f>
         <v>7.6272438697695157E-4</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="101">
+      <c r="A46" s="93">
         <v>69.8</v>
       </c>
-      <c r="B46" s="105">
+      <c r="B46" s="97">
         <v>749.58104045999994</v>
       </c>
-      <c r="C46" s="103">
+      <c r="C46" s="95">
         <v>1.5082262585599999</v>
       </c>
-      <c r="D46" s="104">
+      <c r="D46" s="96">
         <v>0.31717698942559996</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="94">
+      <c r="E46" s="50"/>
+      <c r="F46" s="86">
         <f t="shared" si="9"/>
         <v>3.9483036942300216E-2</v>
       </c>
-      <c r="G46" s="136">
+      <c r="G46" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H46" s="83">
+      <c r="H46" s="75">
         <f t="shared" si="4"/>
         <v>2.9660643279402023E-2</v>
       </c>
-      <c r="I46" s="84">
+      <c r="I46" s="76">
         <f t="shared" si="5"/>
         <v>-1.1946218337693687E-2</v>
       </c>
-      <c r="J46" s="131">
+      <c r="J46" s="123">
         <v>0.22573990311305595</v>
       </c>
-      <c r="K46" s="96">
+      <c r="K46" s="88">
         <f t="shared" si="6"/>
         <v>2.7088788373566715</v>
       </c>
-      <c r="L46" s="52">
+      <c r="L46" s="50">
         <f>((1/3)*PI()*(J46^2)*((3*('BPV Calcs'!$B$8/12))-J46))-H46</f>
         <v>1.6509998273735796E-3</v>
       </c>
-      <c r="M46" s="52"/>
-      <c r="N46" s="121">
+      <c r="M46" s="50"/>
+      <c r="N46" s="113">
         <f t="shared" si="7"/>
         <v>1.4484372022368131E-3</v>
       </c>
-      <c r="O46" s="88">
+      <c r="O46" s="80">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P46" s="89">
+      <c r="P46" s="81">
         <f>O46*N46</f>
         <v>1.0553825329764717E-3</v>
       </c>
-      <c r="Q46" s="89">
+      <c r="Q46" s="81">
         <f t="shared" si="3"/>
         <v>-4.0551479084119241E-2</v>
       </c>
-      <c r="R46" s="122">
+      <c r="R46" s="114">
         <v>4.3206062949403698E-2</v>
       </c>
-      <c r="S46" s="52">
+      <c r="S46" s="50">
         <f>((1/3)*PI()*(R46^2)*((3*('BPV Calcs'!$B$8/12))-R46))-P46</f>
         <v>4.4848753591775789E-4</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="106">
+      <c r="A47" s="98">
         <v>70</v>
       </c>
-      <c r="B47" s="107">
+      <c r="B47" s="99">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
-      <c r="C47" s="108">
+      <c r="C47" s="100">
         <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>1.5065010984888887</v>
       </c>
-      <c r="D47" s="109">
+      <c r="D47" s="101">
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="97">
+      <c r="E47" s="47"/>
+      <c r="F47" s="89">
         <f t="shared" si="9"/>
         <v>3.8129176343576189E-2</v>
       </c>
-      <c r="G47" s="137">
+      <c r="G47" s="129">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H47" s="85">
+      <c r="H47" s="77">
         <f t="shared" si="4"/>
         <v>2.8643589390475625E-2</v>
       </c>
-      <c r="I47" s="86">
+      <c r="I47" s="78">
         <f t="shared" si="5"/>
         <v>-1.2963272226620085E-2</v>
       </c>
-      <c r="J47" s="132">
+      <c r="J47" s="124">
         <v>0.22082528187997902</v>
       </c>
-      <c r="K47" s="96">
+      <c r="K47" s="88">
         <f t="shared" si="6"/>
         <v>2.6499033825597484</v>
       </c>
-      <c r="L47" s="52">
+      <c r="L47" s="50">
         <f>((1/3)*PI()*(J47^2)*((3*('BPV Calcs'!$B$8/12))-J47))-H47</f>
         <v>1.5704796657203812E-3</v>
       </c>
-      <c r="M47" s="52"/>
-      <c r="N47" s="123">
+      <c r="M47" s="50"/>
+      <c r="N47" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O47" s="124">
+      <c r="O47" s="116">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P47" s="125">
+      <c r="P47" s="117">
         <f>O47*N47</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="125">
+      <c r="Q47" s="117">
         <f t="shared" si="3"/>
         <v>-4.160686161709571E-2</v>
       </c>
-      <c r="R47" s="126">
+      <c r="R47" s="118">
         <v>2.9265192002976545E-2</v>
       </c>
-      <c r="S47" s="52">
+      <c r="S47" s="50">
         <f>((1/3)*PI()*(R47^2)*((3*('BPV Calcs'!$B$8/12))-R47))-P47</f>
         <v>7.0246283708114458E-4</v>
       </c>
-      <c r="T47" s="51"/>
+      <c r="T47" s="49"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="101">
+      <c r="A48" s="93">
         <v>70.7</v>
       </c>
-      <c r="B48" s="105">
+      <c r="B48" s="97">
         <v>758.08026725999991</v>
       </c>
-      <c r="C48" s="103">
+      <c r="C48" s="95">
         <v>1.5004630382399999</v>
       </c>
-      <c r="D48" s="104">
+      <c r="D48" s="96">
         <v>0.32270816263359997</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="94">
+      <c r="E48" s="50"/>
+      <c r="F48" s="86">
         <f t="shared" si="9"/>
         <v>3.3337176339955747E-2</v>
       </c>
-      <c r="G48" s="136">
+      <c r="G48" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H48" s="83">
+      <c r="H48" s="75">
         <f t="shared" si="4"/>
         <v>2.50437193270357E-2</v>
       </c>
-      <c r="I48" s="84">
+      <c r="I48" s="76">
         <f t="shared" si="5"/>
         <v>-1.656314229006001E-2</v>
       </c>
-      <c r="J48" s="131">
+      <c r="J48" s="123">
         <v>0.20311497711219526</v>
       </c>
-      <c r="K48" s="96">
+      <c r="K48" s="88">
         <f t="shared" si="6"/>
         <v>2.437379725346343</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="50">
         <f>((1/3)*PI()*(J48^2)*((3*('BPV Calcs'!$B$8/12))-J48))-H48</f>
         <v>1.2834575105448859E-3</v>
       </c>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="52"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="50"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="101">
+      <c r="A49" s="93">
         <v>71.599999999999994</v>
       </c>
-      <c r="B49" s="105">
+      <c r="B49" s="97">
         <v>766.65491381999993</v>
       </c>
-      <c r="C49" s="103">
+      <c r="C49" s="95">
         <v>1.4925542939199998</v>
       </c>
-      <c r="D49" s="104">
+      <c r="D49" s="96">
         <v>0.32839236888000001</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="94">
+      <c r="E49" s="50"/>
+      <c r="F49" s="86">
         <f t="shared" si="9"/>
         <v>2.693291798927008E-2</v>
       </c>
-      <c r="G49" s="136">
+      <c r="G49" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H49" s="83">
+      <c r="H49" s="75">
         <f t="shared" si="4"/>
         <v>2.0232680533682115E-2</v>
       </c>
-      <c r="I49" s="84">
+      <c r="I49" s="76">
         <f t="shared" si="5"/>
         <v>-2.1374181083413595E-2</v>
       </c>
-      <c r="J49" s="131">
+      <c r="J49" s="123">
         <v>0.17870440324472858</v>
       </c>
-      <c r="K49" s="96">
+      <c r="K49" s="88">
         <f t="shared" si="6"/>
         <v>2.144452838936743</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="50">
         <f>((1/3)*PI()*(J49^2)*((3*('BPV Calcs'!$B$8/12))-J49))-H49</f>
         <v>9.6304771475849704E-4</v>
       </c>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="52"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="50"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="101">
+      <c r="A50" s="93">
         <v>72.5</v>
       </c>
-      <c r="B50" s="105">
+      <c r="B50" s="97">
         <v>775.30498014</v>
       </c>
-      <c r="C50" s="103">
+      <c r="C50" s="95">
         <v>1.48449226432</v>
       </c>
-      <c r="D50" s="104">
+      <c r="D50" s="96">
         <v>0.33423830079839995</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="94">
+      <c r="E50" s="50"/>
+      <c r="F50" s="86">
         <f t="shared" si="9"/>
         <v>2.0249656851450533E-2</v>
       </c>
-      <c r="G50" s="136">
+      <c r="G50" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H50" s="83">
+      <c r="H50" s="75">
         <f t="shared" si="4"/>
         <v>1.5212047879673117E-2</v>
       </c>
-      <c r="I50" s="84">
+      <c r="I50" s="76">
         <f t="shared" si="5"/>
         <v>-2.6394813737422591E-2</v>
       </c>
-      <c r="J50" s="131">
+      <c r="J50" s="123">
         <v>0.14877637433762442</v>
       </c>
-      <c r="K50" s="96">
+      <c r="K50" s="88">
         <f t="shared" si="6"/>
         <v>1.785316492051493</v>
       </c>
-      <c r="L50" s="52">
+      <c r="L50" s="50">
         <f>((1/3)*PI()*(J50^2)*((3*('BPV Calcs'!$B$8/12))-J50))-H50</f>
         <v>1.7246807309537898E-4</v>
       </c>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="52"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="50"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="101">
+      <c r="A51" s="93">
         <v>73.400000000000006</v>
       </c>
-      <c r="B51" s="105">
+      <c r="B51" s="97">
         <v>784.03191660000005</v>
       </c>
-      <c r="C51" s="103">
+      <c r="C51" s="95">
         <v>1.4762691881599999</v>
       </c>
-      <c r="D51" s="104">
+      <c r="D51" s="96">
         <v>0.34025552416639998</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="94">
+      <c r="E51" s="50"/>
+      <c r="F51" s="86">
         <f t="shared" si="9"/>
         <v>1.3264956550221583E-2</v>
       </c>
-      <c r="G51" s="136">
+      <c r="G51" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H51" s="83">
+      <c r="H51" s="75">
         <f t="shared" si="4"/>
         <v>9.964966598893241E-3</v>
       </c>
-      <c r="I51" s="84">
+      <c r="I51" s="76">
         <f t="shared" si="5"/>
         <v>-3.1641895018202471E-2</v>
       </c>
-      <c r="J51" s="131">
+      <c r="J51" s="123">
         <v>0.11973998427717275</v>
       </c>
-      <c r="K51" s="96">
+      <c r="K51" s="88">
         <f t="shared" si="6"/>
         <v>1.436879811326073</v>
       </c>
-      <c r="L51" s="52">
+      <c r="L51" s="50">
         <f>((1/3)*PI()*(J51^2)*((3*('BPV Calcs'!$B$8/12))-J51))-H51</f>
         <v>4.3638614432493089E-4</v>
       </c>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="146" t="s">
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="52"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="50"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="101">
+      <c r="A52" s="93">
         <v>74.3</v>
       </c>
-      <c r="B52" s="105">
+      <c r="B52" s="97">
         <v>792.83572320000007</v>
       </c>
-      <c r="C52" s="103">
+      <c r="C52" s="95">
         <v>1.4678734235199999</v>
       </c>
-      <c r="D52" s="104">
+      <c r="D52" s="96">
         <v>0.34645449730880001</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="94">
+      <c r="E52" s="50"/>
+      <c r="F52" s="86">
         <f t="shared" si="9"/>
         <v>5.9508601980526824E-3</v>
       </c>
-      <c r="G52" s="136">
+      <c r="G52" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H52" s="83">
+      <c r="H52" s="75">
         <f t="shared" si="4"/>
         <v>4.4704347793199243E-3</v>
       </c>
-      <c r="I52" s="84">
+      <c r="I52" s="76">
         <f t="shared" si="5"/>
         <v>-3.7136426837775786E-2</v>
       </c>
-      <c r="J52" s="131">
+      <c r="J52" s="123">
         <v>7.5494467975184554E-2</v>
       </c>
-      <c r="K52" s="96">
+      <c r="K52" s="88">
         <f t="shared" si="6"/>
         <v>0.90593361570221465</v>
       </c>
-      <c r="L52" s="52">
+      <c r="L52" s="50">
         <f>((1/3)*PI()*(J52^2)*((3*('BPV Calcs'!$B$8/12))-J52))-H52</f>
         <v>-7.1681298582215031E-5</v>
       </c>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="52"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="50"/>
     </row>
     <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="106">
+      <c r="A53" s="98">
         <v>75</v>
       </c>
-      <c r="B53" s="107">
+      <c r="B53" s="99">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="108">
+      <c r="C53" s="100">
         <f t="shared" ref="C53:D53" si="11">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="109">
+      <c r="D53" s="101">
         <f t="shared" si="11"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="98">
+      <c r="E53" s="47"/>
+      <c r="F53" s="90">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G53" s="138">
+      <c r="G53" s="130">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H53" s="135">
+      <c r="H53" s="127">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I53" s="99">
+      <c r="I53" s="91">
         <f t="shared" si="5"/>
         <v>-4.160686161709571E-2</v>
       </c>
-      <c r="J53" s="133">
+      <c r="J53" s="125">
         <v>0</v>
       </c>
-      <c r="K53" s="100">
+      <c r="K53" s="92">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L53" s="52">
+      <c r="L53" s="50">
         <f>((1/3)*PI()*(J53^2)*((3*('BPV Calcs'!$B$8/12))-J53))-H53</f>
         <v>0</v>
       </c>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="72"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="42"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="40"/>
     </row>
     <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="101">
+      <c r="A54" s="93">
         <v>75.2</v>
       </c>
-      <c r="B54" s="105">
+      <c r="B54" s="97">
         <v>801.71930069999996</v>
       </c>
-      <c r="C54" s="103">
+      <c r="C54" s="95">
         <v>1.45929332848</v>
       </c>
-      <c r="D54" s="104">
+      <c r="D54" s="96">
         <v>0.35284684274239997</v>
       </c>
-      <c r="E54" s="52"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="52"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="69"/>
+      <c r="S54" s="50"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="101">
+      <c r="A55" s="93">
         <v>76.099999999999994</v>
       </c>
-      <c r="B55" s="105">
+      <c r="B55" s="97">
         <v>810.68264910000005</v>
       </c>
-      <c r="C55" s="103">
+      <c r="C55" s="95">
         <v>1.4505153208000001</v>
       </c>
-      <c r="D55" s="104">
+      <c r="D55" s="96">
         <v>0.35944542478879998</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="90" t="s">
+      <c r="E55" s="50"/>
+      <c r="F55" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="G55" s="139">
+      <c r="G55" s="131">
         <f>(2/3)*PI()*(('BPV Calcs'!B8/12)^3)</f>
         <v>4.160686161709571E-2</v>
       </c>
-      <c r="H55" s="40"/>
+      <c r="H55" s="38"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="73"/>
+      <c r="R55" s="71"/>
       <c r="S55" s="17"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="101">
+      <c r="A56" s="93">
         <v>77</v>
       </c>
-      <c r="B56" s="105">
+      <c r="B56" s="97">
         <v>819.72576839999999</v>
       </c>
-      <c r="C56" s="103">
+      <c r="C56" s="95">
         <v>1.4415277585599999</v>
       </c>
-      <c r="D56" s="104">
+      <c r="D56" s="96">
         <v>0.36626458241279997</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="91" t="s">
+      <c r="E56" s="50"/>
+      <c r="F56" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="40">
+      <c r="G56" s="38">
         <f>G4-(2*G55)</f>
         <v>0.66801124770073284</v>
       </c>
-      <c r="H56" s="40"/>
+      <c r="H56" s="38"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
-      <c r="R56" s="73"/>
+      <c r="R56" s="71"/>
       <c r="S56" s="17"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="101">
+      <c r="A57" s="93">
         <v>77.900000000000006</v>
       </c>
-      <c r="B57" s="105">
+      <c r="B57" s="97">
         <v>828.85010898000007</v>
       </c>
-      <c r="C57" s="103">
+      <c r="C57" s="95">
         <v>1.4323131788799999</v>
       </c>
-      <c r="D57" s="104">
+      <c r="D57" s="96">
         <v>0.37332036206079999</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="91" t="s">
+      <c r="E57" s="50"/>
+      <c r="F57" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G57" s="38">
         <f>G56/(PI()*(('BPV Calcs'!B8/12)^2))</f>
         <v>2.8988762251754956</v>
       </c>
-      <c r="H57" s="40"/>
+      <c r="H57" s="38"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
@@ -12461,31 +12473,31 @@
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
-      <c r="R57" s="73"/>
+      <c r="R57" s="71"/>
       <c r="S57" s="17"/>
     </row>
     <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="101">
+      <c r="A58" s="93">
         <v>78.8</v>
       </c>
-      <c r="B58" s="105">
+      <c r="B58" s="97">
         <v>838.05712122</v>
       </c>
-      <c r="C58" s="103">
+      <c r="C58" s="95">
         <v>1.4228541188799999</v>
       </c>
-      <c r="D58" s="104">
+      <c r="D58" s="96">
         <v>0.38063080870880001</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="92" t="s">
+      <c r="E58" s="50"/>
+      <c r="F58" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="140">
+      <c r="G58" s="132">
         <f>G57+(2*'BPV Calcs'!B8/12)</f>
         <v>3.4405428918421621</v>
       </c>
-      <c r="H58" s="40"/>
+      <c r="H58" s="38"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
@@ -12495,26 +12507,26 @@
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
-      <c r="R58" s="73"/>
+      <c r="R58" s="71"/>
       <c r="S58" s="17"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="101">
+      <c r="A59" s="93">
         <v>79.7</v>
       </c>
-      <c r="B59" s="105">
+      <c r="B59" s="97">
         <v>847.34825549999994</v>
       </c>
-      <c r="C59" s="103">
+      <c r="C59" s="95">
         <v>1.41312923504</v>
       </c>
-      <c r="D59" s="104">
+      <c r="D59" s="96">
         <v>0.38821637332959996</v>
       </c>
-      <c r="E59" s="52"/>
+      <c r="E59" s="50"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
@@ -12524,55 +12536,55 @@
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
-      <c r="R59" s="73"/>
+      <c r="R59" s="71"/>
       <c r="S59" s="17"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="101">
+      <c r="A60" s="93">
         <v>80.599999999999994</v>
       </c>
-      <c r="B60" s="105">
+      <c r="B60" s="97">
         <v>856.72351182</v>
       </c>
-      <c r="C60" s="103">
+      <c r="C60" s="95">
         <v>1.4031171838399998</v>
       </c>
-      <c r="D60" s="104">
+      <c r="D60" s="96">
         <v>0.3961002815536</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="40"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="154"/>
+      <c r="G60" s="154"/>
+      <c r="H60" s="38"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="165"/>
-      <c r="O60" s="165"/>
+      <c r="N60" s="154"/>
+      <c r="O60" s="154"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
-      <c r="R60" s="73"/>
+      <c r="R60" s="71"/>
       <c r="S60" s="17"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="101">
+      <c r="A61" s="93">
         <v>81.5</v>
       </c>
-      <c r="B61" s="105">
+      <c r="B61" s="97">
         <v>866.18579093999995</v>
       </c>
-      <c r="C61" s="103">
+      <c r="C61" s="95">
         <v>1.3927888604799998</v>
       </c>
-      <c r="D61" s="104">
+      <c r="D61" s="96">
         <v>0.40430919337760002</v>
       </c>
-      <c r="E61" s="52"/>
+      <c r="E61" s="50"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
@@ -12582,26 +12594,26 @@
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="17"/>
-      <c r="R61" s="73"/>
+      <c r="R61" s="71"/>
       <c r="S61" s="17"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="101">
+      <c r="A62" s="93">
         <v>82.4</v>
       </c>
-      <c r="B62" s="105">
+      <c r="B62" s="97">
         <v>875.73364248000007</v>
       </c>
-      <c r="C62" s="103">
+      <c r="C62" s="95">
         <v>1.3821171004799999</v>
       </c>
-      <c r="D62" s="104">
+      <c r="D62" s="96">
         <v>0.41287390167999999</v>
       </c>
-      <c r="E62" s="52"/>
+      <c r="E62" s="50"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
@@ -12611,26 +12623,26 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="73"/>
+      <c r="R62" s="71"/>
       <c r="S62" s="17"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="101">
+      <c r="A63" s="93">
         <v>83.3</v>
       </c>
-      <c r="B63" s="105">
+      <c r="B63" s="97">
         <v>885.37141757999996</v>
       </c>
-      <c r="C63" s="103">
+      <c r="C63" s="95">
         <v>1.37106309744</v>
       </c>
-      <c r="D63" s="104">
+      <c r="D63" s="96">
         <v>0.42183024417120002</v>
       </c>
-      <c r="E63" s="52"/>
+      <c r="E63" s="50"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -12640,26 +12652,26 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
-      <c r="R63" s="73"/>
+      <c r="R63" s="71"/>
       <c r="S63" s="17"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="101">
+      <c r="A64" s="93">
         <v>84.2</v>
       </c>
-      <c r="B64" s="105">
+      <c r="B64" s="97">
         <v>895.10056662</v>
       </c>
-      <c r="C64" s="103">
+      <c r="C64" s="95">
         <v>1.35958416432</v>
       </c>
-      <c r="D64" s="104">
+      <c r="D64" s="96">
         <v>0.43122034519840002</v>
       </c>
-      <c r="E64" s="52"/>
+      <c r="E64" s="50"/>
       <c r="F64" s="17"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
@@ -12669,26 +12681,26 @@
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
-      <c r="R64" s="73"/>
+      <c r="R64" s="71"/>
       <c r="S64" s="17"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="101">
+      <c r="A65" s="93">
         <v>85.1</v>
       </c>
-      <c r="B65" s="105">
+      <c r="B65" s="97">
         <v>904.91963922000002</v>
       </c>
-      <c r="C65" s="103">
+      <c r="C65" s="95">
         <v>1.3476317931200001</v>
       </c>
-      <c r="D65" s="104">
+      <c r="D65" s="96">
         <v>0.44109424561439997</v>
       </c>
-      <c r="E65" s="52"/>
+      <c r="E65" s="50"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
@@ -12698,26 +12710,26 @@
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
-      <c r="R65" s="73"/>
+      <c r="R65" s="71"/>
       <c r="S65" s="17"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="101">
+      <c r="A66" s="93">
         <v>86</v>
       </c>
-      <c r="B66" s="105">
+      <c r="B66" s="97">
         <v>914.83443690000001</v>
       </c>
-      <c r="C66" s="103">
+      <c r="C66" s="95">
         <v>1.33514583392</v>
       </c>
-      <c r="D66" s="104">
+      <c r="D66" s="96">
         <v>0.45151211474239994</v>
       </c>
-      <c r="E66" s="52"/>
+      <c r="E66" s="50"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
@@ -12727,26 +12739,26 @@
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
-      <c r="R66" s="73"/>
+      <c r="R66" s="71"/>
       <c r="S66" s="17"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="101">
+      <c r="A67" s="93">
         <v>86.9</v>
       </c>
-      <c r="B67" s="105">
+      <c r="B67" s="97">
         <v>924.84350928000003</v>
       </c>
-      <c r="C67" s="103">
+      <c r="C67" s="95">
         <v>1.3220506142399999</v>
       </c>
-      <c r="D67" s="104">
+      <c r="D67" s="96">
         <v>0.4625472966784</v>
       </c>
-      <c r="E67" s="52"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
@@ -12756,26 +12768,26 @@
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
-      <c r="R67" s="73"/>
+      <c r="R67" s="71"/>
       <c r="S67" s="17"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="101">
+      <c r="A68" s="93">
         <v>87.8</v>
       </c>
-      <c r="B68" s="105">
+      <c r="B68" s="97">
         <v>934.95120750000012</v>
       </c>
-      <c r="C68" s="103">
+      <c r="C68" s="95">
         <v>1.30825687936</v>
       </c>
-      <c r="D68" s="104">
+      <c r="D68" s="96">
         <v>0.47429065660800002</v>
       </c>
-      <c r="E68" s="52"/>
+      <c r="E68" s="50"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
@@ -12785,26 +12797,26 @@
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
-      <c r="R68" s="73"/>
+      <c r="R68" s="71"/>
       <c r="S68" s="17"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="101">
+      <c r="A69" s="93">
         <v>88.7</v>
       </c>
-      <c r="B69" s="105">
+      <c r="B69" s="97">
         <v>945.16043231999993</v>
       </c>
-      <c r="C69" s="103">
+      <c r="C69" s="95">
         <v>1.29364626976</v>
       </c>
-      <c r="D69" s="104">
+      <c r="D69" s="96">
         <v>0.48685690624959999</v>
       </c>
-      <c r="E69" s="52"/>
+      <c r="E69" s="50"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
@@ -12814,26 +12826,26 @@
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
-      <c r="R69" s="73"/>
+      <c r="R69" s="71"/>
       <c r="S69" s="17"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="101">
+      <c r="A70" s="93">
         <v>89.6</v>
       </c>
-      <c r="B70" s="105">
+      <c r="B70" s="97">
         <v>955.47118374000013</v>
       </c>
-      <c r="C70" s="103">
+      <c r="C70" s="95">
         <v>1.2780693808000001</v>
       </c>
-      <c r="D70" s="104">
+      <c r="D70" s="96">
         <v>0.50039415022879996</v>
       </c>
-      <c r="E70" s="52"/>
+      <c r="E70" s="50"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
@@ -12843,26 +12855,26 @@
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
-      <c r="R70" s="73"/>
+      <c r="R70" s="71"/>
       <c r="S70" s="17"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="101">
+      <c r="A71" s="93">
         <v>90.5</v>
       </c>
-      <c r="B71" s="105">
+      <c r="B71" s="97">
         <v>965.88781289999997</v>
       </c>
-      <c r="C71" s="103">
+      <c r="C71" s="95">
         <v>1.2613302401599999</v>
       </c>
-      <c r="D71" s="104">
+      <c r="D71" s="96">
         <v>0.51509886534880001</v>
       </c>
-      <c r="E71" s="52"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
@@ -12872,26 +12884,26 @@
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
-      <c r="R71" s="73"/>
+      <c r="R71" s="71"/>
       <c r="S71" s="17"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="101">
+      <c r="A72" s="93">
         <v>91.4</v>
       </c>
-      <c r="B72" s="105">
+      <c r="B72" s="97">
         <v>976.41612132</v>
       </c>
-      <c r="C72" s="103">
+      <c r="C72" s="95">
         <v>1.24315138208</v>
       </c>
-      <c r="D72" s="104">
+      <c r="D72" s="96">
         <v>0.53124065907359996</v>
       </c>
-      <c r="E72" s="52"/>
+      <c r="E72" s="50"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
@@ -12901,26 +12913,26 @@
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
-      <c r="R72" s="73"/>
+      <c r="R72" s="71"/>
       <c r="S72" s="17"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="101">
+      <c r="A73" s="93">
         <v>92.3</v>
       </c>
-      <c r="B73" s="105">
+      <c r="B73" s="97">
         <v>987.05610900000011</v>
       </c>
-      <c r="C73" s="103">
+      <c r="C73" s="95">
         <v>1.2231428022399999</v>
       </c>
-      <c r="D73" s="104">
+      <c r="D73" s="96">
         <v>0.54920555806720006</v>
       </c>
-      <c r="E73" s="52"/>
+      <c r="E73" s="50"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
@@ -12930,26 +12942,26 @@
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
-      <c r="R73" s="73"/>
+      <c r="R73" s="71"/>
       <c r="S73" s="17"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="101">
+      <c r="A74" s="93">
         <v>93.2</v>
       </c>
-      <c r="B74" s="105">
+      <c r="B74" s="97">
         <v>997.81792859999996</v>
       </c>
-      <c r="C74" s="103">
+      <c r="C74" s="95">
         <v>1.20071076272</v>
       </c>
-      <c r="D74" s="104">
+      <c r="D74" s="96">
         <v>0.56957841358399997</v>
       </c>
-      <c r="E74" s="52"/>
+      <c r="E74" s="50"/>
       <c r="F74" s="17"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
@@ -12959,26 +12971,26 @@
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
-      <c r="R74" s="73"/>
+      <c r="R74" s="71"/>
       <c r="S74" s="17"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="101">
+      <c r="A75" s="93">
         <v>94.1</v>
       </c>
-      <c r="B75" s="105">
+      <c r="B75" s="97">
         <v>1008.70448088</v>
       </c>
-      <c r="C75" s="103">
+      <c r="C75" s="95">
         <v>1.1748812228800001</v>
       </c>
-      <c r="D75" s="104">
+      <c r="D75" s="96">
         <v>0.59331624965759999</v>
       </c>
-      <c r="E75" s="52"/>
+      <c r="E75" s="50"/>
       <c r="F75" s="17"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
@@ -12988,26 +13000,26 @@
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
-      <c r="R75" s="73"/>
+      <c r="R75" s="71"/>
       <c r="S75" s="17"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="101">
+      <c r="A76" s="93">
         <v>95</v>
       </c>
-      <c r="B76" s="105">
+      <c r="B76" s="97">
         <v>1019.7259185</v>
       </c>
-      <c r="C76" s="103">
+      <c r="C76" s="95">
         <v>1.143867148</v>
       </c>
-      <c r="D76" s="104">
+      <c r="D76" s="96">
         <v>0.6221741633408</v>
       </c>
-      <c r="E76" s="52"/>
+      <c r="E76" s="50"/>
       <c r="F76" s="17"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
@@ -13017,26 +13029,26 @@
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
-      <c r="R76" s="73"/>
+      <c r="R76" s="71"/>
       <c r="S76" s="17"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="101">
+      <c r="A77" s="93">
         <v>95.9</v>
       </c>
-      <c r="B77" s="105">
+      <c r="B77" s="97">
         <v>1030.8938445000001</v>
       </c>
-      <c r="C77" s="103">
+      <c r="C77" s="95">
         <v>1.1037122256</v>
       </c>
-      <c r="D77" s="104">
+      <c r="D77" s="96">
         <v>0.66003374539039994</v>
       </c>
-      <c r="E77" s="52"/>
+      <c r="E77" s="50"/>
       <c r="F77" s="17"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -13046,26 +13058,26 @@
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
-      <c r="R77" s="73"/>
+      <c r="R77" s="71"/>
       <c r="S77" s="17"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="101">
+      <c r="A78" s="93">
         <v>96.8</v>
       </c>
-      <c r="B78" s="105">
+      <c r="B78" s="97">
         <v>1042.23146496</v>
       </c>
-      <c r="C78" s="103">
+      <c r="C78" s="95">
         <v>1.04153273088</v>
       </c>
-      <c r="D78" s="104">
+      <c r="D78" s="96">
         <v>0.7195324357888</v>
       </c>
-      <c r="E78" s="52"/>
+      <c r="E78" s="50"/>
       <c r="F78" s="17"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
@@ -13075,26 +13087,26 @@
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
-      <c r="R78" s="73"/>
+      <c r="R78" s="71"/>
       <c r="S78" s="17"/>
     </row>
     <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="110">
+      <c r="A79" s="102">
         <v>97.47</v>
       </c>
-      <c r="B79" s="111">
+      <c r="B79" s="103">
         <v>1050.8003100000001</v>
       </c>
-      <c r="C79" s="112">
+      <c r="C79" s="104">
         <v>0.87704598352000007</v>
       </c>
-      <c r="D79" s="113">
+      <c r="D79" s="105">
         <v>0.8770468760672</v>
       </c>
-      <c r="E79" s="69"/>
+      <c r="E79" s="67"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -13104,7 +13116,7 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
-      <c r="R79" s="73"/>
+      <c r="R79" s="71"/>
       <c r="S79" s="17"/>
       <c r="T79" s="22"/>
     </row>
@@ -15330,16 +15342,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L42:L43"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L42:L43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D3AB51-98A6-47FE-ACB4-F832589AE451}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D94C3F0-5861-414F-8614-B130AB6AF7E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="23640" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
@@ -802,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1172,6 +1172,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,8 +1235,26 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1246,54 +1288,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2095,232 +2089,232 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>1004.9320404147279</c:v>
+                  <c:v>6.9786947251022768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1002.1058054603827</c:v>
+                  <c:v>6.9590680934748796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>999.25852053969811</c:v>
+                  <c:v>6.9392952815256814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>996.392401438604</c:v>
+                  <c:v>6.9193916766569723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>993.50634026413559</c:v>
+                  <c:v>6.8993495851676085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>990.59922912332752</c:v>
+                  <c:v>6.8791613133564411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>987.66996012321454</c:v>
+                  <c:v>6.8588191675223236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>984.72074904972692</c:v>
+                  <c:v>6.8383385350675479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>981.747164331004</c:v>
+                  <c:v>6.8176886411875275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>978.75252964594142</c:v>
+                  <c:v>6.7968925669857043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>975.73352131564343</c:v>
+                  <c:v>6.7759272313586347</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>972.69124723307516</c:v>
+                  <c:v>6.754800328007466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>969.62349161230622</c:v>
+                  <c:v>6.7334964695299044</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>966.53025445333662</c:v>
+                  <c:v>6.7120156559259492</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>963.41153575616647</c:v>
+                  <c:v>6.6903578871956002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>960.26622762783006</c:v>
+                  <c:v>6.6685154696377085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>957.09322217536271</c:v>
+                  <c:v>6.6464807095511302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>953.89251939876419</c:v>
+                  <c:v>6.6242536069358628</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>950.66190351210389</c:v>
+                  <c:v>6.60181877438961</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>947.40137451538214</c:v>
+                  <c:v>6.579176211912376</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>944.10982451563325</c:v>
+                  <c:v>6.5563182258030084</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>940.78725351285755</c:v>
+                  <c:v>6.5332448160615106</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>937.43144572112442</c:v>
+                  <c:v>6.5099405952855864</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>934.0412932474685</c:v>
+                  <c:v>6.4863978697740867</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>930.61679609189025</c:v>
+                  <c:v>6.4626166395270159</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>927.15463057549334</c:v>
+                  <c:v>6.438573823440926</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>923.65590459124348</c:v>
+                  <c:v>6.4142771152169686</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>920.11840235320949</c:v>
+                  <c:v>6.389711127452844</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>916.54101596842713</c:v>
+                  <c:v>6.3648681664474109</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>912.92152965096511</c:v>
+                  <c:v>6.3397328447983687</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>909.25883550785863</c:v>
+                  <c:v>6.3142974688045737</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>905.55071775317697</c:v>
+                  <c:v>6.2885466510637293</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>901.79606849395498</c:v>
+                  <c:v>6.2624726978746876</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>897.99267194426204</c:v>
+                  <c:v>6.2360602218351531</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>894.13831231816766</c:v>
+                  <c:v>6.2092938355428311</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>890.23077382974145</c:v>
+                  <c:v>6.1821581515954271</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>886.26894858601827</c:v>
+                  <c:v>6.1546454762917939</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>882.248405015137</c:v>
+                  <c:v>6.1267250348273405</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>878.16692733116713</c:v>
+                  <c:v>6.0983814397997715</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>874.02229974817794</c:v>
+                  <c:v>6.0695993038067915</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>869.81119858727425</c:v>
+                  <c:v>6.0403555457449603</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>865.5291922765947</c:v>
+                  <c:v>6.0106193908096852</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>861.17406503020868</c:v>
+                  <c:v>5.9803754515986718</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>860.18902508488566</c:v>
+                  <c:v>5.9735348964228168</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>856.74138527625553</c:v>
+                  <c:v>5.94959295330733</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>852.22561354990864</c:v>
+                  <c:v>5.9182334274299215</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>847.62231827930748</c:v>
+                  <c:v>5.8862660991618574</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>842.92706789259069</c:v>
+                  <c:v>5.8536601936985466</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>838.13321503196698</c:v>
+                  <c:v>5.8203695488331038</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>834.32280182682757</c:v>
+                  <c:v>5.7939083460196361</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>833.23411233964487</c:v>
+                  <c:v>5.7863480023586451</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>828.22200456486758</c:v>
+                  <c:v>5.7515416983671361</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>823.09024434984326</c:v>
+                  <c:v>5.7159044746516896</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>817.82886065788534</c:v>
+                  <c:v>5.6793670879019817</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>812.42788245230622</c:v>
+                  <c:v>5.6418602948076817</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>806.87512291048836</c:v>
+                  <c:v>5.6032994646561693</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>801.15839520981376</c:v>
+                  <c:v>5.5635999667348175</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>795.261080955804</c:v>
+                  <c:v>5.5226463955264169</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>789.16766964694568</c:v>
+                  <c:v>5.4803310392149003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>782.85600342393366</c:v>
+                  <c:v>5.4365000237773167</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>776.30170864153229</c:v>
+                  <c:v>5.3909840877884188</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>769.47708797561097</c:v>
+                  <c:v>5.3435908887195209</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>762.34779674424658</c:v>
+                  <c:v>5.2940819218350459</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>754.87062712179454</c:v>
+                  <c:v>5.2421571327902399</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>746.99461603185375</c:v>
+                  <c:v>5.1874626113323181</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>738.65218200354389</c:v>
+                  <c:v>5.1295290416912769</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>729.75801727854116</c:v>
+                  <c:v>5.0677640088787577</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>720.2002246673552</c:v>
+                  <c:v>5.0013904490788557</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>709.82037547595621</c:v>
+                  <c:v>4.929308163027474</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>698.39578321832914</c:v>
+                  <c:v>4.8499707167939521</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>685.5874326471087</c:v>
+                  <c:v>4.7610238378271434</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>670.83916149374079</c:v>
+                  <c:v>4.6586052881509774</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>653.13060033723286</c:v>
+                  <c:v>4.5356291690085619</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>630.20275542144634</c:v>
+                  <c:v>4.3764080237600442</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>594.69921745714123</c:v>
+                  <c:v>4.1298556767857031</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>500.77980711425806</c:v>
+                  <c:v>3.4776375494045699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,232 +2588,232 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>1457.7522794547278</c:v>
+                  <c:v>459.79893376510228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1460.7594728603826</c:v>
+                  <c:v>465.61273549347487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1463.8021811196982</c:v>
+                  <c:v>471.48295586152568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1466.8797192586039</c:v>
+                  <c:v>477.4067094966569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1469.9924297641355</c:v>
+                  <c:v>483.3854390851676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1473.1406551233276</c:v>
+                  <c:v>489.42058731335652</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1476.3218370632144</c:v>
+                  <c:v>495.51069610752228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1479.5410921297268</c:v>
+                  <c:v>501.65868161506751</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1482.792538371004</c:v>
+                  <c:v>507.86306268118756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1486.0794994659414</c:v>
+                  <c:v>514.12386238698571</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1489.4015524956435</c:v>
+                  <c:v>520.44395841135861</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1492.756904593075</c:v>
+                  <c:v>526.82045768800742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1496.1447903523062</c:v>
+                  <c:v>533.2547952095299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1499.5666601533367</c:v>
+                  <c:v>539.74842135592598</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1503.0225139961665</c:v>
+                  <c:v>546.30133612719555</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1506.5126943678301</c:v>
+                  <c:v>552.91498220963774</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1510.0331926153626</c:v>
+                  <c:v>559.58645114955118</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1513.5869094987643</c:v>
+                  <c:v>566.31864370693586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1517.1730796121037</c:v>
+                  <c:v>573.11299487438953</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1520.7888021953822</c:v>
+                  <c:v>579.96660389191231</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1524.4358701156334</c:v>
+                  <c:v>586.88236382580305</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1528.1142833728577</c:v>
+                  <c:v>593.86027467606152</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1531.8218261811244</c:v>
+                  <c:v>600.90032105528553</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1535.5588410274686</c:v>
+                  <c:v>608.00394564977421</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1539.3238775318903</c:v>
+                  <c:v>615.16969807952705</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1543.1165127754934</c:v>
+                  <c:v>622.40045602344094</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1546.9364042712434</c:v>
+                  <c:v>629.69477679521685</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1550.7827866132095</c:v>
+                  <c:v>637.05409538745289</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1554.654551908427</c:v>
+                  <c:v>644.47840410644744</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1558.5494843709653</c:v>
+                  <c:v>651.96768756479844</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1562.4693768678585</c:v>
+                  <c:v>659.5248388288046</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1566.409112853177</c:v>
+                  <c:v>667.14694175106376</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1570.3719355739549</c:v>
+                  <c:v>674.83833977787481</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1574.3527284842621</c:v>
+                  <c:v>682.59611676183511</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1578.3507261781676</c:v>
+                  <c:v>690.42170769554275</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1582.3651632497415</c:v>
+                  <c:v>698.31654757159549</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1586.3963821860184</c:v>
+                  <c:v>706.28207907629178</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1590.437050655137</c:v>
+                  <c:v>714.31537067482736</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1594.489304011167</c:v>
+                  <c:v>722.42075811979976</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1598.550926468178</c:v>
+                  <c:v>730.59822602380677</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1602.6171439672744</c:v>
+                  <c:v>738.84630092574503</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1606.6864256965946</c:v>
+                  <c:v>747.16785281080968</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1610.7551054902087</c:v>
+                  <c:v>755.5614159115986</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1611.6587826115524</c:v>
+                  <c:v>757.44329242308947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1614.8216525362554</c:v>
+                  <c:v>764.02986021330719</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1618.8805273699086</c:v>
+                  <c:v>772.5731472474298</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1622.9272984193076</c:v>
+                  <c:v>781.19124623916184</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1626.9589844925908</c:v>
+                  <c:v>789.88557679369865</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1630.9689382319671</c:v>
+                  <c:v>798.6560927488332</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1634.0679741934941</c:v>
+                  <c:v>805.53908071268631</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1634.9534130396448</c:v>
+                  <c:v>807.5056487023586</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1638.9046536648675</c:v>
+                  <c:v>816.43419079836724</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1642.8160127498431</c:v>
+                  <c:v>825.44167287465166</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1646.6789696378855</c:v>
+                  <c:v>834.52947606790201</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1650.4850036723062</c:v>
+                  <c:v>843.69898151480766</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1654.2233784104883</c:v>
+                  <c:v>852.95155496465611</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1657.8819070298136</c:v>
+                  <c:v>862.28711178673484</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1661.446871895804</c:v>
+                  <c:v>871.70843733552636</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1664.9013121269459</c:v>
+                  <c:v>881.21397351921496</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1668.2274210039336</c:v>
+                  <c:v>890.80791760377724</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1671.4022752615324</c:v>
+                  <c:v>900.49155070778841</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1674.396727195611</c:v>
+                  <c:v>910.26323010871954</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1677.1822336442465</c:v>
+                  <c:v>920.12851882183509</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1679.7141364017946</c:v>
+                  <c:v>930.08566641279026</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1681.9458235318539</c:v>
+                  <c:v>940.13867011133243</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1683.8126143235438</c:v>
+                  <c:v>950.28996136169121</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1685.2292010185413</c:v>
+                  <c:v>960.53894774887885</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1686.0880375673551</c:v>
+                  <c:v>970.8892033490788</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1686.2364967959561</c:v>
+                  <c:v>981.34542948302749</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1685.4518922183292</c:v>
+                  <c:v>991.90607971679401</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1683.4053612471087</c:v>
+                  <c:v>1002.5789524378271</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1679.5436423737408</c:v>
+                  <c:v>1013.363086168151</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1672.8565188372329</c:v>
+                  <c:v>1024.2615476690087</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1661.0965999214463</c:v>
+                  <c:v>1035.2702525237601</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1636.9306824171413</c:v>
+                  <c:v>1046.3613206367856</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1551.5801171142582</c:v>
+                  <c:v>1054.2779475494046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3992,44 +3986,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="D5" s="143" t="s">
+      <c r="B5" s="151"/>
+      <c r="D5" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="143"/>
+      <c r="E5" s="151"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4061,7 +4055,7 @@
       </c>
       <c r="E8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.3421953447511793</v>
+        <v>0.16345475941194654</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4076,7 +4070,7 @@
       </c>
       <c r="E9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>0.15780530538942372</v>
+        <v>7.8566264656774895E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4091,7 +4085,7 @@
       </c>
       <c r="E10" s="13">
         <f>MAX(E8:E9)</f>
-        <v>0.3421953447511793</v>
+        <v>0.16345475941194654</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4110,7 +4104,7 @@
       </c>
       <c r="E12" s="135">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>0.16254064878379706</v>
+        <v>7.9722604455066112E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,7 +4113,7 @@
       </c>
       <c r="E13" s="137">
         <f>E12</f>
-        <v>0.16254064878379706</v>
+        <v>7.9722604455066112E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4136,7 +4130,7 @@
       </c>
       <c r="B16" s="58">
         <f>'N2O Pressure Calcs'!H53</f>
-        <v>1634.0679741934941</v>
+        <v>805.53908071268631</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -4147,7 +4141,7 @@
       </c>
       <c r="B17" s="139">
         <f>B10*B16</f>
-        <v>3268.1359483869883</v>
+        <v>1611.0781614253726</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -4165,7 +4159,7 @@
       </c>
       <c r="B19" s="140">
         <f>'N2O Pressure Calcs'!J53</f>
-        <v>1951.6597977290542</v>
+        <v>807.74457948723887</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -4219,9 +4213,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H58" sqref="H58"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4242,19 +4236,19 @@
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73"/>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="153"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="148" t="s">
+      <c r="G1" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="150"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="158"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -4285,14 +4279,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146" t="s">
+      <c r="H2" s="154"/>
+      <c r="I2" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="147"/>
+      <c r="J2" s="155"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -4367,20 +4361,20 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="36">
-        <f>C4*($M$3*$P$5)*($M$2+$M$4)</f>
-        <v>1004.9320404147279</v>
-      </c>
-      <c r="H4" s="172">
+        <f>(C4*($M$3*$P$5)*($M$2+$M$4))/144</f>
+        <v>6.9786947251022768</v>
+      </c>
+      <c r="H4" s="141">
         <f>B4+G4</f>
-        <v>1457.7522794547278</v>
+        <v>459.79893376510228</v>
       </c>
       <c r="I4" s="37">
-        <f>C4*($M$3*$P$5)*$M$1</f>
-        <v>382.53563074843203</v>
+        <f>(C4*($M$3*$P$5)*$M$1)/144</f>
+        <v>2.6564974357530002</v>
       </c>
       <c r="J4" s="35">
         <f t="shared" ref="J4:J67" si="0">H4+I4</f>
-        <v>1840.2879102031598</v>
+        <v>462.45543120085529</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4405,20 +4399,20 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="36">
-        <f t="shared" ref="G5:G68" si="1">C5*($M$3*$P$5)*($M$2+$M$4)</f>
-        <v>1002.1058054603827</v>
-      </c>
-      <c r="H5" s="172">
+        <f t="shared" ref="G5:G68" si="1">(C5*($M$3*$P$5)*($M$2+$M$4))/144</f>
+        <v>6.9590680934748796</v>
+      </c>
+      <c r="H5" s="141">
         <f t="shared" ref="H5:H68" si="2">B5+G5</f>
-        <v>1460.7594728603826</v>
+        <v>465.61273549347487</v>
       </c>
       <c r="I5" s="37">
-        <f t="shared" ref="I5:I68" si="3">C5*($M$3*$P$5)*$M$1</f>
-        <v>381.45980121228001</v>
+        <f t="shared" ref="I5:I68" si="3">(C5*($M$3*$P$5)*$M$1)/144</f>
+        <v>2.6490263973074999</v>
       </c>
       <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>1842.2192740726628</v>
+        <v>468.2617618907824</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -4450,19 +4444,19 @@
       <c r="F6" s="17"/>
       <c r="G6" s="36">
         <f t="shared" si="1"/>
-        <v>999.25852053969811</v>
-      </c>
-      <c r="H6" s="172">
+        <v>6.9392952815256814</v>
+      </c>
+      <c r="H6" s="141">
         <f t="shared" si="2"/>
-        <v>1463.8021811196982</v>
+        <v>471.48295586152568</v>
       </c>
       <c r="I6" s="37">
         <f t="shared" si="3"/>
-        <v>380.37595883364003</v>
+        <v>2.6414997141225003</v>
       </c>
       <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>1844.1781399533381</v>
+        <v>474.1244555756482</v>
       </c>
       <c r="L6" t="s">
         <v>37</v>
@@ -4488,19 +4482,19 @@
       <c r="F7" s="17"/>
       <c r="G7" s="36">
         <f t="shared" si="1"/>
-        <v>996.392401438604</v>
-      </c>
-      <c r="H7" s="172">
+        <v>6.9193916766569723</v>
+      </c>
+      <c r="H7" s="141">
         <f t="shared" si="2"/>
-        <v>1466.8797192586039</v>
+        <v>477.4067094966569</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="3"/>
-        <v>379.28494706961601</v>
+        <v>2.6339232435389999</v>
       </c>
       <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>1846.1646663282199</v>
+        <v>480.04063274019592</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>38</v>
@@ -4527,19 +4521,19 @@
       <c r="F8" s="17"/>
       <c r="G8" s="36">
         <f t="shared" si="1"/>
-        <v>993.50634026413559</v>
-      </c>
-      <c r="H8" s="172">
+        <v>6.8993495851676085</v>
+      </c>
+      <c r="H8" s="141">
         <f t="shared" si="2"/>
-        <v>1469.9924297641355</v>
+        <v>483.3854390851676</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="3"/>
-        <v>378.18634419165596</v>
+        <v>2.6262940568864996</v>
       </c>
       <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>1848.1787739557915</v>
+        <v>486.01173314205408</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4559,19 +4553,19 @@
       <c r="F9" s="17"/>
       <c r="G9" s="36">
         <f t="shared" si="1"/>
-        <v>990.59922912332752</v>
-      </c>
-      <c r="H9" s="172">
+        <v>6.8791613133564411</v>
+      </c>
+      <c r="H9" s="141">
         <f t="shared" si="2"/>
-        <v>1473.1406551233276</v>
+        <v>489.42058731335652</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="3"/>
-        <v>377.079728471208</v>
+        <v>2.6186092254945001</v>
       </c>
       <c r="J9" s="35">
         <f t="shared" si="0"/>
-        <v>1850.2203835945356</v>
+        <v>492.039196538851</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4591,19 +4585,19 @@
       <c r="F10" s="17"/>
       <c r="G10" s="36">
         <f t="shared" si="1"/>
-        <v>987.66996012321454</v>
-      </c>
-      <c r="H10" s="172">
+        <v>6.8588191675223236</v>
+      </c>
+      <c r="H10" s="141">
         <f t="shared" si="2"/>
-        <v>1476.3218370632144</v>
+        <v>495.51069610752228</v>
       </c>
       <c r="I10" s="37">
         <f t="shared" si="3"/>
-        <v>375.96467817972001</v>
+        <v>2.6108658206925002</v>
       </c>
       <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>1852.2865152429345</v>
+        <v>498.12156192821476</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4623,19 +4617,19 @@
       <c r="F11" s="17"/>
       <c r="G11" s="36">
         <f t="shared" si="1"/>
-        <v>984.72074904972692</v>
-      </c>
-      <c r="H11" s="172">
+        <v>6.8383385350675479</v>
+      </c>
+      <c r="H11" s="141">
         <f t="shared" si="2"/>
-        <v>1479.5410921297268</v>
+        <v>501.65868161506751</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" si="3"/>
-        <v>374.84203677429599</v>
+        <v>2.6030696998214999</v>
       </c>
       <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>1854.3831289040229</v>
+        <v>504.26175131488901</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4655,19 +4649,19 @@
       <c r="F12" s="17"/>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>981.747164331004</v>
-      </c>
-      <c r="H12" s="172">
+        <v>6.8176886411875275</v>
+      </c>
+      <c r="H12" s="141">
         <f t="shared" si="2"/>
-        <v>1482.792538371004</v>
+        <v>507.86306268118756</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" si="3"/>
-        <v>373.710117340728</v>
+        <v>2.5952091481994999</v>
       </c>
       <c r="J12" s="35">
         <f t="shared" si="0"/>
-        <v>1856.5026557117319</v>
+        <v>510.45827182938706</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4687,19 +4681,19 @@
       <c r="F13" s="17"/>
       <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>978.75252964594142</v>
-      </c>
-      <c r="H13" s="172">
+        <v>6.7968925669857043</v>
+      </c>
+      <c r="H13" s="141">
         <f t="shared" si="2"/>
-        <v>1486.0794994659414</v>
+        <v>514.12386238698571</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="3"/>
-        <v>372.57018506467205</v>
+        <v>2.5872929518380001</v>
       </c>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>1858.6496845306133</v>
+        <v>516.71115533882369</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4719,19 +4713,19 @@
       <c r="F14" s="17"/>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>975.73352131564343</v>
-      </c>
-      <c r="H14" s="172">
+        <v>6.7759272313586347</v>
+      </c>
+      <c r="H14" s="141">
         <f t="shared" si="2"/>
-        <v>1489.4015524956435</v>
+        <v>520.44395841135861</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="3"/>
-        <v>371.42097476047206</v>
+        <v>2.5793123247255005</v>
       </c>
       <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>1860.8225272561156</v>
+        <v>523.0232707360841</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4751,19 +4745,19 @@
       <c r="F15" s="17"/>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>972.69124723307516</v>
-      </c>
-      <c r="H15" s="172">
+        <v>6.754800328007466</v>
+      </c>
+      <c r="H15" s="141">
         <f t="shared" si="2"/>
-        <v>1492.756904593075</v>
+        <v>526.82045768800742</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="3"/>
-        <v>370.26290815668</v>
+        <v>2.5712701955325001</v>
       </c>
       <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>1863.0198127497549</v>
+        <v>529.39172788353994</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4783,19 +4777,19 @@
       <c r="F16" s="17"/>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>969.62349161230622</v>
-      </c>
-      <c r="H16" s="172">
+        <v>6.7334964695299044</v>
+      </c>
+      <c r="H16" s="141">
         <f t="shared" si="2"/>
-        <v>1496.1447903523062</v>
+        <v>533.2547952095299</v>
       </c>
       <c r="I16" s="37">
         <f t="shared" si="3"/>
-        <v>369.09514179619202</v>
+        <v>2.563160706918</v>
       </c>
       <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>1865.2399321484982</v>
+        <v>535.81795591644789</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4815,19 +4809,19 @@
       <c r="F17" s="17"/>
       <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>966.53025445333662</v>
-      </c>
-      <c r="H17" s="172">
+        <v>6.7120156559259492</v>
+      </c>
+      <c r="H17" s="141">
         <f t="shared" si="2"/>
-        <v>1499.5666601533367</v>
+        <v>539.74842135592598</v>
       </c>
       <c r="I17" s="37">
         <f t="shared" si="3"/>
-        <v>367.91767567900803</v>
+        <v>2.5549838588820002</v>
       </c>
       <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>1867.4843358323446</v>
+        <v>542.30340521480798</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4847,19 +4841,19 @@
       <c r="F18" s="17"/>
       <c r="G18" s="36">
         <f t="shared" si="1"/>
-        <v>963.41153575616647</v>
-      </c>
-      <c r="H18" s="172">
+        <v>6.6903578871956002</v>
+      </c>
+      <c r="H18" s="141">
         <f t="shared" si="2"/>
-        <v>1503.0225139961665</v>
+        <v>546.30133612719555</v>
       </c>
       <c r="I18" s="37">
         <f t="shared" si="3"/>
-        <v>366.73050980512807</v>
+        <v>2.5467396514245007</v>
       </c>
       <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>1869.7530238012946</v>
+        <v>548.84807577862</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4879,19 +4873,19 @@
       <c r="F19" s="17"/>
       <c r="G19" s="36">
         <f t="shared" si="1"/>
-        <v>960.26622762783006</v>
-      </c>
-      <c r="H19" s="172">
+        <v>6.6685154696377085</v>
+      </c>
+      <c r="H19" s="141">
         <f t="shared" si="2"/>
-        <v>1506.5126943678301</v>
+        <v>552.91498220963774</v>
       </c>
       <c r="I19" s="37">
         <f t="shared" si="3"/>
-        <v>365.53322244599997</v>
+        <v>2.5384251558749997</v>
       </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>1872.04591681383</v>
+        <v>555.4534073655127</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4911,19 +4905,19 @@
       <c r="F20" s="17"/>
       <c r="G20" s="36">
         <f t="shared" si="1"/>
-        <v>957.09322217536271</v>
-      </c>
-      <c r="H20" s="172">
+        <v>6.6464807095511302</v>
+      </c>
+      <c r="H20" s="141">
         <f t="shared" si="2"/>
-        <v>1510.0331926153626</v>
+        <v>559.58645114955118</v>
       </c>
       <c r="I20" s="37">
         <f t="shared" si="3"/>
-        <v>364.32539187307202</v>
+        <v>2.5300374435630002</v>
       </c>
       <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>1874.3585844884346</v>
+        <v>562.11648859311413</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4943,19 +4937,19 @@
       <c r="F21" s="17"/>
       <c r="G21" s="36">
         <f t="shared" si="1"/>
-        <v>953.89251939876419</v>
-      </c>
-      <c r="H21" s="172">
+        <v>6.6242536069358628</v>
+      </c>
+      <c r="H21" s="141">
         <f t="shared" si="2"/>
-        <v>1513.5869094987643</v>
+        <v>566.31864370693586</v>
       </c>
       <c r="I21" s="37">
         <f t="shared" si="3"/>
-        <v>363.107018086344</v>
+        <v>2.5215765144884998</v>
       </c>
       <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>1876.6939275851082</v>
+        <v>568.84022022142437</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4975,19 +4969,19 @@
       <c r="F22" s="17"/>
       <c r="G22" s="36">
         <f t="shared" si="1"/>
-        <v>950.66190351210389</v>
-      </c>
-      <c r="H22" s="172">
+        <v>6.60181877438961</v>
+      </c>
+      <c r="H22" s="141">
         <f t="shared" si="2"/>
-        <v>1517.1730796121037</v>
+        <v>573.11299487438953</v>
       </c>
       <c r="I22" s="37">
         <f t="shared" si="3"/>
-        <v>361.87725762871196</v>
+        <v>2.5130365113104998</v>
       </c>
       <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>1879.0503372408157</v>
+        <v>575.6260313857</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5007,19 +5001,19 @@
       <c r="F23" s="17"/>
       <c r="G23" s="36">
         <f t="shared" si="1"/>
-        <v>947.40137451538214</v>
-      </c>
-      <c r="H23" s="172">
+        <v>6.579176211912376</v>
+      </c>
+      <c r="H23" s="141">
         <f t="shared" si="2"/>
-        <v>1520.7888021953822</v>
+        <v>579.96660389191231</v>
       </c>
       <c r="I23" s="37">
         <f t="shared" si="3"/>
-        <v>360.63611050017607</v>
+        <v>2.5044174340290004</v>
       </c>
       <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>1881.4249126955583</v>
+        <v>582.47102132594136</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5039,19 +5033,19 @@
       <c r="F24" s="17"/>
       <c r="G24" s="36">
         <f t="shared" si="1"/>
-        <v>944.10982451563325</v>
-      </c>
-      <c r="H24" s="172">
+        <v>6.5563182258030084</v>
+      </c>
+      <c r="H24" s="141">
         <f t="shared" si="2"/>
-        <v>1524.4358701156334</v>
+        <v>586.88236382580305</v>
       </c>
       <c r="I24" s="37">
         <f t="shared" si="3"/>
-        <v>359.383154972184</v>
+        <v>2.4957163539735001</v>
       </c>
       <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>1883.8190250878174</v>
+        <v>589.37808017977659</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5071,19 +5065,19 @@
       <c r="F25" s="17"/>
       <c r="G25" s="36">
         <f t="shared" si="1"/>
-        <v>940.78725351285755</v>
-      </c>
-      <c r="H25" s="172">
+        <v>6.5332448160615106</v>
+      </c>
+      <c r="H25" s="141">
         <f t="shared" si="2"/>
-        <v>1528.1142833728577</v>
+        <v>593.86027467606152</v>
       </c>
       <c r="I25" s="37">
         <f t="shared" si="3"/>
-        <v>358.11839104473603</v>
+        <v>2.4869332711440002</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>1886.2326744175937</v>
+        <v>596.34720794720556</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5103,19 +5097,19 @@
       <c r="F26" s="17"/>
       <c r="G26" s="36">
         <f t="shared" si="1"/>
-        <v>937.43144572112442</v>
-      </c>
-      <c r="H26" s="172">
+        <v>6.5099405952855864</v>
+      </c>
+      <c r="H26" s="141">
         <f t="shared" si="2"/>
-        <v>1531.8218261811244</v>
+        <v>600.90032105528553</v>
       </c>
       <c r="I26" s="37">
         <f t="shared" si="3"/>
-        <v>356.84097526072804</v>
+        <v>2.4780623281995005</v>
       </c>
       <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>1888.6628014418525</v>
+        <v>603.37838338348502</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5135,19 +5129,19 @@
       <c r="F27" s="17"/>
       <c r="G27" s="36">
         <f t="shared" si="1"/>
-        <v>934.0412932474685</v>
-      </c>
-      <c r="H27" s="172">
+        <v>6.4863978697740867</v>
+      </c>
+      <c r="H27" s="141">
         <f t="shared" si="2"/>
-        <v>1535.5588410274686</v>
+        <v>608.00394564977421</v>
       </c>
       <c r="I27" s="37">
         <f t="shared" si="3"/>
-        <v>355.55048589160799</v>
+        <v>2.4691005964695001</v>
       </c>
       <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>1891.1093269190765</v>
+        <v>610.47304624624371</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5167,19 +5161,19 @@
       <c r="F28" s="17"/>
       <c r="G28" s="36">
         <f t="shared" si="1"/>
-        <v>930.61679609189025</v>
-      </c>
-      <c r="H28" s="172">
+        <v>6.4626166395270159</v>
+      </c>
+      <c r="H28" s="141">
         <f t="shared" si="2"/>
-        <v>1539.3238775318903</v>
+        <v>615.16969807952705</v>
       </c>
       <c r="I28" s="37">
         <f t="shared" si="3"/>
-        <v>354.24692293737604</v>
+        <v>2.4600480759540004</v>
       </c>
       <c r="J28" s="35">
         <f t="shared" si="0"/>
-        <v>1893.5708004692663</v>
+        <v>617.62974615548103</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5199,19 +5193,19 @@
       <c r="F29" s="17"/>
       <c r="G29" s="36">
         <f t="shared" si="1"/>
-        <v>927.15463057549334</v>
-      </c>
-      <c r="H29" s="172">
+        <v>6.438573823440926</v>
+      </c>
+      <c r="H29" s="141">
         <f t="shared" si="2"/>
-        <v>1543.1165127754934</v>
+        <v>622.40045602344094</v>
       </c>
       <c r="I29" s="37">
         <f t="shared" si="3"/>
-        <v>352.92902121237603</v>
+        <v>2.4508959806415</v>
       </c>
       <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>1896.0455339878695</v>
+        <v>624.8513520040824</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5231,19 +5225,19 @@
       <c r="F30" s="17"/>
       <c r="G30" s="36">
         <f t="shared" si="1"/>
-        <v>923.65590459124348</v>
-      </c>
-      <c r="H30" s="172">
+        <v>6.4142771152169686</v>
+      </c>
+      <c r="H30" s="141">
         <f t="shared" si="2"/>
-        <v>1546.9364042712434</v>
+        <v>629.69477679521685</v>
       </c>
       <c r="I30" s="37">
         <f t="shared" si="3"/>
-        <v>351.59720244516006</v>
+        <v>2.4416472392025006</v>
       </c>
       <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>1898.5336067164035</v>
+        <v>632.13642403441941</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5263,19 +5257,19 @@
       <c r="F31" s="17"/>
       <c r="G31" s="36">
         <f t="shared" si="1"/>
-        <v>920.11840235320949</v>
-      </c>
-      <c r="H31" s="172">
+        <v>6.389711127452844</v>
+      </c>
+      <c r="H31" s="141">
         <f t="shared" si="2"/>
-        <v>1550.7827866132095</v>
+        <v>637.05409538745289</v>
       </c>
       <c r="I31" s="37">
         <f t="shared" si="3"/>
-        <v>350.25062317862398</v>
+        <v>2.4322959942960001</v>
       </c>
       <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>1901.0334097918335</v>
+        <v>639.48639138174894</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5295,19 +5289,19 @@
       <c r="F32" s="17"/>
       <c r="G32" s="36">
         <f t="shared" si="1"/>
-        <v>916.54101596842713</v>
-      </c>
-      <c r="H32" s="172">
+        <v>6.3648681664474109</v>
+      </c>
+      <c r="H32" s="141">
         <f t="shared" si="2"/>
-        <v>1554.654551908427</v>
+        <v>644.47840410644744</v>
       </c>
       <c r="I32" s="37">
         <f t="shared" si="3"/>
-        <v>348.88886168421601</v>
+        <v>2.4228393172514999</v>
       </c>
       <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>1903.543413592643</v>
+        <v>646.90124342369893</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5327,19 +5321,19 @@
       <c r="F33" s="17"/>
       <c r="G33" s="36">
         <f t="shared" si="1"/>
-        <v>912.92152965096511</v>
-      </c>
-      <c r="H33" s="172">
+        <v>6.3397328447983687</v>
+      </c>
+      <c r="H33" s="141">
         <f t="shared" si="2"/>
-        <v>1558.5494843709653</v>
+        <v>651.96768756479844</v>
       </c>
       <c r="I33" s="37">
         <f t="shared" si="3"/>
-        <v>347.51107450483198</v>
+        <v>2.4132713507279999</v>
       </c>
       <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>1906.0605588757971</v>
+        <v>654.38095891552643</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5359,19 +5353,19 @@
       <c r="F34" s="17"/>
       <c r="G34" s="36">
         <f t="shared" si="1"/>
-        <v>909.25883550785863</v>
-      </c>
-      <c r="H34" s="172">
+        <v>6.3142974688045737</v>
+      </c>
+      <c r="H34" s="141">
         <f t="shared" si="2"/>
-        <v>1562.4693768678585</v>
+        <v>659.5248388288046</v>
       </c>
       <c r="I34" s="37">
         <f t="shared" si="3"/>
-        <v>346.11683991192001</v>
+        <v>2.4035891660550002</v>
       </c>
       <c r="J34" s="35">
         <f t="shared" si="0"/>
-        <v>1908.5862167797786</v>
+        <v>661.92842799485959</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5391,19 +5385,19 @@
       <c r="F35" s="17"/>
       <c r="G35" s="36">
         <f t="shared" si="1"/>
-        <v>905.55071775317697</v>
-      </c>
-      <c r="H35" s="172">
+        <v>6.2885466510637293</v>
+      </c>
+      <c r="H35" s="141">
         <f t="shared" si="2"/>
-        <v>1566.409112853177</v>
+        <v>667.14694175106376</v>
       </c>
       <c r="I35" s="37">
         <f t="shared" si="3"/>
-        <v>344.70531444837599</v>
+        <v>2.3937869058915</v>
       </c>
       <c r="J35" s="35">
         <f t="shared" si="0"/>
-        <v>1911.114427301553</v>
+        <v>669.54072865695525</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5423,19 +5417,19 @@
       <c r="F36" s="17"/>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>901.79606849395498</v>
-      </c>
-      <c r="H36" s="172">
+        <v>6.2624726978746876</v>
+      </c>
+      <c r="H36" s="141">
         <f t="shared" si="2"/>
-        <v>1570.3719355739549</v>
+        <v>674.83833977787481</v>
       </c>
       <c r="I36" s="37">
         <f t="shared" si="3"/>
-        <v>343.27607638564803</v>
+        <v>2.383861641567</v>
       </c>
       <c r="J36" s="35">
         <f t="shared" si="0"/>
-        <v>1913.6480119596031</v>
+        <v>677.22220141944183</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5455,19 +5449,19 @@
       <c r="F37" s="17"/>
       <c r="G37" s="36">
         <f t="shared" si="1"/>
-        <v>897.99267194426204</v>
-      </c>
-      <c r="H37" s="172">
+        <v>6.2360602218351531</v>
+      </c>
+      <c r="H37" s="141">
         <f t="shared" si="2"/>
-        <v>1574.3527284842621</v>
+        <v>682.59611676183511</v>
       </c>
       <c r="I37" s="37">
         <f t="shared" si="3"/>
-        <v>341.82828226663207</v>
+        <v>2.3738075157405003</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="0"/>
-        <v>1916.1810107508941</v>
+        <v>684.96992427757561</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5487,19 +5481,19 @@
       <c r="F38" s="17"/>
       <c r="G38" s="36">
         <f t="shared" si="1"/>
-        <v>894.13831231816766</v>
-      </c>
-      <c r="H38" s="172">
+        <v>6.2092938355428311</v>
+      </c>
+      <c r="H38" s="141">
         <f t="shared" si="2"/>
-        <v>1578.3507261781676</v>
+        <v>690.42170769554275</v>
       </c>
       <c r="I38" s="37">
         <f t="shared" si="3"/>
-        <v>340.36108863422402</v>
+        <v>2.3636186710710003</v>
       </c>
       <c r="J38" s="35">
         <f t="shared" si="0"/>
-        <v>1918.7118148123916</v>
+        <v>692.78532636661373</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -5519,19 +5513,19 @@
       <c r="F39" s="17"/>
       <c r="G39" s="36">
         <f t="shared" si="1"/>
-        <v>890.23077382974145</v>
-      </c>
-      <c r="H39" s="172">
+        <v>6.1821581515954271</v>
+      </c>
+      <c r="H39" s="141">
         <f t="shared" si="2"/>
-        <v>1582.3651632497415</v>
+        <v>698.31654757159549</v>
       </c>
       <c r="I39" s="37">
         <f t="shared" si="3"/>
-        <v>338.87365203131998</v>
+        <v>2.3532892502174998</v>
       </c>
       <c r="J39" s="35">
         <f t="shared" si="0"/>
-        <v>1921.2388152810615</v>
+        <v>700.66983682181296</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5551,19 +5545,19 @@
       <c r="F40" s="17"/>
       <c r="G40" s="36">
         <f t="shared" si="1"/>
-        <v>886.26894858601827</v>
-      </c>
-      <c r="H40" s="172">
+        <v>6.1546454762917939</v>
+      </c>
+      <c r="H40" s="141">
         <f t="shared" si="2"/>
-        <v>1586.3963821860184</v>
+        <v>706.28207907629178</v>
       </c>
       <c r="I40" s="37">
         <f t="shared" si="3"/>
-        <v>337.36555072936801</v>
+        <v>2.3428163245095002</v>
       </c>
       <c r="J40" s="35">
         <f t="shared" si="0"/>
-        <v>1923.7619329153863</v>
+        <v>708.62489540080128</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5583,19 +5577,19 @@
       <c r="F41" s="17"/>
       <c r="G41" s="36">
         <f t="shared" si="1"/>
-        <v>882.248405015137</v>
-      </c>
-      <c r="H41" s="172">
+        <v>6.1267250348273405</v>
+      </c>
+      <c r="H41" s="141">
         <f t="shared" si="2"/>
-        <v>1590.437050655137</v>
+        <v>714.31537067482736</v>
       </c>
       <c r="I41" s="37">
         <f t="shared" si="3"/>
-        <v>335.83509781416001</v>
+        <v>2.3321881792650001</v>
       </c>
       <c r="J41" s="35">
         <f t="shared" si="0"/>
-        <v>1926.272148469297</v>
+        <v>716.64755885409238</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -5615,19 +5609,19 @@
       <c r="F42" s="17"/>
       <c r="G42" s="36">
         <f t="shared" si="1"/>
-        <v>878.16692733116713</v>
-      </c>
-      <c r="H42" s="172">
+        <v>6.0983814397997715</v>
+      </c>
+      <c r="H42" s="141">
         <f t="shared" si="2"/>
-        <v>1594.489304011167</v>
+        <v>722.42075811979976</v>
       </c>
       <c r="I42" s="37">
         <f t="shared" si="3"/>
-        <v>334.28144982859203</v>
+        <v>2.3213989571430003</v>
       </c>
       <c r="J42" s="35">
         <f t="shared" si="0"/>
-        <v>1928.770753839759</v>
+        <v>724.7421570769427</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -5647,19 +5641,19 @@
       <c r="F43" s="17"/>
       <c r="G43" s="36">
         <f t="shared" si="1"/>
-        <v>874.02229974817794</v>
-      </c>
-      <c r="H43" s="172">
+        <v>6.0695993038067915</v>
+      </c>
+      <c r="H43" s="141">
         <f t="shared" si="2"/>
-        <v>1598.550926468178</v>
+        <v>730.59822602380677</v>
       </c>
       <c r="I43" s="37">
         <f t="shared" si="3"/>
-        <v>332.70376331555997</v>
+        <v>2.3104428008025</v>
       </c>
       <c r="J43" s="35">
         <f t="shared" si="0"/>
-        <v>1931.2546897837378</v>
+        <v>732.90866882460932</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5679,19 +5673,19 @@
       <c r="F44" s="17"/>
       <c r="G44" s="36">
         <f t="shared" si="1"/>
-        <v>869.81119858727425</v>
-      </c>
-      <c r="H44" s="172">
+        <v>6.0403555457449603</v>
+      </c>
+      <c r="H44" s="141">
         <f t="shared" si="2"/>
-        <v>1602.6171439672744</v>
+        <v>738.84630092574503</v>
       </c>
       <c r="I44" s="37">
         <f t="shared" si="3"/>
-        <v>331.10077308940799</v>
+        <v>2.299310924232</v>
       </c>
       <c r="J44" s="35">
         <f t="shared" si="0"/>
-        <v>1933.7179170566824</v>
+        <v>741.14561184997706</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5711,19 +5705,19 @@
       <c r="F45" s="17"/>
       <c r="G45" s="36">
         <f t="shared" si="1"/>
-        <v>865.5291922765947</v>
-      </c>
-      <c r="H45" s="172">
+        <v>6.0106193908096852</v>
+      </c>
+      <c r="H45" s="141">
         <f t="shared" si="2"/>
-        <v>1606.6864256965946</v>
+        <v>747.16785281080968</v>
       </c>
       <c r="I45" s="37">
         <f t="shared" si="3"/>
-        <v>329.470792235928</v>
+        <v>2.2879916127494999</v>
       </c>
       <c r="J45" s="35">
         <f t="shared" si="0"/>
-        <v>1936.1572179325226</v>
+        <v>749.45584442355914</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -5743,19 +5737,19 @@
       <c r="F46" s="17"/>
       <c r="G46" s="36">
         <f t="shared" si="1"/>
-        <v>861.17406503020868</v>
-      </c>
-      <c r="H46" s="172">
+        <v>5.9803754515986718</v>
+      </c>
+      <c r="H46" s="141">
         <f t="shared" si="2"/>
-        <v>1610.7551054902087</v>
+        <v>755.5614159115986</v>
       </c>
       <c r="I46" s="37">
         <f t="shared" si="3"/>
-        <v>327.81297729801599</v>
+        <v>2.2764790090139999</v>
       </c>
       <c r="J46" s="35">
         <f t="shared" si="0"/>
-        <v>1938.5680827882247</v>
+        <v>757.8378949206126</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -5778,19 +5772,19 @@
       <c r="F47" s="17"/>
       <c r="G47" s="36">
         <f t="shared" si="1"/>
-        <v>860.18902508488566</v>
-      </c>
-      <c r="H47" s="172">
+        <v>5.9735348964228168</v>
+      </c>
+      <c r="H47" s="141">
         <f t="shared" si="2"/>
-        <v>1611.6587826115524</v>
+        <v>757.44329242308947</v>
       </c>
       <c r="I47" s="37">
         <f t="shared" si="3"/>
-        <v>327.43801375655994</v>
+        <v>2.2738750955316664</v>
       </c>
       <c r="J47" s="35">
         <f t="shared" si="0"/>
-        <v>1939.0967963681123</v>
+        <v>759.71716751862118</v>
       </c>
       <c r="K47" s="39" t="s">
         <v>33</v>
@@ -5814,19 +5808,19 @@
       <c r="F48" s="17"/>
       <c r="G48" s="36">
         <f t="shared" si="1"/>
-        <v>856.74138527625553</v>
-      </c>
-      <c r="H48" s="172">
+        <v>5.94959295330733</v>
+      </c>
+      <c r="H48" s="141">
         <f t="shared" si="2"/>
-        <v>1614.8216525362554</v>
+        <v>764.02986021330719</v>
       </c>
       <c r="I48" s="37">
         <f t="shared" si="3"/>
-        <v>326.12564136146403</v>
+        <v>2.2647613983435004</v>
       </c>
       <c r="J48" s="35">
         <f t="shared" si="0"/>
-        <v>1940.9472938977194</v>
+        <v>766.29462161165065</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5846,19 +5840,19 @@
       <c r="F49" s="17"/>
       <c r="G49" s="36">
         <f t="shared" si="1"/>
-        <v>852.22561354990864</v>
-      </c>
-      <c r="H49" s="172">
+        <v>5.9182334274299215</v>
+      </c>
+      <c r="H49" s="141">
         <f t="shared" si="2"/>
-        <v>1618.8805273699086</v>
+        <v>772.5731472474298</v>
       </c>
       <c r="I49" s="37">
         <f t="shared" si="3"/>
-        <v>324.40667578351196</v>
+        <v>2.2528241373854998</v>
       </c>
       <c r="J49" s="35">
         <f t="shared" si="0"/>
-        <v>1943.2872031534205</v>
+        <v>774.82597138481526</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5878,19 +5872,19 @@
       <c r="F50" s="17"/>
       <c r="G50" s="36">
         <f t="shared" si="1"/>
-        <v>847.62231827930748</v>
-      </c>
-      <c r="H50" s="172">
+        <v>5.8862660991618574</v>
+      </c>
+      <c r="H50" s="141">
         <f t="shared" si="2"/>
-        <v>1622.9272984193076</v>
+        <v>781.19124623916184</v>
       </c>
       <c r="I50" s="37">
         <f t="shared" si="3"/>
-        <v>322.654393649952</v>
+        <v>2.2406555114579998</v>
       </c>
       <c r="J50" s="35">
         <f t="shared" si="0"/>
-        <v>1945.5816920692596</v>
+        <v>783.43190175061989</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5910,19 +5904,19 @@
       <c r="F51" s="17"/>
       <c r="G51" s="36">
         <f t="shared" si="1"/>
-        <v>842.92706789259069</v>
-      </c>
-      <c r="H51" s="172">
+        <v>5.8536601936985466</v>
+      </c>
+      <c r="H51" s="141">
         <f t="shared" si="2"/>
-        <v>1626.9589844925908</v>
+        <v>789.88557679369865</v>
       </c>
       <c r="I51" s="37">
         <f t="shared" si="3"/>
-        <v>320.86710804657599</v>
+        <v>2.228243805879</v>
       </c>
       <c r="J51" s="35">
         <f t="shared" si="0"/>
-        <v>1947.8260925391669</v>
+        <v>792.11382059957759</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5942,54 +5936,54 @@
       <c r="F52" s="17"/>
       <c r="G52" s="36">
         <f t="shared" si="1"/>
-        <v>838.13321503196698</v>
-      </c>
-      <c r="H52" s="172">
+        <v>5.8203695488331038</v>
+      </c>
+      <c r="H52" s="141">
         <f t="shared" si="2"/>
-        <v>1630.9689382319671</v>
+        <v>798.6560927488332</v>
       </c>
       <c r="I52" s="37">
         <f t="shared" si="3"/>
-        <v>319.04228860207201</v>
+        <v>2.2155714486255</v>
       </c>
       <c r="J52" s="35">
         <f t="shared" si="0"/>
-        <v>1950.011226834039</v>
+        <v>800.8716641974587</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="177">
+      <c r="A53" s="144">
         <v>75</v>
       </c>
-      <c r="B53" s="178">
+      <c r="B53" s="145">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="179">
+      <c r="C53" s="146">
         <f t="shared" ref="C53:D53" si="4">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="180">
+      <c r="D53" s="147">
         <f t="shared" si="4"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="181"/>
-      <c r="F53" s="181"/>
-      <c r="G53" s="173">
-        <f>C53*($M$3*$P$5)*($M$2+$M$4)</f>
-        <v>834.32280182682757</v>
-      </c>
-      <c r="H53" s="174">
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="36">
+        <f t="shared" si="1"/>
+        <v>5.7939083460196361</v>
+      </c>
+      <c r="H53" s="142">
         <f t="shared" si="2"/>
-        <v>1634.0679741934941</v>
-      </c>
-      <c r="I53" s="175">
+        <v>805.53908071268631</v>
+      </c>
+      <c r="I53" s="37">
         <f t="shared" si="3"/>
-        <v>317.59182353556002</v>
-      </c>
-      <c r="J53" s="176">
+        <v>2.2054987745525003</v>
+      </c>
+      <c r="J53" s="143">
         <f t="shared" si="0"/>
-        <v>1951.6597977290542</v>
+        <v>807.74457948723887</v>
       </c>
       <c r="K53" s="40" t="s">
         <v>33</v>
@@ -6015,19 +6009,19 @@
       <c r="F54" s="17"/>
       <c r="G54" s="36">
         <f t="shared" si="1"/>
-        <v>833.23411233964487</v>
-      </c>
-      <c r="H54" s="172">
+        <v>5.7863480023586451</v>
+      </c>
+      <c r="H54" s="141">
         <f t="shared" si="2"/>
-        <v>1634.9534130396448</v>
+        <v>807.5056487023586</v>
       </c>
       <c r="I54" s="37">
         <f t="shared" si="3"/>
-        <v>317.17740494512805</v>
+        <v>2.2026208676745003</v>
       </c>
       <c r="J54" s="35">
         <f t="shared" si="0"/>
-        <v>1952.1308179847729</v>
+        <v>809.70826957003305</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -6047,19 +6041,19 @@
       <c r="F55" s="17"/>
       <c r="G55" s="36">
         <f t="shared" si="1"/>
-        <v>828.22200456486758</v>
-      </c>
-      <c r="H55" s="172">
+        <v>5.7515416983671361</v>
+      </c>
+      <c r="H55" s="141">
         <f t="shared" si="2"/>
-        <v>1638.9046536648675</v>
+        <v>816.43419079836724</v>
       </c>
       <c r="I55" s="37">
         <f t="shared" si="3"/>
-        <v>315.26950497588007</v>
+        <v>2.1893715623325005</v>
       </c>
       <c r="J55" s="35">
         <f t="shared" si="0"/>
-        <v>1954.1741586407475</v>
+        <v>818.62356236069979</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -6079,19 +6073,19 @@
       <c r="F56" s="17"/>
       <c r="G56" s="36">
         <f t="shared" si="1"/>
-        <v>823.09024434984326</v>
-      </c>
-      <c r="H56" s="172">
+        <v>5.7159044746516896</v>
+      </c>
+      <c r="H56" s="141">
         <f t="shared" si="2"/>
-        <v>1642.8160127498431</v>
+        <v>825.44167287465166</v>
       </c>
       <c r="I56" s="37">
         <f t="shared" si="3"/>
-        <v>313.31605832301602</v>
+        <v>2.1758059605765001</v>
       </c>
       <c r="J56" s="35">
         <f t="shared" si="0"/>
-        <v>1956.1320710728592</v>
+        <v>827.61747883522821</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -6111,19 +6105,19 @@
       <c r="F57" s="17"/>
       <c r="G57" s="36">
         <f t="shared" si="1"/>
-        <v>817.82886065788534</v>
-      </c>
-      <c r="H57" s="172">
+        <v>5.6793670879019817</v>
+      </c>
+      <c r="H57" s="141">
         <f t="shared" si="2"/>
-        <v>1646.6789696378855</v>
+        <v>834.52947606790201</v>
       </c>
       <c r="I57" s="37">
         <f t="shared" si="3"/>
-        <v>311.31326942956798</v>
+        <v>2.161897704372</v>
       </c>
       <c r="J57" s="35">
         <f t="shared" si="0"/>
-        <v>1957.9922390674535</v>
+        <v>836.69137377227401</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -6143,19 +6137,19 @@
       <c r="F58" s="17"/>
       <c r="G58" s="36">
         <f t="shared" si="1"/>
-        <v>812.42788245230622</v>
-      </c>
-      <c r="H58" s="172">
+        <v>5.6418602948076817</v>
+      </c>
+      <c r="H58" s="141">
         <f t="shared" si="2"/>
-        <v>1650.4850036723062</v>
+        <v>843.69898151480766</v>
       </c>
       <c r="I58" s="37">
         <f t="shared" si="3"/>
-        <v>309.25734273856801</v>
+        <v>2.1476204356844999</v>
       </c>
       <c r="J58" s="35">
         <f t="shared" si="0"/>
-        <v>1959.7423464108742</v>
+        <v>845.84660195049219</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -6175,19 +6169,19 @@
       <c r="F59" s="17"/>
       <c r="G59" s="36">
         <f t="shared" si="1"/>
-        <v>806.87512291048836</v>
-      </c>
-      <c r="H59" s="172">
+        <v>5.6032994646561693</v>
+      </c>
+      <c r="H59" s="141">
         <f t="shared" si="2"/>
-        <v>1654.2233784104883</v>
+        <v>852.95155496465611</v>
       </c>
       <c r="I59" s="37">
         <f t="shared" si="3"/>
-        <v>307.14363923594402</v>
+        <v>2.1329419391385001</v>
       </c>
       <c r="J59" s="35">
         <f t="shared" si="0"/>
-        <v>1961.3670176464323</v>
+        <v>855.08449690379462</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -6207,19 +6201,19 @@
       <c r="F60" s="17"/>
       <c r="G60" s="36">
         <f t="shared" si="1"/>
-        <v>801.15839520981376</v>
-      </c>
-      <c r="H60" s="172">
+        <v>5.5635999667348175</v>
+      </c>
+      <c r="H60" s="141">
         <f t="shared" si="2"/>
-        <v>1657.8819070298136</v>
+        <v>862.28711178673484</v>
       </c>
       <c r="I60" s="37">
         <f t="shared" si="3"/>
-        <v>304.96751990762397</v>
+        <v>2.1178299993584999</v>
       </c>
       <c r="J60" s="35">
         <f t="shared" si="0"/>
-        <v>1962.8494269374376</v>
+        <v>864.40494178609333</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -6239,19 +6233,19 @@
       <c r="F61" s="17"/>
       <c r="G61" s="36">
         <f t="shared" si="1"/>
-        <v>795.261080955804</v>
-      </c>
-      <c r="H61" s="172">
+        <v>5.5226463955264169</v>
+      </c>
+      <c r="H61" s="141">
         <f t="shared" si="2"/>
-        <v>1661.446871895804</v>
+        <v>871.70843733552636</v>
       </c>
       <c r="I61" s="37">
         <f t="shared" si="3"/>
-        <v>302.72265882532798</v>
+        <v>2.1022406862869998</v>
       </c>
       <c r="J61" s="35">
         <f t="shared" si="0"/>
-        <v>1964.1695307211319</v>
+        <v>873.81067802181337</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -6271,19 +6265,19 @@
       <c r="F62" s="17"/>
       <c r="G62" s="36">
         <f t="shared" si="1"/>
-        <v>789.16766964694568</v>
-      </c>
-      <c r="H62" s="172">
+        <v>5.4803310392149003</v>
+      </c>
+      <c r="H62" s="141">
         <f t="shared" si="2"/>
-        <v>1664.9013121269459</v>
+        <v>881.21397351921496</v>
       </c>
       <c r="I62" s="37">
         <f t="shared" si="3"/>
-        <v>300.40315178932798</v>
+        <v>2.0861329985369998</v>
       </c>
       <c r="J62" s="35">
         <f t="shared" si="0"/>
-        <v>1965.3044639162738</v>
+        <v>883.30010651775194</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -6303,19 +6297,19 @@
       <c r="F63" s="17"/>
       <c r="G63" s="36">
         <f t="shared" si="1"/>
-        <v>782.85600342393366</v>
-      </c>
-      <c r="H63" s="172">
+        <v>5.4365000237773167</v>
+      </c>
+      <c r="H63" s="141">
         <f t="shared" si="2"/>
-        <v>1668.2274210039336</v>
+        <v>890.80791760377724</v>
       </c>
       <c r="I63" s="37">
         <f t="shared" si="3"/>
-        <v>298.00056422858404</v>
+        <v>2.0694483626985001</v>
       </c>
       <c r="J63" s="35">
         <f t="shared" si="0"/>
-        <v>1966.2279852325178</v>
+        <v>892.87736596647574</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -6335,19 +6329,19 @@
       <c r="F64" s="17"/>
       <c r="G64" s="36">
         <f t="shared" si="1"/>
-        <v>776.30170864153229</v>
-      </c>
-      <c r="H64" s="172">
+        <v>5.3909840877884188</v>
+      </c>
+      <c r="H64" s="141">
         <f t="shared" si="2"/>
-        <v>1671.4022752615324</v>
+        <v>900.49155070778841</v>
       </c>
       <c r="I64" s="37">
         <f t="shared" si="3"/>
-        <v>295.50561811495197</v>
+        <v>2.0521223480204998</v>
       </c>
       <c r="J64" s="35">
         <f t="shared" si="0"/>
-        <v>1966.9078933764845</v>
+        <v>902.54367305580888</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6367,19 +6361,19 @@
       <c r="F65" s="17"/>
       <c r="G65" s="36">
         <f t="shared" si="1"/>
-        <v>769.47708797561097</v>
-      </c>
-      <c r="H65" s="172">
+        <v>5.3435908887195209</v>
+      </c>
+      <c r="H65" s="141">
         <f t="shared" si="2"/>
-        <v>1674.396727195611</v>
+        <v>910.26323010871954</v>
       </c>
       <c r="I65" s="37">
         <f t="shared" si="3"/>
-        <v>292.90777023463204</v>
+        <v>2.0340817377405003</v>
       </c>
       <c r="J65" s="35">
         <f t="shared" si="0"/>
-        <v>1967.3044974302429</v>
+        <v>912.29731184646005</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -6399,19 +6393,19 @@
       <c r="F66" s="17"/>
       <c r="G66" s="36">
         <f t="shared" si="1"/>
-        <v>762.34779674424658</v>
-      </c>
-      <c r="H66" s="172">
+        <v>5.2940819218350459</v>
+      </c>
+      <c r="H66" s="141">
         <f t="shared" si="2"/>
-        <v>1677.1822336442465</v>
+        <v>920.12851882183509</v>
       </c>
       <c r="I66" s="37">
         <f t="shared" si="3"/>
-        <v>290.193947002512</v>
+        <v>2.0152357430730001</v>
       </c>
       <c r="J66" s="35">
         <f t="shared" si="0"/>
-        <v>1967.3761806467585</v>
+        <v>922.14375456490814</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -6431,19 +6425,19 @@
       <c r="F67" s="17"/>
       <c r="G67" s="36">
         <f t="shared" si="1"/>
-        <v>754.87062712179454</v>
-      </c>
-      <c r="H67" s="172">
+        <v>5.2421571327902399</v>
+      </c>
+      <c r="H67" s="141">
         <f t="shared" si="2"/>
-        <v>1679.7141364017946</v>
+        <v>930.08566641279026</v>
       </c>
       <c r="I67" s="37">
         <f t="shared" si="3"/>
-        <v>287.34770100506398</v>
+        <v>1.9954701458684998</v>
       </c>
       <c r="J67" s="35">
         <f t="shared" si="0"/>
-        <v>1967.0618374068586</v>
+        <v>932.08113655865873</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -6463,19 +6457,19 @@
       <c r="F68" s="17"/>
       <c r="G68" s="36">
         <f t="shared" si="1"/>
-        <v>746.99461603185375</v>
-      </c>
-      <c r="H68" s="172">
+        <v>5.1874626113323181</v>
+      </c>
+      <c r="H68" s="141">
         <f t="shared" si="2"/>
-        <v>1681.9458235318539</v>
+        <v>940.13867011133243</v>
       </c>
       <c r="I68" s="37">
         <f t="shared" si="3"/>
-        <v>284.34963272889604</v>
+        <v>1.9746502272840003</v>
       </c>
       <c r="J68" s="35">
         <f t="shared" ref="J68:J79" si="5">H68+I68</f>
-        <v>1966.2954562607499</v>
+        <v>942.1133203386164</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -6494,20 +6488,20 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="36">
-        <f t="shared" ref="G69:G79" si="6">C69*($M$3*$P$5)*($M$2+$M$4)</f>
-        <v>738.65218200354389</v>
-      </c>
-      <c r="H69" s="172">
+        <f t="shared" ref="G69:G79" si="6">(C69*($M$3*$P$5)*($M$2+$M$4))/144</f>
+        <v>5.1295290416912769</v>
+      </c>
+      <c r="H69" s="141">
         <f t="shared" ref="H69:H79" si="7">B69+G69</f>
-        <v>1683.8126143235438</v>
+        <v>950.28996136169121</v>
       </c>
       <c r="I69" s="37">
-        <f t="shared" ref="I69:I79" si="8">C69*($M$3*$P$5)*$M$1</f>
-        <v>281.17401673233599</v>
+        <f t="shared" ref="I69:I79" si="8">(C69*($M$3*$P$5)*$M$1)/144</f>
+        <v>1.9525973384189999</v>
       </c>
       <c r="J69" s="35">
         <f t="shared" si="5"/>
-        <v>1964.9866310558798</v>
+        <v>952.24255870011018</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -6527,19 +6521,19 @@
       <c r="F70" s="17"/>
       <c r="G70" s="36">
         <f t="shared" si="6"/>
-        <v>729.75801727854116</v>
-      </c>
-      <c r="H70" s="172">
+        <v>5.0677640088787577</v>
+      </c>
+      <c r="H70" s="141">
         <f t="shared" si="7"/>
-        <v>1685.2292010185413</v>
+        <v>960.53894774887885</v>
       </c>
       <c r="I70" s="37">
         <f t="shared" si="8"/>
-        <v>277.78837991688005</v>
+        <v>1.9290859716450004</v>
       </c>
       <c r="J70" s="35">
         <f t="shared" si="5"/>
-        <v>1963.0175809354214</v>
+        <v>962.46803372052386</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -6559,19 +6553,19 @@
       <c r="F71" s="17"/>
       <c r="G71" s="36">
         <f t="shared" si="6"/>
-        <v>720.2002246673552</v>
-      </c>
-      <c r="H71" s="172">
+        <v>5.0013904490788557</v>
+      </c>
+      <c r="H71" s="141">
         <f t="shared" si="7"/>
-        <v>1686.0880375673551</v>
+        <v>970.8892033490788</v>
       </c>
       <c r="I71" s="37">
         <f t="shared" si="8"/>
-        <v>274.15012769877598</v>
+        <v>1.9038203312414999</v>
       </c>
       <c r="J71" s="35">
         <f t="shared" si="5"/>
-        <v>1960.2381652661311</v>
+        <v>972.79302368032029</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -6591,19 +6585,19 @@
       <c r="F72" s="17"/>
       <c r="G72" s="36">
         <f t="shared" si="6"/>
-        <v>709.82037547595621</v>
-      </c>
-      <c r="H72" s="172">
+        <v>4.929308163027474</v>
+      </c>
+      <c r="H72" s="141">
         <f t="shared" si="7"/>
-        <v>1686.2364967959561</v>
+        <v>981.34542948302749</v>
       </c>
       <c r="I72" s="37">
         <f t="shared" si="8"/>
-        <v>270.19895289508804</v>
+        <v>1.8763816173270003</v>
       </c>
       <c r="J72" s="35">
         <f t="shared" si="5"/>
-        <v>1956.4354496910441</v>
+        <v>983.22181110035444</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6623,19 +6617,19 @@
       <c r="F73" s="17"/>
       <c r="G73" s="36">
         <f t="shared" si="6"/>
-        <v>698.39578321832914</v>
-      </c>
-      <c r="H73" s="172">
+        <v>4.8499707167939521</v>
+      </c>
+      <c r="H73" s="141">
         <f t="shared" si="7"/>
-        <v>1685.4518922183292</v>
+        <v>991.90607971679401</v>
       </c>
       <c r="I73" s="37">
         <f t="shared" si="8"/>
-        <v>265.85008806686398</v>
+        <v>1.8461811671309998</v>
       </c>
       <c r="J73" s="35">
         <f t="shared" si="5"/>
-        <v>1951.3019802851932</v>
+        <v>993.75226088392503</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6655,19 +6649,19 @@
       <c r="F74" s="17"/>
       <c r="G74" s="36">
         <f t="shared" si="6"/>
-        <v>685.5874326471087</v>
-      </c>
-      <c r="H74" s="172">
+        <v>4.7610238378271434</v>
+      </c>
+      <c r="H74" s="141">
         <f t="shared" si="7"/>
-        <v>1683.4053612471087</v>
+        <v>1002.5789524378271</v>
       </c>
       <c r="I74" s="37">
         <f t="shared" si="8"/>
-        <v>260.974484277192</v>
+        <v>1.8123228074805</v>
       </c>
       <c r="J74" s="35">
         <f t="shared" si="5"/>
-        <v>1944.3798455243007</v>
+        <v>1004.3912752453076</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6687,19 +6681,19 @@
       <c r="F75" s="17"/>
       <c r="G75" s="36">
         <f t="shared" si="6"/>
-        <v>670.83916149374079</v>
-      </c>
-      <c r="H75" s="172">
+        <v>4.6586052881509774</v>
+      </c>
+      <c r="H75" s="141">
         <f t="shared" si="7"/>
-        <v>1679.5436423737408</v>
+        <v>1013.363086168151</v>
       </c>
       <c r="I75" s="37">
         <f t="shared" si="8"/>
-        <v>255.36043379296802</v>
+        <v>1.7733363457845002</v>
       </c>
       <c r="J75" s="35">
         <f t="shared" si="5"/>
-        <v>1934.9040761667088</v>
+        <v>1015.1364225139355</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -6719,19 +6713,19 @@
       <c r="F76" s="17"/>
       <c r="G76" s="36">
         <f t="shared" si="6"/>
-        <v>653.13060033723286</v>
-      </c>
-      <c r="H76" s="172">
+        <v>4.5356291690085619</v>
+      </c>
+      <c r="H76" s="141">
         <f t="shared" si="7"/>
-        <v>1672.8565188372329</v>
+        <v>1024.2615476690087</v>
       </c>
       <c r="I76" s="37">
         <f t="shared" si="8"/>
-        <v>248.61952461780001</v>
+        <v>1.7265244765125001</v>
       </c>
       <c r="J76" s="35">
         <f t="shared" si="5"/>
-        <v>1921.4760434550328</v>
+        <v>1025.9880721455211</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6751,19 +6745,19 @@
       <c r="F77" s="17"/>
       <c r="G77" s="36">
         <f t="shared" si="6"/>
-        <v>630.20275542144634</v>
-      </c>
-      <c r="H77" s="172">
+        <v>4.3764080237600442</v>
+      </c>
+      <c r="H77" s="141">
         <f t="shared" si="7"/>
-        <v>1661.0965999214463</v>
+        <v>1035.2702525237601</v>
       </c>
       <c r="I77" s="37">
         <f t="shared" si="8"/>
-        <v>239.89185223416001</v>
+        <v>1.6659156405150002</v>
       </c>
       <c r="J77" s="35">
         <f t="shared" si="5"/>
-        <v>1900.9884521556064</v>
+        <v>1036.9361681642752</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6783,19 +6777,19 @@
       <c r="F78" s="17"/>
       <c r="G78" s="36">
         <f t="shared" si="6"/>
-        <v>594.69921745714123</v>
-      </c>
-      <c r="H78" s="172">
+        <v>4.1298556767857031</v>
+      </c>
+      <c r="H78" s="141">
         <f t="shared" si="7"/>
-        <v>1636.9306824171413</v>
+        <v>1046.3613206367856</v>
       </c>
       <c r="I78" s="37">
         <f t="shared" si="8"/>
-        <v>226.37713905676799</v>
+        <v>1.5720634656719998</v>
       </c>
       <c r="J78" s="35">
         <f t="shared" si="5"/>
-        <v>1863.3078214739094</v>
+        <v>1047.9333841024577</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6815,19 +6809,19 @@
       <c r="F79" s="18"/>
       <c r="G79" s="36">
         <f t="shared" si="6"/>
-        <v>500.77980711425806</v>
-      </c>
-      <c r="H79" s="172">
+        <v>3.4776375494045699</v>
+      </c>
+      <c r="H79" s="141">
         <f t="shared" si="7"/>
-        <v>1551.5801171142582</v>
+        <v>1054.2779475494046</v>
       </c>
       <c r="I79" s="37">
         <f t="shared" si="8"/>
-        <v>190.62594451807203</v>
+        <v>1.3237912813755002</v>
       </c>
       <c r="J79" s="35">
         <f t="shared" si="5"/>
-        <v>1742.2060616323301</v>
+        <v>1055.6017388307801</v>
       </c>
       <c r="K79" s="48"/>
       <c r="L79" s="22"/>
@@ -9100,32 +9094,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="65"/>
-      <c r="F1" s="158" t="s">
+      <c r="F1" s="172" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="133"/>
       <c r="H1" s="133"/>
-      <c r="I1" s="161" t="s">
+      <c r="I1" s="175" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="85"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="163" t="s">
+      <c r="N1" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
       <c r="Q1" s="112"/>
-      <c r="R1" s="167" t="s">
+      <c r="R1" s="163" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="51"/>
@@ -9156,21 +9150,21 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="159"/>
+      <c r="F2" s="173"/>
       <c r="G2" s="126" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="162"/>
-      <c r="J2" s="169" t="s">
+      <c r="I2" s="176"/>
+      <c r="J2" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="170"/>
+      <c r="K2" s="167"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
-      <c r="N2" s="164"/>
+      <c r="N2" s="178"/>
       <c r="O2" s="79" t="s">
         <v>39</v>
       </c>
@@ -9180,7 +9174,7 @@
       <c r="Q2" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="168"/>
+      <c r="R2" s="164"/>
       <c r="S2" s="68"/>
       <c r="T2" t="s">
         <v>14</v>
@@ -9210,7 +9204,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="160"/>
+      <c r="F3" s="174"/>
       <c r="G3" s="122" t="s">
         <v>40</v>
       </c>
@@ -9228,7 +9222,7 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="165"/>
+      <c r="N3" s="179"/>
       <c r="O3" s="119" t="s">
         <v>40</v>
       </c>
@@ -11685,7 +11679,7 @@
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="171" t="s">
+      <c r="L42" s="168" t="s">
         <v>56</v>
       </c>
       <c r="M42" s="50"/>
@@ -11751,7 +11745,7 @@
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="171"/>
+      <c r="L43" s="168"/>
       <c r="M43" s="50"/>
       <c r="N43" s="113">
         <f t="shared" si="7"/>
@@ -12553,16 +12547,16 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="154"/>
-      <c r="G60" s="154"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
       <c r="H60" s="38"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="154"/>
-      <c r="O60" s="154"/>
+      <c r="N60" s="165"/>
+      <c r="O60" s="165"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="71"/>
@@ -15342,16 +15336,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="N60:O60"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L42:L43"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="N1:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D94C3F0-5861-414F-8614-B130AB6AF7E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D57D94-D4D0-5547-9552-C1946135E020}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="23640" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs" sheetId="1" r:id="rId1"/>
     <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId2"/>
     <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -350,6 +350,9 @@
   <si>
     <t>gees</t>
   </si>
+  <si>
+    <t>Thickness we are using (min. based on tol) (in.)</t>
+  </si>
 </sst>
 </file>
 
@@ -545,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -798,11 +801,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1235,26 +1264,8 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,6 +1300,27 @@
     <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3973,19 +4005,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
         <v>6</v>
       </c>
@@ -3995,7 +4027,7 @@
       <c r="E1" s="149"/>
       <c r="F1" s="149"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="150" t="s">
         <v>11</v>
       </c>
@@ -4005,7 +4037,7 @@
       <c r="E2" s="150"/>
       <c r="F2" s="150"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="152" t="s">
         <v>12</v>
       </c>
@@ -4015,7 +4047,7 @@
       <c r="E3" s="152"/>
       <c r="F3" s="152"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="151" t="s">
         <v>4</v>
       </c>
@@ -4025,7 +4057,7 @@
       </c>
       <c r="E5" s="151"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4035,7 +4067,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4043,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4055,25 +4087,25 @@
       </c>
       <c r="E8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.16345475941194654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.18222739287811821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>7.8566264656774895E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.720215870746402E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4085,10 +4117,10 @@
       </c>
       <c r="E10" s="13">
         <f>MAX(E8:E9)</f>
-        <v>0.16345475941194654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.18222739287811821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4098,33 +4130,40 @@
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D12" s="134" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="135">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>7.9722604455066112E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.8628984324162538E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="180" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="181">
+        <f>0.25-0.025</f>
+        <v>0.22500000000000001</v>
+      </c>
       <c r="D13" s="136" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="137">
         <f>E12</f>
-        <v>7.9722604455066112E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.8628984324162538E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
@@ -4135,7 +4174,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
@@ -4146,14 +4185,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="61"/>
       <c r="B18" s="59"/>
       <c r="C18" s="60"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57" t="s">
         <v>62</v>
       </c>
@@ -4164,35 +4203,35 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55"/>
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="55"/>
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="55"/>
       <c r="B30" s="21"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
     </row>
   </sheetData>
@@ -4213,28 +4252,28 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4:I79"/>
+    <sheetView zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="24"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.42578125" customWidth="1"/>
+    <col min="5" max="6" width="4.5" customWidth="1"/>
     <col min="7" max="7" width="14" style="36" customWidth="1"/>
     <col min="8" max="8" width="16" style="35" customWidth="1"/>
     <col min="9" max="9" width="22" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" customWidth="1"/>
     <col min="11" max="11" width="11" style="46" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="73"/>
       <c r="B1" s="159" t="s">
         <v>17</v>
@@ -4259,12 +4298,12 @@
       <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="182">
         <f>'N2O Ullage Calcs'!G57</f>
         <v>2.8988762251754956</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
@@ -4303,7 +4342,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4345,7 +4384,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <v>32</v>
       </c>
@@ -4383,7 +4422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>32.9</v>
       </c>
@@ -4427,7 +4466,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>33.799999999999997</v>
       </c>
@@ -4465,7 +4504,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>34.700000000000003</v>
       </c>
@@ -4504,7 +4543,7 @@
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>35.6</v>
       </c>
@@ -4536,7 +4575,7 @@
         <v>486.01173314205408</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <v>36.5</v>
       </c>
@@ -4568,7 +4607,7 @@
         <v>492.039196538851</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>37.4</v>
       </c>
@@ -4600,7 +4639,7 @@
         <v>498.12156192821476</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
         <v>38.299999999999997</v>
       </c>
@@ -4632,7 +4671,7 @@
         <v>504.26175131488901</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>39.200000000000003</v>
       </c>
@@ -4664,7 +4703,7 @@
         <v>510.45827182938706</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>40.1</v>
       </c>
@@ -4696,7 +4735,7 @@
         <v>516.71115533882369</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>41</v>
       </c>
@@ -4728,7 +4767,7 @@
         <v>523.0232707360841</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
         <v>41.9</v>
       </c>
@@ -4760,7 +4799,7 @@
         <v>529.39172788353994</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>42.8</v>
       </c>
@@ -4792,7 +4831,7 @@
         <v>535.81795591644789</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
         <v>43.7</v>
       </c>
@@ -4824,7 +4863,7 @@
         <v>542.30340521480798</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>44.6</v>
       </c>
@@ -4856,7 +4895,7 @@
         <v>548.84807577862</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>45.5</v>
       </c>
@@ -4888,7 +4927,7 @@
         <v>555.4534073655127</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>46.4</v>
       </c>
@@ -4920,7 +4959,7 @@
         <v>562.11648859311413</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>47.3</v>
       </c>
@@ -4952,7 +4991,7 @@
         <v>568.84022022142437</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>48.2</v>
       </c>
@@ -4984,7 +5023,7 @@
         <v>575.6260313857</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
         <v>49.1</v>
       </c>
@@ -5016,7 +5055,7 @@
         <v>582.47102132594136</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
         <v>50</v>
       </c>
@@ -5048,7 +5087,7 @@
         <v>589.37808017977659</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
         <v>50.9</v>
       </c>
@@ -5080,7 +5119,7 @@
         <v>596.34720794720556</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>51.8</v>
       </c>
@@ -5112,7 +5151,7 @@
         <v>603.37838338348502</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
         <v>52.7</v>
       </c>
@@ -5144,7 +5183,7 @@
         <v>610.47304624624371</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
         <v>53.6</v>
       </c>
@@ -5176,7 +5215,7 @@
         <v>617.62974615548103</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
         <v>54.5</v>
       </c>
@@ -5208,7 +5247,7 @@
         <v>624.8513520040824</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
         <v>55.4</v>
       </c>
@@ -5240,7 +5279,7 @@
         <v>632.13642403441941</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
         <v>56.3</v>
       </c>
@@ -5272,7 +5311,7 @@
         <v>639.48639138174894</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
         <v>57.2</v>
       </c>
@@ -5304,7 +5343,7 @@
         <v>646.90124342369893</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <v>58.1</v>
       </c>
@@ -5336,7 +5375,7 @@
         <v>654.38095891552643</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
         <v>59</v>
       </c>
@@ -5368,7 +5407,7 @@
         <v>661.92842799485959</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>59.9</v>
       </c>
@@ -5400,7 +5439,7 @@
         <v>669.54072865695525</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>60.8</v>
       </c>
@@ -5432,7 +5471,7 @@
         <v>677.22220141944183</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
         <v>61.7</v>
       </c>
@@ -5464,7 +5503,7 @@
         <v>684.96992427757561</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>62.6</v>
       </c>
@@ -5496,7 +5535,7 @@
         <v>692.78532636661373</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>63.5</v>
       </c>
@@ -5528,7 +5567,7 @@
         <v>700.66983682181296</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>64.400000000000006</v>
       </c>
@@ -5560,7 +5599,7 @@
         <v>708.62489540080128</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>65.3</v>
       </c>
@@ -5592,7 +5631,7 @@
         <v>716.64755885409238</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>66.2</v>
       </c>
@@ -5624,7 +5663,7 @@
         <v>724.7421570769427</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>67.099999999999994</v>
       </c>
@@ -5656,7 +5695,7 @@
         <v>732.90866882460932</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>68</v>
       </c>
@@ -5688,7 +5727,7 @@
         <v>741.14561184997706</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>68.900000000000006</v>
       </c>
@@ -5720,7 +5759,7 @@
         <v>749.45584442355914</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>69.8</v>
       </c>
@@ -5752,7 +5791,7 @@
         <v>757.8378949206126</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="63">
         <v>70</v>
       </c>
@@ -5791,7 +5830,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
         <v>70.7</v>
       </c>
@@ -5823,7 +5862,7 @@
         <v>766.29462161165065</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="27">
         <v>71.599999999999994</v>
       </c>
@@ -5855,7 +5894,7 @@
         <v>774.82597138481526</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>72.5</v>
       </c>
@@ -5887,7 +5926,7 @@
         <v>783.43190175061989</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>73.400000000000006</v>
       </c>
@@ -5919,7 +5958,7 @@
         <v>792.11382059957759</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>74.3</v>
       </c>
@@ -5951,7 +5990,7 @@
         <v>800.8716641974587</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="144">
         <v>75</v>
       </c>
@@ -5992,7 +6031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>75.2</v>
       </c>
@@ -6024,7 +6063,7 @@
         <v>809.70826957003305</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
         <v>76.099999999999994</v>
       </c>
@@ -6056,7 +6095,7 @@
         <v>818.62356236069979</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>77</v>
       </c>
@@ -6088,7 +6127,7 @@
         <v>827.61747883522821</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>77.900000000000006</v>
       </c>
@@ -6120,7 +6159,7 @@
         <v>836.69137377227401</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>78.8</v>
       </c>
@@ -6152,7 +6191,7 @@
         <v>845.84660195049219</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>79.7</v>
       </c>
@@ -6184,7 +6223,7 @@
         <v>855.08449690379462</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>80.599999999999994</v>
       </c>
@@ -6216,7 +6255,7 @@
         <v>864.40494178609333</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>81.5</v>
       </c>
@@ -6248,7 +6287,7 @@
         <v>873.81067802181337</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>82.4</v>
       </c>
@@ -6280,7 +6319,7 @@
         <v>883.30010651775194</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>83.3</v>
       </c>
@@ -6312,7 +6351,7 @@
         <v>892.87736596647574</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>84.2</v>
       </c>
@@ -6344,7 +6383,7 @@
         <v>902.54367305580888</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>85.1</v>
       </c>
@@ -6376,7 +6415,7 @@
         <v>912.29731184646005</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>86</v>
       </c>
@@ -6408,7 +6447,7 @@
         <v>922.14375456490814</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>86.9</v>
       </c>
@@ -6440,7 +6479,7 @@
         <v>932.08113655865873</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="27">
         <v>87.8</v>
       </c>
@@ -6472,7 +6511,7 @@
         <v>942.1133203386164</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="27">
         <v>88.7</v>
       </c>
@@ -6504,7 +6543,7 @@
         <v>952.24255870011018</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="27">
         <v>89.6</v>
       </c>
@@ -6536,7 +6575,7 @@
         <v>962.46803372052386</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="27">
         <v>90.5</v>
       </c>
@@ -6568,7 +6607,7 @@
         <v>972.79302368032029</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="27">
         <v>91.4</v>
       </c>
@@ -6600,7 +6639,7 @@
         <v>983.22181110035444</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="27">
         <v>92.3</v>
       </c>
@@ -6632,7 +6671,7 @@
         <v>993.75226088392503</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="27">
         <v>93.2</v>
       </c>
@@ -6664,7 +6703,7 @@
         <v>1004.3912752453076</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="27">
         <v>94.1</v>
       </c>
@@ -6696,7 +6735,7 @@
         <v>1015.1364225139355</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="27">
         <v>95</v>
       </c>
@@ -6728,7 +6767,7 @@
         <v>1025.9880721455211</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="27">
         <v>95.9</v>
       </c>
@@ -6760,7 +6799,7 @@
         <v>1036.9361681642752</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="27">
         <v>96.8</v>
       </c>
@@ -6792,7 +6831,7 @@
         <v>1047.9333841024577</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="28">
         <v>97.47</v>
       </c>
@@ -6826,2224 +6865,2224 @@
       <c r="K79" s="48"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="29"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="29"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="29"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="29"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="29"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="29"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="29"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="29"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="29"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="29"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="29"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="29"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="29"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="29"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="29"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="29"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="29"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="29"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="29"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="29"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="29"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="29"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="29"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="29"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="29"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="29"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="29"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="29"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="29"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="29"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="29"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="29"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="29"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="29"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="29"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="29"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="29"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="29"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="29"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="29"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="29"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="29"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="29"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="29"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="29"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="29"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="29"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="29"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="29"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="29"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="29"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="29"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="29"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="29"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="29"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="29"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="29"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="29"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="29"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="29"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="29"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="29"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="29"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="29"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="29"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="29"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="29"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="29"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="29"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="29"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="29"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="29"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="29"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="29"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="29"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="29"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="29"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="29"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="29"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="29"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="29"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="29"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="29"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="29"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="29"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="29"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="29"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="29"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="29"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="29"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="29"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="29"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="29"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="29"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="29"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="29"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="29"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="29"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="29"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="29"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="29"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="29"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="29"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="29"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="29"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="29"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="29"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="29"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="29"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="29"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="29"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="29"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="29"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="29"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="29"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="29"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="29"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="29"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="29"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="29"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="29"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="29"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="29"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="29"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="29"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="29"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="29"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="29"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="29"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="29"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="29"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="29"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="29"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="29"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="29"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="29"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="29"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="29"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="29"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="29"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="29"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="29"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="29"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="29"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="29"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="29"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="29"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="29"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="29"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="29"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="29"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="29"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="29"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="29"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="29"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="29"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="29"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="29"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="29"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="29"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="29"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="29"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="29"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="29"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="29"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="29"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="29"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="29"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="29"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="29"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="29"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="29"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="29"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="29"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="29"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="29"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="29"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="29"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="29"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="29"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="29"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="29"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="29"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="29"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="29"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="29"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="29"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="29"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="29"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="29"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="29"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="29"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="29"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="29"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="29"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="29"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="29"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="29"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="29"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="29"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="29"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="29"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="29"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="29"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="29"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="29"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="29"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="29"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="29"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="29"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="29"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="29"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="29"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="29"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="29"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="29"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="29"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="29"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="29"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="29"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="29"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="29"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="29"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="29"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="29"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="29"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="29"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="29"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="29"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="29"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="29"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="29"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="29"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="29"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="29"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="29"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="29"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="29"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="29"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="29"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="29"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="29"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="29"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="29"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="29"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="29"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="29"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="29"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="29"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="29"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="29"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="29"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="29"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="29"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="29"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="29"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="29"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="29"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="29"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="29"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="29"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="29"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="29"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="29"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="29"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="29"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="29"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="29"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="29"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="29"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="29"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="29"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="29"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="29"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="29"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="29"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="29"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="29"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="29"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="29"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="29"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="29"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="29"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="29"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="29"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="29"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="29"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="29"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="29"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="29"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="29"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="29"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="29"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="29"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="29"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="29"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="29"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="29"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="29"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="29"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="29"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="29"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="29"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="29"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="29"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="29"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="29"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="29"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="29"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="29"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="29"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="29"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="29"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="29"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="29"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="29"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="29"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="29"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="29"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="29"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="29"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="29"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="29"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="29"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="29"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="29"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="29"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="29"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="29"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="29"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="29"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="29"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="29"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="29"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="29"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="29"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="29"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="29"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="29"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="29"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="29"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="29"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="29"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="29"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="29"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="29"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="29"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="29"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="29"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="29"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="29"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="29"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="29"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="29"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="29"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="29"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="29"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="29"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="29"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="29"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="29"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="29"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="29"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="29"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="29"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="29"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="29"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="29"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="29"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="29"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="29"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="29"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="29"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="29"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="29"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="29"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="29"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="29"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="29"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="29"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="29"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="29"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="29"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="29"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="29"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="29"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="29"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="29"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="29"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="29"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="29"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="29"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="29"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="29"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="29"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="29"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="29"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="29"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="29"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="29"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="29"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="29"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="29"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="29"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="29"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="29"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="29"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="29"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="29"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="29"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="29"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="29"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="29"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="29"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="29"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="29"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="29"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="29"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="29"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="29"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="29"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="29"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="29"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="29"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="29"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="29"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="29"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="29"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="29"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="29"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="29"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="29"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="29"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="29"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="29"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="29"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="29"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="29"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="29"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="29"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="29"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="29"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="29"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="29"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="29"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="29"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="29"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="29"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="29"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="29"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="29"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="29"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="29"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="29"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="29"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="29"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="29"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="29"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="29"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="29"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="29"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="29"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="29"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="29"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="29"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="29"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="29"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="29"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="29"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="29"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="29"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="29"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="29"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="29"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="29"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="29"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="29"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="29"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="29"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="29"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="29"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="29"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="29"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="29"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="29"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="29"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="29"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="29"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="29"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="29"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="29"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="29"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="29"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="29"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="29"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="29"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="29"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="29"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="29"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="29"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="29"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="29"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="29"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="29"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="29"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="29"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="29"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="29"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="29"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="29"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="29"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="29"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="29"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="29"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="29"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="29"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="29"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="29"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="29"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="29"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="29"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="29"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="29"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="29"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="29"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="29"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="29"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="29"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="29"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="29"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="29"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="29"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="29"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="29"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="29"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="29"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="29"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="29"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="29"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="29"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="29"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="29"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="29"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="29"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="29"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="29"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="29"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="29"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="29"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="29"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="29"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="29"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="29"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="29"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="29"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="29"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="29"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="29"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="29"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="29"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="29"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="29"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="29"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="29"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="29"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="29"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="29"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="29"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="29"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="29"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="29"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="29"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="29"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="29"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="29"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="29"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="29"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="29"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="29"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="29"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="29"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="29"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="29"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="29"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="29"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="29"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="29"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="29"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="29"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="29"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="29"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="29"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="29"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="29"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="29"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="29"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="29"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="29"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="29"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="29"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="29"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="29"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="29"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="29"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="29"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="29"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="29"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="29"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="29"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="29"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="29"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="29"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="29"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="29"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="29"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="29"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="29"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="29"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="29"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="29"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="29"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="29"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="29"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="29"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="29"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="29"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="29"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="29"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="29"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="29"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="29"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="29"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="29"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="29"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="29"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="29"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="29"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="29"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="29"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="29"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="29"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="29"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="29"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="29"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="29"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="29"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="29"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="29"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="29"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="29"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="29"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="29"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="29"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="29"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="29"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="29"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="29"/>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="29"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="29"/>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="29"/>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="29"/>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="29"/>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="29"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="29"/>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="29"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="29"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="29"/>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="29"/>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="29"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="29"/>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="29"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="29"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="29"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="29"/>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="29"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="29"/>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="29"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="29"/>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="29"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="29"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="29"/>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="29"/>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="29"/>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="29"/>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="29"/>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="29"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="29"/>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="29"/>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="29"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="29"/>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="29"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="29"/>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="29"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="29"/>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="29"/>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="29"/>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="29"/>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="29"/>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="29"/>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="29"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="29"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="29"/>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="29"/>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="29"/>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="29"/>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="29"/>
     </row>
   </sheetData>
@@ -9062,64 +9101,64 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32C0C-ED9A-4805-89D4-96E4CF8ECC22}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:X819"/>
+  <dimension ref="A1:U819"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T4" sqref="T4:U4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X10" sqref="W1:X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="24"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="23"/>
-    <col min="5" max="5" width="11.42578125" style="60"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="24"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="23"/>
+    <col min="5" max="5" width="11.5" style="60"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
     <col min="7" max="7" width="13" style="24" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="72" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="72" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
       <c r="E1" s="65"/>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="166" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="133"/>
       <c r="H1" s="133"/>
-      <c r="I1" s="175" t="s">
+      <c r="I1" s="169" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="85"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="177" t="s">
+      <c r="N1" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
       <c r="Q1" s="112"/>
-      <c r="R1" s="163" t="s">
+      <c r="R1" s="175" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="51"/>
@@ -9129,14 +9168,8 @@
       <c r="U1">
         <v>1.5</v>
       </c>
-      <c r="W1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1">
-        <v>3.2490157499999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="93" t="s">
         <v>18</v>
       </c>
@@ -9150,21 +9183,21 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="173"/>
+      <c r="F2" s="167"/>
       <c r="G2" s="126" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="176"/>
-      <c r="J2" s="166" t="s">
+      <c r="I2" s="170"/>
+      <c r="J2" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="167"/>
+      <c r="K2" s="178"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
-      <c r="N2" s="178"/>
+      <c r="N2" s="172"/>
       <c r="O2" s="79" t="s">
         <v>39</v>
       </c>
@@ -9174,23 +9207,17 @@
       <c r="Q2" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="164"/>
+      <c r="R2" s="176"/>
       <c r="S2" s="68"/>
       <c r="T2" t="s">
         <v>14</v>
       </c>
       <c r="U2">
         <f>X1+(2*X3)</f>
-        <v>3.7698490833333334</v>
-      </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>16</v>
       </c>
@@ -9204,7 +9231,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="174"/>
+      <c r="F3" s="168"/>
       <c r="G3" s="122" t="s">
         <v>40</v>
       </c>
@@ -9222,7 +9249,7 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="179"/>
+      <c r="N3" s="173"/>
       <c r="O3" s="119" t="s">
         <v>40</v>
       </c>
@@ -9242,15 +9269,8 @@
       <c r="U3">
         <v>32.200000000000003</v>
       </c>
-      <c r="W3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3">
-        <f>X2/12</f>
-        <v>0.26041666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="93">
         <v>32</v>
       </c>
@@ -9318,7 +9338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="93">
         <v>32.9</v>
       </c>
@@ -9386,7 +9406,7 @@
         <v>0.87815195180003003</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="93">
         <v>33.799999999999997</v>
       </c>
@@ -9454,7 +9474,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="93">
         <v>34.700000000000003</v>
       </c>
@@ -9523,7 +9543,7 @@
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="93">
         <v>35.6</v>
       </c>
@@ -9585,7 +9605,7 @@
       </c>
       <c r="S8" s="50"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
         <v>36.5</v>
       </c>
@@ -9647,7 +9667,7 @@
       </c>
       <c r="S9" s="50"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="93">
         <v>37.4</v>
       </c>
@@ -9709,7 +9729,7 @@
       </c>
       <c r="S10" s="50"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="93">
         <v>38.299999999999997</v>
       </c>
@@ -9771,7 +9791,7 @@
       </c>
       <c r="S11" s="50"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="93">
         <v>39.200000000000003</v>
       </c>
@@ -9833,7 +9853,7 @@
       </c>
       <c r="S12" s="50"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="93">
         <v>40.1</v>
       </c>
@@ -9895,7 +9915,7 @@
       </c>
       <c r="S13" s="50"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="93">
         <v>41</v>
       </c>
@@ -9957,7 +9977,7 @@
       </c>
       <c r="S14" s="50"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="93">
         <v>41.9</v>
       </c>
@@ -10019,7 +10039,7 @@
       </c>
       <c r="S15" s="50"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="93">
         <v>42.8</v>
       </c>
@@ -10081,7 +10101,7 @@
       </c>
       <c r="S16" s="50"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="93">
         <v>43.7</v>
       </c>
@@ -10143,7 +10163,7 @@
       </c>
       <c r="S17" s="50"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="93">
         <v>44.6</v>
       </c>
@@ -10205,7 +10225,7 @@
       </c>
       <c r="S18" s="50"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
         <v>45.5</v>
       </c>
@@ -10267,7 +10287,7 @@
       </c>
       <c r="S19" s="50"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="93">
         <v>46.4</v>
       </c>
@@ -10329,7 +10349,7 @@
       </c>
       <c r="S20" s="50"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="93">
         <v>47.3</v>
       </c>
@@ -10391,7 +10411,7 @@
       </c>
       <c r="S21" s="50"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="93">
         <v>48.2</v>
       </c>
@@ -10453,7 +10473,7 @@
       </c>
       <c r="S22" s="50"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="93">
         <v>49.1</v>
       </c>
@@ -10515,7 +10535,7 @@
       </c>
       <c r="S23" s="50"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="93">
         <v>50</v>
       </c>
@@ -10577,7 +10597,7 @@
       </c>
       <c r="S24" s="50"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="93">
         <v>50.9</v>
       </c>
@@ -10639,7 +10659,7 @@
       </c>
       <c r="S25" s="50"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="93">
         <v>51.8</v>
       </c>
@@ -10701,7 +10721,7 @@
       </c>
       <c r="S26" s="50"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="93">
         <v>52.7</v>
       </c>
@@ -10763,7 +10783,7 @@
       </c>
       <c r="S27" s="50"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="93">
         <v>53.6</v>
       </c>
@@ -10825,7 +10845,7 @@
       </c>
       <c r="S28" s="50"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
         <v>54.5</v>
       </c>
@@ -10887,7 +10907,7 @@
       </c>
       <c r="S29" s="50"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="93">
         <v>55.4</v>
       </c>
@@ -10949,7 +10969,7 @@
       </c>
       <c r="S30" s="50"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="93">
         <v>56.3</v>
       </c>
@@ -11011,7 +11031,7 @@
       </c>
       <c r="S31" s="50"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="93">
         <v>57.2</v>
       </c>
@@ -11073,7 +11093,7 @@
       </c>
       <c r="S32" s="50"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="93">
         <v>58.1</v>
       </c>
@@ -11135,7 +11155,7 @@
       </c>
       <c r="S33" s="50"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="93">
         <v>59</v>
       </c>
@@ -11197,7 +11217,7 @@
       </c>
       <c r="S34" s="50"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="93">
         <v>59.9</v>
       </c>
@@ -11259,7 +11279,7 @@
       </c>
       <c r="S35" s="50"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="93">
         <v>60.8</v>
       </c>
@@ -11321,7 +11341,7 @@
       </c>
       <c r="S36" s="50"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="93">
         <v>61.7</v>
       </c>
@@ -11385,7 +11405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
         <v>62.6</v>
       </c>
@@ -11449,7 +11469,7 @@
         <v>2.0936732477815634E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
         <v>63.5</v>
       </c>
@@ -11513,7 +11533,7 @@
         <v>1.7543651536303488E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="93">
         <v>64.400000000000006</v>
       </c>
@@ -11577,7 +11597,7 @@
         <v>2.0691309400583079E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="93">
         <v>65.3</v>
       </c>
@@ -11641,7 +11661,7 @@
         <v>1.2273017576219479E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="93">
         <v>66.2</v>
       </c>
@@ -11679,7 +11699,7 @@
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="168" t="s">
+      <c r="L42" s="179" t="s">
         <v>56</v>
       </c>
       <c r="M42" s="50"/>
@@ -11707,7 +11727,7 @@
         <v>1.3027920242960137E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="93">
         <v>67.099999999999994</v>
       </c>
@@ -11745,7 +11765,7 @@
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="168"/>
+      <c r="L43" s="179"/>
       <c r="M43" s="50"/>
       <c r="N43" s="113">
         <f t="shared" si="7"/>
@@ -11771,7 +11791,7 @@
         <v>9.7479009578968663E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="93">
         <v>68</v>
       </c>
@@ -11837,7 +11857,7 @@
         <v>5.9044695958249474E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="93">
         <v>68.900000000000006</v>
       </c>
@@ -11903,7 +11923,7 @@
         <v>7.6272438697695157E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="93">
         <v>69.8</v>
       </c>
@@ -11969,7 +11989,7 @@
         <v>4.4848753591775789E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="98">
         <v>70</v>
       </c>
@@ -12039,7 +12059,7 @@
       </c>
       <c r="T47" s="49"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="93">
         <v>70.7</v>
       </c>
@@ -12088,7 +12108,7 @@
       <c r="R48" s="69"/>
       <c r="S48" s="50"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="93">
         <v>71.599999999999994</v>
       </c>
@@ -12137,7 +12157,7 @@
       <c r="R49" s="69"/>
       <c r="S49" s="50"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="93">
         <v>72.5</v>
       </c>
@@ -12186,7 +12206,7 @@
       <c r="R50" s="69"/>
       <c r="S50" s="50"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="93">
         <v>73.400000000000006</v>
       </c>
@@ -12237,7 +12257,7 @@
       <c r="R51" s="69"/>
       <c r="S51" s="50"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="93">
         <v>74.3</v>
       </c>
@@ -12286,7 +12306,7 @@
       <c r="R52" s="69"/>
       <c r="S52" s="50"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="98">
         <v>75</v>
       </c>
@@ -12339,7 +12359,7 @@
       <c r="S53" s="47"/>
       <c r="T53" s="40"/>
     </row>
-    <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93">
         <v>75.2</v>
       </c>
@@ -12368,7 +12388,7 @@
       <c r="R54" s="69"/>
       <c r="S54" s="50"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="93">
         <v>76.099999999999994</v>
       </c>
@@ -12402,7 +12422,7 @@
       <c r="R55" s="71"/>
       <c r="S55" s="17"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="93">
         <v>77</v>
       </c>
@@ -12436,7 +12456,7 @@
       <c r="R56" s="71"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="93">
         <v>77.900000000000006</v>
       </c>
@@ -12470,7 +12490,7 @@
       <c r="R57" s="71"/>
       <c r="S57" s="17"/>
     </row>
-    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93">
         <v>78.8</v>
       </c>
@@ -12504,7 +12524,7 @@
       <c r="R58" s="71"/>
       <c r="S58" s="17"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="93">
         <v>79.7</v>
       </c>
@@ -12533,7 +12553,7 @@
       <c r="R59" s="71"/>
       <c r="S59" s="17"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="93">
         <v>80.599999999999994</v>
       </c>
@@ -12547,22 +12567,22 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
+      <c r="F60" s="162"/>
+      <c r="G60" s="162"/>
       <c r="H60" s="38"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="165"/>
-      <c r="O60" s="165"/>
+      <c r="N60" s="162"/>
+      <c r="O60" s="162"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="71"/>
       <c r="S60" s="17"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="93">
         <v>81.5</v>
       </c>
@@ -12591,7 +12611,7 @@
       <c r="R61" s="71"/>
       <c r="S61" s="17"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="93">
         <v>82.4</v>
       </c>
@@ -12620,7 +12640,7 @@
       <c r="R62" s="71"/>
       <c r="S62" s="17"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="93">
         <v>83.3</v>
       </c>
@@ -12649,7 +12669,7 @@
       <c r="R63" s="71"/>
       <c r="S63" s="17"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="93">
         <v>84.2</v>
       </c>
@@ -12678,7 +12698,7 @@
       <c r="R64" s="71"/>
       <c r="S64" s="17"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="93">
         <v>85.1</v>
       </c>
@@ -12707,7 +12727,7 @@
       <c r="R65" s="71"/>
       <c r="S65" s="17"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="93">
         <v>86</v>
       </c>
@@ -12736,7 +12756,7 @@
       <c r="R66" s="71"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="93">
         <v>86.9</v>
       </c>
@@ -12765,7 +12785,7 @@
       <c r="R67" s="71"/>
       <c r="S67" s="17"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="93">
         <v>87.8</v>
       </c>
@@ -12794,7 +12814,7 @@
       <c r="R68" s="71"/>
       <c r="S68" s="17"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="93">
         <v>88.7</v>
       </c>
@@ -12823,7 +12843,7 @@
       <c r="R69" s="71"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="93">
         <v>89.6</v>
       </c>
@@ -12852,7 +12872,7 @@
       <c r="R70" s="71"/>
       <c r="S70" s="17"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="93">
         <v>90.5</v>
       </c>
@@ -12881,7 +12901,7 @@
       <c r="R71" s="71"/>
       <c r="S71" s="17"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="93">
         <v>91.4</v>
       </c>
@@ -12910,7 +12930,7 @@
       <c r="R72" s="71"/>
       <c r="S72" s="17"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="93">
         <v>92.3</v>
       </c>
@@ -12939,7 +12959,7 @@
       <c r="R73" s="71"/>
       <c r="S73" s="17"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="93">
         <v>93.2</v>
       </c>
@@ -12968,7 +12988,7 @@
       <c r="R74" s="71"/>
       <c r="S74" s="17"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="93">
         <v>94.1</v>
       </c>
@@ -12997,7 +13017,7 @@
       <c r="R75" s="71"/>
       <c r="S75" s="17"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="93">
         <v>95</v>
       </c>
@@ -13026,7 +13046,7 @@
       <c r="R76" s="71"/>
       <c r="S76" s="17"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="93">
         <v>95.9</v>
       </c>
@@ -13055,7 +13075,7 @@
       <c r="R77" s="71"/>
       <c r="S77" s="17"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="93">
         <v>96.8</v>
       </c>
@@ -13084,7 +13104,7 @@
       <c r="R78" s="71"/>
       <c r="S78" s="17"/>
     </row>
-    <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="102">
         <v>97.47</v>
       </c>
@@ -13114,2238 +13134,2238 @@
       <c r="S79" s="17"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="29"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="29"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="29"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="29"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="29"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="29"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="29"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="29"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="29"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="29"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="29"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="29"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="29"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="29"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="29"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="29"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="29"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="29"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="29"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="29"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="29"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="29"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="29"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="29"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="29"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="29"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="29"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="29"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="29"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="29"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="29"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="29"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="29"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="29"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="29"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="29"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="29"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="29"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="29"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="29"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="29"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="29"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="29"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="29"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="29"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="29"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="29"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="29"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="29"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="29"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="29"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="29"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="29"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="29"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="29"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="29"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="29"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="29"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="29"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="29"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="29"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="29"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="29"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="29"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="29"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="29"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="29"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="29"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="29"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="29"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="29"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="29"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="29"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="29"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="29"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="29"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="29"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="29"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="29"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="29"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="29"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="29"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="29"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="29"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="29"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="29"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="29"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="29"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="29"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="29"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="29"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="29"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="29"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="29"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="29"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="29"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="29"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="29"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="29"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="29"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="29"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="29"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="29"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="29"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="29"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="29"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="29"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="29"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="29"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="29"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="29"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="29"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="29"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="29"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="29"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="29"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="29"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="29"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="29"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="29"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="29"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="29"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="29"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="29"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="29"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="29"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="29"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="29"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="29"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="29"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="29"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="29"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="29"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="29"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="29"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="29"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="29"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="29"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="29"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="29"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="29"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="29"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="29"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="29"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="29"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="29"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="29"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="29"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="29"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="29"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="29"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="29"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="29"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="29"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="29"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="29"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="29"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="29"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="29"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="29"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="29"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="29"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="29"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="29"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="29"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="29"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="29"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="29"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="29"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="29"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="29"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="29"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="29"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="29"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="29"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="29"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="29"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="29"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="29"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="29"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="29"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="29"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="29"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="29"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="29"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="29"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="29"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="29"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="29"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="29"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="29"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="29"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="29"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="29"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="29"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="29"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="29"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="29"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="29"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="29"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="29"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="29"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="29"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="29"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="29"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="29"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="29"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="29"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="29"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="29"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="29"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="29"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="29"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="29"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="29"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="29"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="29"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="29"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="29"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="29"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="29"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="29"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="29"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="29"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="29"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="29"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="29"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="29"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="29"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="29"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="29"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="29"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="29"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="29"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="29"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="29"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="29"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="29"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="29"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="29"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="29"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="29"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="29"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="29"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="29"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="29"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="29"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="29"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="29"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="29"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="29"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="29"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="29"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="29"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="29"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="29"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="29"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="29"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="29"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="29"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="29"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="29"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="29"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="29"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="29"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="29"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="29"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="29"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="29"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="29"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="29"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="29"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="29"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="29"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="29"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="29"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="29"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="29"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="29"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="29"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="29"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="29"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="29"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="29"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="29"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="29"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="29"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="29"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="29"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="29"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="29"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="29"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="29"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="29"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="29"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="29"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="29"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="29"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="29"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="29"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="29"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="29"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="29"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="29"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="29"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="29"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="29"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="29"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="29"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="29"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="29"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="29"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="29"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="29"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="29"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="29"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="29"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="29"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="29"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="29"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="29"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="29"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="29"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="29"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="29"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="29"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="29"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="29"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="29"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="29"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="29"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="29"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="29"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="29"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="29"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="29"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="29"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="29"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="29"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="29"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="29"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="29"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="29"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="29"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="29"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="29"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="29"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="29"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="29"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="29"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="29"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="29"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="29"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="29"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="29"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="29"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="29"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="29"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="29"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="29"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="29"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="29"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="29"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="29"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="29"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="29"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="29"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="29"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="29"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="29"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="29"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="29"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="29"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="29"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="29"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="29"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="29"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="29"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="29"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="29"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="29"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="29"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="29"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="29"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="29"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="29"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="29"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="29"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="29"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="29"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="29"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="29"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="29"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="29"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="29"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="29"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="29"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="29"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="29"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="29"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="29"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="29"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="29"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="29"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="29"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="29"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="29"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="29"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="29"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="29"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="29"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="29"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="29"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="29"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="29"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="29"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="29"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="29"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="29"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="29"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="29"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="29"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="29"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="29"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="29"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="29"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="29"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="29"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="29"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="29"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="29"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="29"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="29"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="29"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="29"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="29"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="29"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="29"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="29"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="29"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="29"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="29"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="29"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="29"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="29"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="29"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="29"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="29"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="29"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="29"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="29"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="29"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="29"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="29"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="29"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="29"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="29"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="29"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="29"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="29"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="29"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="29"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="29"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="29"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="29"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="29"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="29"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="29"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="29"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="29"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="29"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="29"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="29"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="29"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="29"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="29"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="29"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="29"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="29"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="29"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="29"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="29"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="29"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="29"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="29"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="29"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="29"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="29"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="29"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="29"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="29"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="29"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="29"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="29"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="29"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="29"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="29"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="29"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="29"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="29"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="29"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="29"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="29"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="29"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="29"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="29"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="29"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="29"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="29"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="29"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="29"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="29"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="29"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="29"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="29"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="29"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="29"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="29"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="29"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="29"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="29"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="29"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="29"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="29"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="29"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="29"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="29"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="29"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="29"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="29"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="29"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="29"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="29"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="29"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="29"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="29"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="29"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="29"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="29"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="29"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="29"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="29"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="29"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="29"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="29"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="29"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="29"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="29"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="29"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="29"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="29"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="29"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="29"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="29"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="29"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="29"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="29"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="29"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="29"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="29"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="29"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="29"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="29"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="29"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="29"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="29"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="29"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="29"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="29"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="29"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="29"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="29"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="29"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="29"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="29"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="29"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="29"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="29"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="29"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="29"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="29"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="29"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="29"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="29"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="29"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="29"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="29"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="29"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="29"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="29"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="29"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="29"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="29"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="29"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="29"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="29"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="29"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="29"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="29"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="29"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="29"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="29"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="29"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="29"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="29"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="29"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="29"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="29"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="29"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="29"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="29"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="29"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="29"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="29"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="29"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="29"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="29"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="29"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="29"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="29"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="29"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="29"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="29"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="29"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="29"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="29"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="29"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="29"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="29"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="29"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="29"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="29"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="29"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="29"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="29"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="29"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="29"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="29"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="29"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="29"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="29"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="29"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="29"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="29"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="29"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="29"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="29"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="29"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="29"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="29"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="29"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="29"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="29"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="29"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="29"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="29"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="29"/>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="29"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="29"/>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="29"/>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="29"/>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="29"/>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="29"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="29"/>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="29"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="29"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="29"/>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="29"/>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="29"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="29"/>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="29"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="29"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="29"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="29"/>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="29"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="29"/>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="29"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="29"/>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="29"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="29"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="29"/>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="29"/>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="29"/>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="29"/>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="29"/>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="29"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="29"/>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="29"/>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="29"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="29"/>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="29"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="29"/>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="29"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="29"/>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="29"/>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="29"/>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="29"/>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="29"/>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="29"/>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="29"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="29"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="29"/>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="29"/>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="29"/>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="29"/>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L42:L43"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L42:L43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D57D94-D4D0-5547-9552-C1946135E020}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD26E6FC-E056-42C4-927F-8D3A833824D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs" sheetId="1" r:id="rId1"/>
     <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId2"/>
     <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1225,6 +1225,9 @@
     <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1264,8 +1267,26 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1300,27 +1321,6 @@
     <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4005,59 +4005,59 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="152" t="s">
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="151" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="D5" s="151" t="s">
+      <c r="B5" s="154"/>
+      <c r="D5" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="151"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="154"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4067,7 +4067,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0.18222739287811821</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>8.720215870746402E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0.18222739287811821</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="134" t="s">
         <v>57</v>
       </c>
@@ -4139,11 +4139,11 @@
         <v>8.8628984324162538E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="181">
+      <c r="B13" s="150">
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
@@ -4155,15 +4155,15 @@
         <v>8.8628984324162538E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
@@ -4185,14 +4185,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
       <c r="B18" s="59"/>
       <c r="C18" s="60"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>62</v>
       </c>
@@ -4203,35 +4203,35 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
       <c r="B25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="B27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
       <c r="B30" s="21"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
     </row>
   </sheetData>
@@ -4257,37 +4257,37 @@
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="24"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="24"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.5" customWidth="1"/>
+    <col min="5" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="14" style="36" customWidth="1"/>
     <col min="8" max="8" width="16" style="35" customWidth="1"/>
     <col min="9" max="9" width="22" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="35" customWidth="1"/>
     <col min="11" max="11" width="11" style="46" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73"/>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="158"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -4298,12 +4298,12 @@
       <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="182">
+      <c r="P1" s="151">
         <f>'N2O Ullage Calcs'!G57</f>
         <v>2.8988762251754956</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
@@ -4318,14 +4318,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="153" t="s">
+      <c r="G2" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154" t="s">
+      <c r="H2" s="157"/>
+      <c r="I2" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="155"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -4342,7 +4342,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>32</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>32.9</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>33.799999999999997</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>34.700000000000003</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>35.6</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>486.01173314205408</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>36.5</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>492.039196538851</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>37.4</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>498.12156192821476</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>38.299999999999997</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>504.26175131488901</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>39.200000000000003</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>510.45827182938706</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>40.1</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>516.71115533882369</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>41</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>523.0232707360841</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>41.9</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>529.39172788353994</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>42.8</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>535.81795591644789</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>43.7</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>542.30340521480798</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44.6</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>548.84807577862</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>45.5</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>555.4534073655127</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>46.4</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>562.11648859311413</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>47.3</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>568.84022022142437</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>48.2</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>575.6260313857</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>49.1</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>582.47102132594136</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>50</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>589.37808017977659</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>50.9</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>596.34720794720556</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>51.8</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>603.37838338348502</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>52.7</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>610.47304624624371</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>53.6</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>617.62974615548103</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>54.5</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>624.8513520040824</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>55.4</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>632.13642403441941</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>56.3</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>639.48639138174894</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>57.2</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>646.90124342369893</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>58.1</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>654.38095891552643</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>59</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>661.92842799485959</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>59.9</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>669.54072865695525</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>60.8</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>677.22220141944183</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>61.7</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>684.96992427757561</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>62.6</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>692.78532636661373</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>63.5</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>700.66983682181296</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>64.400000000000006</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>708.62489540080128</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>65.3</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>716.64755885409238</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>66.2</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>724.7421570769427</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>67.099999999999994</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>732.90866882460932</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>68</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>741.14561184997706</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>68.900000000000006</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>749.45584442355914</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>69.8</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>757.8378949206126</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="63">
         <v>70</v>
       </c>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>70.7</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>766.29462161165065</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>71.599999999999994</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>774.82597138481526</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>72.5</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>783.43190175061989</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>73.400000000000006</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>792.11382059957759</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>74.3</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>800.8716641974587</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="144">
         <v>75</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>75.2</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>809.70826957003305</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>76.099999999999994</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>818.62356236069979</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>77</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>827.61747883522821</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>77.900000000000006</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>836.69137377227401</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>78.8</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>845.84660195049219</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>79.7</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>855.08449690379462</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>80.599999999999994</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>864.40494178609333</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>81.5</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>873.81067802181337</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>82.4</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>883.30010651775194</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>83.3</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>892.87736596647574</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>84.2</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>902.54367305580888</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
         <v>85.1</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>912.29731184646005</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
         <v>86</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>922.14375456490814</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
         <v>86.9</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>932.08113655865873</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>87.8</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>942.1133203386164</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
         <v>88.7</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>952.24255870011018</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
         <v>89.6</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>962.46803372052386</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
         <v>90.5</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>972.79302368032029</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
         <v>91.4</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>983.22181110035444</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="27">
         <v>92.3</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>993.75226088392503</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>93.2</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>1004.3912752453076</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
         <v>94.1</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>1015.1364225139355</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="27">
         <v>95</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>1025.9880721455211</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>95.9</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>1036.9361681642752</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="27">
         <v>96.8</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>1047.9333841024577</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="28">
         <v>97.47</v>
       </c>
@@ -6865,2224 +6865,2224 @@
       <c r="K79" s="48"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="29"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="29"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="29"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="29"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="29"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="29"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="29"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="29"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="29"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="29"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="29"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="29"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="29"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="29"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="29"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="29"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="29"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="29"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="29"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="29"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="29"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="29"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="29"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="29"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="29"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="29"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="29"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="29"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="29"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="29"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="29"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="29"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="29"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="29"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="29"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="29"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="29"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="29"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="29"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="29"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="29"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="29"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="29"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="29"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="29"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="29"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="29"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="29"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="29"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="29"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="29"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="29"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="29"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="29"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="29"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="29"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="29"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="29"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="29"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="29"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="29"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="29"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="29"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="29"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="29"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="29"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="29"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="29"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="29"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="29"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="29"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="29"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="29"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="29"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="29"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="29"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="29"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="29"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="29"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="29"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="29"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="29"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="29"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="29"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="29"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="29"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="29"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="29"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="29"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="29"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="29"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="29"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="29"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="29"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="29"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="29"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="29"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="29"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="29"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="29"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="29"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="29"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="29"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="29"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="29"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="29"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="29"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="29"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="29"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="29"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="29"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="29"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="29"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="29"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="29"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="29"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="29"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="29"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="29"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="29"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="29"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="29"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="29"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="29"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="29"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="29"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="29"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="29"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="29"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="29"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="29"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="29"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="29"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="29"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="29"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="29"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="29"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="29"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="29"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="29"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="29"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="29"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="29"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="29"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="29"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="29"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="29"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="29"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="29"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="29"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="29"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="29"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="29"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="29"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="29"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="29"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="29"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="29"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="29"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="29"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="29"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="29"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="29"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="29"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="29"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="29"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="29"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="29"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="29"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="29"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="29"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="29"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="29"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="29"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="29"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="29"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="29"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="29"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="29"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="29"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="29"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="29"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="29"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="29"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="29"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="29"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="29"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="29"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="29"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="29"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="29"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="29"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="29"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="29"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="29"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="29"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="29"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="29"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="29"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="29"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="29"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="29"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="29"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="29"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="29"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="29"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="29"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="29"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="29"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="29"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="29"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="29"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="29"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="29"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="29"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="29"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="29"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="29"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="29"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="29"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="29"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="29"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="29"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="29"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="29"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="29"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="29"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="29"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="29"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="29"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="29"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="29"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="29"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="29"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="29"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="29"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="29"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="29"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="29"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="29"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="29"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="29"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="29"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="29"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="29"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="29"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="29"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="29"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="29"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="29"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="29"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="29"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="29"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="29"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="29"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="29"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="29"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="29"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="29"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="29"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="29"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="29"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="29"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="29"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="29"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="29"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="29"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="29"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="29"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="29"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="29"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="29"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="29"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="29"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="29"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="29"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="29"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="29"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="29"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="29"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="29"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="29"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="29"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="29"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="29"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="29"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="29"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="29"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="29"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="29"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="29"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="29"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="29"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="29"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="29"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="29"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="29"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="29"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="29"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="29"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="29"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="29"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="29"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="29"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="29"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="29"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="29"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="29"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="29"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="29"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="29"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="29"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="29"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="29"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="29"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="29"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="29"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="29"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="29"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="29"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="29"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="29"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="29"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="29"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="29"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="29"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="29"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="29"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="29"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="29"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="29"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="29"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="29"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="29"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="29"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="29"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="29"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="29"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="29"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="29"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="29"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="29"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="29"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="29"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="29"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="29"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="29"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="29"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="29"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="29"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="29"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="29"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="29"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="29"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="29"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="29"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="29"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="29"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="29"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="29"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="29"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="29"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="29"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="29"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="29"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="29"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="29"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="29"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="29"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="29"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="29"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="29"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="29"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="29"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="29"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="29"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="29"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="29"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="29"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="29"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="29"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="29"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="29"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="29"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="29"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="29"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="29"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="29"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="29"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="29"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="29"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="29"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="29"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="29"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="29"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="29"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="29"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="29"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="29"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="29"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="29"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="29"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="29"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="29"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="29"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="29"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="29"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="29"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="29"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="29"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="29"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="29"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="29"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="29"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="29"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="29"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="29"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="29"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="29"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="29"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="29"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="29"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="29"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="29"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="29"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="29"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="29"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="29"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="29"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="29"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="29"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="29"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="29"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="29"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="29"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="29"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="29"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="29"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="29"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="29"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="29"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="29"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="29"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="29"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="29"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="29"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="29"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="29"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="29"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="29"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="29"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="29"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="29"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="29"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="29"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="29"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="29"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="29"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="29"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="29"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="29"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="29"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="29"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="29"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="29"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="29"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="29"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="29"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="29"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="29"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="29"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="29"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="29"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="29"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="29"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="29"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="29"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="29"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="29"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="29"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="29"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="29"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="29"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="29"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="29"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="29"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="29"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="29"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="29"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="29"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="29"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="29"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="29"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="29"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="29"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="29"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="29"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="29"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="29"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="29"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="29"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="29"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="29"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="29"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="29"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="29"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="29"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="29"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="29"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="29"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="29"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="29"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="29"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="29"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="29"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="29"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="29"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="29"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="29"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="29"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="29"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="29"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="29"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="29"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="29"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="29"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="29"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="29"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="29"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="29"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="29"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="29"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="29"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="29"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="29"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="29"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="29"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="29"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="29"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="29"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="29"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="29"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="29"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="29"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="29"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="29"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="29"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="29"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="29"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="29"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="29"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="29"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="29"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="29"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="29"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="29"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="29"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="29"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="29"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="29"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="29"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="29"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="29"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="29"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="29"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="29"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="29"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="29"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="29"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="29"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="29"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="29"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="29"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="29"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="29"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="29"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="29"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="29"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="29"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="29"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="29"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="29"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="29"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="29"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="29"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="29"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="29"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="29"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="29"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="29"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="29"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="29"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="29"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="29"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="29"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="29"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="29"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="29"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="29"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="29"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="29"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="29"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="29"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="29"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="29"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="29"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="29"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="29"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="29"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="29"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="29"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="29"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="29"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="29"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="29"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="29"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="29"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="29"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="29"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="29"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" s="29"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" s="29"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="29"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="29"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="29"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="29"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="29"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="29"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="29"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="29"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="29"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="29"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="29"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="29"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="29"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="29"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="29"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="29"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="29"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="29"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="29"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="29"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="29"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="29"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="29"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="29"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="29"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="29"/>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="29"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="29"/>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="29"/>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="29"/>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="29"/>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="29"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="29"/>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="29"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="29"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="29"/>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="29"/>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="29"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="29"/>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="29"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="29"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="29"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="29"/>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="29"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="29"/>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="29"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="29"/>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="29"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="29"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="29"/>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="29"/>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="29"/>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="29"/>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="29"/>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="29"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="29"/>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="29"/>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="29"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" s="29"/>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="29"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="29"/>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="29"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="29"/>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="29"/>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="29"/>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="29"/>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="29"/>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="29"/>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="29"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="29"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="29"/>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="29"/>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="29"/>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="29"/>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="29"/>
     </row>
   </sheetData>
@@ -9103,62 +9103,62 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U819"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X10" sqref="W1:X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="24"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="23"/>
-    <col min="5" max="5" width="11.5" style="60"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="24"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="23"/>
+    <col min="5" max="5" width="11.42578125" style="60"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" style="24" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="72" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="72" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
       <c r="E1" s="65"/>
-      <c r="F1" s="166" t="s">
+      <c r="F1" s="175" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="133"/>
       <c r="H1" s="133"/>
-      <c r="I1" s="169" t="s">
+      <c r="I1" s="178" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="85"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="171" t="s">
+      <c r="N1" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
       <c r="Q1" s="112"/>
-      <c r="R1" s="175" t="s">
+      <c r="R1" s="166" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="51"/>
@@ -9169,7 +9169,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>18</v>
       </c>
@@ -9183,21 +9183,21 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="167"/>
+      <c r="F2" s="176"/>
       <c r="G2" s="126" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="170"/>
-      <c r="J2" s="177" t="s">
+      <c r="I2" s="179"/>
+      <c r="J2" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="178"/>
+      <c r="K2" s="170"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
-      <c r="N2" s="172"/>
+      <c r="N2" s="181"/>
       <c r="O2" s="79" t="s">
         <v>39</v>
       </c>
@@ -9207,7 +9207,7 @@
       <c r="Q2" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="176"/>
+      <c r="R2" s="167"/>
       <c r="S2" s="68"/>
       <c r="T2" t="s">
         <v>14</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="108" t="s">
         <v>16</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="168"/>
+      <c r="F3" s="177"/>
       <c r="G3" s="122" t="s">
         <v>40</v>
       </c>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="173"/>
+      <c r="N3" s="182"/>
       <c r="O3" s="119" t="s">
         <v>40</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="93">
         <v>32</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="93">
         <v>32.9</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>0.87815195180003003</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="93">
         <v>33.799999999999997</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="93">
         <v>34.700000000000003</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="93">
         <v>35.6</v>
       </c>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="S8" s="50"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="93">
         <v>36.5</v>
       </c>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="S9" s="50"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="93">
         <v>37.4</v>
       </c>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="S10" s="50"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="93">
         <v>38.299999999999997</v>
       </c>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="S11" s="50"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="93">
         <v>39.200000000000003</v>
       </c>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="S12" s="50"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="93">
         <v>40.1</v>
       </c>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="S13" s="50"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
         <v>41</v>
       </c>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="S14" s="50"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="93">
         <v>41.9</v>
       </c>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="S15" s="50"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="93">
         <v>42.8</v>
       </c>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="S16" s="50"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
         <v>43.7</v>
       </c>
@@ -10163,7 +10163,7 @@
       </c>
       <c r="S17" s="50"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="93">
         <v>44.6</v>
       </c>
@@ -10225,7 +10225,7 @@
       </c>
       <c r="S18" s="50"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="93">
         <v>45.5</v>
       </c>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="S19" s="50"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="93">
         <v>46.4</v>
       </c>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="S20" s="50"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="93">
         <v>47.3</v>
       </c>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="S21" s="50"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="93">
         <v>48.2</v>
       </c>
@@ -10473,7 +10473,7 @@
       </c>
       <c r="S22" s="50"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="93">
         <v>49.1</v>
       </c>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="S23" s="50"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="93">
         <v>50</v>
       </c>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="S24" s="50"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="93">
         <v>50.9</v>
       </c>
@@ -10659,7 +10659,7 @@
       </c>
       <c r="S25" s="50"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="93">
         <v>51.8</v>
       </c>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="S26" s="50"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="93">
         <v>52.7</v>
       </c>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="S27" s="50"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="93">
         <v>53.6</v>
       </c>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="S28" s="50"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="93">
         <v>54.5</v>
       </c>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="S29" s="50"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="93">
         <v>55.4</v>
       </c>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="S30" s="50"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="93">
         <v>56.3</v>
       </c>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="S31" s="50"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="93">
         <v>57.2</v>
       </c>
@@ -11093,7 +11093,7 @@
       </c>
       <c r="S32" s="50"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="93">
         <v>58.1</v>
       </c>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="S33" s="50"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="93">
         <v>59</v>
       </c>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="S34" s="50"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="93">
         <v>59.9</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="S35" s="50"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="93">
         <v>60.8</v>
       </c>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="S36" s="50"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="93">
         <v>61.7</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="93">
         <v>62.6</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>2.0936732477815634E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="93">
         <v>63.5</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>1.7543651536303488E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="93">
         <v>64.400000000000006</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>2.0691309400583079E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="93">
         <v>65.3</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>1.2273017576219479E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="93">
         <v>66.2</v>
       </c>
@@ -11699,7 +11699,7 @@
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="179" t="s">
+      <c r="L42" s="171" t="s">
         <v>56</v>
       </c>
       <c r="M42" s="50"/>
@@ -11727,7 +11727,7 @@
         <v>1.3027920242960137E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="93">
         <v>67.099999999999994</v>
       </c>
@@ -11765,7 +11765,7 @@
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="179"/>
+      <c r="L43" s="171"/>
       <c r="M43" s="50"/>
       <c r="N43" s="113">
         <f t="shared" si="7"/>
@@ -11791,7 +11791,7 @@
         <v>9.7479009578968663E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="93">
         <v>68</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>5.9044695958249474E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="93">
         <v>68.900000000000006</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>7.6272438697695157E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="93">
         <v>69.8</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>4.4848753591775789E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="98">
         <v>70</v>
       </c>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="T47" s="49"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="93">
         <v>70.7</v>
       </c>
@@ -12108,7 +12108,7 @@
       <c r="R48" s="69"/>
       <c r="S48" s="50"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="93">
         <v>71.599999999999994</v>
       </c>
@@ -12157,7 +12157,7 @@
       <c r="R49" s="69"/>
       <c r="S49" s="50"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="93">
         <v>72.5</v>
       </c>
@@ -12206,7 +12206,7 @@
       <c r="R50" s="69"/>
       <c r="S50" s="50"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="93">
         <v>73.400000000000006</v>
       </c>
@@ -12257,7 +12257,7 @@
       <c r="R51" s="69"/>
       <c r="S51" s="50"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="93">
         <v>74.3</v>
       </c>
@@ -12306,7 +12306,7 @@
       <c r="R52" s="69"/>
       <c r="S52" s="50"/>
     </row>
-    <row r="53" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="98">
         <v>75</v>
       </c>
@@ -12359,7 +12359,7 @@
       <c r="S53" s="47"/>
       <c r="T53" s="40"/>
     </row>
-    <row r="54" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="93">
         <v>75.2</v>
       </c>
@@ -12388,7 +12388,7 @@
       <c r="R54" s="69"/>
       <c r="S54" s="50"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="93">
         <v>76.099999999999994</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="R55" s="71"/>
       <c r="S55" s="17"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="93">
         <v>77</v>
       </c>
@@ -12456,7 +12456,7 @@
       <c r="R56" s="71"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="93">
         <v>77.900000000000006</v>
       </c>
@@ -12490,7 +12490,7 @@
       <c r="R57" s="71"/>
       <c r="S57" s="17"/>
     </row>
-    <row r="58" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="93">
         <v>78.8</v>
       </c>
@@ -12524,7 +12524,7 @@
       <c r="R58" s="71"/>
       <c r="S58" s="17"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="93">
         <v>79.7</v>
       </c>
@@ -12553,7 +12553,7 @@
       <c r="R59" s="71"/>
       <c r="S59" s="17"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="93">
         <v>80.599999999999994</v>
       </c>
@@ -12567,22 +12567,22 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="162"/>
-      <c r="G60" s="162"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
       <c r="H60" s="38"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="162"/>
-      <c r="O60" s="162"/>
+      <c r="N60" s="168"/>
+      <c r="O60" s="168"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="71"/>
       <c r="S60" s="17"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="93">
         <v>81.5</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="R61" s="71"/>
       <c r="S61" s="17"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="93">
         <v>82.4</v>
       </c>
@@ -12640,7 +12640,7 @@
       <c r="R62" s="71"/>
       <c r="S62" s="17"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="93">
         <v>83.3</v>
       </c>
@@ -12669,7 +12669,7 @@
       <c r="R63" s="71"/>
       <c r="S63" s="17"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="93">
         <v>84.2</v>
       </c>
@@ -12698,7 +12698,7 @@
       <c r="R64" s="71"/>
       <c r="S64" s="17"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="93">
         <v>85.1</v>
       </c>
@@ -12727,7 +12727,7 @@
       <c r="R65" s="71"/>
       <c r="S65" s="17"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="93">
         <v>86</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="R66" s="71"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="93">
         <v>86.9</v>
       </c>
@@ -12785,7 +12785,7 @@
       <c r="R67" s="71"/>
       <c r="S67" s="17"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="93">
         <v>87.8</v>
       </c>
@@ -12814,7 +12814,7 @@
       <c r="R68" s="71"/>
       <c r="S68" s="17"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="93">
         <v>88.7</v>
       </c>
@@ -12843,7 +12843,7 @@
       <c r="R69" s="71"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="93">
         <v>89.6</v>
       </c>
@@ -12872,7 +12872,7 @@
       <c r="R70" s="71"/>
       <c r="S70" s="17"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="93">
         <v>90.5</v>
       </c>
@@ -12901,7 +12901,7 @@
       <c r="R71" s="71"/>
       <c r="S71" s="17"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="93">
         <v>91.4</v>
       </c>
@@ -12930,7 +12930,7 @@
       <c r="R72" s="71"/>
       <c r="S72" s="17"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="93">
         <v>92.3</v>
       </c>
@@ -12959,7 +12959,7 @@
       <c r="R73" s="71"/>
       <c r="S73" s="17"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="93">
         <v>93.2</v>
       </c>
@@ -12988,7 +12988,7 @@
       <c r="R74" s="71"/>
       <c r="S74" s="17"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="93">
         <v>94.1</v>
       </c>
@@ -13017,7 +13017,7 @@
       <c r="R75" s="71"/>
       <c r="S75" s="17"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="93">
         <v>95</v>
       </c>
@@ -13046,7 +13046,7 @@
       <c r="R76" s="71"/>
       <c r="S76" s="17"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="93">
         <v>95.9</v>
       </c>
@@ -13075,7 +13075,7 @@
       <c r="R77" s="71"/>
       <c r="S77" s="17"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="93">
         <v>96.8</v>
       </c>
@@ -13104,7 +13104,7 @@
       <c r="R78" s="71"/>
       <c r="S78" s="17"/>
     </row>
-    <row r="79" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="102">
         <v>97.47</v>
       </c>
@@ -13134,2238 +13134,2238 @@
       <c r="S79" s="17"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="29"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="29"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="29"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="29"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="29"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="29"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="29"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="29"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="29"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="29"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="29"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="29"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="29"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="29"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="29"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="29"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="29"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="29"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="29"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="29"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="29"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="29"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="29"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="29"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="29"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="29"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="29"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="29"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="29"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="29"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="29"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="29"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="29"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="29"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="29"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="29"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="29"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="29"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="29"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="29"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="29"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="29"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="29"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="29"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="29"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="29"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="29"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="29"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="29"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="29"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="29"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="29"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="29"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="29"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="29"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="29"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="29"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="29"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="29"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="29"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="29"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="29"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="29"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="29"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="29"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="29"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="29"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="29"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="29"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="29"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="29"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="29"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="29"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="29"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="29"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="29"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="29"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="29"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="29"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="29"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="29"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="29"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="29"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="29"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="29"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="29"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="29"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="29"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="29"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="29"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="29"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="29"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="29"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="29"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="29"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="29"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="29"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="29"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="29"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="29"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="29"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="29"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="29"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="29"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="29"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="29"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="29"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="29"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="29"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="29"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="29"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="29"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="29"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="29"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="29"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="29"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="29"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="29"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="29"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="29"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="29"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="29"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="29"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="29"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="29"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="29"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="29"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="29"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="29"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="29"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="29"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="29"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="29"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="29"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="29"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="29"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="29"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="29"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="29"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="29"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="29"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="29"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="29"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="29"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="29"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="29"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="29"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="29"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="29"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="29"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="29"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="29"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="29"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="29"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="29"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="29"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="29"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="29"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="29"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="29"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="29"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="29"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="29"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="29"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="29"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="29"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="29"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="29"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="29"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="29"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="29"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="29"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="29"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="29"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="29"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="29"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="29"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="29"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="29"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="29"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="29"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="29"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="29"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="29"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="29"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="29"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="29"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="29"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="29"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="29"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="29"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="29"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="29"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="29"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="29"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="29"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="29"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="29"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="29"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="29"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="29"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="29"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="29"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="29"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="29"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="29"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="29"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="29"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="29"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="29"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="29"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="29"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="29"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="29"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="29"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="29"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="29"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="29"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="29"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="29"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="29"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="29"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="29"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="29"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="29"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="29"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="29"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="29"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="29"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="29"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="29"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="29"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="29"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="29"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="29"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="29"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="29"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="29"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="29"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="29"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="29"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="29"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="29"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="29"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="29"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="29"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="29"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="29"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="29"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="29"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="29"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="29"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="29"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="29"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="29"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="29"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="29"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="29"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="29"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="29"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="29"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="29"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="29"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="29"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="29"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="29"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="29"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="29"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="29"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="29"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="29"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="29"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="29"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="29"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="29"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="29"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="29"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="29"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="29"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="29"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="29"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="29"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="29"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="29"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="29"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="29"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="29"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="29"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="29"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="29"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="29"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="29"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="29"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="29"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="29"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="29"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="29"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="29"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="29"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="29"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="29"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="29"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="29"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="29"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="29"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="29"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="29"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="29"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="29"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="29"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="29"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="29"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="29"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="29"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="29"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="29"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="29"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="29"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="29"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="29"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="29"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="29"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="29"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="29"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="29"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="29"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="29"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="29"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="29"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="29"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="29"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="29"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="29"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="29"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="29"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="29"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="29"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="29"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="29"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="29"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="29"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="29"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="29"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="29"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="29"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="29"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="29"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="29"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="29"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="29"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="29"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="29"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="29"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="29"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="29"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="29"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="29"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="29"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="29"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="29"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="29"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="29"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="29"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="29"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="29"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="29"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="29"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="29"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="29"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="29"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="29"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="29"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="29"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="29"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="29"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="29"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="29"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="29"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="29"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="29"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="29"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="29"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="29"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="29"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="29"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="29"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="29"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="29"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="29"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="29"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="29"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="29"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="29"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="29"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="29"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="29"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="29"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="29"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="29"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="29"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="29"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="29"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="29"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="29"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="29"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="29"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="29"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="29"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="29"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="29"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="29"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="29"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="29"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="29"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="29"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="29"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="29"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="29"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="29"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="29"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="29"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="29"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="29"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="29"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="29"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="29"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="29"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="29"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="29"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="29"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="29"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="29"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="29"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="29"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="29"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="29"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="29"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="29"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="29"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="29"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="29"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="29"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="29"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="29"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="29"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="29"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="29"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="29"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="29"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="29"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="29"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="29"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="29"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="29"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="29"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="29"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="29"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="29"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="29"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="29"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="29"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="29"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="29"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="29"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="29"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="29"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="29"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="29"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="29"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="29"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="29"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="29"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="29"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="29"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="29"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="29"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="29"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="29"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="29"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="29"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="29"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="29"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="29"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="29"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="29"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="29"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="29"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="29"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="29"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="29"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="29"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="29"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="29"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="29"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="29"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="29"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="29"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="29"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="29"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="29"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="29"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="29"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="29"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="29"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="29"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="29"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="29"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="29"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="29"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="29"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="29"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="29"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="29"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="29"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="29"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="29"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="29"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="29"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="29"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="29"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="29"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="29"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="29"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="29"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="29"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="29"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="29"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="29"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="29"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="29"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="29"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="29"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="29"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="29"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="29"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="29"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="29"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="29"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="29"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="29"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="29"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="29"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="29"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="29"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="29"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="29"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="29"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="29"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="29"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="29"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="29"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="29"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="29"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="29"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="29"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="29"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="29"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="29"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="29"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="29"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="29"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="29"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="29"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="29"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="29"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="29"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="29"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="29"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="29"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="29"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="29"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="29"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="29"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="29"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="29"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="29"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="29"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="29"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="29"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="29"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="29"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="29"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="29"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="29"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="29"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="29"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="29"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="29"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="29"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="29"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="29"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="29"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="29"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="29"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="29"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="29"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="29"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="29"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="29"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="29"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="29"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="29"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="29"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="29"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="29"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="29"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="29"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="29"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="29"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="29"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="29"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="29"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="29"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="29"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="29"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="29"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="29"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="29"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="29"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="29"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" s="29"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" s="29"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="29"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="29"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="29"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="29"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="29"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="29"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="29"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="29"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="29"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="29"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="29"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="29"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="29"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="29"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="29"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="29"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="29"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="29"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="29"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="29"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="29"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="29"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="29"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="29"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="29"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="29"/>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="29"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="29"/>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="29"/>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="29"/>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="29"/>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="29"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="29"/>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="29"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="29"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="29"/>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="29"/>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="29"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="29"/>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="29"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="29"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="29"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="29"/>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="29"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="29"/>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="29"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="29"/>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="29"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="29"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="29"/>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="29"/>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="29"/>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="29"/>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="29"/>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="29"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="29"/>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="29"/>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="29"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" s="29"/>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="29"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="29"/>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="29"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="29"/>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="29"/>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="29"/>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="29"/>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="29"/>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="29"/>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="29"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="29"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="29"/>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="29"/>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="29"/>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="29"/>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="N60:O60"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L42:L43"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="N1:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD26E6FC-E056-42C4-927F-8D3A833824D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC96C18-105F-4C46-8E5B-4548D518A701}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" activeTab="1" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs" sheetId="1" r:id="rId1"/>
-    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId2"/>
-    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId3"/>
+    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId2"/>
+    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId3"/>
+    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -352,6 +353,30 @@
   </si>
   <si>
     <t>Thickness we are using (min. based on tol) (in.)</t>
+  </si>
+  <si>
+    <t>Density of 6061-t6 (lb/in^3)</t>
+  </si>
+  <si>
+    <t>Volume (in3)</t>
+  </si>
+  <si>
+    <t>1/4" thickness</t>
+  </si>
+  <si>
+    <t>1/8" thickness</t>
+  </si>
+  <si>
+    <t>Mass (lbm)</t>
+  </si>
+  <si>
+    <t>Accel due to grav</t>
+  </si>
+  <si>
+    <t>Weight saved per cap (lbf)</t>
+  </si>
+  <si>
+    <t>Total weight saved (lbf)</t>
   </si>
 </sst>
 </file>
@@ -831,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1267,26 +1292,8 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1321,6 +1328,25 @@
     <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4005,7 +4031,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4248,6 +4274,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967D90F-7C71-49F2-B312-218C914DF272}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="183">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>35.567999999999998</v>
+      </c>
+      <c r="C3">
+        <f>B3*$B$1</f>
+        <v>3.4856639999999999</v>
+      </c>
+      <c r="D3">
+        <f>C3-C4</f>
+        <v>1.2031361999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>23.2911</v>
+      </c>
+      <c r="C4">
+        <f>B4*$B$1</f>
+        <v>2.2825278</v>
+      </c>
+      <c r="D4">
+        <f>D3*2</f>
+        <v>2.4062723999999998</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2381E3-ED84-DB4C-A4E2-7857F2E34756}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
@@ -9098,7 +9207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32C0C-ED9A-4805-89D4-96E4CF8ECC22}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U819"/>
@@ -9133,32 +9242,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
       <c r="E1" s="65"/>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="169" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="133"/>
       <c r="H1" s="133"/>
-      <c r="I1" s="178" t="s">
+      <c r="I1" s="172" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="85"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="180" t="s">
+      <c r="N1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
       <c r="Q1" s="112"/>
-      <c r="R1" s="166" t="s">
+      <c r="R1" s="178" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="51"/>
@@ -9183,21 +9292,21 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="176"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="126" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="179"/>
-      <c r="J2" s="169" t="s">
+      <c r="I2" s="173"/>
+      <c r="J2" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="170"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
-      <c r="N2" s="181"/>
+      <c r="N2" s="175"/>
       <c r="O2" s="79" t="s">
         <v>39</v>
       </c>
@@ -9207,7 +9316,7 @@
       <c r="Q2" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="167"/>
+      <c r="R2" s="179"/>
       <c r="S2" s="68"/>
       <c r="T2" t="s">
         <v>14</v>
@@ -9231,7 +9340,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="177"/>
+      <c r="F3" s="171"/>
       <c r="G3" s="122" t="s">
         <v>40</v>
       </c>
@@ -9249,7 +9358,7 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="182"/>
+      <c r="N3" s="176"/>
       <c r="O3" s="119" t="s">
         <v>40</v>
       </c>
@@ -11699,7 +11808,7 @@
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="171" t="s">
+      <c r="L42" s="182" t="s">
         <v>56</v>
       </c>
       <c r="M42" s="50"/>
@@ -11765,7 +11874,7 @@
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="171"/>
+      <c r="L43" s="182"/>
       <c r="M43" s="50"/>
       <c r="N43" s="113">
         <f t="shared" si="7"/>
@@ -12567,16 +12676,16 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="168"/>
-      <c r="G60" s="168"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
       <c r="H60" s="38"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="168"/>
-      <c r="O60" s="168"/>
+      <c r="N60" s="165"/>
+      <c r="O60" s="165"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="71"/>
@@ -15356,16 +15465,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L42:L43"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L42:L43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC96C18-105F-4C46-8E5B-4548D518A701}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408CF631-908D-43DB-8CD0-6422EFB04710}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" activeTab="1" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" activeTab="4" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs" sheetId="1" r:id="rId1"/>
-    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId2"/>
-    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId3"/>
-    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId4"/>
+    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId2"/>
+    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId3"/>
+    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId4"/>
+    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -352,9 +353,6 @@
     <t>gees</t>
   </si>
   <si>
-    <t>Thickness we are using (min. based on tol) (in.)</t>
-  </si>
-  <si>
     <t>Density of 6061-t6 (lb/in^3)</t>
   </si>
   <si>
@@ -378,6 +376,126 @@
   <si>
     <t>Total weight saved (lbf)</t>
   </si>
+  <si>
+    <t>thickness of mounting (in)</t>
+  </si>
+  <si>
+    <t>Force Calcs</t>
+  </si>
+  <si>
+    <t>Max G-force (non-dim)</t>
+  </si>
+  <si>
+    <t>Accel due to Gravity (ft/s^2)</t>
+  </si>
+  <si>
+    <t>Accel (ft/s^2)</t>
+  </si>
+  <si>
+    <t>Mass of Propellant (slug)</t>
+  </si>
+  <si>
+    <t>Shell Thickness we are using (min. based on tol) (in.)</t>
+  </si>
+  <si>
+    <t>Cap Thickness we are using away from weld (in)</t>
+  </si>
+  <si>
+    <t>lbm to slug conv</t>
+  </si>
+  <si>
+    <t>Mass of Dry Tank (lbm)</t>
+  </si>
+  <si>
+    <t>Mass of Dry Tank (slug)</t>
+  </si>
+  <si>
+    <t>6061-T6 --- S_yt (psi)</t>
+  </si>
+  <si>
+    <t>Total # of Bolts</t>
+  </si>
+  <si>
+    <t>Bolt Diameter (in)</t>
+  </si>
+  <si>
+    <t>Avg. Shear Stress in Bolt (psi)</t>
+  </si>
+  <si>
+    <t>Only allowing shear plane to be unthreaded shank</t>
+  </si>
+  <si>
+    <t>Ultimate Strength (psi)</t>
+  </si>
+  <si>
+    <t>Ult to Shear Guideline</t>
+  </si>
+  <si>
+    <t>Estimated Shear Strength (psi)</t>
+  </si>
+  <si>
+    <t>Force on RT (lbf)</t>
+  </si>
+  <si>
+    <t>(excl. ox. feed reaction force) (CONSERVATIVE)</t>
+  </si>
+  <si>
+    <t>Tension Mode of the Member (Roark's eq. 19.5-2)</t>
+  </si>
+  <si>
+    <t>Shearing Mode of the Bolt (Roark's eq. 19.5-1)</t>
+  </si>
+  <si>
+    <t>Outer Diameter of RT (in)</t>
+  </si>
+  <si>
+    <t>Tensile Stress in Member (psi)</t>
+  </si>
+  <si>
+    <t>Tearing Mode of the Member (Roark's eq. 19.5-3)</t>
+  </si>
+  <si>
+    <t>L (in)</t>
+  </si>
+  <si>
+    <t>Shear Stress in the Member (psi)</t>
+  </si>
+  <si>
+    <t>Assumes only one bolt (worst case)</t>
+  </si>
+  <si>
+    <t>Ult Shear Strength of Member (psi)</t>
+  </si>
+  <si>
+    <t>Tensile Yield Strength of Member (psi)</t>
+  </si>
+  <si>
+    <t>Ult. Shear Strength of Bolt (psi)</t>
+  </si>
+  <si>
+    <t>Compression or Bearing Mode of Members (Roark's 19.5-4)</t>
+  </si>
+  <si>
+    <t>Bearing Stress (psi)</t>
+  </si>
+  <si>
+    <t>Number of Shearing Surfs</t>
+  </si>
+  <si>
+    <t>Using Grade 5 bolts</t>
+  </si>
+  <si>
+    <t>Min. Proof Strength (psi)</t>
+  </si>
+  <si>
+    <t>Min. Proof Strength of Bolt (psi)</t>
+  </si>
+  <si>
+    <t>Compression/Bearing Mode of Bolts (Roark's 19.5-4)</t>
+  </si>
+  <si>
+    <t>Compression/Bearing Stress (psi)</t>
+  </si>
 </sst>
 </file>
 
@@ -390,7 +508,7 @@
     <numFmt numFmtId="167" formatCode="0.0000000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +658,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -573,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -852,11 +979,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -999,7 +1135,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1224,8 +1359,6 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,6 +1386,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1292,8 +1426,26 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1328,25 +1480,38 @@
     <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2147,232 +2312,232 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>6.9786947251022768</c:v>
+                  <c:v>9.5871757312405084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9590680934748796</c:v>
+                  <c:v>9.5602131008581601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9392952815256814</c:v>
+                  <c:v>9.5330496511981693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9193916766569723</c:v>
+                  <c:v>9.5057065211318683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8993495851676085</c:v>
+                  <c:v>9.478173141223591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8791613133564411</c:v>
+                  <c:v>9.4504389420376711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8588191675223236</c:v>
+                  <c:v>9.4224933541384459</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8383385350675479</c:v>
+                  <c:v>9.3943575163972426</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8176886411875275</c:v>
+                  <c:v>9.3659891510714015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7968925669857043</c:v>
+                  <c:v>9.3374199664679178</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7759272313586347</c:v>
+                  <c:v>9.3086182542797982</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.754800328007466</c:v>
+                  <c:v>9.2795945839427034</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7334964695299044</c:v>
+                  <c:v>9.2503278165853047</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7120156559259492</c:v>
+                  <c:v>9.2208179522076055</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6903578871956002</c:v>
+                  <c:v>9.1910649908096005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6685154696377085</c:v>
+                  <c:v>9.161058362955627</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6464807095511302</c:v>
+                  <c:v>9.1307874992100206</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6242536069358628</c:v>
+                  <c:v>9.1002523995727795</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.60181877438961</c:v>
+                  <c:v>9.069431925172573</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.579176211912376</c:v>
+                  <c:v>9.0383260760094046</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.5563182258030084</c:v>
+                  <c:v>9.006924282647601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5332448160615106</c:v>
+                  <c:v>8.9752265450871711</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.5099405952855864</c:v>
+                  <c:v>8.9432117244567788</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4863978697740867</c:v>
+                  <c:v>8.9108692513207579</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.4626166395270159</c:v>
+                  <c:v>8.8781991256791155</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.438573823440926</c:v>
+                  <c:v>8.8451696392248476</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.4142771152169686</c:v>
+                  <c:v>8.8117913613936238</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.389711127452844</c:v>
+                  <c:v>8.7780431533141083</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.3648681664474109</c:v>
+                  <c:v>8.7439144455506455</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.3397328447983687</c:v>
+                  <c:v>8.7093840992318938</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.3142974688045737</c:v>
+                  <c:v>8.6744415449221961</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.2885466510637293</c:v>
+                  <c:v>8.639065643750218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.2624726978746876</c:v>
+                  <c:v>8.6032458262802933</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.2360602218351531</c:v>
+                  <c:v>8.5669609536410931</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.2092938355428311</c:v>
+                  <c:v>8.5301898869612884</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.1821581515954271</c:v>
+                  <c:v>8.4929114873695433</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.1546454762917939</c:v>
+                  <c:v>8.4551151854301949</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.1267250348273405</c:v>
+                  <c:v>8.416758703400582</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.0983814397997715</c:v>
+                  <c:v>8.3778209024093755</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.0695993038067915</c:v>
+                  <c:v>8.338280643585243</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.0403555457449603</c:v>
+                  <c:v>8.2981062186211911</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.0106193908096852</c:v>
+                  <c:v>8.2572553497745513</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.9803754515986718</c:v>
+                  <c:v>8.2157068981739982</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.9735348964228168</c:v>
+                  <c:v>8.2063094954857476</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.94959295330733</c:v>
+                  <c:v>8.1734185860768704</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.9182334274299215</c:v>
+                  <c:v>8.1303375663048385</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.8862660991618574</c:v>
+                  <c:v>8.0864215611152481</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.8536601936985466</c:v>
+                  <c:v>8.0416282927654272</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.8203695488331038</c:v>
+                  <c:v>7.9958943446413899</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.7939083460196361</c:v>
+                  <c:v>7.9595425322429758</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.7863480023586451</c:v>
+                  <c:v>7.9491563001291432</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.7515416983671361</c:v>
+                  <c:v>7.9013401731790323</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.7159044746516896</c:v>
+                  <c:v>7.8523825471770561</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.6793670879019817</c:v>
+                  <c:v>7.8021882972022354</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.6418602948076817</c:v>
+                  <c:v>7.7506622983335784</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.6032994646561693</c:v>
+                  <c:v>7.6976882867787664</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.5635999667348175</c:v>
+                  <c:v>7.6431499987454794</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.5226463955264169</c:v>
+                  <c:v>7.5868888926987363</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.4803310392149003</c:v>
+                  <c:v>7.5287569965392276</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.4365000237773167</c:v>
+                  <c:v>7.468542921553639</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.3909840877884188</c:v>
+                  <c:v>7.4060141401573372</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.3435908887195209</c:v>
+                  <c:v>7.3409064164586857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.2940819218350459</c:v>
+                  <c:v>7.2728920979520568</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.2421571327902399</c:v>
+                  <c:v>7.2015589766465054</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.1874626113323181</c:v>
+                  <c:v>7.1264208585014206</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.1295290416912769</c:v>
+                  <c:v>7.0468330079412178</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.0677640088787577</c:v>
+                  <c:v>6.9619815784196639</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.0013904490788557</c:v>
+                  <c:v>6.8707990569345538</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.929308163027474</c:v>
+                  <c:v>6.7717740141857439</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.8499707167939521</c:v>
+                  <c:v>6.6627819936044936</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.7610238378271434</c:v>
+                  <c:v>6.5405887478772016</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.6586052881509774</c:v>
+                  <c:v>6.3998884202998552</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.5356291690085619</c:v>
+                  <c:v>6.2309465606246519</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.3764080237600442</c:v>
+                  <c:v>6.0122120895299105</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.1298556767857031</c:v>
+                  <c:v>5.6735039541976047</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.4776375494045699</c:v>
+                  <c:v>4.7775011845375666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,232 +2811,232 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>459.79893376510228</c:v>
+                  <c:v>462.4074147712405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>465.61273549347487</c:v>
+                  <c:v>468.21388050085818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>471.48295586152568</c:v>
+                  <c:v>474.07671023119815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>477.4067094966569</c:v>
+                  <c:v>479.99302434113179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>483.3854390851676</c:v>
+                  <c:v>485.96426264122357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>489.42058731335652</c:v>
+                  <c:v>491.99186494203775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>495.51069610752228</c:v>
+                  <c:v>498.07437029413842</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>501.65868161506751</c:v>
+                  <c:v>504.21470059639722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>507.86306268118756</c:v>
+                  <c:v>510.41136319107142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>514.12386238698571</c:v>
+                  <c:v>516.66438978646795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>520.44395841135861</c:v>
+                  <c:v>522.97664943427981</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>526.82045768800742</c:v>
+                  <c:v>529.34525194394269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>533.2547952095299</c:v>
+                  <c:v>535.77162655658537</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>539.74842135592598</c:v>
+                  <c:v>542.2572236522077</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>546.30133612719555</c:v>
+                  <c:v>548.80204323080966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>552.91498220963774</c:v>
+                  <c:v>555.40752510295567</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>559.58645114955118</c:v>
+                  <c:v>562.07075793921001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>566.31864370693586</c:v>
+                  <c:v>568.79464249957277</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>573.11299487438953</c:v>
+                  <c:v>575.58060802517252</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>579.96660389191231</c:v>
+                  <c:v>582.42575375600939</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>586.88236382580305</c:v>
+                  <c:v>589.3329698826476</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>593.86027467606152</c:v>
+                  <c:v>596.30225640508718</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>600.90032105528553</c:v>
+                  <c:v>603.33359218445673</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>608.00394564977421</c:v>
+                  <c:v>610.42841703132081</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>615.16969807952705</c:v>
+                  <c:v>617.58528056567911</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>622.40045602344094</c:v>
+                  <c:v>624.80705183922487</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>629.69477679521685</c:v>
+                  <c:v>632.09229104139354</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>637.05409538745289</c:v>
+                  <c:v>639.44242741331414</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>644.47840410644744</c:v>
+                  <c:v>646.85745038555069</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>651.96768756479844</c:v>
+                  <c:v>654.33733881923195</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>659.5248388288046</c:v>
+                  <c:v>661.88498290492214</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>667.14694175106376</c:v>
+                  <c:v>669.49746074375025</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>674.83833977787481</c:v>
+                  <c:v>677.17911290628035</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>682.59611676183511</c:v>
+                  <c:v>684.92701749364107</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>690.42170769554275</c:v>
+                  <c:v>692.74260374696121</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>698.31654757159549</c:v>
+                  <c:v>700.62730090736954</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>706.28207907629178</c:v>
+                  <c:v>708.58254878543016</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>714.31537067482736</c:v>
+                  <c:v>716.60540434340055</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>722.42075811979976</c:v>
+                  <c:v>724.70019758240926</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>730.59822602380677</c:v>
+                  <c:v>732.86690736358526</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>738.84630092574503</c:v>
+                  <c:v>741.10405159862125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>747.16785281080968</c:v>
+                  <c:v>749.41448876977461</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>755.5614159115986</c:v>
+                  <c:v>757.79674735817389</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>757.44329242308947</c:v>
+                  <c:v>759.67606702215232</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>764.02986021330719</c:v>
+                  <c:v>766.25368584607679</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>772.5731472474298</c:v>
+                  <c:v>774.78525138630482</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>781.19124623916184</c:v>
+                  <c:v>783.39140170111523</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>789.88557679369865</c:v>
+                  <c:v>792.07354489276543</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>798.6560927488332</c:v>
+                  <c:v>800.83161754464152</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>805.53908071268631</c:v>
+                  <c:v>807.70471489890963</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>807.5056487023586</c:v>
+                  <c:v>809.66845700012914</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>816.43419079836724</c:v>
+                  <c:v>818.5839892731791</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>825.44167287465166</c:v>
+                  <c:v>827.57815094717705</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>834.52947606790201</c:v>
+                  <c:v>836.65229727720225</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>843.69898151480766</c:v>
+                  <c:v>845.80778351833362</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>852.95155496465611</c:v>
+                  <c:v>855.04594378677871</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>862.28711178673484</c:v>
+                  <c:v>864.36666181874546</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>871.70843733552636</c:v>
+                  <c:v>873.77267983269871</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>881.21397351921496</c:v>
+                  <c:v>883.26239947653926</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>890.80791760377724</c:v>
+                  <c:v>892.83996050155361</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>900.49155070778841</c:v>
+                  <c:v>902.50658076015736</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>910.26323010871954</c:v>
+                  <c:v>912.26054563645869</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>920.12851882183509</c:v>
+                  <c:v>922.1073289979521</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>930.08566641279026</c:v>
+                  <c:v>932.04506825664657</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>940.13867011133243</c:v>
+                  <c:v>942.07762835850156</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>950.28996136169121</c:v>
+                  <c:v>952.20726532794117</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>960.53894774887885</c:v>
+                  <c:v>962.43316531841981</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>970.8892033490788</c:v>
+                  <c:v>972.75861195693449</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>981.34542948302749</c:v>
+                  <c:v>983.18789533418578</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>991.90607971679401</c:v>
+                  <c:v>993.71889099360465</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1002.5789524378271</c:v>
+                  <c:v>1004.3585173478772</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1013.363086168151</c:v>
+                  <c:v>1015.1043693002998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1024.2615476690087</c:v>
+                  <c:v>1025.9568650606248</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1035.2702525237601</c:v>
+                  <c:v>1036.90605658953</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1046.3613206367856</c:v>
+                  <c:v>1047.9049689141978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1054.2779475494046</c:v>
+                  <c:v>1055.5778111845377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,57 +4196,58 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="D5" s="154" t="s">
+      <c r="B5" s="152"/>
+      <c r="D5" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="154"/>
+      <c r="E5" s="152"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4113,7 +4279,7 @@
       </c>
       <c r="E8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.18222739287811821</v>
+        <v>0.18273382537491975</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4128,7 +4294,7 @@
       </c>
       <c r="E9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>8.720215870746402E-2</v>
+        <v>8.7434072670902876E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4143,7 +4309,7 @@
       </c>
       <c r="E10" s="13">
         <f>MAX(E8:E9)</f>
-        <v>0.18222739287811821</v>
+        <v>0.18273382537491975</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4157,31 +4323,43 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="134" t="s">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="135">
+      <c r="E12" s="134">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>8.8628984324162538E-2</v>
+        <v>8.8868560081423062E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="149" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="150">
+      <c r="A13" s="146" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="147">
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="137">
+      <c r="E13" s="136">
         <f>E12</f>
-        <v>8.8628984324162538E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.8868560081423062E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="146" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="147">
+        <v>0.125</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
@@ -4193,9 +4371,9 @@
       <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="181">
         <f>'N2O Pressure Calcs'!H53</f>
-        <v>805.53908071268631</v>
+        <v>807.70471489890963</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -4204,17 +4382,17 @@
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="139">
+      <c r="B17" s="183">
         <f>B10*B16</f>
-        <v>1611.0781614253726</v>
+        <v>1615.4094297978193</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
@@ -4222,9 +4400,9 @@
       <c r="A19" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="140">
+      <c r="B19" s="182">
         <f>'N2O Pressure Calcs'!J53</f>
-        <v>807.74457948723887</v>
+        <v>810.73458010430602</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -4274,96 +4452,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967D90F-7C71-49F2-B312-218C914DF272}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="183">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>35.567999999999998</v>
-      </c>
-      <c r="C3">
-        <f>B3*$B$1</f>
-        <v>3.4856639999999999</v>
-      </c>
-      <c r="D3">
-        <f>C3-C4</f>
-        <v>1.2031361999999999</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>23.2911</v>
-      </c>
-      <c r="C4">
-        <f>B4*$B$1</f>
-        <v>2.2825278</v>
-      </c>
-      <c r="D4">
-        <f>D3*2</f>
-        <v>2.4062723999999998</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2381E3-ED84-DB4C-A4E2-7857F2E34756}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="A10" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,20 +4478,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="162" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="161"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="159"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -4407,7 +4502,7 @@
       <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="151">
+      <c r="P1" s="148">
         <f>'N2O Ullage Calcs'!G57</f>
         <v>2.8988762251754956</v>
       </c>
@@ -4427,14 +4522,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157" t="s">
+      <c r="H2" s="155"/>
+      <c r="I2" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="158"/>
+      <c r="J2" s="156"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -4510,19 +4605,19 @@
       <c r="F4" s="17"/>
       <c r="G4" s="36">
         <f>(C4*($M$3*$P$5)*($M$2+$M$4))/144</f>
-        <v>6.9786947251022768</v>
-      </c>
-      <c r="H4" s="141">
+        <v>9.5871757312405084</v>
+      </c>
+      <c r="H4" s="138">
         <f>B4+G4</f>
-        <v>459.79893376510228</v>
+        <v>462.4074147712405</v>
       </c>
       <c r="I4" s="37">
         <f>(C4*($M$3*$P$5)*$M$1)/144</f>
-        <v>2.6564974357530002</v>
+        <v>3.649437143961122</v>
       </c>
       <c r="J4" s="35">
         <f t="shared" ref="J4:J67" si="0">H4+I4</f>
-        <v>462.45543120085529</v>
+        <v>466.05685191520161</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4548,19 +4643,19 @@
       <c r="F5" s="17"/>
       <c r="G5" s="36">
         <f t="shared" ref="G5:G68" si="1">(C5*($M$3*$P$5)*($M$2+$M$4))/144</f>
-        <v>6.9590680934748796</v>
-      </c>
-      <c r="H5" s="141">
+        <v>9.5602131008581601</v>
+      </c>
+      <c r="H5" s="138">
         <f t="shared" ref="H5:H68" si="2">B5+G5</f>
-        <v>465.61273549347487</v>
+        <v>468.21388050085818</v>
       </c>
       <c r="I5" s="37">
         <f t="shared" ref="I5:I68" si="3">(C5*($M$3*$P$5)*$M$1)/144</f>
-        <v>2.6490263973074999</v>
+        <v>3.6391735973677708</v>
       </c>
       <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>468.2617618907824</v>
+        <v>471.85305409822593</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -4572,7 +4667,7 @@
         <v>63</v>
       </c>
       <c r="P5">
-        <v>4.5</v>
+        <v>6.1820000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4592,19 +4687,19 @@
       <c r="F6" s="17"/>
       <c r="G6" s="36">
         <f t="shared" si="1"/>
-        <v>6.9392952815256814</v>
-      </c>
-      <c r="H6" s="141">
+        <v>9.5330496511981693</v>
+      </c>
+      <c r="H6" s="138">
         <f t="shared" si="2"/>
-        <v>471.48295586152568</v>
+        <v>474.07671023119815</v>
       </c>
       <c r="I6" s="37">
         <f t="shared" si="3"/>
-        <v>2.6414997141225003</v>
+        <v>3.6288336072678442</v>
       </c>
       <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>474.1244555756482</v>
+        <v>477.70554383846599</v>
       </c>
       <c r="L6" t="s">
         <v>37</v>
@@ -4630,19 +4725,19 @@
       <c r="F7" s="17"/>
       <c r="G7" s="36">
         <f t="shared" si="1"/>
-        <v>6.9193916766569723</v>
-      </c>
-      <c r="H7" s="141">
+        <v>9.5057065211318683</v>
+      </c>
+      <c r="H7" s="138">
         <f t="shared" si="2"/>
-        <v>477.4067094966569</v>
+        <v>479.99302434113179</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="3"/>
-        <v>2.6339232435389999</v>
+        <v>3.6184252203462446</v>
       </c>
       <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>480.04063274019592</v>
+        <v>483.61144956147803</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>38</v>
@@ -4669,19 +4764,19 @@
       <c r="F8" s="17"/>
       <c r="G8" s="36">
         <f t="shared" si="1"/>
-        <v>6.8993495851676085</v>
-      </c>
-      <c r="H8" s="141">
+        <v>9.478173141223591</v>
+      </c>
+      <c r="H8" s="138">
         <f t="shared" si="2"/>
-        <v>483.3854390851676</v>
+        <v>485.96426264122357</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="3"/>
-        <v>2.6262940568864996</v>
+        <v>3.6079444132605212</v>
       </c>
       <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>486.01173314205408</v>
+        <v>489.57220705448407</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4701,19 +4796,19 @@
       <c r="F9" s="17"/>
       <c r="G9" s="36">
         <f t="shared" si="1"/>
-        <v>6.8791613133564411</v>
-      </c>
-      <c r="H9" s="141">
+        <v>9.4504389420376711</v>
+      </c>
+      <c r="H9" s="138">
         <f t="shared" si="2"/>
-        <v>489.42058731335652</v>
+        <v>491.99186494203775</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="3"/>
-        <v>2.6186092254945001</v>
+        <v>3.5973871626682228</v>
       </c>
       <c r="J9" s="35">
         <f t="shared" si="0"/>
-        <v>492.039196538851</v>
+        <v>495.58925210470596</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4733,19 +4828,19 @@
       <c r="F10" s="17"/>
       <c r="G10" s="36">
         <f t="shared" si="1"/>
-        <v>6.8588191675223236</v>
-      </c>
-      <c r="H10" s="141">
+        <v>9.4224933541384459</v>
+      </c>
+      <c r="H10" s="138">
         <f t="shared" si="2"/>
-        <v>495.51069610752228</v>
+        <v>498.07437029413842</v>
       </c>
       <c r="I10" s="37">
         <f t="shared" si="3"/>
-        <v>2.6108658206925002</v>
+        <v>3.5867494452268978</v>
       </c>
       <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>498.12156192821476</v>
+        <v>501.66111973936529</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4765,19 +4860,19 @@
       <c r="F11" s="17"/>
       <c r="G11" s="36">
         <f t="shared" si="1"/>
-        <v>6.8383385350675479</v>
-      </c>
-      <c r="H11" s="141">
+        <v>9.3943575163972426</v>
+      </c>
+      <c r="H11" s="138">
         <f t="shared" si="2"/>
-        <v>501.65868161506751</v>
+        <v>504.21470059639722</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" si="3"/>
-        <v>2.6030696998214999</v>
+        <v>3.5760393076214481</v>
       </c>
       <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>504.26175131488901</v>
+        <v>507.79073990401866</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4797,19 +4892,19 @@
       <c r="F12" s="17"/>
       <c r="G12" s="36">
         <f t="shared" si="1"/>
-        <v>6.8176886411875275</v>
-      </c>
-      <c r="H12" s="141">
+        <v>9.3659891510714015</v>
+      </c>
+      <c r="H12" s="138">
         <f t="shared" si="2"/>
-        <v>507.86306268118756</v>
+        <v>510.41136319107142</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" si="3"/>
-        <v>2.5952091481994999</v>
+        <v>3.5652406564820689</v>
       </c>
       <c r="J12" s="35">
         <f t="shared" si="0"/>
-        <v>510.45827182938706</v>
+        <v>513.97660384755352</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4829,19 +4924,19 @@
       <c r="F13" s="17"/>
       <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>6.7968925669857043</v>
-      </c>
-      <c r="H13" s="141">
+        <v>9.3374199664679178</v>
+      </c>
+      <c r="H13" s="138">
         <f t="shared" si="2"/>
-        <v>514.12386238698571</v>
+        <v>516.66438978646795</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="3"/>
-        <v>2.5872929518380001</v>
+        <v>3.5543655618361156</v>
       </c>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>516.71115533882369</v>
+        <v>520.21875534830406</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4861,19 +4956,19 @@
       <c r="F14" s="17"/>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>6.7759272313586347</v>
-      </c>
-      <c r="H14" s="141">
+        <v>9.3086182542797982</v>
+      </c>
+      <c r="H14" s="138">
         <f t="shared" si="2"/>
-        <v>520.44395841135861</v>
+        <v>522.97664943427981</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="3"/>
-        <v>2.5793123247255005</v>
+        <v>3.5434019536562325</v>
       </c>
       <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>523.0232707360841</v>
+        <v>526.52005138793606</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4893,19 +4988,19 @@
       <c r="F15" s="17"/>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>6.754800328007466</v>
-      </c>
-      <c r="H15" s="141">
+        <v>9.2795945839427034</v>
+      </c>
+      <c r="H15" s="138">
         <f t="shared" si="2"/>
-        <v>526.82045768800742</v>
+        <v>529.34525194394269</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="3"/>
-        <v>2.5712701955325001</v>
+        <v>3.532353855284871</v>
       </c>
       <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>529.39172788353994</v>
+        <v>532.87760579922758</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4925,19 +5020,19 @@
       <c r="F16" s="17"/>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>6.7334964695299044</v>
-      </c>
-      <c r="H16" s="141">
+        <v>9.2503278165853047</v>
+      </c>
+      <c r="H16" s="138">
         <f t="shared" si="2"/>
-        <v>533.2547952095299</v>
+        <v>535.77162655658537</v>
       </c>
       <c r="I16" s="37">
         <f t="shared" si="3"/>
-        <v>2.563160706918</v>
+        <v>3.5212132200371289</v>
       </c>
       <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>535.81795591644789</v>
+        <v>539.29283977662249</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4957,19 +5052,19 @@
       <c r="F17" s="17"/>
       <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>6.7120156559259492</v>
-      </c>
-      <c r="H17" s="141">
+        <v>9.2208179522076055</v>
+      </c>
+      <c r="H17" s="138">
         <f t="shared" si="2"/>
-        <v>539.74842135592598</v>
+        <v>542.2572236522077</v>
       </c>
       <c r="I17" s="37">
         <f t="shared" si="3"/>
-        <v>2.5549838588820002</v>
+        <v>3.5099800479130061</v>
       </c>
       <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>542.30340521480798</v>
+        <v>545.76720370012072</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4989,19 +5084,19 @@
       <c r="F18" s="17"/>
       <c r="G18" s="36">
         <f t="shared" si="1"/>
-        <v>6.6903578871956002</v>
-      </c>
-      <c r="H18" s="141">
+        <v>9.1910649908096005</v>
+      </c>
+      <c r="H18" s="138">
         <f t="shared" si="2"/>
-        <v>546.30133612719555</v>
+        <v>548.80204323080966</v>
       </c>
       <c r="I18" s="37">
         <f t="shared" si="3"/>
-        <v>2.5467396514245007</v>
+        <v>3.4986543389125031</v>
       </c>
       <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>548.84807577862</v>
+        <v>552.30069756972216</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5021,19 +5116,19 @@
       <c r="F19" s="17"/>
       <c r="G19" s="36">
         <f t="shared" si="1"/>
-        <v>6.6685154696377085</v>
-      </c>
-      <c r="H19" s="141">
+        <v>9.161058362955627</v>
+      </c>
+      <c r="H19" s="138">
         <f t="shared" si="2"/>
-        <v>552.91498220963774</v>
+        <v>555.40752510295567</v>
       </c>
       <c r="I19" s="37">
         <f t="shared" si="3"/>
-        <v>2.5384251558749997</v>
+        <v>3.4872320696931673</v>
       </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>555.4534073655127</v>
+        <v>558.89475717264884</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5053,19 +5148,19 @@
       <c r="F20" s="17"/>
       <c r="G20" s="36">
         <f t="shared" si="1"/>
-        <v>6.6464807095511302</v>
-      </c>
-      <c r="H20" s="141">
+        <v>9.1307874992100206</v>
+      </c>
+      <c r="H20" s="138">
         <f t="shared" si="2"/>
-        <v>559.58645114955118</v>
+        <v>562.07075793921001</v>
       </c>
       <c r="I20" s="37">
         <f t="shared" si="3"/>
-        <v>2.5300374435630002</v>
+        <v>3.4757092169125485</v>
       </c>
       <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>562.11648859311413</v>
+        <v>565.54646715612262</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5085,19 +5180,19 @@
       <c r="F21" s="17"/>
       <c r="G21" s="36">
         <f t="shared" si="1"/>
-        <v>6.6242536069358628</v>
-      </c>
-      <c r="H21" s="141">
+        <v>9.1002523995727795</v>
+      </c>
+      <c r="H21" s="138">
         <f t="shared" si="2"/>
-        <v>566.31864370693586</v>
+        <v>568.79464249957277</v>
       </c>
       <c r="I21" s="37">
         <f t="shared" si="3"/>
-        <v>2.5215765144884998</v>
+        <v>3.4640857805706466</v>
       </c>
       <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>568.84022022142437</v>
+        <v>572.25872828014337</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5117,19 +5212,19 @@
       <c r="F22" s="17"/>
       <c r="G22" s="36">
         <f t="shared" si="1"/>
-        <v>6.60181877438961</v>
-      </c>
-      <c r="H22" s="141">
+        <v>9.069431925172573</v>
+      </c>
+      <c r="H22" s="138">
         <f t="shared" si="2"/>
-        <v>573.11299487438953</v>
+        <v>575.58060802517252</v>
       </c>
       <c r="I22" s="37">
         <f t="shared" si="3"/>
-        <v>2.5130365113104998</v>
+        <v>3.4523537139825589</v>
       </c>
       <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>575.6260313857</v>
+        <v>579.0329617391551</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5149,19 +5244,19 @@
       <c r="F23" s="17"/>
       <c r="G23" s="36">
         <f t="shared" si="1"/>
-        <v>6.579176211912376</v>
-      </c>
-      <c r="H23" s="141">
+        <v>9.0383260760094046</v>
+      </c>
+      <c r="H23" s="138">
         <f t="shared" si="2"/>
-        <v>579.96660389191231</v>
+        <v>582.42575375600939</v>
       </c>
       <c r="I23" s="37">
         <f t="shared" si="3"/>
-        <v>2.5044174340290004</v>
+        <v>3.4405130171482852</v>
       </c>
       <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>582.47102132594136</v>
+        <v>585.86626677315769</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5181,19 +5276,19 @@
       <c r="F24" s="17"/>
       <c r="G24" s="36">
         <f t="shared" si="1"/>
-        <v>6.5563182258030084</v>
-      </c>
-      <c r="H24" s="141">
+        <v>9.006924282647601</v>
+      </c>
+      <c r="H24" s="138">
         <f t="shared" si="2"/>
-        <v>586.88236382580305</v>
+        <v>589.3329698826476</v>
       </c>
       <c r="I24" s="37">
         <f t="shared" si="3"/>
-        <v>2.4957163539735001</v>
+        <v>3.4285596667253735</v>
       </c>
       <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>589.37808017977659</v>
+        <v>592.76152954937299</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5213,19 +5308,19 @@
       <c r="F25" s="17"/>
       <c r="G25" s="36">
         <f t="shared" si="1"/>
-        <v>6.5332448160615106</v>
-      </c>
-      <c r="H25" s="141">
+        <v>8.9752265450871711</v>
+      </c>
+      <c r="H25" s="138">
         <f t="shared" si="2"/>
-        <v>593.86027467606152</v>
+        <v>596.30225640508718</v>
       </c>
       <c r="I25" s="37">
         <f t="shared" si="3"/>
-        <v>2.4869332711440002</v>
+        <v>3.4164936627138247</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>596.34720794720556</v>
+        <v>599.71875006780101</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5245,19 +5340,19 @@
       <c r="F26" s="17"/>
       <c r="G26" s="36">
         <f t="shared" si="1"/>
-        <v>6.5099405952855864</v>
-      </c>
-      <c r="H26" s="141">
+        <v>8.9432117244567788</v>
+      </c>
+      <c r="H26" s="138">
         <f t="shared" si="2"/>
-        <v>600.90032105528553</v>
+        <v>603.33359218445673</v>
       </c>
       <c r="I26" s="37">
         <f t="shared" si="3"/>
-        <v>2.4780623281995005</v>
+        <v>3.404306958428736</v>
       </c>
       <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>603.37838338348502</v>
+        <v>606.73789914288545</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5277,19 +5372,19 @@
       <c r="F27" s="17"/>
       <c r="G27" s="36">
         <f t="shared" si="1"/>
-        <v>6.4863978697740867</v>
-      </c>
-      <c r="H27" s="141">
+        <v>8.9108692513207579</v>
+      </c>
+      <c r="H27" s="138">
         <f t="shared" si="2"/>
-        <v>608.00394564977421</v>
+        <v>610.42841703132081</v>
       </c>
       <c r="I27" s="37">
         <f t="shared" si="3"/>
-        <v>2.4691005964695001</v>
+        <v>3.3919955305276557</v>
       </c>
       <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>610.47304624624371</v>
+        <v>613.82041256184846</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5309,19 +5404,19 @@
       <c r="F28" s="17"/>
       <c r="G28" s="36">
         <f t="shared" si="1"/>
-        <v>6.4626166395270159</v>
-      </c>
-      <c r="H28" s="141">
+        <v>8.8781991256791155</v>
+      </c>
+      <c r="H28" s="138">
         <f t="shared" si="2"/>
-        <v>615.16969807952705</v>
+        <v>617.58528056567911</v>
       </c>
       <c r="I28" s="37">
         <f t="shared" si="3"/>
-        <v>2.4600480759540004</v>
+        <v>3.3795593790105851</v>
       </c>
       <c r="J28" s="35">
         <f t="shared" si="0"/>
-        <v>617.62974615548103</v>
+        <v>620.96483994468974</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5341,19 +5436,19 @@
       <c r="F29" s="17"/>
       <c r="G29" s="36">
         <f t="shared" si="1"/>
-        <v>6.438573823440926</v>
-      </c>
-      <c r="H29" s="141">
+        <v>8.8451696392248476</v>
+      </c>
+      <c r="H29" s="138">
         <f t="shared" si="2"/>
-        <v>622.40045602344094</v>
+        <v>624.80705183922487</v>
       </c>
       <c r="I29" s="37">
         <f t="shared" si="3"/>
-        <v>2.4508959806415</v>
+        <v>3.3669864338501685</v>
       </c>
       <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>624.8513520040824</v>
+        <v>628.17403827307498</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5373,19 +5468,19 @@
       <c r="F30" s="17"/>
       <c r="G30" s="36">
         <f t="shared" si="1"/>
-        <v>6.4142771152169686</v>
-      </c>
-      <c r="H30" s="141">
+        <v>8.8117913613936238</v>
+      </c>
+      <c r="H30" s="138">
         <f t="shared" si="2"/>
-        <v>629.69477679521685</v>
+        <v>632.09229104139354</v>
       </c>
       <c r="I30" s="37">
         <f t="shared" si="3"/>
-        <v>2.4416472392025006</v>
+        <v>3.3542807183888579</v>
       </c>
       <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>632.13642403441941</v>
+        <v>635.44657175978239</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5405,19 +5500,19 @@
       <c r="F31" s="17"/>
       <c r="G31" s="36">
         <f t="shared" si="1"/>
-        <v>6.389711127452844</v>
-      </c>
-      <c r="H31" s="141">
+        <v>8.7780431533141083</v>
+      </c>
+      <c r="H31" s="138">
         <f t="shared" si="2"/>
-        <v>637.05409538745289</v>
+        <v>639.44242741331414</v>
       </c>
       <c r="I31" s="37">
         <f t="shared" si="3"/>
-        <v>2.4322959942960001</v>
+        <v>3.3414341859417496</v>
       </c>
       <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>639.48639138174894</v>
+        <v>642.78386159925583</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5437,19 +5532,19 @@
       <c r="F32" s="17"/>
       <c r="G32" s="36">
         <f t="shared" si="1"/>
-        <v>6.3648681664474109</v>
-      </c>
-      <c r="H32" s="141">
+        <v>8.7439144455506455</v>
+      </c>
+      <c r="H32" s="138">
         <f t="shared" si="2"/>
-        <v>644.47840410644744</v>
+        <v>646.85745038555069</v>
       </c>
       <c r="I32" s="37">
         <f t="shared" si="3"/>
-        <v>2.4228393172514999</v>
+        <v>3.328442813166395</v>
       </c>
       <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>646.90124342369893</v>
+        <v>650.18589319871705</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5469,19 +5564,19 @@
       <c r="F33" s="17"/>
       <c r="G33" s="36">
         <f t="shared" si="1"/>
-        <v>6.3397328447983687</v>
-      </c>
-      <c r="H33" s="141">
+        <v>8.7093840992318938</v>
+      </c>
+      <c r="H33" s="138">
         <f t="shared" si="2"/>
-        <v>651.96768756479844</v>
+        <v>654.33733881923195</v>
       </c>
       <c r="I33" s="37">
         <f t="shared" si="3"/>
-        <v>2.4132713507279999</v>
+        <v>3.3152985533778883</v>
       </c>
       <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>654.38095891552643</v>
+        <v>657.65263737260989</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5501,19 +5596,19 @@
       <c r="F34" s="17"/>
       <c r="G34" s="36">
         <f t="shared" si="1"/>
-        <v>6.3142974688045737</v>
-      </c>
-      <c r="H34" s="141">
+        <v>8.6744415449221961</v>
+      </c>
+      <c r="H34" s="138">
         <f t="shared" si="2"/>
-        <v>659.5248388288046</v>
+        <v>661.88498290492214</v>
       </c>
       <c r="I34" s="37">
         <f t="shared" si="3"/>
-        <v>2.4035891660550002</v>
+        <v>3.3019973832337808</v>
       </c>
       <c r="J34" s="35">
         <f t="shared" si="0"/>
-        <v>661.92842799485959</v>
+        <v>665.18698028815595</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5533,19 +5628,19 @@
       <c r="F35" s="17"/>
       <c r="G35" s="36">
         <f t="shared" si="1"/>
-        <v>6.2885466510637293</v>
-      </c>
-      <c r="H35" s="141">
+        <v>8.639065643750218</v>
+      </c>
+      <c r="H35" s="138">
         <f t="shared" si="2"/>
-        <v>667.14694175106376</v>
+        <v>669.49746074375025</v>
       </c>
       <c r="I35" s="37">
         <f t="shared" si="3"/>
-        <v>2.3937869058915</v>
+        <v>3.2885312560491675</v>
       </c>
       <c r="J35" s="35">
         <f t="shared" si="0"/>
-        <v>669.54072865695525</v>
+        <v>672.78599199979942</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5565,19 +5660,19 @@
       <c r="F36" s="17"/>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>6.2624726978746876</v>
-      </c>
-      <c r="H36" s="141">
+        <v>8.6032458262802933</v>
+      </c>
+      <c r="H36" s="138">
         <f t="shared" si="2"/>
-        <v>674.83833977787481</v>
+        <v>677.17911290628035</v>
       </c>
       <c r="I36" s="37">
         <f t="shared" si="3"/>
-        <v>2.383861641567</v>
+        <v>3.2748961484815999</v>
       </c>
       <c r="J36" s="35">
         <f t="shared" si="0"/>
-        <v>677.22220141944183</v>
+        <v>680.45400905476197</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5597,19 +5692,19 @@
       <c r="F37" s="17"/>
       <c r="G37" s="36">
         <f t="shared" si="1"/>
-        <v>6.2360602218351531</v>
-      </c>
-      <c r="H37" s="141">
+        <v>8.5669609536410931</v>
+      </c>
+      <c r="H37" s="138">
         <f t="shared" si="2"/>
-        <v>682.59611676183511</v>
+        <v>684.92701749364107</v>
       </c>
       <c r="I37" s="37">
         <f t="shared" si="3"/>
-        <v>2.3738075157405003</v>
+        <v>3.2610840138461716</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="0"/>
-        <v>684.96992427757561</v>
+        <v>688.1881015074872</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5629,19 +5724,19 @@
       <c r="F38" s="17"/>
       <c r="G38" s="36">
         <f t="shared" si="1"/>
-        <v>6.2092938355428311</v>
-      </c>
-      <c r="H38" s="141">
+        <v>8.5301898869612884</v>
+      </c>
+      <c r="H38" s="138">
         <f t="shared" si="2"/>
-        <v>690.42170769554275</v>
+        <v>692.74260374696121</v>
       </c>
       <c r="I38" s="37">
         <f t="shared" si="3"/>
-        <v>2.3636186710710003</v>
+        <v>3.2470868054579838</v>
       </c>
       <c r="J38" s="35">
         <f t="shared" si="0"/>
-        <v>692.78532636661373</v>
+        <v>695.98969055241923</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -5661,19 +5756,19 @@
       <c r="F39" s="17"/>
       <c r="G39" s="36">
         <f t="shared" si="1"/>
-        <v>6.1821581515954271</v>
-      </c>
-      <c r="H39" s="141">
+        <v>8.4929114873695433</v>
+      </c>
+      <c r="H39" s="138">
         <f t="shared" si="2"/>
-        <v>698.31654757159549</v>
+        <v>700.62730090736954</v>
       </c>
       <c r="I39" s="37">
         <f t="shared" si="3"/>
-        <v>2.3532892502174998</v>
+        <v>3.2328964766321309</v>
       </c>
       <c r="J39" s="35">
         <f t="shared" si="0"/>
-        <v>700.66983682181296</v>
+        <v>703.86019738400171</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5693,19 +5788,19 @@
       <c r="F40" s="17"/>
       <c r="G40" s="36">
         <f t="shared" si="1"/>
-        <v>6.1546454762917939</v>
-      </c>
-      <c r="H40" s="141">
+        <v>8.4551151854301949</v>
+      </c>
+      <c r="H40" s="138">
         <f t="shared" si="2"/>
-        <v>706.28207907629178</v>
+        <v>708.58254878543016</v>
       </c>
       <c r="I40" s="37">
         <f t="shared" si="3"/>
-        <v>2.3428163245095002</v>
+        <v>3.2185090040261621</v>
       </c>
       <c r="J40" s="35">
         <f t="shared" si="0"/>
-        <v>708.62489540080128</v>
+        <v>711.80105778945631</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5725,19 +5820,19 @@
       <c r="F41" s="17"/>
       <c r="G41" s="36">
         <f t="shared" si="1"/>
-        <v>6.1267250348273405</v>
-      </c>
-      <c r="H41" s="141">
+        <v>8.416758703400582</v>
+      </c>
+      <c r="H41" s="138">
         <f t="shared" si="2"/>
-        <v>714.31537067482736</v>
+        <v>716.60540434340055</v>
       </c>
       <c r="I41" s="37">
         <f t="shared" si="3"/>
-        <v>2.3321881792650001</v>
+        <v>3.2039082942702741</v>
       </c>
       <c r="J41" s="35">
         <f t="shared" si="0"/>
-        <v>716.64755885409238</v>
+        <v>719.80931263767081</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -5757,19 +5852,19 @@
       <c r="F42" s="17"/>
       <c r="G42" s="36">
         <f t="shared" si="1"/>
-        <v>6.0983814397997715</v>
-      </c>
-      <c r="H42" s="141">
+        <v>8.3778209024093755</v>
+      </c>
+      <c r="H42" s="138">
         <f t="shared" si="2"/>
-        <v>722.42075811979976</v>
+        <v>724.70019758240926</v>
       </c>
       <c r="I42" s="37">
         <f t="shared" si="3"/>
-        <v>2.3213989571430003</v>
+        <v>3.1890863006795618</v>
       </c>
       <c r="J42" s="35">
         <f t="shared" si="0"/>
-        <v>724.7421570769427</v>
+        <v>727.88928388308886</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -5789,19 +5884,19 @@
       <c r="F43" s="17"/>
       <c r="G43" s="36">
         <f t="shared" si="1"/>
-        <v>6.0695993038067915</v>
-      </c>
-      <c r="H43" s="141">
+        <v>8.338280643585243</v>
+      </c>
+      <c r="H43" s="138">
         <f t="shared" si="2"/>
-        <v>730.59822602380677</v>
+        <v>732.86690736358526</v>
       </c>
       <c r="I43" s="37">
         <f t="shared" si="3"/>
-        <v>2.3104428008025</v>
+        <v>3.1740349765691236</v>
       </c>
       <c r="J43" s="35">
         <f t="shared" si="0"/>
-        <v>732.90866882460932</v>
+        <v>736.0409423401544</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5821,19 +5916,19 @@
       <c r="F44" s="17"/>
       <c r="G44" s="36">
         <f t="shared" si="1"/>
-        <v>6.0403555457449603</v>
-      </c>
-      <c r="H44" s="141">
+        <v>8.2981062186211911</v>
+      </c>
+      <c r="H44" s="138">
         <f t="shared" si="2"/>
-        <v>738.84630092574503</v>
+        <v>741.10405159862125</v>
       </c>
       <c r="I44" s="37">
         <f t="shared" si="3"/>
-        <v>2.299310924232</v>
+        <v>3.1587422519116064</v>
       </c>
       <c r="J44" s="35">
         <f t="shared" si="0"/>
-        <v>741.14561184997706</v>
+        <v>744.26279385053283</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5853,19 +5948,19 @@
       <c r="F45" s="17"/>
       <c r="G45" s="36">
         <f t="shared" si="1"/>
-        <v>6.0106193908096852</v>
-      </c>
-      <c r="H45" s="141">
+        <v>8.2572553497745513</v>
+      </c>
+      <c r="H45" s="138">
         <f t="shared" si="2"/>
-        <v>747.16785281080968</v>
+        <v>749.41448876977461</v>
       </c>
       <c r="I45" s="37">
         <f t="shared" si="3"/>
-        <v>2.2879916127494999</v>
+        <v>3.1431920333372028</v>
       </c>
       <c r="J45" s="35">
         <f t="shared" si="0"/>
-        <v>749.45584442355914</v>
+        <v>752.55768080311179</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -5885,26 +5980,26 @@
       <c r="F46" s="17"/>
       <c r="G46" s="36">
         <f t="shared" si="1"/>
-        <v>5.9803754515986718</v>
-      </c>
-      <c r="H46" s="141">
+        <v>8.2157068981739982</v>
+      </c>
+      <c r="H46" s="138">
         <f t="shared" si="2"/>
-        <v>755.5614159115986</v>
+        <v>757.79674735817389</v>
       </c>
       <c r="I46" s="37">
         <f t="shared" si="3"/>
-        <v>2.2764790090139999</v>
+        <v>3.1273762741610116</v>
       </c>
       <c r="J46" s="35">
         <f t="shared" si="0"/>
-        <v>757.8378949206126</v>
+        <v>760.92412363233495</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="63">
+      <c r="A47" s="62">
         <v>70</v>
       </c>
-      <c r="B47" s="64">
+      <c r="B47" s="63">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
@@ -5920,19 +6015,19 @@
       <c r="F47" s="17"/>
       <c r="G47" s="36">
         <f t="shared" si="1"/>
-        <v>5.9735348964228168</v>
-      </c>
-      <c r="H47" s="141">
+        <v>8.2063094954857476</v>
+      </c>
+      <c r="H47" s="138">
         <f t="shared" si="2"/>
-        <v>757.44329242308947</v>
+        <v>759.67606702215232</v>
       </c>
       <c r="I47" s="37">
         <f t="shared" si="3"/>
-        <v>2.2738750955316664</v>
+        <v>3.1237990756837255</v>
       </c>
       <c r="J47" s="35">
         <f t="shared" si="0"/>
-        <v>759.71716751862118</v>
+        <v>762.799866097836</v>
       </c>
       <c r="K47" s="39" t="s">
         <v>33</v>
@@ -5956,19 +6051,19 @@
       <c r="F48" s="17"/>
       <c r="G48" s="36">
         <f t="shared" si="1"/>
-        <v>5.94959295330733</v>
-      </c>
-      <c r="H48" s="141">
+        <v>8.1734185860768704</v>
+      </c>
+      <c r="H48" s="138">
         <f t="shared" si="2"/>
-        <v>764.02986021330719</v>
+        <v>766.25368584607679</v>
       </c>
       <c r="I48" s="37">
         <f t="shared" si="3"/>
-        <v>2.2647613983435004</v>
+        <v>3.1112788810132264</v>
       </c>
       <c r="J48" s="35">
         <f t="shared" si="0"/>
-        <v>766.29462161165065</v>
+        <v>769.36496472709007</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5988,19 +6083,19 @@
       <c r="F49" s="17"/>
       <c r="G49" s="36">
         <f t="shared" si="1"/>
-        <v>5.9182334274299215</v>
-      </c>
-      <c r="H49" s="141">
+        <v>8.1303375663048385</v>
+      </c>
+      <c r="H49" s="138">
         <f t="shared" si="2"/>
-        <v>772.5731472474298</v>
+        <v>774.78525138630482</v>
       </c>
       <c r="I49" s="37">
         <f t="shared" si="3"/>
-        <v>2.2528241373854998</v>
+        <v>3.0948797371815915</v>
       </c>
       <c r="J49" s="35">
         <f t="shared" si="0"/>
-        <v>774.82597138481526</v>
+        <v>777.88013112348642</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -6020,19 +6115,19 @@
       <c r="F50" s="17"/>
       <c r="G50" s="36">
         <f t="shared" si="1"/>
-        <v>5.8862660991618574</v>
-      </c>
-      <c r="H50" s="141">
+        <v>8.0864215611152481</v>
+      </c>
+      <c r="H50" s="138">
         <f t="shared" si="2"/>
-        <v>781.19124623916184</v>
+        <v>783.39140170111523</v>
       </c>
       <c r="I50" s="37">
         <f t="shared" si="3"/>
-        <v>2.2406555114579998</v>
+        <v>3.0781627492963022</v>
       </c>
       <c r="J50" s="35">
         <f t="shared" si="0"/>
-        <v>783.43190175061989</v>
+        <v>786.46956445041155</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -6052,19 +6147,19 @@
       <c r="F51" s="17"/>
       <c r="G51" s="36">
         <f t="shared" si="1"/>
-        <v>5.8536601936985466</v>
-      </c>
-      <c r="H51" s="141">
+        <v>8.0416282927654272</v>
+      </c>
+      <c r="H51" s="138">
         <f t="shared" si="2"/>
-        <v>789.88557679369865</v>
+        <v>792.07354489276543</v>
       </c>
       <c r="I51" s="37">
         <f t="shared" si="3"/>
-        <v>2.228243805879</v>
+        <v>3.061111823987551</v>
       </c>
       <c r="J51" s="35">
         <f t="shared" si="0"/>
-        <v>792.11382059957759</v>
+        <v>795.13465671675294</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -6084,59 +6179,59 @@
       <c r="F52" s="17"/>
       <c r="G52" s="36">
         <f t="shared" si="1"/>
-        <v>5.8203695488331038</v>
-      </c>
-      <c r="H52" s="141">
+        <v>7.9958943446413899</v>
+      </c>
+      <c r="H52" s="138">
         <f t="shared" si="2"/>
-        <v>798.6560927488332</v>
+        <v>800.83161754464152</v>
       </c>
       <c r="I52" s="37">
         <f t="shared" si="3"/>
-        <v>2.2155714486255</v>
+        <v>3.0437028212006316</v>
       </c>
       <c r="J52" s="35">
         <f t="shared" si="0"/>
-        <v>800.8716641974587</v>
+        <v>803.87532036584219</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="144">
+      <c r="A53" s="141">
         <v>75</v>
       </c>
-      <c r="B53" s="145">
+      <c r="B53" s="142">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="146">
+      <c r="C53" s="143">
         <f t="shared" ref="C53:D53" si="4">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="147">
+      <c r="D53" s="144">
         <f t="shared" si="4"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="148"/>
-      <c r="F53" s="148"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
       <c r="G53" s="36">
         <f t="shared" si="1"/>
-        <v>5.7939083460196361</v>
-      </c>
-      <c r="H53" s="142">
+        <v>7.9595425322429758</v>
+      </c>
+      <c r="H53" s="139">
         <f t="shared" si="2"/>
-        <v>805.53908071268631</v>
+        <v>807.70471489890963</v>
       </c>
       <c r="I53" s="37">
         <f t="shared" si="3"/>
-        <v>2.2054987745525003</v>
-      </c>
-      <c r="J53" s="143">
+        <v>3.0298652053963462</v>
+      </c>
+      <c r="J53" s="140">
         <f t="shared" si="0"/>
-        <v>807.74457948723887</v>
+        <v>810.73458010430602</v>
       </c>
       <c r="K53" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="74" t="s">
+      <c r="L53" s="73" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6157,19 +6252,19 @@
       <c r="F54" s="17"/>
       <c r="G54" s="36">
         <f t="shared" si="1"/>
-        <v>5.7863480023586451</v>
-      </c>
-      <c r="H54" s="141">
+        <v>7.9491563001291432</v>
+      </c>
+      <c r="H54" s="138">
         <f t="shared" si="2"/>
-        <v>807.5056487023586</v>
+        <v>809.66845700012914</v>
       </c>
       <c r="I54" s="37">
         <f t="shared" si="3"/>
-        <v>2.2026208676745003</v>
+        <v>3.025911600880836</v>
       </c>
       <c r="J54" s="35">
         <f t="shared" si="0"/>
-        <v>809.70826957003305</v>
+        <v>812.69436860100996</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -6189,19 +6284,19 @@
       <c r="F55" s="17"/>
       <c r="G55" s="36">
         <f t="shared" si="1"/>
-        <v>5.7515416983671361</v>
-      </c>
-      <c r="H55" s="141">
+        <v>7.9013401731790323</v>
+      </c>
+      <c r="H55" s="138">
         <f t="shared" si="2"/>
-        <v>816.43419079836724</v>
+        <v>818.5839892731791</v>
       </c>
       <c r="I55" s="37">
         <f t="shared" si="3"/>
-        <v>2.1893715623325005</v>
+        <v>3.0077099996310048</v>
       </c>
       <c r="J55" s="35">
         <f t="shared" si="0"/>
-        <v>818.62356236069979</v>
+        <v>821.59169927281016</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -6221,19 +6316,19 @@
       <c r="F56" s="17"/>
       <c r="G56" s="36">
         <f t="shared" si="1"/>
-        <v>5.7159044746516896</v>
-      </c>
-      <c r="H56" s="141">
+        <v>7.8523825471770561</v>
+      </c>
+      <c r="H56" s="138">
         <f t="shared" si="2"/>
-        <v>825.44167287465166</v>
+        <v>827.57815094717705</v>
       </c>
       <c r="I56" s="37">
         <f t="shared" si="3"/>
-        <v>2.1758059605765001</v>
+        <v>2.9890738773964278</v>
       </c>
       <c r="J56" s="35">
         <f t="shared" si="0"/>
-        <v>827.61747883522821</v>
+        <v>830.56722482457349</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -6253,19 +6348,19 @@
       <c r="F57" s="17"/>
       <c r="G57" s="36">
         <f t="shared" si="1"/>
-        <v>5.6793670879019817</v>
-      </c>
-      <c r="H57" s="141">
+        <v>7.8021882972022354</v>
+      </c>
+      <c r="H57" s="138">
         <f t="shared" si="2"/>
-        <v>834.52947606790201</v>
+        <v>836.65229727720225</v>
       </c>
       <c r="I57" s="37">
         <f t="shared" si="3"/>
-        <v>2.161897704372</v>
+        <v>2.969967024095046</v>
       </c>
       <c r="J57" s="35">
         <f t="shared" si="0"/>
-        <v>836.69137377227401</v>
+        <v>839.62226430129726</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -6285,19 +6380,19 @@
       <c r="F58" s="17"/>
       <c r="G58" s="36">
         <f t="shared" si="1"/>
-        <v>5.6418602948076817</v>
-      </c>
-      <c r="H58" s="141">
+        <v>7.7506622983335784</v>
+      </c>
+      <c r="H58" s="138">
         <f t="shared" si="2"/>
-        <v>843.69898151480766</v>
+        <v>845.80778351833362</v>
       </c>
       <c r="I58" s="37">
         <f t="shared" si="3"/>
-        <v>2.1476204356844999</v>
+        <v>2.9503532296447958</v>
       </c>
       <c r="J58" s="35">
         <f t="shared" si="0"/>
-        <v>845.84660195049219</v>
+        <v>848.75813674797837</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -6317,19 +6412,19 @@
       <c r="F59" s="17"/>
       <c r="G59" s="36">
         <f t="shared" si="1"/>
-        <v>5.6032994646561693</v>
-      </c>
-      <c r="H59" s="141">
+        <v>7.6976882867787664</v>
+      </c>
+      <c r="H59" s="138">
         <f t="shared" si="2"/>
-        <v>852.95155496465611</v>
+        <v>855.04594378677871</v>
       </c>
       <c r="I59" s="37">
         <f t="shared" si="3"/>
-        <v>2.1329419391385001</v>
+        <v>2.9301882372787134</v>
       </c>
       <c r="J59" s="35">
         <f t="shared" si="0"/>
-        <v>855.08449690379462</v>
+        <v>857.97613202405739</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -6349,19 +6444,19 @@
       <c r="F60" s="17"/>
       <c r="G60" s="36">
         <f t="shared" si="1"/>
-        <v>5.5635999667348175</v>
-      </c>
-      <c r="H60" s="141">
+        <v>7.6431499987454794</v>
+      </c>
+      <c r="H60" s="138">
         <f t="shared" si="2"/>
-        <v>862.28711178673484</v>
+        <v>864.36666181874546</v>
       </c>
       <c r="I60" s="37">
         <f t="shared" si="3"/>
-        <v>2.1178299993584999</v>
+        <v>2.9094277902298331</v>
       </c>
       <c r="J60" s="35">
         <f t="shared" si="0"/>
-        <v>864.40494178609333</v>
+        <v>867.27608960897533</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -6381,19 +6476,19 @@
       <c r="F61" s="17"/>
       <c r="G61" s="36">
         <f t="shared" si="1"/>
-        <v>5.5226463955264169</v>
-      </c>
-      <c r="H61" s="141">
+        <v>7.5868888926987363</v>
+      </c>
+      <c r="H61" s="138">
         <f t="shared" si="2"/>
-        <v>871.70843733552636</v>
+        <v>873.77267983269871</v>
       </c>
       <c r="I61" s="37">
         <f t="shared" si="3"/>
-        <v>2.1022406862869998</v>
+        <v>2.8880115383613858</v>
       </c>
       <c r="J61" s="35">
         <f t="shared" si="0"/>
-        <v>873.81067802181337</v>
+        <v>876.66069137106012</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -6413,19 +6508,19 @@
       <c r="F62" s="17"/>
       <c r="G62" s="36">
         <f t="shared" si="1"/>
-        <v>5.4803310392149003</v>
-      </c>
-      <c r="H62" s="141">
+        <v>7.5287569965392276</v>
+      </c>
+      <c r="H62" s="138">
         <f t="shared" si="2"/>
-        <v>881.21397351921496</v>
+        <v>883.26239947653926</v>
       </c>
       <c r="I62" s="37">
         <f t="shared" si="3"/>
-        <v>2.0861329985369998</v>
+        <v>2.8658831548790524</v>
       </c>
       <c r="J62" s="35">
         <f t="shared" si="0"/>
-        <v>883.30010651775194</v>
+        <v>886.1282826314183</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -6445,19 +6540,19 @@
       <c r="F63" s="17"/>
       <c r="G63" s="36">
         <f t="shared" si="1"/>
-        <v>5.4365000237773167</v>
-      </c>
-      <c r="H63" s="141">
+        <v>7.468542921553639</v>
+      </c>
+      <c r="H63" s="138">
         <f t="shared" si="2"/>
-        <v>890.80791760377724</v>
+        <v>892.83996050155361</v>
       </c>
       <c r="I63" s="37">
         <f t="shared" si="3"/>
-        <v>2.0694483626985001</v>
+        <v>2.8429621729338064</v>
       </c>
       <c r="J63" s="35">
         <f t="shared" si="0"/>
-        <v>892.87736596647574</v>
+        <v>895.68292267448737</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -6477,19 +6572,19 @@
       <c r="F64" s="17"/>
       <c r="G64" s="36">
         <f t="shared" si="1"/>
-        <v>5.3909840877884188</v>
-      </c>
-      <c r="H64" s="141">
+        <v>7.4060141401573372</v>
+      </c>
+      <c r="H64" s="138">
         <f t="shared" si="2"/>
-        <v>900.49155070778841</v>
+        <v>902.50658076015736</v>
       </c>
       <c r="I64" s="37">
         <f t="shared" si="3"/>
-        <v>2.0521223480204998</v>
+        <v>2.8191600789917186</v>
       </c>
       <c r="J64" s="35">
         <f t="shared" si="0"/>
-        <v>902.54367305580888</v>
+        <v>905.32574083914903</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6509,19 +6604,19 @@
       <c r="F65" s="17"/>
       <c r="G65" s="36">
         <f t="shared" si="1"/>
-        <v>5.3435908887195209</v>
-      </c>
-      <c r="H65" s="141">
+        <v>7.3409064164586857</v>
+      </c>
+      <c r="H65" s="138">
         <f t="shared" si="2"/>
-        <v>910.26323010871954</v>
+        <v>912.26054563645869</v>
       </c>
       <c r="I65" s="37">
         <f t="shared" si="3"/>
-        <v>2.0340817377405003</v>
+        <v>2.7943762894915056</v>
       </c>
       <c r="J65" s="35">
         <f t="shared" si="0"/>
-        <v>912.29731184646005</v>
+        <v>915.05492192595023</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -6541,19 +6636,19 @@
       <c r="F66" s="17"/>
       <c r="G66" s="36">
         <f t="shared" si="1"/>
-        <v>5.2940819218350459</v>
-      </c>
-      <c r="H66" s="141">
+        <v>7.2728920979520568</v>
+      </c>
+      <c r="H66" s="138">
         <f t="shared" si="2"/>
-        <v>920.12851882183509</v>
+        <v>922.1073289979521</v>
       </c>
       <c r="I66" s="37">
         <f t="shared" si="3"/>
-        <v>2.0152357430730001</v>
+        <v>2.768486080817175</v>
       </c>
       <c r="J66" s="35">
         <f t="shared" si="0"/>
-        <v>922.14375456490814</v>
+        <v>924.87581507876928</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -6573,19 +6668,19 @@
       <c r="F67" s="17"/>
       <c r="G67" s="36">
         <f t="shared" si="1"/>
-        <v>5.2421571327902399</v>
-      </c>
-      <c r="H67" s="141">
+        <v>7.2015589766465054</v>
+      </c>
+      <c r="H67" s="138">
         <f t="shared" si="2"/>
-        <v>930.08566641279026</v>
+        <v>932.04506825664657</v>
       </c>
       <c r="I67" s="37">
         <f t="shared" si="3"/>
-        <v>1.9954701458684998</v>
+        <v>2.7413325426131263</v>
       </c>
       <c r="J67" s="35">
         <f t="shared" si="0"/>
-        <v>932.08113655865873</v>
+        <v>934.7864007992597</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -6605,19 +6700,19 @@
       <c r="F68" s="17"/>
       <c r="G68" s="36">
         <f t="shared" si="1"/>
-        <v>5.1874626113323181</v>
-      </c>
-      <c r="H68" s="141">
+        <v>7.1264208585014206</v>
+      </c>
+      <c r="H68" s="138">
         <f t="shared" si="2"/>
-        <v>940.13867011133243</v>
+        <v>942.07762835850156</v>
       </c>
       <c r="I68" s="37">
         <f t="shared" si="3"/>
-        <v>1.9746502272840003</v>
+        <v>2.7127306011265979</v>
       </c>
       <c r="J68" s="35">
         <f t="shared" ref="J68:J79" si="5">H68+I68</f>
-        <v>942.1133203386164</v>
+        <v>944.79035895962818</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -6636,20 +6731,20 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="36">
-        <f t="shared" ref="G69:G79" si="6">(C69*($M$3*$P$5)*($M$2+$M$4))/144</f>
-        <v>5.1295290416912769</v>
-      </c>
-      <c r="H69" s="141">
+        <f t="shared" ref="G69:G71" si="6">(C69*($M$3*$P$5)*($M$2+$M$4))/144</f>
+        <v>7.0468330079412178</v>
+      </c>
+      <c r="H69" s="138">
         <f t="shared" ref="H69:H79" si="7">B69+G69</f>
-        <v>950.28996136169121</v>
+        <v>952.20726532794117</v>
       </c>
       <c r="I69" s="37">
         <f t="shared" ref="I69:I79" si="8">(C69*($M$3*$P$5)*$M$1)/144</f>
-        <v>1.9525973384189999</v>
+        <v>2.6824348324680578</v>
       </c>
       <c r="J69" s="35">
         <f t="shared" si="5"/>
-        <v>952.24255870011018</v>
+        <v>954.88970016040923</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -6669,19 +6764,19 @@
       <c r="F70" s="17"/>
       <c r="G70" s="36">
         <f t="shared" si="6"/>
-        <v>5.0677640088787577</v>
-      </c>
-      <c r="H70" s="141">
+        <v>6.9619815784196639</v>
+      </c>
+      <c r="H70" s="138">
         <f t="shared" si="7"/>
-        <v>960.53894774887885</v>
+        <v>962.43316531841981</v>
       </c>
       <c r="I70" s="37">
         <f t="shared" si="8"/>
-        <v>1.9290859716450004</v>
+        <v>2.6501354392687539</v>
       </c>
       <c r="J70" s="35">
         <f t="shared" si="5"/>
-        <v>962.46803372052386</v>
+        <v>965.08330075768856</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -6701,19 +6796,19 @@
       <c r="F71" s="17"/>
       <c r="G71" s="36">
         <f t="shared" si="6"/>
-        <v>5.0013904490788557</v>
-      </c>
-      <c r="H71" s="141">
+        <v>6.8707990569345538</v>
+      </c>
+      <c r="H71" s="138">
         <f t="shared" si="7"/>
-        <v>970.8892033490788</v>
+        <v>972.75861195693449</v>
       </c>
       <c r="I71" s="37">
         <f t="shared" si="8"/>
-        <v>1.9038203312414999</v>
+        <v>2.6154260639411016</v>
       </c>
       <c r="J71" s="35">
         <f t="shared" si="5"/>
-        <v>972.79302368032029</v>
+        <v>975.37403802087556</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -6732,20 +6827,20 @@
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
       <c r="G72" s="36">
-        <f t="shared" si="6"/>
-        <v>4.929308163027474</v>
-      </c>
-      <c r="H72" s="141">
+        <f>(C72*($M$3*$P$5)*($M$2+$M$4))/144</f>
+        <v>6.7717740141857439</v>
+      </c>
+      <c r="H72" s="138">
         <f t="shared" si="7"/>
-        <v>981.34542948302749</v>
+        <v>983.18789533418578</v>
       </c>
       <c r="I72" s="37">
         <f t="shared" si="8"/>
-        <v>1.8763816173270003</v>
+        <v>2.5777313685145593</v>
       </c>
       <c r="J72" s="35">
         <f t="shared" si="5"/>
-        <v>983.22181110035444</v>
+        <v>985.76562670270039</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6764,20 +6859,20 @@
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="36">
-        <f t="shared" si="6"/>
-        <v>4.8499707167939521</v>
-      </c>
-      <c r="H73" s="141">
+        <f t="shared" ref="G73:G79" si="9">(C73*($M$3*$P$5)*($M$2+$M$4))/144</f>
+        <v>6.6627819936044936</v>
+      </c>
+      <c r="H73" s="138">
         <f t="shared" si="7"/>
-        <v>991.90607971679401</v>
+        <v>993.71889099360465</v>
       </c>
       <c r="I73" s="37">
         <f t="shared" si="8"/>
-        <v>1.8461811671309998</v>
+        <v>2.5362426611564097</v>
       </c>
       <c r="J73" s="35">
         <f t="shared" si="5"/>
-        <v>993.75226088392503</v>
+        <v>996.25513365476104</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6796,20 +6891,20 @@
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
       <c r="G74" s="36">
-        <f t="shared" si="6"/>
-        <v>4.7610238378271434</v>
-      </c>
-      <c r="H74" s="141">
+        <f t="shared" si="9"/>
+        <v>6.5405887478772016</v>
+      </c>
+      <c r="H74" s="138">
         <f t="shared" si="7"/>
-        <v>1002.5789524378271</v>
+        <v>1004.3585173478772</v>
       </c>
       <c r="I74" s="37">
         <f t="shared" si="8"/>
-        <v>1.8123228074805</v>
+        <v>2.4897287990765453</v>
       </c>
       <c r="J74" s="35">
         <f t="shared" si="5"/>
-        <v>1004.3912752453076</v>
+        <v>1006.8482461469538</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6828,20 +6923,20 @@
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="36">
-        <f t="shared" si="6"/>
-        <v>4.6586052881509774</v>
-      </c>
-      <c r="H75" s="141">
+        <f t="shared" si="9"/>
+        <v>6.3998884202998552</v>
+      </c>
+      <c r="H75" s="138">
         <f t="shared" si="7"/>
-        <v>1013.363086168151</v>
+        <v>1015.1043693002998</v>
       </c>
       <c r="I75" s="37">
         <f t="shared" si="8"/>
-        <v>1.7733363457845002</v>
+        <v>2.4361700643643958</v>
       </c>
       <c r="J75" s="35">
         <f t="shared" si="5"/>
-        <v>1015.1364225139355</v>
+        <v>1017.5405393646643</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -6860,20 +6955,20 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="36">
-        <f t="shared" si="6"/>
-        <v>4.5356291690085619</v>
-      </c>
-      <c r="H76" s="141">
+        <f t="shared" si="9"/>
+        <v>6.2309465606246519</v>
+      </c>
+      <c r="H76" s="138">
         <f t="shared" si="7"/>
-        <v>1024.2615476690087</v>
+        <v>1025.9568650606248</v>
       </c>
       <c r="I76" s="37">
         <f t="shared" si="8"/>
-        <v>1.7265244765125001</v>
+        <v>2.3718609586222836</v>
       </c>
       <c r="J76" s="35">
         <f t="shared" si="5"/>
-        <v>1025.9880721455211</v>
+        <v>1028.3287260192471</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6892,20 +6987,20 @@
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="36">
-        <f t="shared" si="6"/>
-        <v>4.3764080237600442</v>
-      </c>
-      <c r="H77" s="141">
+        <f t="shared" si="9"/>
+        <v>6.0122120895299105</v>
+      </c>
+      <c r="H77" s="138">
         <f t="shared" si="7"/>
-        <v>1035.2702525237601</v>
+        <v>1036.90605658953</v>
       </c>
       <c r="I77" s="37">
         <f t="shared" si="8"/>
-        <v>1.6659156405150002</v>
+        <v>2.2885978865919405</v>
       </c>
       <c r="J77" s="35">
         <f t="shared" si="5"/>
-        <v>1036.9361681642752</v>
+        <v>1039.194654476122</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6924,20 +7019,20 @@
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="36">
-        <f t="shared" si="6"/>
-        <v>4.1298556767857031</v>
-      </c>
-      <c r="H78" s="141">
+        <f t="shared" si="9"/>
+        <v>5.6735039541976047</v>
+      </c>
+      <c r="H78" s="138">
         <f t="shared" si="7"/>
-        <v>1046.3613206367856</v>
+        <v>1047.9049689141978</v>
       </c>
       <c r="I78" s="37">
         <f t="shared" si="8"/>
-        <v>1.5720634656719998</v>
+        <v>2.1596658543965126</v>
       </c>
       <c r="J78" s="35">
         <f t="shared" si="5"/>
-        <v>1047.9333841024577</v>
+        <v>1050.0646347685943</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6956,20 +7051,20 @@
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
       <c r="G79" s="36">
-        <f t="shared" si="6"/>
-        <v>3.4776375494045699</v>
-      </c>
-      <c r="H79" s="141">
+        <f t="shared" si="9"/>
+        <v>4.7775011845375666</v>
+      </c>
+      <c r="H79" s="138">
         <f t="shared" si="7"/>
-        <v>1054.2779475494046</v>
+        <v>1055.5778111845377</v>
       </c>
       <c r="I79" s="37">
         <f t="shared" si="8"/>
-        <v>1.3237912813755002</v>
+        <v>1.8185950447696315</v>
       </c>
       <c r="J79" s="35">
         <f t="shared" si="5"/>
-        <v>1055.6017388307801</v>
+        <v>1057.3964062293073</v>
       </c>
       <c r="K79" s="48"/>
       <c r="L79" s="22"/>
@@ -9207,14 +9302,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32C0C-ED9A-4805-89D4-96E4CF8ECC22}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U819"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X10" sqref="W1:X10"/>
+      <selection pane="topRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9222,7 +9317,7 @@
     <col min="1" max="1" width="11.42578125" style="24"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="23"/>
-    <col min="5" max="5" width="11.42578125" style="60"/>
+    <col min="5" max="5" width="11.42578125" style="59"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" style="24" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" customWidth="1"/>
@@ -9235,39 +9330,39 @@
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="72" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="71" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="169" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="172" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="85"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="174" t="s">
+      <c r="N1" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="178" t="s">
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="164" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="51"/>
@@ -9279,45 +9374,45 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="126" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="173"/>
-      <c r="J2" s="180" t="s">
+      <c r="I2" s="177"/>
+      <c r="J2" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="181"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="79" t="s">
+      <c r="K2" s="168"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="P2" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="179"/>
-      <c r="S2" s="68"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="67"/>
       <c r="T2" t="s">
         <v>14</v>
       </c>
@@ -9327,48 +9422,48 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="110" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="122" t="s">
+      <c r="F3" s="175"/>
+      <c r="G3" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="K3" s="106" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="119" t="s">
+      <c r="N3" s="180"/>
+      <c r="O3" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="119" t="s">
+      <c r="P3" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="119" t="s">
+      <c r="Q3" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="120" t="s">
+      <c r="R3" s="119" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="51"/>
@@ -9380,62 +9475,62 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="93">
+      <c r="A4" s="92">
         <v>32</v>
       </c>
-      <c r="B4" s="97">
+      <c r="B4" s="96">
         <v>452.82023903999999</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="94">
         <v>1.75999830112</v>
       </c>
-      <c r="D4" s="96">
+      <c r="D4" s="95">
         <v>0.16525852904319999</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="F4" s="86">
+      <c r="F4" s="85">
         <f t="shared" ref="F4:F35" si="0">($C$53-C4)/(D4-C4)</f>
         <v>0.18736491688811011</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G4" s="127">
         <f t="shared" ref="G4:G35" si="1">$U$7/((C4*(1-F4))+(D4*F4))</f>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="74">
         <f>G4*F4</f>
         <v>0.14075320424349502</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="75">
         <f>H4-$G$55</f>
         <v>9.914634262639932E-2</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="74">
         <f>IF(I4&gt;0, ('BPV Calcs'!$B$8/12)+(I4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.7010850340974093</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="86">
         <f>J4*12</f>
         <v>8.4130204091689116</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="113">
+      <c r="N4" s="112">
         <f>($C$47-C4)/(D4-C4)</f>
         <v>0.15895834986355586</v>
       </c>
-      <c r="O4" s="80">
+      <c r="O4" s="79">
         <f t="shared" ref="O4:O47" si="2">$U$7/((C4*(1-N4))+(D4*N4))</f>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P4" s="81">
+      <c r="P4" s="80">
         <f>O4*N4</f>
         <v>0.11582267126091907</v>
       </c>
-      <c r="Q4" s="81">
+      <c r="Q4" s="80">
         <f t="shared" ref="Q4:Q47" si="3">P4-$G$55</f>
         <v>7.4215809643823349E-2</v>
       </c>
-      <c r="R4" s="114">
+      <c r="R4" s="113">
         <f>IF(Q4&gt;0, ('BPV Calcs'!$B$8/12)+(Q4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.59289744056078075</v>
       </c>
@@ -9448,62 +9543,62 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="93">
+      <c r="A5" s="92">
         <v>32.9</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="96">
         <v>458.65366740000002</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="94">
         <v>1.7550485447999999</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="95">
         <v>0.16772615040639999</v>
       </c>
       <c r="E5" s="50"/>
-      <c r="F5" s="86">
+      <c r="F5" s="85">
         <f t="shared" si="0"/>
         <v>0.18512214630827489</v>
       </c>
-      <c r="G5" s="128">
+      <c r="G5" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="74">
         <f t="shared" ref="H5:H53" si="4">G5*F5</f>
         <v>0.13906837897984459</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="75">
         <f t="shared" ref="I5:I53" si="5">H5-$G$55</f>
         <v>9.7461517362748884E-2</v>
       </c>
-      <c r="J5" s="75">
+      <c r="J5" s="74">
         <f>IF(I5&gt;0, ('BPV Calcs'!$B$8/12)+(I5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.69377363040895035</v>
       </c>
-      <c r="K5" s="87">
+      <c r="K5" s="86">
         <f t="shared" ref="K5:K53" si="6">J5*12</f>
         <v>8.3252835649074051</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="113">
+      <c r="N5" s="112">
         <f t="shared" ref="N5:N47" si="7">($C$47-C5)/(D5-C5)</f>
         <v>0.15658283861487579</v>
       </c>
-      <c r="O5" s="80">
+      <c r="O5" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P5" s="81">
+      <c r="P5" s="80">
         <f t="shared" ref="P5:P45" si="8">O5*N5</f>
         <v>0.11409178981512741</v>
       </c>
-      <c r="Q5" s="81">
+      <c r="Q5" s="80">
         <f t="shared" si="3"/>
         <v>7.2484928198031706E-2</v>
       </c>
-      <c r="R5" s="114">
+      <c r="R5" s="113">
         <f>IF(Q5&gt;0, ('BPV Calcs'!$B$8/12)+(Q5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.58538617321450004</v>
       </c>
@@ -9516,62 +9611,62 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="92">
         <v>33.799999999999997</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="96">
         <v>464.54366057999999</v>
       </c>
-      <c r="C6" s="95">
+      <c r="C6" s="94">
         <v>1.7500619224</v>
       </c>
-      <c r="D6" s="96">
+      <c r="D6" s="95">
         <v>0.1702317244288</v>
       </c>
       <c r="E6" s="50"/>
-      <c r="F6" s="86">
+      <c r="F6" s="85">
         <f t="shared" si="0"/>
         <v>0.18284364136366457</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="74">
         <f t="shared" si="4"/>
         <v>0.13735670916905462</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="75">
         <f t="shared" si="5"/>
         <v>9.5749847551958922E-2</v>
       </c>
-      <c r="J6" s="75">
+      <c r="J6" s="74">
         <f>IF(I6&gt;0, ('BPV Calcs'!$B$8/12)+(I6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.68634573314385428</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="86">
         <f t="shared" si="6"/>
         <v>8.2361487977262513</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="113">
+      <c r="N6" s="112">
         <f t="shared" si="7"/>
         <v>0.1541689886823846</v>
       </c>
-      <c r="O6" s="80">
+      <c r="O6" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P6" s="81">
+      <c r="P6" s="80">
         <f t="shared" si="8"/>
         <v>0.112332973449431</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="Q6" s="80">
         <f t="shared" si="3"/>
         <v>7.0726111832335292E-2</v>
       </c>
-      <c r="R6" s="114">
+      <c r="R6" s="113">
         <f>IF(Q6&gt;0, ('BPV Calcs'!$B$8/12)+(Q6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.57775368055136589</v>
       </c>
@@ -9584,62 +9679,62 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="92">
         <v>34.700000000000003</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="96">
         <v>470.48731781999993</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="94">
         <v>1.7450423145599998</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="95">
         <v>0.17277604664159998</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="86">
+      <c r="F7" s="85">
         <f t="shared" si="0"/>
         <v>0.18053067987595114</v>
       </c>
-      <c r="G7" s="128">
+      <c r="G7" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="74">
         <f t="shared" si="4"/>
         <v>0.1356191547426735</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="75">
         <f t="shared" si="5"/>
         <v>9.4012293125577795E-2</v>
       </c>
-      <c r="J7" s="75">
+      <c r="J7" s="74">
         <f>IF(I7&gt;0, ('BPV Calcs'!$B$8/12)+(I7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.67880550798458983</v>
       </c>
-      <c r="K7" s="87">
+      <c r="K7" s="86">
         <f t="shared" si="6"/>
         <v>8.1456660958150771</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="113">
+      <c r="N7" s="112">
         <f t="shared" si="7"/>
         <v>0.15171807787171285</v>
       </c>
-      <c r="O7" s="80">
+      <c r="O7" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P7" s="81">
+      <c r="P7" s="80">
         <f t="shared" si="8"/>
         <v>0.11054715321816959</v>
       </c>
-      <c r="Q7" s="81">
+      <c r="Q7" s="80">
         <f t="shared" si="3"/>
         <v>6.8940291601073872E-2</v>
       </c>
-      <c r="R7" s="114">
+      <c r="R7" s="113">
         <f>IF(Q7&gt;0, ('BPV Calcs'!$B$8/12)+(Q7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.57000400293941</v>
       </c>
@@ -9653,1860 +9748,1860 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="93">
+      <c r="A8" s="92">
         <v>35.6</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="96">
         <v>476.48608949999999</v>
       </c>
-      <c r="C8" s="95">
+      <c r="C8" s="94">
         <v>1.73998778096</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="95">
         <v>0.17536002899519998</v>
       </c>
       <c r="E8" s="50"/>
-      <c r="F8" s="86">
+      <c r="F8" s="85">
         <f t="shared" si="0"/>
         <v>0.17818152870115089</v>
       </c>
-      <c r="G8" s="128">
+      <c r="G8" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="74">
         <f t="shared" si="4"/>
         <v>0.13385441371966245</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="75">
         <f t="shared" si="5"/>
         <v>9.2247552102566743E-2</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="74">
         <f>IF(I8&gt;0, ('BPV Calcs'!$B$8/12)+(I8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.67114730490371821</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="86">
         <f t="shared" si="6"/>
         <v>8.0537676588446185</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="113">
+      <c r="N8" s="112">
         <f t="shared" si="7"/>
         <v>0.14922826351373839</v>
       </c>
-      <c r="O8" s="80">
+      <c r="O8" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P8" s="81">
+      <c r="P8" s="80">
         <f t="shared" si="8"/>
         <v>0.10873298648750131</v>
       </c>
-      <c r="Q8" s="81">
+      <c r="Q8" s="80">
         <f t="shared" si="3"/>
         <v>6.712612487040559E-2</v>
       </c>
-      <c r="R8" s="114">
+      <c r="R8" s="113">
         <f>IF(Q8&gt;0, ('BPV Calcs'!$B$8/12)+(Q8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.56213131393583393</v>
       </c>
       <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="93">
+      <c r="A9" s="92">
         <v>36.5</v>
       </c>
-      <c r="B9" s="97">
+      <c r="B9" s="96">
         <v>482.54142600000006</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="94">
         <v>1.73489638128</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="95">
         <v>0.17798456403679999</v>
       </c>
       <c r="E9" s="50"/>
-      <c r="F9" s="86">
+      <c r="F9" s="85">
         <f t="shared" si="0"/>
         <v>0.17579439116722953</v>
       </c>
-      <c r="G9" s="128">
+      <c r="G9" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="74">
         <f t="shared" si="4"/>
         <v>0.13206113639512471</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="75">
         <f t="shared" si="5"/>
         <v>9.0454274778029004E-2</v>
       </c>
-      <c r="J9" s="75">
+      <c r="J9" s="74">
         <f>IF(I9&gt;0, ('BPV Calcs'!$B$8/12)+(I9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.66336526677316021</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="86">
         <f t="shared" si="6"/>
         <v>7.9603832012779225</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="113">
+      <c r="N9" s="112">
         <f t="shared" si="7"/>
         <v>0.14669763583368992</v>
       </c>
-      <c r="O9" s="80">
+      <c r="O9" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P9" s="81">
+      <c r="P9" s="80">
         <f t="shared" si="8"/>
         <v>0.10688908172803678</v>
       </c>
-      <c r="Q9" s="81">
+      <c r="Q9" s="80">
         <f t="shared" si="3"/>
         <v>6.5282220110941064E-2</v>
       </c>
-      <c r="R9" s="114">
+      <c r="R9" s="113">
         <f>IF(Q9&gt;0, ('BPV Calcs'!$B$8/12)+(Q9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.55412957491257986</v>
       </c>
       <c r="S9" s="50"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
+      <c r="A10" s="92">
         <v>37.4</v>
       </c>
-      <c r="B10" s="97">
+      <c r="B10" s="96">
         <v>488.65187693999997</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="94">
         <v>1.7297661752</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="95">
         <v>0.18065056371679999</v>
       </c>
       <c r="E10" s="50"/>
-      <c r="F10" s="86">
+      <c r="F10" s="85">
         <f t="shared" si="0"/>
         <v>0.17336740843776965</v>
       </c>
-      <c r="G10" s="128">
+      <c r="G10" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="74">
         <f t="shared" si="4"/>
         <v>0.13023792636472664</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="75">
         <f t="shared" si="5"/>
         <v>8.8631064747630939E-2</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="74">
         <f>IF(I10&gt;0, ('BPV Calcs'!$B$8/12)+(I10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.65545333380973458</v>
       </c>
-      <c r="K10" s="87">
+      <c r="K10" s="86">
         <f t="shared" si="6"/>
         <v>7.865440005716815</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="113">
+      <c r="N10" s="112">
         <f t="shared" si="7"/>
         <v>0.14412421839668005</v>
       </c>
-      <c r="O10" s="80">
+      <c r="O10" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P10" s="81">
+      <c r="P10" s="80">
         <f t="shared" si="8"/>
         <v>0.10501399883947034</v>
       </c>
-      <c r="Q10" s="81">
+      <c r="Q10" s="80">
         <f t="shared" si="3"/>
         <v>6.3407137222374621E-2</v>
       </c>
-      <c r="R10" s="114">
+      <c r="R10" s="113">
         <f>IF(Q10&gt;0, ('BPV Calcs'!$B$8/12)+(Q10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.54599253646508672</v>
       </c>
       <c r="S10" s="50"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="93">
+      <c r="A11" s="92">
         <v>38.299999999999997</v>
       </c>
-      <c r="B11" s="97">
+      <c r="B11" s="96">
         <v>494.82034307999999</v>
       </c>
-      <c r="C11" s="95">
+      <c r="C11" s="94">
         <v>1.7246010433599999</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="95">
         <v>0.18335905640479999</v>
       </c>
       <c r="E11" s="50"/>
-      <c r="F11" s="86">
+      <c r="F11" s="85">
         <f t="shared" si="0"/>
         <v>0.17090179823980461</v>
       </c>
-      <c r="G11" s="128">
+      <c r="G11" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="74">
         <f t="shared" si="4"/>
         <v>0.12838569841542352</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="75">
         <f t="shared" si="5"/>
         <v>8.6778836798327819E-2</v>
       </c>
-      <c r="J11" s="75">
+      <c r="J11" s="74">
         <f>IF(I11&gt;0, ('BPV Calcs'!$B$8/12)+(I11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.64741547578814962</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11" s="86">
         <f t="shared" si="6"/>
         <v>7.7689857094577954</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="113">
+      <c r="N11" s="112">
         <f t="shared" si="7"/>
         <v>0.14150921576045203</v>
       </c>
-      <c r="O11" s="80">
+      <c r="O11" s="79">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P11" s="81">
+      <c r="P11" s="80">
         <f t="shared" si="8"/>
         <v>0.10310861550514253</v>
       </c>
-      <c r="Q11" s="81">
+      <c r="Q11" s="80">
         <f t="shared" si="3"/>
         <v>6.1501753888046816E-2</v>
       </c>
-      <c r="R11" s="114">
+      <c r="R11" s="113">
         <f>IF(Q11&gt;0, ('BPV Calcs'!$B$8/12)+(Q11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.53772400735462633</v>
       </c>
       <c r="S11" s="50"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="93">
+      <c r="A12" s="92">
         <v>39.200000000000003</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="96">
         <v>501.04537404000001</v>
       </c>
-      <c r="C12" s="95">
+      <c r="C12" s="94">
         <v>1.7193932244799999</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="95">
         <v>0.18611099285759999</v>
       </c>
       <c r="E12" s="50"/>
-      <c r="F12" s="86">
+      <c r="F12" s="85">
         <f t="shared" si="0"/>
         <v>0.16839248697229939</v>
       </c>
-      <c r="G12" s="128">
+      <c r="G12" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="74">
         <f t="shared" si="4"/>
         <v>0.12650064113142523</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="75">
         <f t="shared" si="5"/>
         <v>8.4893779514329526E-2</v>
       </c>
-      <c r="J12" s="75">
+      <c r="J12" s="74">
         <f>IF(I12&gt;0, ('BPV Calcs'!$B$8/12)+(I12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.63923515283328125</v>
       </c>
-      <c r="K12" s="87">
+      <c r="K12" s="86">
         <f t="shared" si="6"/>
         <v>7.6708218339993746</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="113">
+      <c r="N12" s="112">
         <f t="shared" si="7"/>
         <v>0.13884731825649951</v>
       </c>
-      <c r="O12" s="80">
+      <c r="O12" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P12" s="81">
+      <c r="P12" s="80">
         <f t="shared" si="8"/>
         <v>0.1011690629129371</v>
       </c>
-      <c r="Q12" s="81">
+      <c r="Q12" s="80">
         <f t="shared" si="3"/>
         <v>5.9562201295841395E-2</v>
       </c>
-      <c r="R12" s="114">
+      <c r="R12" s="113">
         <f>IF(Q12&gt;0, ('BPV Calcs'!$B$8/12)+(Q12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.52930719863115905</v>
       </c>
       <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="93">
+      <c r="A13" s="92">
         <v>40.1</v>
       </c>
-      <c r="B13" s="97">
+      <c r="B13" s="96">
         <v>507.32696982000004</v>
       </c>
-      <c r="C13" s="95">
+      <c r="C13" s="94">
         <v>1.71414853952</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="95">
         <v>0.1889074790576</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="86">
+      <c r="F13" s="85">
         <f t="shared" si="0"/>
         <v>0.16584166910419268</v>
       </c>
-      <c r="G13" s="128">
+      <c r="G13" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="74">
         <f t="shared" si="4"/>
         <v>0.12458440305259647</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="75">
         <f t="shared" si="5"/>
         <v>8.2977541435500762E-2</v>
       </c>
-      <c r="J13" s="75">
+      <c r="J13" s="74">
         <f>IF(I13&gt;0, ('BPV Calcs'!$B$8/12)+(I13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.63091951888607967</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="86">
         <f t="shared" si="6"/>
         <v>7.571034226632956</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="113">
+      <c r="N13" s="112">
         <f t="shared" si="7"/>
         <v>0.13614073631623833</v>
       </c>
-      <c r="O13" s="80">
+      <c r="O13" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P13" s="81">
+      <c r="P13" s="80">
         <f t="shared" si="8"/>
         <v>9.9196951661299826E-2</v>
       </c>
-      <c r="Q13" s="81">
+      <c r="Q13" s="80">
         <f t="shared" si="3"/>
         <v>5.7590090044204116E-2</v>
       </c>
-      <c r="R13" s="114">
+      <c r="R13" s="113">
         <f>IF(Q13&gt;0, ('BPV Calcs'!$B$8/12)+(Q13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.52074909958649518</v>
       </c>
       <c r="S13" s="50"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="93">
+      <c r="A14" s="92">
         <v>41</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="96">
         <v>513.66803117999996</v>
       </c>
-      <c r="C14" s="95">
+      <c r="C14" s="94">
         <v>1.7088611675200001</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="95">
         <v>0.19174958218079999</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="86">
+      <c r="F14" s="85">
         <f t="shared" si="0"/>
         <v>0.16324517830239926</v>
       </c>
-      <c r="G14" s="128">
+      <c r="G14" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="74">
         <f t="shared" si="4"/>
         <v>0.12263385432548642</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="75">
         <f t="shared" si="5"/>
         <v>8.1026992708390699E-2</v>
       </c>
-      <c r="J14" s="75">
+      <c r="J14" s="74">
         <f>IF(I14&gt;0, ('BPV Calcs'!$B$8/12)+(I14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.62245499175344854</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="86">
         <f t="shared" si="6"/>
         <v>7.4694599010413825</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="113">
+      <c r="N14" s="112">
         <f t="shared" si="7"/>
         <v>0.1333850924260572</v>
       </c>
-      <c r="O14" s="80">
+      <c r="O14" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P14" s="81">
+      <c r="P14" s="80">
         <f t="shared" si="8"/>
         <v>9.718909213911324E-2</v>
       </c>
-      <c r="Q14" s="81">
+      <c r="Q14" s="80">
         <f t="shared" si="3"/>
         <v>5.558223052201753E-2</v>
       </c>
-      <c r="R14" s="114">
+      <c r="R14" s="113">
         <f>IF(Q14&gt;0, ('BPV Calcs'!$B$8/12)+(Q14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.51203586870543893</v>
       </c>
       <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="93">
+      <c r="A15" s="92">
         <v>41.9</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B15" s="96">
         <v>520.06565735999993</v>
       </c>
-      <c r="C15" s="95">
+      <c r="C15" s="94">
         <v>1.7035330488</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="95">
         <v>0.19463846641919999</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="86">
+      <c r="F15" s="85">
         <f t="shared" si="0"/>
         <v>0.16060302380499611</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="74">
         <f t="shared" si="4"/>
         <v>0.12064900188996915</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="75">
         <f t="shared" si="5"/>
         <v>7.9042140272873429E-2</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="74">
         <f>IF(I15&gt;0, ('BPV Calcs'!$B$8/12)+(I15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.61384160155140144</v>
       </c>
-      <c r="K15" s="87">
+      <c r="K15" s="86">
         <f t="shared" si="6"/>
         <v>7.3660992186168173</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="113">
+      <c r="N15" s="112">
         <f t="shared" si="7"/>
         <v>0.13058032854768797</v>
       </c>
-      <c r="O15" s="80">
+      <c r="O15" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P15" s="81">
+      <c r="P15" s="80">
         <f t="shared" si="8"/>
         <v>9.5145442057644081E-2</v>
       </c>
-      <c r="Q15" s="81">
+      <c r="Q15" s="80">
         <f t="shared" si="3"/>
         <v>5.3538580440548371E-2</v>
       </c>
-      <c r="R15" s="114">
+      <c r="R15" s="113">
         <f>IF(Q15&gt;0, ('BPV Calcs'!$B$8/12)+(Q15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.50316732247341056</v>
       </c>
       <c r="S15" s="50"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="93">
+      <c r="A16" s="92">
         <v>42.8</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B16" s="96">
         <v>526.52129874000002</v>
       </c>
-      <c r="C16" s="95">
+      <c r="C16" s="94">
         <v>1.6981603027200001</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D16" s="95">
         <v>0.19757531536799999</v>
       </c>
       <c r="E16" s="50"/>
-      <c r="F16" s="86">
+      <c r="F16" s="85">
         <f t="shared" si="0"/>
         <v>0.15791193997714462</v>
       </c>
-      <c r="G16" s="128">
+      <c r="G16" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="74">
         <f t="shared" si="4"/>
         <v>0.11862739251960797</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="75">
         <f t="shared" si="5"/>
         <v>7.7020530902512263E-2</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="74">
         <f>IF(I16&gt;0, ('BPV Calcs'!$B$8/12)+(I16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.60506870235172006</v>
       </c>
-      <c r="K16" s="87">
+      <c r="K16" s="86">
         <f t="shared" si="6"/>
         <v>7.2608244282206407</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="113">
+      <c r="N16" s="112">
         <f t="shared" si="7"/>
         <v>0.12772299193084816</v>
       </c>
-      <c r="O16" s="80">
+      <c r="O16" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P16" s="81">
+      <c r="P16" s="80">
         <f t="shared" si="8"/>
         <v>9.3063485621017156E-2</v>
       </c>
-      <c r="Q16" s="81">
+      <c r="Q16" s="80">
         <f t="shared" si="3"/>
         <v>5.1456624003921446E-2</v>
       </c>
-      <c r="R16" s="114">
+      <c r="R16" s="113">
         <f>IF(Q16&gt;0, ('BPV Calcs'!$B$8/12)+(Q16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.49413254343823371</v>
       </c>
       <c r="S16" s="50"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="93">
+      <c r="A17" s="92">
         <v>43.7</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B17" s="96">
         <v>533.03640570000005</v>
       </c>
-      <c r="C17" s="95">
+      <c r="C17" s="94">
         <v>1.69274292928</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="95">
         <v>0.20056135142879999</v>
       </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="86">
+      <c r="F17" s="85">
         <f t="shared" si="0"/>
         <v>0.15517073555268265</v>
       </c>
-      <c r="G17" s="128">
+      <c r="G17" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="74">
         <f t="shared" si="4"/>
         <v>0.11656813130551485</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="75">
         <f t="shared" si="5"/>
         <v>7.4961269688419152E-2</v>
       </c>
-      <c r="J17" s="75">
+      <c r="J17" s="74">
         <f>IF(I17&gt;0, ('BPV Calcs'!$B$8/12)+(I17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.59613241064180122</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="86">
         <f t="shared" si="6"/>
         <v>7.1535889277016143</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="113">
+      <c r="N17" s="112">
         <f t="shared" si="7"/>
         <v>0.1248117746228357</v>
       </c>
-      <c r="O17" s="80">
+      <c r="O17" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P17" s="81">
+      <c r="P17" s="80">
         <f t="shared" si="8"/>
         <v>9.0942269808671011E-2</v>
       </c>
-      <c r="Q17" s="81">
+      <c r="Q17" s="80">
         <f t="shared" si="3"/>
         <v>4.9335408191575301E-2</v>
       </c>
-      <c r="R17" s="114">
+      <c r="R17" s="113">
         <f>IF(Q17&gt;0, ('BPV Calcs'!$B$8/12)+(Q17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.48492739590809608</v>
       </c>
       <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="93">
+      <c r="A18" s="92">
         <v>44.6</v>
       </c>
-      <c r="B18" s="97">
+      <c r="B18" s="96">
         <v>539.61097824000001</v>
       </c>
-      <c r="C18" s="95">
+      <c r="C18" s="94">
         <v>1.6872809284800001</v>
       </c>
-      <c r="D18" s="96">
+      <c r="D18" s="95">
         <v>0.20359789401919998</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="86">
+      <c r="F18" s="85">
         <f t="shared" si="0"/>
         <v>0.15237817442287846</v>
       </c>
-      <c r="G18" s="128">
+      <c r="G18" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="74">
         <f t="shared" si="4"/>
         <v>0.11447028965194368</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="75">
         <f t="shared" si="5"/>
         <v>7.2863428034847966E-2</v>
       </c>
-      <c r="J18" s="75">
+      <c r="J18" s="74">
         <f>IF(I18&gt;0, ('BPV Calcs'!$B$8/12)+(I18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.5870286967228332</v>
       </c>
-      <c r="K18" s="87">
+      <c r="K18" s="86">
         <f t="shared" si="6"/>
         <v>7.0443443606739979</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="113">
+      <c r="N18" s="112">
         <f t="shared" si="7"/>
         <v>0.12184531722222625</v>
       </c>
-      <c r="O18" s="80">
+      <c r="O18" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P18" s="81">
+      <c r="P18" s="80">
         <f t="shared" si="8"/>
         <v>8.8780804112686948E-2</v>
       </c>
-      <c r="Q18" s="81">
+      <c r="Q18" s="80">
         <f t="shared" si="3"/>
         <v>4.7173942495591238E-2</v>
       </c>
-      <c r="R18" s="114">
+      <c r="R18" s="113">
         <f>IF(Q18&gt;0, ('BPV Calcs'!$B$8/12)+(Q18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.47554758151247428</v>
       </c>
       <c r="S18" s="50"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="93">
+      <c r="A19" s="92">
         <v>45.5</v>
       </c>
-      <c r="B19" s="97">
+      <c r="B19" s="96">
         <v>546.24646674000007</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="94">
         <v>1.6817723599999999</v>
       </c>
-      <c r="D19" s="96">
+      <c r="D19" s="95">
         <v>0.20668630136319999</v>
       </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="86">
+      <c r="F19" s="85">
         <f t="shared" si="0"/>
         <v>0.14953184761109797</v>
       </c>
-      <c r="G19" s="128">
+      <c r="G19" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="74">
         <f t="shared" si="4"/>
         <v>0.11233205787549259</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="75">
         <f t="shared" si="5"/>
         <v>7.0725196258396877E-2</v>
       </c>
-      <c r="J19" s="75">
+      <c r="J19" s="74">
         <f>IF(I19&gt;0, ('BPV Calcs'!$B$8/12)+(I19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.57774970736149589</v>
       </c>
-      <c r="K19" s="87">
+      <c r="K19" s="86">
         <f t="shared" si="6"/>
         <v>6.9329964883379507</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="113">
+      <c r="N19" s="112">
         <f t="shared" si="7"/>
         <v>0.11882104131137136</v>
       </c>
-      <c r="O19" s="80">
+      <c r="O19" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P19" s="81">
+      <c r="P19" s="80">
         <f t="shared" si="8"/>
         <v>8.6577209806845648E-2</v>
       </c>
-      <c r="Q19" s="81">
+      <c r="Q19" s="80">
         <f t="shared" si="3"/>
         <v>4.4970348189749938E-2</v>
       </c>
-      <c r="R19" s="114">
+      <c r="R19" s="113">
         <f>IF(Q19&gt;0, ('BPV Calcs'!$B$8/12)+(Q19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.46598494740246116</v>
       </c>
       <c r="S19" s="50"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="93">
+      <c r="A20" s="92">
         <v>46.4</v>
       </c>
-      <c r="B20" s="97">
+      <c r="B20" s="96">
         <v>552.93997044000002</v>
       </c>
-      <c r="C20" s="95">
+      <c r="C20" s="94">
         <v>1.6762152835199999</v>
       </c>
-      <c r="D20" s="96">
+      <c r="D20" s="95">
         <v>0.2098279704912</v>
       </c>
       <c r="E20" s="50"/>
-      <c r="F20" s="86">
+      <c r="F20" s="85">
         <f t="shared" si="0"/>
         <v>0.14662924681830652</v>
       </c>
-      <c r="G20" s="128">
+      <c r="G20" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="74">
         <f t="shared" si="4"/>
         <v>0.11015155167929216</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="75">
         <f t="shared" si="5"/>
         <v>6.8544690062196462E-2</v>
       </c>
-      <c r="J20" s="75">
+      <c r="J20" s="74">
         <f>IF(I20&gt;0, ('BPV Calcs'!$B$8/12)+(I20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.56828726553470044</v>
       </c>
-      <c r="K20" s="87">
+      <c r="K20" s="86">
         <f t="shared" si="6"/>
         <v>6.8194471864164052</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="113">
+      <c r="N20" s="112">
         <f t="shared" si="7"/>
         <v>0.11573626116593252</v>
       </c>
-      <c r="O20" s="80">
+      <c r="O20" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P20" s="81">
+      <c r="P20" s="80">
         <f t="shared" si="8"/>
         <v>8.4329529977481194E-2</v>
       </c>
-      <c r="Q20" s="81">
+      <c r="Q20" s="80">
         <f t="shared" si="3"/>
         <v>4.2722668360385484E-2</v>
       </c>
-      <c r="R20" s="114">
+      <c r="R20" s="113">
         <f>IF(Q20&gt;0, ('BPV Calcs'!$B$8/12)+(Q20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.45623100142987749</v>
       </c>
       <c r="S20" s="50"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="93">
+      <c r="A21" s="92">
         <v>47.3</v>
       </c>
-      <c r="B21" s="97">
+      <c r="B21" s="96">
         <v>559.69439009999996</v>
       </c>
-      <c r="C21" s="95">
+      <c r="C21" s="94">
         <v>1.6706096990399999</v>
       </c>
-      <c r="D21" s="96">
+      <c r="D21" s="95">
         <v>0.21302437604639998</v>
       </c>
       <c r="E21" s="50"/>
-      <c r="F21" s="86">
+      <c r="F21" s="85">
         <f t="shared" si="0"/>
         <v>0.14366890189539364</v>
       </c>
-      <c r="G21" s="128">
+      <c r="G21" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H21" s="75">
+      <c r="H21" s="74">
         <f t="shared" si="4"/>
         <v>0.10792766665061956</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="75">
         <f t="shared" si="5"/>
         <v>6.6320805033523861E-2</v>
       </c>
-      <c r="J21" s="75">
+      <c r="J21" s="74">
         <f>IF(I21&gt;0, ('BPV Calcs'!$B$8/12)+(I21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.55863657857496385</v>
       </c>
-      <c r="K21" s="87">
+      <c r="K21" s="86">
         <f t="shared" si="6"/>
         <v>6.7036389428995662</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="113">
+      <c r="N21" s="112">
         <f t="shared" si="7"/>
         <v>0.11258936129657487</v>
       </c>
-      <c r="O21" s="80">
+      <c r="O21" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P21" s="81">
+      <c r="P21" s="80">
         <f t="shared" si="8"/>
         <v>8.2036587521973195E-2</v>
       </c>
-      <c r="Q21" s="81">
+      <c r="Q21" s="80">
         <f t="shared" si="3"/>
         <v>4.0429725904877485E-2</v>
       </c>
-      <c r="R21" s="114">
+      <c r="R21" s="113">
         <f>IF(Q21&gt;0, ('BPV Calcs'!$B$8/12)+(Q21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.44628063548492347</v>
       </c>
       <c r="S21" s="50"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="93">
+      <c r="A22" s="92">
         <v>48.2</v>
       </c>
-      <c r="B22" s="97">
+      <c r="B22" s="96">
         <v>566.51117609999994</v>
       </c>
-      <c r="C22" s="95">
+      <c r="C22" s="94">
         <v>1.66495172592</v>
       </c>
-      <c r="D22" s="96">
+      <c r="D22" s="95">
         <v>0.21627710909119999</v>
       </c>
       <c r="E22" s="50"/>
-      <c r="F22" s="86">
+      <c r="F22" s="85">
         <f t="shared" si="0"/>
         <v>0.14064697985759764</v>
       </c>
-      <c r="G22" s="128">
+      <c r="G22" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="74">
         <f t="shared" si="4"/>
         <v>0.10565752335560866</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="75">
         <f t="shared" si="5"/>
         <v>6.4050661738512954E-2</v>
       </c>
-      <c r="J22" s="75">
+      <c r="J22" s="74">
         <f>IF(I22&gt;0, ('BPV Calcs'!$B$8/12)+(I22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.54878515100050351</v>
       </c>
-      <c r="K22" s="87">
+      <c r="K22" s="86">
         <f t="shared" si="6"/>
         <v>6.5854218120060422</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="113">
+      <c r="N22" s="112">
         <f t="shared" si="7"/>
         <v>0.10937627096550176</v>
       </c>
-      <c r="O22" s="80">
+      <c r="O22" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P22" s="81">
+      <c r="P22" s="80">
         <f t="shared" si="8"/>
         <v>7.9695416356904122E-2</v>
       </c>
-      <c r="Q22" s="81">
+      <c r="Q22" s="80">
         <f t="shared" si="3"/>
         <v>3.8088554739808413E-2</v>
       </c>
-      <c r="R22" s="114">
+      <c r="R22" s="113">
         <f>IF(Q22&gt;0, ('BPV Calcs'!$B$8/12)+(Q22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.43612097806471545</v>
       </c>
       <c r="S22" s="50"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="93">
+      <c r="A23" s="92">
         <v>49.1</v>
       </c>
-      <c r="B23" s="97">
+      <c r="B23" s="96">
         <v>573.38742767999997</v>
       </c>
-      <c r="C23" s="95">
+      <c r="C23" s="94">
         <v>1.6592413641600001</v>
       </c>
-      <c r="D23" s="96">
+      <c r="D23" s="95">
         <v>0.21958774128479999</v>
       </c>
       <c r="E23" s="50"/>
-      <c r="F23" s="86">
+      <c r="F23" s="85">
         <f t="shared" si="0"/>
         <v>0.13756180288548553</v>
       </c>
-      <c r="G23" s="128">
+      <c r="G23" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="74">
         <f t="shared" si="4"/>
         <v>0.10333986137440462</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="75">
         <f t="shared" si="5"/>
         <v>6.1732999757308914E-2</v>
       </c>
-      <c r="J23" s="75">
+      <c r="J23" s="74">
         <f>IF(I23&gt;0, ('BPV Calcs'!$B$8/12)+(I23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.53872751314121492</v>
       </c>
-      <c r="K23" s="87">
+      <c r="K23" s="86">
         <f t="shared" si="6"/>
         <v>6.4647301576945786</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="113">
+      <c r="N23" s="112">
         <f t="shared" si="7"/>
         <v>0.10609514903040819</v>
       </c>
-      <c r="O23" s="80">
+      <c r="O23" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P23" s="81">
+      <c r="P23" s="80">
         <f t="shared" si="8"/>
         <v>7.730467496092501E-2</v>
       </c>
-      <c r="Q23" s="81">
+      <c r="Q23" s="80">
         <f t="shared" si="3"/>
         <v>3.56978133438293E-2</v>
       </c>
-      <c r="R23" s="114">
+      <c r="R23" s="113">
         <f>IF(Q23&gt;0, ('BPV Calcs'!$B$8/12)+(Q23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.42574620755418724</v>
       </c>
       <c r="S23" s="50"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="93">
+      <c r="A24" s="92">
         <v>50</v>
       </c>
-      <c r="B24" s="97">
+      <c r="B24" s="96">
         <v>580.32604560000004</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="94">
         <v>1.6534766734399999</v>
       </c>
-      <c r="D24" s="96">
+      <c r="D24" s="95">
         <v>0.22295801891519998</v>
       </c>
       <c r="E24" s="50"/>
-      <c r="F24" s="86">
+      <c r="F24" s="85">
         <f t="shared" si="0"/>
         <v>0.13441045075864813</v>
       </c>
-      <c r="G24" s="128">
+      <c r="G24" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H24" s="75">
+      <c r="H24" s="74">
         <f t="shared" si="4"/>
         <v>0.10097248696451551</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="75">
         <f t="shared" si="5"/>
         <v>5.93656253474198E-2</v>
       </c>
-      <c r="J24" s="75">
+      <c r="J24" s="74">
         <f>IF(I24&gt;0, ('BPV Calcs'!$B$8/12)+(I24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.52845414511554523</v>
       </c>
-      <c r="K24" s="87">
+      <c r="K24" s="86">
         <f t="shared" si="6"/>
         <v>6.3414497413865423</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="113">
+      <c r="N24" s="112">
         <f t="shared" si="7"/>
         <v>0.10274285797407841</v>
       </c>
-      <c r="O24" s="80">
+      <c r="O24" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P24" s="81">
+      <c r="P24" s="80">
         <f t="shared" si="8"/>
         <v>7.4862077228113361E-2</v>
       </c>
-      <c r="Q24" s="81">
+      <c r="Q24" s="80">
         <f t="shared" si="3"/>
         <v>3.3255215611017651E-2</v>
       </c>
-      <c r="R24" s="114">
+      <c r="R24" s="113">
         <f>IF(Q24&gt;0, ('BPV Calcs'!$B$8/12)+(Q24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.41514640325495267</v>
       </c>
       <c r="S24" s="50"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="93">
+      <c r="A25" s="92">
         <v>50.9</v>
       </c>
-      <c r="B25" s="97">
+      <c r="B25" s="96">
         <v>587.32702986000004</v>
       </c>
-      <c r="C25" s="95">
+      <c r="C25" s="94">
         <v>1.6476576537600001</v>
       </c>
-      <c r="D25" s="96">
+      <c r="D25" s="95">
         <v>0.22638970767359998</v>
       </c>
       <c r="E25" s="50"/>
-      <c r="F25" s="86">
+      <c r="F25" s="85">
         <f t="shared" si="0"/>
         <v>0.13119105233236464</v>
       </c>
-      <c r="G25" s="128">
+      <c r="G25" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H25" s="75">
+      <c r="H25" s="74">
         <f t="shared" si="4"/>
         <v>9.8553994475302747E-2</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="75">
         <f t="shared" si="5"/>
         <v>5.6947132858207038E-2</v>
       </c>
-      <c r="J25" s="75">
+      <c r="J25" s="74">
         <f>IF(I25&gt;0, ('BPV Calcs'!$B$8/12)+(I25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.51795894701540002</v>
       </c>
-      <c r="K25" s="87">
+      <c r="K25" s="86">
         <f t="shared" si="6"/>
         <v>6.2155073641848002</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="113">
+      <c r="N25" s="112">
         <f t="shared" si="7"/>
         <v>9.9317342419351473E-2</v>
       </c>
-      <c r="O25" s="80">
+      <c r="O25" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P25" s="81">
+      <c r="P25" s="80">
         <f t="shared" si="8"/>
         <v>7.2366125538033149E-2</v>
       </c>
-      <c r="Q25" s="81">
+      <c r="Q25" s="80">
         <f t="shared" si="3"/>
         <v>3.0759263920937439E-2</v>
       </c>
-      <c r="R25" s="114">
+      <c r="R25" s="113">
         <f>IF(Q25&gt;0, ('BPV Calcs'!$B$8/12)+(Q25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.40431506615027929</v>
       </c>
       <c r="S25" s="50"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="93">
+      <c r="A26" s="92">
         <v>51.8</v>
       </c>
-      <c r="B26" s="97">
+      <c r="B26" s="96">
         <v>594.39038045999996</v>
       </c>
-      <c r="C26" s="95">
+      <c r="C26" s="94">
         <v>1.6417804244800001</v>
       </c>
-      <c r="D26" s="96">
+      <c r="D26" s="95">
         <v>0.22988470907359998</v>
       </c>
       <c r="E26" s="50"/>
-      <c r="F26" s="86">
+      <c r="F26" s="85">
         <f t="shared" si="0"/>
         <v>0.12789925363670013</v>
       </c>
-      <c r="G26" s="128">
+      <c r="G26" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="74">
         <f t="shared" si="4"/>
         <v>9.6081113095828549E-2</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="75">
         <f t="shared" si="5"/>
         <v>5.4474251478732839E-2</v>
       </c>
-      <c r="J26" s="75">
+      <c r="J26" s="74">
         <f>IF(I26&gt;0, ('BPV Calcs'!$B$8/12)+(I26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.50722772495392887</v>
       </c>
-      <c r="K26" s="87">
+      <c r="K26" s="86">
         <f t="shared" si="6"/>
         <v>6.0867326994471469</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="113">
+      <c r="N26" s="112">
         <f t="shared" si="7"/>
         <v>9.5813964526532028E-2</v>
       </c>
-      <c r="O26" s="80">
+      <c r="O26" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P26" s="81">
+      <c r="P26" s="80">
         <f t="shared" si="8"/>
         <v>6.9813440596782211E-2</v>
       </c>
-      <c r="Q26" s="81">
+      <c r="Q26" s="80">
         <f t="shared" si="3"/>
         <v>2.8206578979686502E-2</v>
       </c>
-      <c r="R26" s="114">
+      <c r="R26" s="113">
         <f>IF(Q26&gt;0, ('BPV Calcs'!$B$8/12)+(Q26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.39323753158476704</v>
       </c>
       <c r="S26" s="50"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="93">
+      <c r="A27" s="92">
         <v>52.7</v>
       </c>
-      <c r="B27" s="97">
+      <c r="B27" s="96">
         <v>601.51754778000009</v>
       </c>
-      <c r="C27" s="95">
+      <c r="C27" s="94">
         <v>1.6358430452799999</v>
       </c>
-      <c r="D27" s="96">
+      <c r="D27" s="95">
         <v>0.23344498283839998</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="86">
+      <c r="F27" s="85">
         <f t="shared" si="0"/>
         <v>0.12453171014032675</v>
       </c>
-      <c r="G27" s="128">
+      <c r="G27" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="74">
         <f t="shared" si="4"/>
         <v>9.3551330330643362E-2</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="75">
         <f t="shared" si="5"/>
         <v>5.1944468713547652E-2</v>
       </c>
-      <c r="J27" s="75">
+      <c r="J27" s="74">
         <f>IF(I27&gt;0, ('BPV Calcs'!$B$8/12)+(I27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.49624957580135731</v>
       </c>
-      <c r="K27" s="87">
+      <c r="K27" s="86">
         <f t="shared" si="6"/>
         <v>5.9549949096162873</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="113">
+      <c r="N27" s="112">
         <f t="shared" si="7"/>
         <v>9.2229125421012484E-2</v>
       </c>
-      <c r="O27" s="80">
+      <c r="O27" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P27" s="81">
+      <c r="P27" s="80">
         <f t="shared" si="8"/>
         <v>6.7201400137138059E-2</v>
       </c>
-      <c r="Q27" s="81">
+      <c r="Q27" s="80">
         <f t="shared" si="3"/>
         <v>2.5594538520042349E-2</v>
       </c>
-      <c r="R27" s="114">
+      <c r="R27" s="113">
         <f>IF(Q27&gt;0, ('BPV Calcs'!$B$8/12)+(Q27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.38190242006722691</v>
       </c>
       <c r="S27" s="50"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="93">
+      <c r="A28" s="92">
         <v>53.6</v>
       </c>
-      <c r="B28" s="97">
+      <c r="B28" s="96">
         <v>608.70708144000002</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="94">
         <v>1.6298455161600001</v>
       </c>
-      <c r="D28" s="96">
+      <c r="D28" s="95">
         <v>0.23707262451360001</v>
       </c>
       <c r="E28" s="50"/>
-      <c r="F28" s="86">
+      <c r="F28" s="85">
         <f t="shared" si="0"/>
         <v>0.12108614470086151</v>
       </c>
-      <c r="G28" s="128">
+      <c r="G28" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H28" s="75">
+      <c r="H28" s="74">
         <f t="shared" si="4"/>
         <v>9.0962935533526718E-2</v>
       </c>
-      <c r="I28" s="76">
+      <c r="I28" s="75">
         <f t="shared" si="5"/>
         <v>4.9356073916431008E-2</v>
       </c>
-      <c r="J28" s="75">
+      <c r="J28" s="74">
         <f>IF(I28&gt;0, ('BPV Calcs'!$B$8/12)+(I28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.48501707610235389</v>
       </c>
-      <c r="K28" s="87">
+      <c r="K28" s="86">
         <f t="shared" si="6"/>
         <v>5.8202049132282472</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="113">
+      <c r="N28" s="112">
         <f t="shared" si="7"/>
         <v>8.8560323374262145E-2</v>
       </c>
-      <c r="O28" s="80">
+      <c r="O28" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P28" s="81">
+      <c r="P28" s="80">
         <f t="shared" si="8"/>
         <v>6.4528181311282753E-2</v>
       </c>
-      <c r="Q28" s="81">
+      <c r="Q28" s="80">
         <f t="shared" si="3"/>
         <v>2.2921319694187044E-2</v>
       </c>
-      <c r="R28" s="114">
+      <c r="R28" s="113">
         <f>IF(Q28&gt;0, ('BPV Calcs'!$B$8/12)+(Q28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.37030182123653899</v>
       </c>
       <c r="S28" s="50"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="93">
+      <c r="A29" s="92">
         <v>54.5</v>
       </c>
-      <c r="B29" s="97">
+      <c r="B29" s="96">
         <v>615.96188219999999</v>
       </c>
-      <c r="C29" s="95">
+      <c r="C29" s="94">
         <v>1.6237820161600001</v>
       </c>
-      <c r="D29" s="96">
+      <c r="D29" s="95">
         <v>0.2407698072576</v>
       </c>
       <c r="E29" s="50"/>
-      <c r="F29" s="86">
+      <c r="F29" s="85">
         <f t="shared" si="0"/>
         <v>0.11755644588442445</v>
       </c>
-      <c r="G29" s="128">
+      <c r="G29" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H29" s="75">
+      <c r="H29" s="74">
         <f t="shared" si="4"/>
         <v>8.8311337642739754E-2</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="75">
         <f t="shared" si="5"/>
         <v>4.6704476025644044E-2</v>
       </c>
-      <c r="J29" s="75">
+      <c r="J29" s="74">
         <f>IF(I29&gt;0, ('BPV Calcs'!$B$8/12)+(I29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.47351030265986327</v>
       </c>
-      <c r="K29" s="87">
+      <c r="K29" s="86">
         <f t="shared" si="6"/>
         <v>5.6821236319183592</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="113">
+      <c r="N29" s="112">
         <f t="shared" si="7"/>
         <v>8.4801071831599392E-2</v>
       </c>
-      <c r="O29" s="80">
+      <c r="O29" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P29" s="81">
+      <c r="P29" s="80">
         <f t="shared" si="8"/>
         <v>6.1789057786241962E-2</v>
       </c>
-      <c r="Q29" s="81">
+      <c r="Q29" s="80">
         <f t="shared" si="3"/>
         <v>2.0182196169146252E-2</v>
       </c>
-      <c r="R29" s="114">
+      <c r="R29" s="113">
         <f>IF(Q29&gt;0, ('BPV Calcs'!$B$8/12)+(Q29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.35841522487773503</v>
       </c>
       <c r="S29" s="50"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="93">
+      <c r="A30" s="92">
         <v>55.4</v>
       </c>
-      <c r="B30" s="97">
+      <c r="B30" s="96">
         <v>623.28049967999993</v>
       </c>
-      <c r="C30" s="95">
+      <c r="C30" s="94">
         <v>1.6176544856000001</v>
       </c>
-      <c r="D30" s="96">
+      <c r="D30" s="95">
         <v>0.24453885945439999</v>
       </c>
       <c r="E30" s="50"/>
-      <c r="F30" s="86">
+      <c r="F30" s="85">
         <f t="shared" si="0"/>
         <v>0.11394121977368245</v>
       </c>
-      <c r="G30" s="128">
+      <c r="G30" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="74">
         <f t="shared" si="4"/>
         <v>8.5595489512774417E-2</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="75">
         <f t="shared" si="5"/>
         <v>4.3988627895678707E-2</v>
       </c>
-      <c r="J30" s="75">
+      <c r="J30" s="74">
         <f>IF(I30&gt;0, ('BPV Calcs'!$B$8/12)+(I30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.46172471132103166</v>
       </c>
-      <c r="K30" s="87">
+      <c r="K30" s="86">
         <f t="shared" si="6"/>
         <v>5.5406965358523799</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="113">
+      <c r="N30" s="112">
         <f t="shared" si="7"/>
         <v>8.0949764895709625E-2</v>
       </c>
-      <c r="O30" s="80">
+      <c r="O30" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P30" s="81">
+      <c r="P30" s="80">
         <f t="shared" si="8"/>
         <v>5.8982859448480231E-2</v>
       </c>
-      <c r="Q30" s="81">
+      <c r="Q30" s="80">
         <f t="shared" si="3"/>
         <v>1.7375997831384521E-2</v>
       </c>
-      <c r="R30" s="114">
+      <c r="R30" s="113">
         <f>IF(Q30&gt;0, ('BPV Calcs'!$B$8/12)+(Q30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.34623755321058242</v>
       </c>
       <c r="S30" s="50"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="93">
+      <c r="A31" s="92">
         <v>56.3</v>
       </c>
-      <c r="B31" s="97">
+      <c r="B31" s="96">
         <v>630.66438426000002</v>
       </c>
-      <c r="C31" s="95">
+      <c r="C31" s="94">
         <v>1.6114590438399998</v>
       </c>
-      <c r="D31" s="96">
+      <c r="D31" s="95">
         <v>0.24838222590720002</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="86">
+      <c r="F31" s="85">
         <f t="shared" si="0"/>
         <v>0.11023518674553594</v>
       </c>
-      <c r="G31" s="128">
+      <c r="G31" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H31" s="75">
+      <c r="H31" s="74">
         <f t="shared" si="4"/>
         <v>8.2811424958921173E-2</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="75">
         <f t="shared" si="5"/>
         <v>4.1204563341825463E-2</v>
       </c>
-      <c r="J31" s="75">
+      <c r="J31" s="74">
         <f>IF(I31&gt;0, ('BPV Calcs'!$B$8/12)+(I31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.44964309058141411</v>
       </c>
-      <c r="K31" s="87">
+      <c r="K31" s="86">
         <f t="shared" si="6"/>
         <v>5.3957170869769691</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="113">
+      <c r="N31" s="112">
         <f t="shared" si="7"/>
         <v>7.7000755915053343E-2</v>
       </c>
-      <c r="O31" s="80">
+      <c r="O31" s="79">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P31" s="81">
+      <c r="P31" s="80">
         <f t="shared" si="8"/>
         <v>5.6105471948134568E-2</v>
       </c>
-      <c r="Q31" s="81">
+      <c r="Q31" s="80">
         <f t="shared" si="3"/>
         <v>1.4498610331038858E-2</v>
       </c>
-      <c r="R31" s="114">
+      <c r="R31" s="113">
         <f>IF(Q31&gt;0, ('BPV Calcs'!$B$8/12)+(Q31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.33375095175876668</v>
       </c>
       <c r="S31" s="50"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="93">
+      <c r="A32" s="92">
         <v>57.2</v>
       </c>
-      <c r="B32" s="97">
+      <c r="B32" s="96">
         <v>638.11353594000002</v>
       </c>
-      <c r="C32" s="95">
+      <c r="C32" s="94">
         <v>1.60519375056</v>
       </c>
-      <c r="D32" s="96">
+      <c r="D32" s="95">
         <v>0.25230250664479997</v>
       </c>
       <c r="E32" s="50"/>
-      <c r="F32" s="86">
+      <c r="F32" s="85">
         <f t="shared" si="0"/>
         <v>0.10643407956180023</v>
       </c>
-      <c r="G32" s="128">
+      <c r="G32" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H32" s="75">
+      <c r="H32" s="74">
         <f t="shared" si="4"/>
         <v>7.9955938325298792E-2</v>
       </c>
-      <c r="I32" s="76">
+      <c r="I32" s="75">
         <f t="shared" si="5"/>
         <v>3.8349076708203082E-2</v>
       </c>
-      <c r="J32" s="75">
+      <c r="J32" s="74">
         <f>IF(I32&gt;0, ('BPV Calcs'!$B$8/12)+(I32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.4372515292985677</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K32" s="86">
         <f t="shared" si="6"/>
         <v>5.2470183515828124</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="113">
+      <c r="N32" s="112">
         <f t="shared" si="7"/>
         <v>7.2949435155999456E-2</v>
       </c>
-      <c r="O32" s="80">
+      <c r="O32" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P32" s="81">
+      <c r="P32" s="80">
         <f t="shared" si="8"/>
         <v>5.3153536470374449E-2</v>
       </c>
-      <c r="Q32" s="81">
+      <c r="Q32" s="80">
         <f t="shared" si="3"/>
         <v>1.1546674853278739E-2</v>
       </c>
-      <c r="R32" s="114">
+      <c r="R32" s="113">
         <f>IF(Q32&gt;0, ('BPV Calcs'!$B$8/12)+(Q32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.32094084473708895</v>
       </c>
       <c r="S32" s="50"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="93">
+      <c r="A33" s="92">
         <v>58.1</v>
       </c>
-      <c r="B33" s="97">
+      <c r="B33" s="96">
         <v>645.62795472000005</v>
       </c>
-      <c r="C33" s="95">
+      <c r="C33" s="94">
         <v>1.5988547251199998</v>
       </c>
-      <c r="D33" s="96">
+      <c r="D33" s="95">
         <v>0.25630243751839998</v>
       </c>
       <c r="E33" s="50"/>
-      <c r="F33" s="86">
+      <c r="F33" s="85">
         <f t="shared" si="0"/>
         <v>0.10253210256655709</v>
       </c>
-      <c r="G33" s="128">
+      <c r="G33" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H33" s="75">
+      <c r="H33" s="74">
         <f t="shared" si="4"/>
         <v>7.7024675770458517E-2</v>
       </c>
-      <c r="I33" s="76">
+      <c r="I33" s="75">
         <f t="shared" si="5"/>
         <v>3.5417814153362807E-2</v>
       </c>
-      <c r="J33" s="75">
+      <c r="J33" s="74">
         <f>IF(I33&gt;0, ('BPV Calcs'!$B$8/12)+(I33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.42453113370759338</v>
       </c>
-      <c r="K33" s="87">
+      <c r="K33" s="86">
         <f t="shared" si="6"/>
         <v>5.0943736044911203</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
-      <c r="N33" s="113">
+      <c r="N33" s="112">
         <f t="shared" si="7"/>
         <v>6.8789593883226779E-2</v>
       </c>
-      <c r="O33" s="80">
+      <c r="O33" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P33" s="81">
+      <c r="P33" s="80">
         <f t="shared" si="8"/>
         <v>5.0122529111229636E-2</v>
       </c>
-      <c r="Q33" s="81">
+      <c r="Q33" s="80">
         <f t="shared" si="3"/>
         <v>8.5156674941339258E-3</v>
       </c>
-      <c r="R33" s="114">
+      <c r="R33" s="113">
         <f>IF(Q33&gt;0, ('BPV Calcs'!$B$8/12)+(Q33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.30778760038379444</v>
       </c>
       <c r="S33" s="50"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="93">
+      <c r="A34" s="92">
         <v>59</v>
       </c>
-      <c r="B34" s="97">
+      <c r="B34" s="96">
         <v>653.21054135999998</v>
       </c>
-      <c r="C34" s="95">
+      <c r="C34" s="94">
         <v>1.5924400272000001</v>
       </c>
-      <c r="D34" s="96">
+      <c r="D34" s="95">
         <v>0.26038490960479999</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="86">
+      <c r="F34" s="85">
         <f t="shared" si="0"/>
         <v>9.8524459836365458E-2</v>
       </c>
-      <c r="G34" s="128">
+      <c r="G34" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H34" s="75">
+      <c r="H34" s="74">
         <f t="shared" si="4"/>
         <v>7.4014034476952761E-2</v>
       </c>
-      <c r="I34" s="76">
+      <c r="I34" s="75">
         <f t="shared" si="5"/>
         <v>3.2407172859857052E-2</v>
       </c>
-      <c r="J34" s="75">
+      <c r="J34" s="74">
         <f>IF(I34&gt;0, ('BPV Calcs'!$B$8/12)+(I34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.41146626915880763</v>
       </c>
-      <c r="K34" s="87">
+      <c r="K34" s="86">
         <f t="shared" si="6"/>
         <v>4.9375952299056918</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="113">
+      <c r="N34" s="112">
         <f t="shared" si="7"/>
         <v>6.4516045601971481E-2</v>
       </c>
-      <c r="O34" s="80">
+      <c r="O34" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P34" s="81">
+      <c r="P34" s="80">
         <f t="shared" si="8"/>
         <v>4.7008670807325716E-2</v>
       </c>
-      <c r="Q34" s="81">
+      <c r="Q34" s="80">
         <f t="shared" si="3"/>
         <v>5.4018091902300058E-3</v>
       </c>
-      <c r="R34" s="114">
+      <c r="R34" s="113">
         <f>IF(Q34&gt;0, ('BPV Calcs'!$B$8/12)+(Q34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.29427481921907328</v>
       </c>
       <c r="S34" s="50"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="93">
+      <c r="A35" s="92">
         <v>59.9</v>
       </c>
-      <c r="B35" s="97">
+      <c r="B35" s="96">
         <v>660.85839510000005</v>
       </c>
-      <c r="C35" s="95">
+      <c r="C35" s="94">
         <v>1.58594577616</v>
       </c>
-      <c r="D35" s="96">
+      <c r="D35" s="95">
         <v>0.26455302741599995</v>
       </c>
       <c r="E35" s="50"/>
-      <c r="F35" s="86">
+      <c r="F35" s="85">
         <f t="shared" si="0"/>
         <v>9.4404755900095283E-2</v>
       </c>
-      <c r="G35" s="128">
+      <c r="G35" s="127">
         <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H35" s="75">
+      <c r="H35" s="74">
         <f t="shared" si="4"/>
         <v>7.0919210007167707E-2</v>
       </c>
-      <c r="I35" s="76">
+      <c r="I35" s="75">
         <f t="shared" si="5"/>
         <v>2.9312348390071997E-2</v>
       </c>
-      <c r="J35" s="75">
+      <c r="J35" s="74">
         <f>IF(I35&gt;0, ('BPV Calcs'!$B$8/12)+(I35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.39803608649731681</v>
       </c>
-      <c r="K35" s="87">
+      <c r="K35" s="86">
         <f t="shared" si="6"/>
         <v>4.7764330379678022</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="113">
+      <c r="N35" s="112">
         <f t="shared" si="7"/>
         <v>6.0121926464803473E-2</v>
       </c>
-      <c r="O35" s="80">
+      <c r="O35" s="79">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P35" s="81">
+      <c r="P35" s="80">
         <f t="shared" si="8"/>
         <v>4.3806960316858386E-2</v>
       </c>
-      <c r="Q35" s="81">
+      <c r="Q35" s="80">
         <f t="shared" si="3"/>
         <v>2.2000986997626759E-3</v>
       </c>
-      <c r="R35" s="114">
+      <c r="R35" s="113">
         <f>IF(Q35&gt;0, ('BPV Calcs'!$B$8/12)+(Q35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>0.28038079804404548</v>
       </c>
       <c r="S35" s="50"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="93">
+      <c r="A36" s="92">
         <v>60.8</v>
       </c>
-      <c r="B36" s="97">
+      <c r="B36" s="96">
         <v>668.57586708000008</v>
       </c>
-      <c r="C36" s="95">
+      <c r="C36" s="94">
         <v>1.5793700316800001</v>
       </c>
-      <c r="D36" s="96">
+      <c r="D36" s="95">
         <v>0.2688100700928</v>
       </c>
       <c r="E36" s="50"/>
-      <c r="F36" s="86">
+      <c r="F36" s="85">
         <f t="shared" ref="F36:F53" si="9">($C$53-C36)/(D36-C36)</f>
         <v>9.0167576361954008E-2</v>
       </c>
-      <c r="G36" s="128">
+      <c r="G36" s="127">
         <f t="shared" ref="G36:G53" si="10">$U$7/((C36*(1-F36))+(D36*F36))</f>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H36" s="75">
+      <c r="H36" s="74">
         <f t="shared" si="4"/>
         <v>6.7736134931781461E-2</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="75">
         <f t="shared" si="5"/>
         <v>2.6129273314685751E-2</v>
       </c>
-      <c r="J36" s="75">
+      <c r="J36" s="74">
         <f>IF(I36&gt;0, ('BPV Calcs'!$B$8/12)+(I36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.38422293486140346</v>
       </c>
-      <c r="K36" s="87">
+      <c r="K36" s="86">
         <f t="shared" si="6"/>
         <v>4.6106752183368416</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="113">
+      <c r="N36" s="112">
         <f t="shared" si="7"/>
         <v>5.5601372945089003E-2</v>
       </c>
-      <c r="O36" s="80">
+      <c r="O36" s="79">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P36" s="81">
+      <c r="P36" s="80">
         <f t="shared" si="8"/>
         <v>4.0513125267106653E-2</v>
       </c>
-      <c r="Q36" s="81">
+      <c r="Q36" s="80">
         <f t="shared" si="3"/>
         <v>-1.0937363499890565E-3</v>
       </c>
-      <c r="R36" s="114" t="str">
+      <c r="R36" s="113" t="str">
         <f>IF(Q36&gt;0, ('BPV Calcs'!$B$8/12)+(Q36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
       <c r="S36" s="50"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="93">
+      <c r="A37" s="92">
         <v>61.7</v>
       </c>
-      <c r="B37" s="97">
+      <c r="B37" s="96">
         <v>676.36005653999996</v>
       </c>
-      <c r="C37" s="95">
+      <c r="C37" s="94">
         <v>1.5727089131200001</v>
       </c>
-      <c r="D37" s="96">
+      <c r="D37" s="95">
         <v>0.27315953021120004</v>
       </c>
       <c r="E37" s="50"/>
-      <c r="F37" s="86">
+      <c r="F37" s="85">
         <f t="shared" si="9"/>
         <v>8.5805817247007074E-2</v>
       </c>
-      <c r="G37" s="128">
+      <c r="G37" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H37" s="75">
+      <c r="H37" s="74">
         <f t="shared" si="4"/>
         <v>6.4459472567430315E-2</v>
       </c>
-      <c r="I37" s="76">
+      <c r="I37" s="75">
         <f t="shared" si="5"/>
         <v>2.2852610950334605E-2</v>
       </c>
-      <c r="J37" s="75">
+      <c r="J37" s="74">
         <f>IF(I37&gt;0, ('BPV Calcs'!$B$8/12)+(I37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.37000365538274377</v>
       </c>
-      <c r="K37" s="87">
+      <c r="K37" s="86">
         <f t="shared" si="6"/>
         <v>4.4400438645929254</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="113">
+      <c r="N37" s="112">
         <f t="shared" si="7"/>
         <v>5.0946747774153422E-2</v>
       </c>
-      <c r="O37" s="80">
+      <c r="O37" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P37" s="81">
+      <c r="P37" s="80">
         <f t="shared" si="8"/>
         <v>3.7121600874214893E-2</v>
       </c>
-      <c r="Q37" s="81">
+      <c r="Q37" s="80">
         <f t="shared" si="3"/>
         <v>-4.4852607428808172E-3</v>
       </c>
-      <c r="R37" s="114" t="str">
+      <c r="R37" s="113" t="str">
         <f>IF(Q37&gt;0, ('BPV Calcs'!$B$8/12)+(Q37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
@@ -11515,62 +11610,62 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="93">
+      <c r="A38" s="92">
         <v>62.6</v>
       </c>
-      <c r="B38" s="97">
+      <c r="B38" s="96">
         <v>684.21241385999997</v>
       </c>
-      <c r="C38" s="95">
+      <c r="C38" s="94">
         <v>1.56595853984</v>
       </c>
-      <c r="D38" s="96">
+      <c r="D38" s="95">
         <v>0.27760515258880003</v>
       </c>
       <c r="E38" s="50"/>
-      <c r="F38" s="86">
+      <c r="F38" s="85">
         <f t="shared" si="9"/>
         <v>8.1311947956176495E-2</v>
       </c>
-      <c r="G38" s="128">
+      <c r="G38" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H38" s="75">
+      <c r="H38" s="74">
         <f t="shared" si="4"/>
         <v>6.1083565740040757E-2</v>
       </c>
-      <c r="I38" s="76">
+      <c r="I38" s="75">
         <f t="shared" si="5"/>
         <v>1.9476704122945047E-2</v>
       </c>
-      <c r="J38" s="75">
+      <c r="J38" s="74">
         <f>IF(I38&gt;0, ('BPV Calcs'!$B$8/12)+(I38/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.35535369840370878</v>
       </c>
-      <c r="K38" s="87">
+      <c r="K38" s="86">
         <f t="shared" si="6"/>
         <v>4.2642443808445059</v>
       </c>
       <c r="L38" s="50"/>
       <c r="M38" s="50"/>
-      <c r="N38" s="113">
+      <c r="N38" s="112">
         <f t="shared" si="7"/>
         <v>4.6149947630415508E-2</v>
       </c>
-      <c r="O38" s="80">
+      <c r="O38" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P38" s="81">
+      <c r="P38" s="80">
         <f t="shared" si="8"/>
         <v>3.3626482771709584E-2</v>
       </c>
-      <c r="Q38" s="81">
+      <c r="Q38" s="80">
         <f t="shared" si="3"/>
         <v>-7.9803788453861255E-3</v>
       </c>
-      <c r="R38" s="114">
+      <c r="R38" s="113">
         <v>0.24521116920246497</v>
       </c>
       <c r="S38" s="50">
@@ -11579,62 +11674,62 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="93">
+      <c r="A39" s="92">
         <v>63.5</v>
       </c>
-      <c r="B39" s="97">
+      <c r="B39" s="96">
         <v>692.13438942000005</v>
       </c>
-      <c r="C39" s="95">
+      <c r="C39" s="94">
         <v>1.5591150311999999</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="95">
         <v>0.28215091488159999</v>
       </c>
       <c r="E39" s="50"/>
-      <c r="F39" s="86">
+      <c r="F39" s="85">
         <f t="shared" si="9"/>
         <v>7.6677969006389013E-2</v>
       </c>
-      <c r="G39" s="128">
+      <c r="G39" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H39" s="75">
+      <c r="H39" s="74">
         <f t="shared" si="4"/>
         <v>5.7602405038173606E-2</v>
       </c>
-      <c r="I39" s="76">
+      <c r="I39" s="75">
         <f t="shared" si="5"/>
         <v>1.5995543421077896E-2</v>
       </c>
-      <c r="J39" s="75">
+      <c r="J39" s="74">
         <f>IF(I39&gt;0, ('BPV Calcs'!$B$8/12)+(I39/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.34024698571078288</v>
       </c>
-      <c r="K39" s="87">
+      <c r="K39" s="86">
         <f t="shared" si="6"/>
         <v>4.0829638285293948</v>
       </c>
       <c r="L39" s="50"/>
       <c r="M39" s="50"/>
-      <c r="N39" s="113">
+      <c r="N39" s="112">
         <f t="shared" si="7"/>
         <v>4.1202358029293618E-2</v>
       </c>
-      <c r="O39" s="80">
+      <c r="O39" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P39" s="81">
+      <c r="P39" s="80">
         <f t="shared" si="8"/>
         <v>3.0021494141690707E-2</v>
       </c>
-      <c r="Q39" s="81">
+      <c r="Q39" s="80">
         <f t="shared" si="3"/>
         <v>-1.1585367475405003E-2</v>
       </c>
-      <c r="R39" s="114">
+      <c r="R39" s="113">
         <v>0.22780916988569017</v>
       </c>
       <c r="S39" s="50">
@@ -11643,62 +11738,62 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="93">
+      <c r="A40" s="92">
         <v>64.400000000000006</v>
       </c>
-      <c r="B40" s="97">
+      <c r="B40" s="96">
         <v>700.12743360000002</v>
       </c>
-      <c r="C40" s="95">
+      <c r="C40" s="94">
         <v>1.5521764468799999</v>
       </c>
-      <c r="D40" s="96">
+      <c r="D40" s="95">
         <v>0.28680106639039998</v>
       </c>
       <c r="E40" s="50"/>
-      <c r="F40" s="86">
+      <c r="F40" s="85">
         <f t="shared" si="9"/>
         <v>7.1896792063500151E-2</v>
       </c>
-      <c r="G40" s="128">
+      <c r="G40" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H40" s="75">
+      <c r="H40" s="74">
         <f t="shared" si="4"/>
         <v>5.4010665528217192E-2</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="75">
         <f t="shared" si="5"/>
         <v>1.2403803911121482E-2</v>
       </c>
-      <c r="J40" s="75">
+      <c r="J40" s="74">
         <f>IF(I40&gt;0, ('BPV Calcs'!$B$8/12)+(I40/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.3246604094244197</v>
       </c>
-      <c r="K40" s="87">
+      <c r="K40" s="86">
         <f t="shared" si="6"/>
         <v>3.8959249130930367</v>
       </c>
       <c r="L40" s="50"/>
       <c r="M40" s="50"/>
-      <c r="N40" s="113">
+      <c r="N40" s="112">
         <f t="shared" si="7"/>
         <v>3.6096283439178707E-2</v>
       </c>
-      <c r="O40" s="80">
+      <c r="O40" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P40" s="81">
+      <c r="P40" s="80">
         <f t="shared" si="8"/>
         <v>2.6301027747869639E-2</v>
       </c>
-      <c r="Q40" s="81">
+      <c r="Q40" s="80">
         <f t="shared" si="3"/>
         <v>-1.5305833869226071E-2</v>
       </c>
-      <c r="R40" s="114">
+      <c r="R40" s="113">
         <v>0.21248930599027482</v>
       </c>
       <c r="S40" s="50">
@@ -11707,62 +11802,62 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="93">
+      <c r="A41" s="92">
         <v>65.3</v>
       </c>
-      <c r="B41" s="97">
+      <c r="B41" s="96">
         <v>708.18864564</v>
       </c>
-      <c r="C41" s="95">
+      <c r="C41" s="94">
         <v>1.5451350256</v>
       </c>
-      <c r="D41" s="96">
+      <c r="D41" s="95">
         <v>0.29156020567359997</v>
       </c>
       <c r="E41" s="50"/>
-      <c r="F41" s="86">
+      <c r="F41" s="85">
         <f t="shared" si="9"/>
         <v>6.6956521460969767E-2</v>
       </c>
-      <c r="G41" s="128">
+      <c r="G41" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H41" s="75">
+      <c r="H41" s="74">
         <f t="shared" si="4"/>
         <v>5.0299410888420645E-2</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="75">
         <f t="shared" si="5"/>
         <v>8.6925492713249355E-3</v>
       </c>
-      <c r="J41" s="75">
+      <c r="J41" s="74">
         <f>IF(I41&gt;0, ('BPV Calcs'!$B$8/12)+(I41/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.30855518982234165</v>
       </c>
-      <c r="K41" s="87">
+      <c r="K41" s="86">
         <f t="shared" si="6"/>
         <v>3.7026622778680998</v>
       </c>
       <c r="L41" s="50"/>
       <c r="M41" s="50"/>
-      <c r="N41" s="113">
+      <c r="N41" s="112">
         <f t="shared" si="7"/>
         <v>3.0819003777835637E-2</v>
       </c>
-      <c r="O41" s="80">
+      <c r="O41" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P41" s="81">
+      <c r="P41" s="80">
         <f t="shared" si="8"/>
         <v>2.2455815288805175E-2</v>
       </c>
-      <c r="Q41" s="81">
+      <c r="Q41" s="80">
         <f t="shared" si="3"/>
         <v>-1.9151046328290535E-2</v>
       </c>
-      <c r="R41" s="114">
+      <c r="R41" s="113">
         <v>0.1907150772829011</v>
       </c>
       <c r="S41" s="50">
@@ -11771,64 +11866,64 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="93">
+      <c r="A42" s="92">
         <v>66.2</v>
       </c>
-      <c r="B42" s="97">
+      <c r="B42" s="96">
         <v>716.32237667999993</v>
       </c>
-      <c r="C42" s="95">
+      <c r="C42" s="94">
         <v>1.5379868867199999</v>
       </c>
-      <c r="D42" s="96">
+      <c r="D42" s="95">
         <v>0.29643326114399998</v>
       </c>
       <c r="E42" s="50"/>
-      <c r="F42" s="86">
+      <c r="F42" s="85">
         <f t="shared" si="9"/>
         <v>6.1847405437448669E-2</v>
       </c>
-      <c r="G42" s="128">
+      <c r="G42" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H42" s="75">
+      <c r="H42" s="74">
         <f t="shared" si="4"/>
         <v>4.6461315352147849E-2</v>
       </c>
-      <c r="I42" s="76">
+      <c r="I42" s="75">
         <f t="shared" si="5"/>
         <v>4.8544537350521388E-3</v>
       </c>
-      <c r="J42" s="75">
+      <c r="J42" s="74">
         <f>IF(I42&gt;0, ('BPV Calcs'!$B$8/12)+(I42/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.29189953628604387</v>
       </c>
-      <c r="K42" s="87">
+      <c r="K42" s="86">
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="182" t="s">
+      <c r="L42" s="169" t="s">
         <v>56</v>
       </c>
       <c r="M42" s="50"/>
-      <c r="N42" s="113">
+      <c r="N42" s="112">
         <f t="shared" si="7"/>
         <v>2.5359990565452944E-2</v>
       </c>
-      <c r="O42" s="80">
+      <c r="O42" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250427</v>
       </c>
-      <c r="P42" s="81">
+      <c r="P42" s="80">
         <f t="shared" si="8"/>
         <v>1.8478185342032709E-2</v>
       </c>
-      <c r="Q42" s="81">
+      <c r="Q42" s="80">
         <f t="shared" si="3"/>
         <v>-2.3128676275063001E-2</v>
       </c>
-      <c r="R42" s="114">
+      <c r="R42" s="113">
         <v>0.17168996493983751</v>
       </c>
       <c r="S42" s="50">
@@ -11837,62 +11932,62 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="93">
+      <c r="A43" s="92">
         <v>67.099999999999994</v>
       </c>
-      <c r="B43" s="97">
+      <c r="B43" s="96">
         <v>724.52862672000003</v>
       </c>
-      <c r="C43" s="95">
+      <c r="C43" s="94">
         <v>1.5307281495999998</v>
       </c>
-      <c r="D43" s="96">
+      <c r="D43" s="95">
         <v>0.301425510472</v>
       </c>
       <c r="E43" s="50"/>
-      <c r="F43" s="86">
+      <c r="F43" s="85">
         <f t="shared" si="9"/>
         <v>5.6559004365802502E-2</v>
       </c>
-      <c r="G43" s="128">
+      <c r="G43" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H43" s="75">
+      <c r="H43" s="74">
         <f t="shared" si="4"/>
         <v>4.2488536410808235E-2</v>
       </c>
-      <c r="I43" s="76">
+      <c r="I43" s="75">
         <f t="shared" si="5"/>
         <v>8.8167479371252522E-4</v>
       </c>
-      <c r="J43" s="75">
+      <c r="J43" s="74">
         <f>IF(I43&gt;0, ('BPV Calcs'!$B$8/12)+(I43/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.27465941576327285</v>
       </c>
-      <c r="K43" s="87">
+      <c r="K43" s="86">
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="182"/>
+      <c r="L43" s="169"/>
       <c r="M43" s="50"/>
-      <c r="N43" s="113">
+      <c r="N43" s="112">
         <f t="shared" si="7"/>
         <v>1.9707963149169245E-2</v>
       </c>
-      <c r="O43" s="80">
+      <c r="O43" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P43" s="81">
+      <c r="P43" s="80">
         <f t="shared" si="8"/>
         <v>1.4359918425221848E-2</v>
       </c>
-      <c r="Q43" s="81">
+      <c r="Q43" s="80">
         <f t="shared" si="3"/>
         <v>-2.724694319187386E-2</v>
       </c>
-      <c r="R43" s="114">
+      <c r="R43" s="113">
         <v>0.14850498963246994</v>
       </c>
       <c r="S43" s="50">
@@ -11901,40 +11996,40 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="93">
+      <c r="A44" s="92">
         <v>68</v>
       </c>
-      <c r="B44" s="97">
+      <c r="B44" s="96">
         <v>732.80594538000003</v>
       </c>
-      <c r="C44" s="95">
+      <c r="C44" s="94">
         <v>1.5233529932800001</v>
       </c>
-      <c r="D44" s="96">
+      <c r="D44" s="95">
         <v>0.30654265819839999</v>
       </c>
       <c r="E44" s="50"/>
-      <c r="F44" s="86">
+      <c r="F44" s="85">
         <f t="shared" si="9"/>
         <v>5.1078607093820678E-2</v>
       </c>
-      <c r="G44" s="128">
+      <c r="G44" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H44" s="75">
+      <c r="H44" s="74">
         <f t="shared" si="4"/>
         <v>3.8371525129451856E-2</v>
       </c>
-      <c r="I44" s="76">
+      <c r="I44" s="75">
         <f t="shared" si="5"/>
         <v>-3.2353364876438542E-3</v>
       </c>
-      <c r="J44" s="75" t="str">
+      <c r="J44" s="74" t="str">
         <f>IF(I44&gt;0, ('BPV Calcs'!$B$8/12)+(I44/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>Need to Use Goal Seek tool</v>
       </c>
-      <c r="K44" s="87" t="e">
+      <c r="K44" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
@@ -11942,23 +12037,23 @@
         <v>53</v>
       </c>
       <c r="M44" s="50"/>
-      <c r="N44" s="113">
+      <c r="N44" s="112">
         <f t="shared" si="7"/>
         <v>1.3849237062883164E-2</v>
       </c>
-      <c r="O44" s="80">
+      <c r="O44" s="79">
         <f t="shared" si="2"/>
         <v>0.7286353397625045</v>
       </c>
-      <c r="P44" s="81">
+      <c r="P44" s="80">
         <f t="shared" si="8"/>
         <v>1.0091043552765345E-2</v>
       </c>
-      <c r="Q44" s="81">
+      <c r="Q44" s="80">
         <f t="shared" si="3"/>
         <v>-3.1515818064330361E-2</v>
       </c>
-      <c r="R44" s="114">
+      <c r="R44" s="113">
         <v>0.12149580367635861</v>
       </c>
       <c r="S44" s="50">
@@ -11967,39 +12062,39 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="93">
+      <c r="A45" s="92">
         <v>68.900000000000006</v>
       </c>
-      <c r="B45" s="97">
+      <c r="B45" s="96">
         <v>741.15723342000001</v>
       </c>
-      <c r="C45" s="95">
+      <c r="C45" s="94">
         <v>1.51585365648</v>
       </c>
-      <c r="D45" s="96">
+      <c r="D45" s="95">
         <v>0.31179093275039999</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="86">
+      <c r="F45" s="85">
         <f t="shared" si="9"/>
         <v>4.5391024185220959E-2</v>
       </c>
-      <c r="G45" s="128">
+      <c r="G45" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H45" s="75">
+      <c r="H45" s="74">
         <f t="shared" si="4"/>
         <v>3.4098870824249061E-2</v>
       </c>
-      <c r="I45" s="76">
+      <c r="I45" s="75">
         <f t="shared" si="5"/>
         <v>-7.5079907928466486E-3</v>
       </c>
-      <c r="J45" s="123">
+      <c r="J45" s="122">
         <v>0.24687064833561331</v>
       </c>
-      <c r="K45" s="88">
+      <c r="K45" s="87">
         <f t="shared" si="6"/>
         <v>2.9624477800273596</v>
       </c>
@@ -12008,23 +12103,23 @@
         <v>2.0004865604307878E-3</v>
       </c>
       <c r="M45" s="50"/>
-      <c r="N45" s="113">
+      <c r="N45" s="112">
         <f t="shared" si="7"/>
         <v>7.7675006515787424E-3</v>
       </c>
-      <c r="O45" s="80">
+      <c r="O45" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P45" s="81">
+      <c r="P45" s="80">
         <f t="shared" si="8"/>
         <v>5.6596754763685508E-3</v>
       </c>
-      <c r="Q45" s="81">
+      <c r="Q45" s="80">
         <f t="shared" si="3"/>
         <v>-3.5947186140727158E-2</v>
       </c>
-      <c r="R45" s="114">
+      <c r="R45" s="113">
         <v>9.2278680376457742E-2</v>
       </c>
       <c r="S45" s="50">
@@ -12033,39 +12128,39 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="93">
+      <c r="A46" s="92">
         <v>69.8</v>
       </c>
-      <c r="B46" s="97">
+      <c r="B46" s="96">
         <v>749.58104045999994</v>
       </c>
-      <c r="C46" s="95">
+      <c r="C46" s="94">
         <v>1.5082262585599999</v>
       </c>
-      <c r="D46" s="96">
+      <c r="D46" s="95">
         <v>0.31717698942559996</v>
       </c>
       <c r="E46" s="50"/>
-      <c r="F46" s="86">
+      <c r="F46" s="85">
         <f t="shared" si="9"/>
         <v>3.9483036942300216E-2</v>
       </c>
-      <c r="G46" s="128">
+      <c r="G46" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H46" s="75">
+      <c r="H46" s="74">
         <f t="shared" si="4"/>
         <v>2.9660643279402023E-2</v>
       </c>
-      <c r="I46" s="76">
+      <c r="I46" s="75">
         <f t="shared" si="5"/>
         <v>-1.1946218337693687E-2</v>
       </c>
-      <c r="J46" s="123">
+      <c r="J46" s="122">
         <v>0.22573990311305595</v>
       </c>
-      <c r="K46" s="88">
+      <c r="K46" s="87">
         <f t="shared" si="6"/>
         <v>2.7088788373566715</v>
       </c>
@@ -12074,23 +12169,23 @@
         <v>1.6509998273735796E-3</v>
       </c>
       <c r="M46" s="50"/>
-      <c r="N46" s="113">
+      <c r="N46" s="112">
         <f t="shared" si="7"/>
         <v>1.4484372022368131E-3</v>
       </c>
-      <c r="O46" s="80">
+      <c r="O46" s="79">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P46" s="81">
+      <c r="P46" s="80">
         <f>O46*N46</f>
         <v>1.0553825329764717E-3</v>
       </c>
-      <c r="Q46" s="81">
+      <c r="Q46" s="80">
         <f t="shared" si="3"/>
         <v>-4.0551479084119241E-2</v>
       </c>
-      <c r="R46" s="114">
+      <c r="R46" s="113">
         <v>4.3206062949403698E-2</v>
       </c>
       <c r="S46" s="50">
@@ -12099,42 +12194,42 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="98">
+      <c r="A47" s="97">
         <v>70</v>
       </c>
-      <c r="B47" s="99">
+      <c r="B47" s="98">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
-      <c r="C47" s="100">
+      <c r="C47" s="99">
         <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>1.5065010984888887</v>
       </c>
-      <c r="D47" s="101">
+      <c r="D47" s="100">
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
       <c r="E47" s="47"/>
-      <c r="F47" s="89">
+      <c r="F47" s="88">
         <f t="shared" si="9"/>
         <v>3.8129176343576189E-2</v>
       </c>
-      <c r="G47" s="129">
+      <c r="G47" s="128">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H47" s="77">
+      <c r="H47" s="76">
         <f t="shared" si="4"/>
         <v>2.8643589390475625E-2</v>
       </c>
-      <c r="I47" s="78">
+      <c r="I47" s="77">
         <f t="shared" si="5"/>
         <v>-1.2963272226620085E-2</v>
       </c>
-      <c r="J47" s="124">
+      <c r="J47" s="123">
         <v>0.22082528187997902</v>
       </c>
-      <c r="K47" s="88">
+      <c r="K47" s="87">
         <f t="shared" si="6"/>
         <v>2.6499033825597484</v>
       </c>
@@ -12143,23 +12238,23 @@
         <v>1.5704796657203812E-3</v>
       </c>
       <c r="M47" s="50"/>
-      <c r="N47" s="115">
+      <c r="N47" s="114">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O47" s="116">
+      <c r="O47" s="115">
         <f t="shared" si="2"/>
         <v>0.72863533976250439</v>
       </c>
-      <c r="P47" s="117">
+      <c r="P47" s="116">
         <f>O47*N47</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="117">
+      <c r="Q47" s="116">
         <f t="shared" si="3"/>
         <v>-4.160686161709571E-2</v>
       </c>
-      <c r="R47" s="118">
+      <c r="R47" s="117">
         <v>2.9265192002976545E-2</v>
       </c>
       <c r="S47" s="50">
@@ -12169,39 +12264,39 @@
       <c r="T47" s="49"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="93">
+      <c r="A48" s="92">
         <v>70.7</v>
       </c>
-      <c r="B48" s="97">
+      <c r="B48" s="96">
         <v>758.08026725999991</v>
       </c>
-      <c r="C48" s="95">
+      <c r="C48" s="94">
         <v>1.5004630382399999</v>
       </c>
-      <c r="D48" s="96">
+      <c r="D48" s="95">
         <v>0.32270816263359997</v>
       </c>
       <c r="E48" s="50"/>
-      <c r="F48" s="86">
+      <c r="F48" s="85">
         <f t="shared" si="9"/>
         <v>3.3337176339955747E-2</v>
       </c>
-      <c r="G48" s="128">
+      <c r="G48" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H48" s="75">
+      <c r="H48" s="74">
         <f t="shared" si="4"/>
         <v>2.50437193270357E-2</v>
       </c>
-      <c r="I48" s="76">
+      <c r="I48" s="75">
         <f t="shared" si="5"/>
         <v>-1.656314229006001E-2</v>
       </c>
-      <c r="J48" s="123">
+      <c r="J48" s="122">
         <v>0.20311497711219526</v>
       </c>
-      <c r="K48" s="88">
+      <c r="K48" s="87">
         <f t="shared" si="6"/>
         <v>2.437379725346343</v>
       </c>
@@ -12211,46 +12306,46 @@
       </c>
       <c r="M48" s="50"/>
       <c r="N48" s="50"/>
-      <c r="O48" s="62"/>
+      <c r="O48" s="61"/>
       <c r="P48" s="50"/>
       <c r="Q48" s="50"/>
-      <c r="R48" s="69"/>
+      <c r="R48" s="68"/>
       <c r="S48" s="50"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="93">
+      <c r="A49" s="92">
         <v>71.599999999999994</v>
       </c>
-      <c r="B49" s="97">
+      <c r="B49" s="96">
         <v>766.65491381999993</v>
       </c>
-      <c r="C49" s="95">
+      <c r="C49" s="94">
         <v>1.4925542939199998</v>
       </c>
-      <c r="D49" s="96">
+      <c r="D49" s="95">
         <v>0.32839236888000001</v>
       </c>
       <c r="E49" s="50"/>
-      <c r="F49" s="86">
+      <c r="F49" s="85">
         <f t="shared" si="9"/>
         <v>2.693291798927008E-2</v>
       </c>
-      <c r="G49" s="128">
+      <c r="G49" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H49" s="75">
+      <c r="H49" s="74">
         <f t="shared" si="4"/>
         <v>2.0232680533682115E-2</v>
       </c>
-      <c r="I49" s="76">
+      <c r="I49" s="75">
         <f t="shared" si="5"/>
         <v>-2.1374181083413595E-2</v>
       </c>
-      <c r="J49" s="123">
+      <c r="J49" s="122">
         <v>0.17870440324472858</v>
       </c>
-      <c r="K49" s="88">
+      <c r="K49" s="87">
         <f t="shared" si="6"/>
         <v>2.144452838936743</v>
       </c>
@@ -12260,46 +12355,46 @@
       </c>
       <c r="M49" s="50"/>
       <c r="N49" s="50"/>
-      <c r="O49" s="62"/>
+      <c r="O49" s="61"/>
       <c r="P49" s="50"/>
       <c r="Q49" s="50"/>
-      <c r="R49" s="69"/>
+      <c r="R49" s="68"/>
       <c r="S49" s="50"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="93">
+      <c r="A50" s="92">
         <v>72.5</v>
       </c>
-      <c r="B50" s="97">
+      <c r="B50" s="96">
         <v>775.30498014</v>
       </c>
-      <c r="C50" s="95">
+      <c r="C50" s="94">
         <v>1.48449226432</v>
       </c>
-      <c r="D50" s="96">
+      <c r="D50" s="95">
         <v>0.33423830079839995</v>
       </c>
       <c r="E50" s="50"/>
-      <c r="F50" s="86">
+      <c r="F50" s="85">
         <f t="shared" si="9"/>
         <v>2.0249656851450533E-2</v>
       </c>
-      <c r="G50" s="128">
+      <c r="G50" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H50" s="75">
+      <c r="H50" s="74">
         <f t="shared" si="4"/>
         <v>1.5212047879673117E-2</v>
       </c>
-      <c r="I50" s="76">
+      <c r="I50" s="75">
         <f t="shared" si="5"/>
         <v>-2.6394813737422591E-2</v>
       </c>
-      <c r="J50" s="123">
+      <c r="J50" s="122">
         <v>0.14877637433762442</v>
       </c>
-      <c r="K50" s="88">
+      <c r="K50" s="87">
         <f t="shared" si="6"/>
         <v>1.785316492051493</v>
       </c>
@@ -12309,46 +12404,46 @@
       </c>
       <c r="M50" s="50"/>
       <c r="N50" s="50"/>
-      <c r="O50" s="62"/>
+      <c r="O50" s="61"/>
       <c r="P50" s="50"/>
       <c r="Q50" s="50"/>
-      <c r="R50" s="69"/>
+      <c r="R50" s="68"/>
       <c r="S50" s="50"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="93">
+      <c r="A51" s="92">
         <v>73.400000000000006</v>
       </c>
-      <c r="B51" s="97">
+      <c r="B51" s="96">
         <v>784.03191660000005</v>
       </c>
-      <c r="C51" s="95">
+      <c r="C51" s="94">
         <v>1.4762691881599999</v>
       </c>
-      <c r="D51" s="96">
+      <c r="D51" s="95">
         <v>0.34025552416639998</v>
       </c>
       <c r="E51" s="50"/>
-      <c r="F51" s="86">
+      <c r="F51" s="85">
         <f t="shared" si="9"/>
         <v>1.3264956550221583E-2</v>
       </c>
-      <c r="G51" s="128">
+      <c r="G51" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H51" s="75">
+      <c r="H51" s="74">
         <f t="shared" si="4"/>
         <v>9.964966598893241E-3</v>
       </c>
-      <c r="I51" s="76">
+      <c r="I51" s="75">
         <f t="shared" si="5"/>
         <v>-3.1641895018202471E-2</v>
       </c>
-      <c r="J51" s="123">
+      <c r="J51" s="122">
         <v>0.11973998427717275</v>
       </c>
-      <c r="K51" s="88">
+      <c r="K51" s="87">
         <f t="shared" si="6"/>
         <v>1.436879811326073</v>
       </c>
@@ -12358,48 +12453,48 @@
       </c>
       <c r="M51" s="50"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="138" t="s">
+      <c r="O51" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="P51" s="62"/>
+      <c r="P51" s="61"/>
       <c r="Q51" s="50"/>
-      <c r="R51" s="69"/>
+      <c r="R51" s="68"/>
       <c r="S51" s="50"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="93">
+      <c r="A52" s="92">
         <v>74.3</v>
       </c>
-      <c r="B52" s="97">
+      <c r="B52" s="96">
         <v>792.83572320000007</v>
       </c>
-      <c r="C52" s="95">
+      <c r="C52" s="94">
         <v>1.4678734235199999</v>
       </c>
-      <c r="D52" s="96">
+      <c r="D52" s="95">
         <v>0.34645449730880001</v>
       </c>
       <c r="E52" s="50"/>
-      <c r="F52" s="86">
+      <c r="F52" s="85">
         <f t="shared" si="9"/>
         <v>5.9508601980526824E-3</v>
       </c>
-      <c r="G52" s="128">
+      <c r="G52" s="127">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H52" s="75">
+      <c r="H52" s="74">
         <f t="shared" si="4"/>
         <v>4.4704347793199243E-3</v>
       </c>
-      <c r="I52" s="76">
+      <c r="I52" s="75">
         <f t="shared" si="5"/>
         <v>-3.7136426837775786E-2</v>
       </c>
-      <c r="J52" s="123">
+      <c r="J52" s="122">
         <v>7.5494467975184554E-2</v>
       </c>
-      <c r="K52" s="88">
+      <c r="K52" s="87">
         <f t="shared" si="6"/>
         <v>0.90593361570221465</v>
       </c>
@@ -12409,49 +12504,49 @@
       </c>
       <c r="M52" s="50"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="62"/>
+      <c r="O52" s="61"/>
       <c r="P52" s="50"/>
       <c r="Q52" s="50"/>
-      <c r="R52" s="69"/>
+      <c r="R52" s="68"/>
       <c r="S52" s="50"/>
     </row>
     <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="98">
+      <c r="A53" s="97">
         <v>75</v>
       </c>
-      <c r="B53" s="99">
+      <c r="B53" s="98">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="100">
+      <c r="C53" s="99">
         <f t="shared" ref="C53:D53" si="11">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="101">
+      <c r="D53" s="100">
         <f t="shared" si="11"/>
         <v>0.35142632153493331</v>
       </c>
       <c r="E53" s="47"/>
-      <c r="F53" s="90">
+      <c r="F53" s="89">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G53" s="130">
+      <c r="G53" s="129">
         <f t="shared" si="10"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H53" s="127">
+      <c r="H53" s="126">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I53" s="91">
+      <c r="I53" s="90">
         <f t="shared" si="5"/>
         <v>-4.160686161709571E-2</v>
       </c>
-      <c r="J53" s="125">
+      <c r="J53" s="124">
         <v>0</v>
       </c>
-      <c r="K53" s="92">
+      <c r="K53" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -12461,24 +12556,24 @@
       </c>
       <c r="M53" s="50"/>
       <c r="N53" s="50"/>
-      <c r="O53" s="62"/>
+      <c r="O53" s="61"/>
       <c r="P53" s="47"/>
       <c r="Q53" s="47"/>
-      <c r="R53" s="70"/>
+      <c r="R53" s="69"/>
       <c r="S53" s="47"/>
       <c r="T53" s="40"/>
     </row>
     <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="93">
+      <c r="A54" s="92">
         <v>75.2</v>
       </c>
-      <c r="B54" s="97">
+      <c r="B54" s="96">
         <v>801.71930069999996</v>
       </c>
-      <c r="C54" s="95">
+      <c r="C54" s="94">
         <v>1.45929332848</v>
       </c>
-      <c r="D54" s="96">
+      <c r="D54" s="95">
         <v>0.35284684274239997</v>
       </c>
       <c r="E54" s="50"/>
@@ -12494,27 +12589,27 @@
       <c r="O54" s="50"/>
       <c r="P54" s="50"/>
       <c r="Q54" s="50"/>
-      <c r="R54" s="69"/>
+      <c r="R54" s="68"/>
       <c r="S54" s="50"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="93">
+      <c r="A55" s="92">
         <v>76.099999999999994</v>
       </c>
-      <c r="B55" s="97">
+      <c r="B55" s="96">
         <v>810.68264910000005</v>
       </c>
-      <c r="C55" s="95">
+      <c r="C55" s="94">
         <v>1.4505153208000001</v>
       </c>
-      <c r="D55" s="96">
+      <c r="D55" s="95">
         <v>0.35944542478879998</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="82" t="s">
+      <c r="F55" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="G55" s="131">
+      <c r="G55" s="130">
         <f>(2/3)*PI()*(('BPV Calcs'!B8/12)^3)</f>
         <v>4.160686161709571E-2</v>
       </c>
@@ -12528,24 +12623,24 @@
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="71"/>
+      <c r="R55" s="70"/>
       <c r="S55" s="17"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="93">
+      <c r="A56" s="92">
         <v>77</v>
       </c>
-      <c r="B56" s="97">
+      <c r="B56" s="96">
         <v>819.72576839999999</v>
       </c>
-      <c r="C56" s="95">
+      <c r="C56" s="94">
         <v>1.4415277585599999</v>
       </c>
-      <c r="D56" s="96">
+      <c r="D56" s="95">
         <v>0.36626458241279997</v>
       </c>
       <c r="E56" s="50"/>
-      <c r="F56" s="83" t="s">
+      <c r="F56" s="82" t="s">
         <v>45</v>
       </c>
       <c r="G56" s="38">
@@ -12562,24 +12657,24 @@
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
-      <c r="R56" s="71"/>
+      <c r="R56" s="70"/>
       <c r="S56" s="17"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="93">
+      <c r="A57" s="92">
         <v>77.900000000000006</v>
       </c>
-      <c r="B57" s="97">
+      <c r="B57" s="96">
         <v>828.85010898000007</v>
       </c>
-      <c r="C57" s="95">
+      <c r="C57" s="94">
         <v>1.4323131788799999</v>
       </c>
-      <c r="D57" s="96">
+      <c r="D57" s="95">
         <v>0.37332036206079999</v>
       </c>
       <c r="E57" s="50"/>
-      <c r="F57" s="83" t="s">
+      <c r="F57" s="82" t="s">
         <v>44</v>
       </c>
       <c r="G57" s="38">
@@ -12596,27 +12691,27 @@
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
-      <c r="R57" s="71"/>
+      <c r="R57" s="70"/>
       <c r="S57" s="17"/>
     </row>
     <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="93">
+      <c r="A58" s="92">
         <v>78.8</v>
       </c>
-      <c r="B58" s="97">
+      <c r="B58" s="96">
         <v>838.05712122</v>
       </c>
-      <c r="C58" s="95">
+      <c r="C58" s="94">
         <v>1.4228541188799999</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="95">
         <v>0.38063080870880001</v>
       </c>
       <c r="E58" s="50"/>
-      <c r="F58" s="84" t="s">
+      <c r="F58" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="132">
+      <c r="G58" s="131">
         <f>G57+(2*'BPV Calcs'!B8/12)</f>
         <v>3.4405428918421621</v>
       </c>
@@ -12630,20 +12725,20 @@
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
-      <c r="R58" s="71"/>
+      <c r="R58" s="70"/>
       <c r="S58" s="17"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="93">
+      <c r="A59" s="92">
         <v>79.7</v>
       </c>
-      <c r="B59" s="97">
+      <c r="B59" s="96">
         <v>847.34825549999994</v>
       </c>
-      <c r="C59" s="95">
+      <c r="C59" s="94">
         <v>1.41312923504</v>
       </c>
-      <c r="D59" s="96">
+      <c r="D59" s="95">
         <v>0.38821637332959996</v>
       </c>
       <c r="E59" s="50"/>
@@ -12659,49 +12754,49 @@
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
-      <c r="R59" s="71"/>
+      <c r="R59" s="70"/>
       <c r="S59" s="17"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="93">
+      <c r="A60" s="92">
         <v>80.599999999999994</v>
       </c>
-      <c r="B60" s="97">
+      <c r="B60" s="96">
         <v>856.72351182</v>
       </c>
-      <c r="C60" s="95">
+      <c r="C60" s="94">
         <v>1.4031171838399998</v>
       </c>
-      <c r="D60" s="96">
+      <c r="D60" s="95">
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="166"/>
       <c r="H60" s="38"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="165"/>
-      <c r="O60" s="165"/>
+      <c r="N60" s="166"/>
+      <c r="O60" s="166"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
-      <c r="R60" s="71"/>
+      <c r="R60" s="70"/>
       <c r="S60" s="17"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="93">
+      <c r="A61" s="92">
         <v>81.5</v>
       </c>
-      <c r="B61" s="97">
+      <c r="B61" s="96">
         <v>866.18579093999995</v>
       </c>
-      <c r="C61" s="95">
+      <c r="C61" s="94">
         <v>1.3927888604799998</v>
       </c>
-      <c r="D61" s="96">
+      <c r="D61" s="95">
         <v>0.40430919337760002</v>
       </c>
       <c r="E61" s="50"/>
@@ -12717,20 +12812,20 @@
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="17"/>
-      <c r="R61" s="71"/>
+      <c r="R61" s="70"/>
       <c r="S61" s="17"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="93">
+      <c r="A62" s="92">
         <v>82.4</v>
       </c>
-      <c r="B62" s="97">
+      <c r="B62" s="96">
         <v>875.73364248000007</v>
       </c>
-      <c r="C62" s="95">
+      <c r="C62" s="94">
         <v>1.3821171004799999</v>
       </c>
-      <c r="D62" s="96">
+      <c r="D62" s="95">
         <v>0.41287390167999999</v>
       </c>
       <c r="E62" s="50"/>
@@ -12746,20 +12841,20 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="71"/>
+      <c r="R62" s="70"/>
       <c r="S62" s="17"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="93">
+      <c r="A63" s="92">
         <v>83.3</v>
       </c>
-      <c r="B63" s="97">
+      <c r="B63" s="96">
         <v>885.37141757999996</v>
       </c>
-      <c r="C63" s="95">
+      <c r="C63" s="94">
         <v>1.37106309744</v>
       </c>
-      <c r="D63" s="96">
+      <c r="D63" s="95">
         <v>0.42183024417120002</v>
       </c>
       <c r="E63" s="50"/>
@@ -12775,20 +12870,20 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
-      <c r="R63" s="71"/>
+      <c r="R63" s="70"/>
       <c r="S63" s="17"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="93">
+      <c r="A64" s="92">
         <v>84.2</v>
       </c>
-      <c r="B64" s="97">
+      <c r="B64" s="96">
         <v>895.10056662</v>
       </c>
-      <c r="C64" s="95">
+      <c r="C64" s="94">
         <v>1.35958416432</v>
       </c>
-      <c r="D64" s="96">
+      <c r="D64" s="95">
         <v>0.43122034519840002</v>
       </c>
       <c r="E64" s="50"/>
@@ -12804,20 +12899,20 @@
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
-      <c r="R64" s="71"/>
+      <c r="R64" s="70"/>
       <c r="S64" s="17"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="93">
+      <c r="A65" s="92">
         <v>85.1</v>
       </c>
-      <c r="B65" s="97">
+      <c r="B65" s="96">
         <v>904.91963922000002</v>
       </c>
-      <c r="C65" s="95">
+      <c r="C65" s="94">
         <v>1.3476317931200001</v>
       </c>
-      <c r="D65" s="96">
+      <c r="D65" s="95">
         <v>0.44109424561439997</v>
       </c>
       <c r="E65" s="50"/>
@@ -12833,20 +12928,20 @@
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
-      <c r="R65" s="71"/>
+      <c r="R65" s="70"/>
       <c r="S65" s="17"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="93">
+      <c r="A66" s="92">
         <v>86</v>
       </c>
-      <c r="B66" s="97">
+      <c r="B66" s="96">
         <v>914.83443690000001</v>
       </c>
-      <c r="C66" s="95">
+      <c r="C66" s="94">
         <v>1.33514583392</v>
       </c>
-      <c r="D66" s="96">
+      <c r="D66" s="95">
         <v>0.45151211474239994</v>
       </c>
       <c r="E66" s="50"/>
@@ -12862,20 +12957,20 @@
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
-      <c r="R66" s="71"/>
+      <c r="R66" s="70"/>
       <c r="S66" s="17"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="93">
+      <c r="A67" s="92">
         <v>86.9</v>
       </c>
-      <c r="B67" s="97">
+      <c r="B67" s="96">
         <v>924.84350928000003</v>
       </c>
-      <c r="C67" s="95">
+      <c r="C67" s="94">
         <v>1.3220506142399999</v>
       </c>
-      <c r="D67" s="96">
+      <c r="D67" s="95">
         <v>0.4625472966784</v>
       </c>
       <c r="E67" s="50"/>
@@ -12891,20 +12986,20 @@
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
-      <c r="R67" s="71"/>
+      <c r="R67" s="70"/>
       <c r="S67" s="17"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="93">
+      <c r="A68" s="92">
         <v>87.8</v>
       </c>
-      <c r="B68" s="97">
+      <c r="B68" s="96">
         <v>934.95120750000012</v>
       </c>
-      <c r="C68" s="95">
+      <c r="C68" s="94">
         <v>1.30825687936</v>
       </c>
-      <c r="D68" s="96">
+      <c r="D68" s="95">
         <v>0.47429065660800002</v>
       </c>
       <c r="E68" s="50"/>
@@ -12920,20 +13015,20 @@
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
-      <c r="R68" s="71"/>
+      <c r="R68" s="70"/>
       <c r="S68" s="17"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="93">
+      <c r="A69" s="92">
         <v>88.7</v>
       </c>
-      <c r="B69" s="97">
+      <c r="B69" s="96">
         <v>945.16043231999993</v>
       </c>
-      <c r="C69" s="95">
+      <c r="C69" s="94">
         <v>1.29364626976</v>
       </c>
-      <c r="D69" s="96">
+      <c r="D69" s="95">
         <v>0.48685690624959999</v>
       </c>
       <c r="E69" s="50"/>
@@ -12949,20 +13044,20 @@
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
-      <c r="R69" s="71"/>
+      <c r="R69" s="70"/>
       <c r="S69" s="17"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="93">
+      <c r="A70" s="92">
         <v>89.6</v>
       </c>
-      <c r="B70" s="97">
+      <c r="B70" s="96">
         <v>955.47118374000013</v>
       </c>
-      <c r="C70" s="95">
+      <c r="C70" s="94">
         <v>1.2780693808000001</v>
       </c>
-      <c r="D70" s="96">
+      <c r="D70" s="95">
         <v>0.50039415022879996</v>
       </c>
       <c r="E70" s="50"/>
@@ -12978,20 +13073,20 @@
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
       <c r="Q70" s="17"/>
-      <c r="R70" s="71"/>
+      <c r="R70" s="70"/>
       <c r="S70" s="17"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="93">
+      <c r="A71" s="92">
         <v>90.5</v>
       </c>
-      <c r="B71" s="97">
+      <c r="B71" s="96">
         <v>965.88781289999997</v>
       </c>
-      <c r="C71" s="95">
+      <c r="C71" s="94">
         <v>1.2613302401599999</v>
       </c>
-      <c r="D71" s="96">
+      <c r="D71" s="95">
         <v>0.51509886534880001</v>
       </c>
       <c r="E71" s="50"/>
@@ -13007,20 +13102,20 @@
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
-      <c r="R71" s="71"/>
+      <c r="R71" s="70"/>
       <c r="S71" s="17"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="93">
+      <c r="A72" s="92">
         <v>91.4</v>
       </c>
-      <c r="B72" s="97">
+      <c r="B72" s="96">
         <v>976.41612132</v>
       </c>
-      <c r="C72" s="95">
+      <c r="C72" s="94">
         <v>1.24315138208</v>
       </c>
-      <c r="D72" s="96">
+      <c r="D72" s="95">
         <v>0.53124065907359996</v>
       </c>
       <c r="E72" s="50"/>
@@ -13036,20 +13131,20 @@
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
-      <c r="R72" s="71"/>
+      <c r="R72" s="70"/>
       <c r="S72" s="17"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="93">
+      <c r="A73" s="92">
         <v>92.3</v>
       </c>
-      <c r="B73" s="97">
+      <c r="B73" s="96">
         <v>987.05610900000011</v>
       </c>
-      <c r="C73" s="95">
+      <c r="C73" s="94">
         <v>1.2231428022399999</v>
       </c>
-      <c r="D73" s="96">
+      <c r="D73" s="95">
         <v>0.54920555806720006</v>
       </c>
       <c r="E73" s="50"/>
@@ -13065,20 +13160,20 @@
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
-      <c r="R73" s="71"/>
+      <c r="R73" s="70"/>
       <c r="S73" s="17"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="93">
+      <c r="A74" s="92">
         <v>93.2</v>
       </c>
-      <c r="B74" s="97">
+      <c r="B74" s="96">
         <v>997.81792859999996</v>
       </c>
-      <c r="C74" s="95">
+      <c r="C74" s="94">
         <v>1.20071076272</v>
       </c>
-      <c r="D74" s="96">
+      <c r="D74" s="95">
         <v>0.56957841358399997</v>
       </c>
       <c r="E74" s="50"/>
@@ -13094,20 +13189,20 @@
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="17"/>
-      <c r="R74" s="71"/>
+      <c r="R74" s="70"/>
       <c r="S74" s="17"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="93">
+      <c r="A75" s="92">
         <v>94.1</v>
       </c>
-      <c r="B75" s="97">
+      <c r="B75" s="96">
         <v>1008.70448088</v>
       </c>
-      <c r="C75" s="95">
+      <c r="C75" s="94">
         <v>1.1748812228800001</v>
       </c>
-      <c r="D75" s="96">
+      <c r="D75" s="95">
         <v>0.59331624965759999</v>
       </c>
       <c r="E75" s="50"/>
@@ -13123,20 +13218,20 @@
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
-      <c r="R75" s="71"/>
+      <c r="R75" s="70"/>
       <c r="S75" s="17"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="93">
+      <c r="A76" s="92">
         <v>95</v>
       </c>
-      <c r="B76" s="97">
+      <c r="B76" s="96">
         <v>1019.7259185</v>
       </c>
-      <c r="C76" s="95">
+      <c r="C76" s="94">
         <v>1.143867148</v>
       </c>
-      <c r="D76" s="96">
+      <c r="D76" s="95">
         <v>0.6221741633408</v>
       </c>
       <c r="E76" s="50"/>
@@ -13152,20 +13247,20 @@
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
       <c r="Q76" s="17"/>
-      <c r="R76" s="71"/>
+      <c r="R76" s="70"/>
       <c r="S76" s="17"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="93">
+      <c r="A77" s="92">
         <v>95.9</v>
       </c>
-      <c r="B77" s="97">
+      <c r="B77" s="96">
         <v>1030.8938445000001</v>
       </c>
-      <c r="C77" s="95">
+      <c r="C77" s="94">
         <v>1.1037122256</v>
       </c>
-      <c r="D77" s="96">
+      <c r="D77" s="95">
         <v>0.66003374539039994</v>
       </c>
       <c r="E77" s="50"/>
@@ -13181,20 +13276,20 @@
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
-      <c r="R77" s="71"/>
+      <c r="R77" s="70"/>
       <c r="S77" s="17"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="93">
+      <c r="A78" s="92">
         <v>96.8</v>
       </c>
-      <c r="B78" s="97">
+      <c r="B78" s="96">
         <v>1042.23146496</v>
       </c>
-      <c r="C78" s="95">
+      <c r="C78" s="94">
         <v>1.04153273088</v>
       </c>
-      <c r="D78" s="96">
+      <c r="D78" s="95">
         <v>0.7195324357888</v>
       </c>
       <c r="E78" s="50"/>
@@ -13210,23 +13305,23 @@
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
       <c r="Q78" s="17"/>
-      <c r="R78" s="71"/>
+      <c r="R78" s="70"/>
       <c r="S78" s="17"/>
     </row>
     <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="102">
+      <c r="A79" s="101">
         <v>97.47</v>
       </c>
-      <c r="B79" s="103">
+      <c r="B79" s="102">
         <v>1050.8003100000001</v>
       </c>
-      <c r="C79" s="104">
+      <c r="C79" s="103">
         <v>0.87704598352000007</v>
       </c>
-      <c r="D79" s="105">
+      <c r="D79" s="104">
         <v>0.8770468760672</v>
       </c>
-      <c r="E79" s="67"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="17"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
@@ -13239,7 +13334,7 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
-      <c r="R79" s="71"/>
+      <c r="R79" s="70"/>
       <c r="S79" s="17"/>
       <c r="T79" s="22"/>
     </row>
@@ -15465,19 +15560,431 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="N60:O60"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L42:L43"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="N1:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967D90F-7C71-49F2-B312-218C914DF272}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="149" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="149">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>35.567999999999998</v>
+      </c>
+      <c r="C3">
+        <f>B3*$B$1</f>
+        <v>3.4856639999999999</v>
+      </c>
+      <c r="D3">
+        <f>C3-C4</f>
+        <v>1.2031361999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>23.2911</v>
+      </c>
+      <c r="C4">
+        <f>B4*$B$1</f>
+        <v>2.2825278</v>
+      </c>
+      <c r="D4">
+        <f>D3*2</f>
+        <v>2.4062723999999998</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD2FB6F-B5B6-45D0-A077-A1579B76EE79}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="191" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1">
+        <v>0.125</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1">
+        <v>32.164000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <f>(4*I16)/(I17*PI()*(I19^2))</f>
+        <v>7398.4911863549469</v>
+      </c>
+      <c r="H2" s="194" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="194">
+        <f>'BPV Calcs'!B11</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3">
+        <f>I6</f>
+        <v>72000</v>
+      </c>
+      <c r="H3" s="194" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="194">
+        <v>85000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="40">
+        <f>B3/B2</f>
+        <v>9.7317139652460156</v>
+      </c>
+      <c r="H4" s="195" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="H5" s="195" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="H6" s="195" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <f>I4*I5</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="193" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="193"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8">
+        <f>I16*I18/(PI()*('BPV Calcs'!B12-(2*'RT Mounting Bolt Calcs'!I1))*'RT Mounting Bolt Calcs'!I1)</f>
+        <v>1096.072768348881</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8">
+        <f>'N2O Pressure Calcs'!P5</f>
+        <v>6.1820000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="187" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <f>I2</f>
+        <v>33000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <f>'N2O Pressure Calcs'!M3</f>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="40">
+        <f>B9/B8</f>
+        <v>30.107490079979861</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="186">
+        <f>I8*I9</f>
+        <v>199.06040000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12">
+        <v>23.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="185">
+        <f>I12/M1</f>
+        <v>0.72674418604651159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <v>0.3715</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="185">
+        <f>'N2O Pressure Calcs'!M7</f>
+        <v>1.0976899397500375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15">
+        <f>I16/(2*B14*I1)</f>
+        <v>3910.3374089336367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>25000</v>
+      </c>
+      <c r="H16" s="196" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="198">
+        <f>I10*(I13+I14)</f>
+        <v>363.17258685471148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="40">
+        <f>B16/B15</f>
+        <v>6.3933101892651232</v>
+      </c>
+      <c r="H17" s="197" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="188" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="190" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="184">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="189" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <f>I16/(I1*I19)</f>
+        <v>11621.522779350767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22">
+        <f>I2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="40">
+        <f>B22/B21</f>
+        <v>2.8395590342631101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26">
+        <f>I16/(I1*I19)</f>
+        <v>11621.522779350767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <f>I3</f>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="40">
+        <f>B27/B26</f>
+        <v>7.3140156943140715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408CF631-908D-43DB-8CD0-6422EFB04710}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D807653-D021-4BBF-A894-1710BB1B7C39}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" activeTab="4" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs" sheetId="1" r:id="rId1"/>
@@ -1387,6 +1387,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1426,26 +1458,8 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1480,37 +1494,23 @@
     <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4196,8 +4196,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,44 +4210,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="D5" s="152" t="s">
+      <c r="B5" s="172"/>
+      <c r="D5" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="152"/>
+      <c r="E5" s="172"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4371,7 +4371,7 @@
       <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="181">
+      <c r="B16" s="150">
         <f>'N2O Pressure Calcs'!H53</f>
         <v>807.70471489890963</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="183">
+      <c r="B17" s="152">
         <f>B10*B16</f>
         <v>1615.4094297978193</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="A19" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="182">
+      <c r="B19" s="151">
         <f>'N2O Pressure Calcs'!J53</f>
         <v>810.73458010430602</v>
       </c>
@@ -4479,19 +4479,19 @@
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72"/>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="162"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="182"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="159"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="179"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -4522,14 +4522,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="154" t="s">
+      <c r="G2" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155" t="s">
+      <c r="H2" s="175"/>
+      <c r="I2" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="156"/>
+      <c r="J2" s="176"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -9337,32 +9337,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="64"/>
-      <c r="F1" s="173" t="s">
+      <c r="F1" s="187" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="132"/>
       <c r="H1" s="132"/>
-      <c r="I1" s="176" t="s">
+      <c r="I1" s="190" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="120"/>
       <c r="K1" s="84"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="178" t="s">
+      <c r="N1" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
       <c r="Q1" s="111"/>
-      <c r="R1" s="164" t="s">
+      <c r="R1" s="196" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="51"/>
@@ -9387,21 +9387,21 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="174"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="125" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="177"/>
-      <c r="J2" s="167" t="s">
+      <c r="I2" s="191"/>
+      <c r="J2" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="168"/>
+      <c r="K2" s="199"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
-      <c r="N2" s="179"/>
+      <c r="N2" s="193"/>
       <c r="O2" s="78" t="s">
         <v>39</v>
       </c>
@@ -9411,7 +9411,7 @@
       <c r="Q2" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="165"/>
+      <c r="R2" s="197"/>
       <c r="S2" s="67"/>
       <c r="T2" t="s">
         <v>14</v>
@@ -9435,7 +9435,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="175"/>
+      <c r="F3" s="189"/>
       <c r="G3" s="121" t="s">
         <v>40</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="180"/>
+      <c r="N3" s="194"/>
       <c r="O3" s="118" t="s">
         <v>40</v>
       </c>
@@ -11903,7 +11903,7 @@
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="169" t="s">
+      <c r="L42" s="200" t="s">
         <v>56</v>
       </c>
       <c r="M42" s="50"/>
@@ -11969,7 +11969,7 @@
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="169"/>
+      <c r="L43" s="200"/>
       <c r="M43" s="50"/>
       <c r="N43" s="112">
         <f t="shared" si="7"/>
@@ -12771,16 +12771,16 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="166"/>
+      <c r="F60" s="183"/>
+      <c r="G60" s="183"/>
       <c r="H60" s="38"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="166"/>
-      <c r="O60" s="166"/>
+      <c r="N60" s="183"/>
+      <c r="O60" s="183"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="70"/>
@@ -15560,16 +15560,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L42:L43"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L42:L43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15664,8 +15664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD2FB6F-B5B6-45D0-A077-A1579B76EE79}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15677,7 +15677,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="160" t="s">
         <v>94</v>
       </c>
       <c r="H1" t="s">
@@ -15701,10 +15701,10 @@
         <f>(4*I16)/(I17*PI()*(I19^2))</f>
         <v>7398.4911863549469</v>
       </c>
-      <c r="H2" s="194" t="s">
+      <c r="H2" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="194">
+      <c r="I2" s="163">
         <f>'BPV Calcs'!B11</f>
         <v>33000</v>
       </c>
@@ -15717,10 +15717,10 @@
         <f>I6</f>
         <v>72000</v>
       </c>
-      <c r="H3" s="194" t="s">
+      <c r="H3" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="194">
+      <c r="I3" s="163">
         <v>85000</v>
       </c>
       <c r="J3" t="s">
@@ -15735,7 +15735,7 @@
         <f>B3/B2</f>
         <v>9.7317139652460156</v>
       </c>
-      <c r="H4" s="195" t="s">
+      <c r="H4" s="164" t="s">
         <v>88</v>
       </c>
       <c r="I4">
@@ -15745,7 +15745,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
-      <c r="H5" s="195" t="s">
+      <c r="H5" s="164" t="s">
         <v>89</v>
       </c>
       <c r="I5">
@@ -15755,7 +15755,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
-      <c r="H6" s="195" t="s">
+      <c r="H6" s="164" t="s">
         <v>90</v>
       </c>
       <c r="I6">
@@ -15764,16 +15764,16 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="193" t="s">
+      <c r="H7" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="193"/>
+      <c r="I7" s="162"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="156" t="s">
         <v>96</v>
       </c>
       <c r="B8">
@@ -15792,7 +15792,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="156" t="s">
         <v>102</v>
       </c>
       <c r="B9">
@@ -15808,7 +15808,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="40">
@@ -15818,7 +15818,7 @@
       <c r="H10" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="186">
+      <c r="I10" s="155">
         <f>I8*I9</f>
         <v>199.06040000000004</v>
       </c>
@@ -15832,13 +15832,13 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="161" t="s">
         <v>97</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="185">
+      <c r="I13" s="154">
         <f>I12/M1</f>
         <v>0.72674418604651159</v>
       </c>
@@ -15853,7 +15853,7 @@
       <c r="H14" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="185">
+      <c r="I14" s="154">
         <f>'N2O Pressure Calcs'!M7</f>
         <v>1.0976899397500375</v>
       </c>
@@ -15874,10 +15874,10 @@
       <c r="B16">
         <v>25000</v>
       </c>
-      <c r="H16" s="196" t="s">
+      <c r="H16" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="198">
+      <c r="I16" s="167">
         <f>I10*(I13+I14)</f>
         <v>363.17258685471148</v>
       </c>
@@ -15893,29 +15893,29 @@
         <f>B16/B15</f>
         <v>6.3933101892651232</v>
       </c>
-      <c r="H17" s="197" t="s">
+      <c r="H17" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="199">
+      <c r="I17" s="168">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="188" t="s">
+      <c r="H18" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="184">
+      <c r="I18" s="153">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="190" t="s">
+      <c r="H19" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="184">
+      <c r="I19" s="153">
         <v>0.25</v>
       </c>
-      <c r="J19" s="189" t="s">
+      <c r="J19" s="158" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D807653-D021-4BBF-A894-1710BB1B7C39}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765CA2E2-F615-E345-89B0-E11C507C9083}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId4"/>
     <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1458,8 +1458,26 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1493,24 +1511,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4196,20 +4196,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="170" t="s">
         <v>6</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="E1" s="170"/>
       <c r="F1" s="170"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="171" t="s">
         <v>11</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="E2" s="171"/>
       <c r="F2" s="171"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="173" t="s">
         <v>12</v>
       </c>
@@ -4239,7 +4239,7 @@
       <c r="E3" s="173"/>
       <c r="F3" s="173"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="172" t="s">
         <v>4</v>
       </c>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="E5" s="172"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0.18273382537491975</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>8.7434072670902876E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0.18273382537491975</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>8.8868560081423062E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146" t="s">
         <v>78</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>8.8868560081423062E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146" t="s">
         <v>79</v>
       </c>
@@ -4363,11 +4363,11 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
@@ -4389,14 +4389,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="60"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57" t="s">
         <v>62</v>
       </c>
@@ -4407,35 +4407,35 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55"/>
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="55"/>
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="55"/>
       <c r="B30" s="21"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
     </row>
   </sheetData>
@@ -4461,23 +4461,23 @@
       <selection pane="topRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="24"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.42578125" customWidth="1"/>
+    <col min="5" max="6" width="4.5" customWidth="1"/>
     <col min="7" max="7" width="14" style="36" customWidth="1"/>
     <col min="8" max="8" width="16" style="35" customWidth="1"/>
     <col min="9" max="9" width="22" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" customWidth="1"/>
     <col min="11" max="11" width="11" style="46" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="72"/>
       <c r="B1" s="180" t="s">
         <v>17</v>
@@ -4507,7 +4507,7 @@
         <v>2.8988762251754956</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <v>32</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>32.9</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>6.1820000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>33.799999999999997</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>34.700000000000003</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>35.6</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>489.57220705448407</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <v>36.5</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>495.58925210470596</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>37.4</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>501.66111973936529</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
         <v>38.299999999999997</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>507.79073990401866</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>39.200000000000003</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>513.97660384755352</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>40.1</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>520.21875534830406</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>41</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>526.52005138793606</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
         <v>41.9</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>532.87760579922758</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>42.8</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>539.29283977662249</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
         <v>43.7</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>545.76720370012072</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>44.6</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>552.30069756972216</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>45.5</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>558.89475717264884</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>46.4</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>565.54646715612262</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>47.3</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>572.25872828014337</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>48.2</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>579.0329617391551</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
         <v>49.1</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>585.86626677315769</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
         <v>50</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>592.76152954937299</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
         <v>50.9</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>599.71875006780101</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>51.8</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>606.73789914288545</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
         <v>52.7</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>613.82041256184846</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
         <v>53.6</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>620.96483994468974</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
         <v>54.5</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>628.17403827307498</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
         <v>55.4</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>635.44657175978239</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
         <v>56.3</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>642.78386159925583</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
         <v>57.2</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>650.18589319871705</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <v>58.1</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>657.65263737260989</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
         <v>59</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>665.18698028815595</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>59.9</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>672.78599199979942</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>60.8</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>680.45400905476197</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
         <v>61.7</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>688.1881015074872</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>62.6</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>695.98969055241923</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>63.5</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>703.86019738400171</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>64.400000000000006</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>711.80105778945631</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>65.3</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>719.80931263767081</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>66.2</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>727.88928388308886</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>67.099999999999994</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>736.0409423401544</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>68</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>744.26279385053283</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>68.900000000000006</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>752.55768080311179</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>69.8</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>760.92412363233495</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="62">
         <v>70</v>
       </c>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
         <v>70.7</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>769.36496472709007</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="27">
         <v>71.599999999999994</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>777.88013112348642</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>72.5</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>786.46956445041155</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>73.400000000000006</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>795.13465671675294</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>74.3</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>803.87532036584219</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="141">
         <v>75</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>75.2</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>812.69436860100996</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
         <v>76.099999999999994</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>821.59169927281016</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>77</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>830.56722482457349</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>77.900000000000006</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>839.62226430129726</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>78.8</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>848.75813674797837</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>79.7</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>857.97613202405739</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>80.599999999999994</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>867.27608960897533</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>81.5</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>876.66069137106012</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>82.4</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>886.1282826314183</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>83.3</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>895.68292267448737</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>84.2</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>905.32574083914903</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>85.1</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>915.05492192595023</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>86</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>924.87581507876928</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>86.9</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>934.7864007992597</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="27">
         <v>87.8</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>944.79035895962818</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="27">
         <v>88.7</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>954.88970016040923</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="27">
         <v>89.6</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>965.08330075768856</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="27">
         <v>90.5</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>975.37403802087556</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="27">
         <v>91.4</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>985.76562670270039</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="27">
         <v>92.3</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>996.25513365476104</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="27">
         <v>93.2</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>1006.8482461469538</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="27">
         <v>94.1</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>1017.5405393646643</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="27">
         <v>95</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>1028.3287260192471</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="27">
         <v>95.9</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>1039.194654476122</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="27">
         <v>96.8</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>1050.0646347685943</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="28">
         <v>97.47</v>
       </c>
@@ -7069,2224 +7069,2224 @@
       <c r="K79" s="48"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="29"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="29"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="29"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="29"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="29"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="29"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="29"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="29"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="29"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="29"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="29"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="29"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="29"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="29"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="29"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="29"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="29"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="29"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="29"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="29"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="29"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="29"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="29"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="29"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="29"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="29"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="29"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="29"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="29"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="29"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="29"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="29"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="29"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="29"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="29"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="29"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="29"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="29"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="29"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="29"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="29"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="29"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="29"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="29"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="29"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="29"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="29"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="29"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="29"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="29"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="29"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="29"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="29"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="29"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="29"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="29"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="29"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="29"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="29"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="29"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="29"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="29"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="29"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="29"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="29"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="29"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="29"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="29"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="29"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="29"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="29"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="29"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="29"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="29"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="29"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="29"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="29"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="29"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="29"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="29"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="29"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="29"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="29"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="29"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="29"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="29"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="29"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="29"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="29"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="29"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="29"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="29"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="29"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="29"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="29"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="29"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="29"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="29"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="29"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="29"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="29"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="29"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="29"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="29"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="29"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="29"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="29"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="29"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="29"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="29"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="29"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="29"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="29"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="29"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="29"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="29"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="29"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="29"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="29"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="29"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="29"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="29"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="29"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="29"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="29"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="29"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="29"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="29"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="29"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="29"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="29"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="29"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="29"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="29"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="29"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="29"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="29"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="29"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="29"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="29"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="29"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="29"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="29"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="29"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="29"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="29"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="29"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="29"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="29"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="29"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="29"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="29"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="29"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="29"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="29"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="29"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="29"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="29"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="29"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="29"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="29"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="29"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="29"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="29"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="29"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="29"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="29"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="29"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="29"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="29"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="29"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="29"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="29"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="29"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="29"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="29"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="29"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="29"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="29"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="29"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="29"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="29"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="29"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="29"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="29"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="29"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="29"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="29"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="29"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="29"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="29"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="29"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="29"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="29"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="29"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="29"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="29"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="29"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="29"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="29"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="29"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="29"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="29"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="29"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="29"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="29"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="29"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="29"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="29"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="29"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="29"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="29"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="29"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="29"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="29"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="29"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="29"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="29"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="29"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="29"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="29"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="29"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="29"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="29"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="29"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="29"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="29"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="29"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="29"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="29"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="29"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="29"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="29"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="29"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="29"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="29"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="29"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="29"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="29"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="29"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="29"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="29"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="29"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="29"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="29"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="29"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="29"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="29"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="29"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="29"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="29"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="29"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="29"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="29"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="29"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="29"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="29"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="29"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="29"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="29"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="29"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="29"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="29"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="29"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="29"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="29"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="29"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="29"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="29"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="29"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="29"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="29"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="29"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="29"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="29"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="29"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="29"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="29"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="29"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="29"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="29"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="29"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="29"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="29"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="29"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="29"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="29"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="29"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="29"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="29"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="29"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="29"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="29"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="29"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="29"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="29"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="29"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="29"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="29"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="29"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="29"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="29"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="29"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="29"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="29"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="29"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="29"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="29"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="29"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="29"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="29"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="29"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="29"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="29"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="29"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="29"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="29"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="29"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="29"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="29"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="29"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="29"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="29"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="29"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="29"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="29"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="29"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="29"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="29"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="29"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="29"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="29"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="29"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="29"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="29"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="29"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="29"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="29"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="29"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="29"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="29"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="29"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="29"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="29"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="29"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="29"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="29"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="29"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="29"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="29"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="29"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="29"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="29"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="29"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="29"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="29"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="29"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="29"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="29"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="29"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="29"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="29"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="29"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="29"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="29"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="29"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="29"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="29"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="29"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="29"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="29"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="29"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="29"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="29"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="29"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="29"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="29"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="29"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="29"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="29"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="29"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="29"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="29"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="29"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="29"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="29"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="29"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="29"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="29"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="29"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="29"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="29"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="29"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="29"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="29"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="29"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="29"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="29"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="29"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="29"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="29"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="29"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="29"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="29"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="29"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="29"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="29"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="29"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="29"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="29"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="29"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="29"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="29"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="29"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="29"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="29"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="29"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="29"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="29"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="29"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="29"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="29"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="29"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="29"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="29"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="29"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="29"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="29"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="29"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="29"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="29"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="29"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="29"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="29"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="29"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="29"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="29"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="29"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="29"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="29"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="29"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="29"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="29"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="29"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="29"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="29"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="29"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="29"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="29"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="29"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="29"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="29"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="29"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="29"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="29"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="29"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="29"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="29"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="29"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="29"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="29"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="29"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="29"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="29"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="29"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="29"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="29"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="29"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="29"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="29"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="29"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="29"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="29"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="29"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="29"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="29"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="29"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="29"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="29"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="29"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="29"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="29"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="29"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="29"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="29"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="29"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="29"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="29"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="29"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="29"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="29"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="29"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="29"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="29"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="29"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="29"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="29"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="29"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="29"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="29"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="29"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="29"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="29"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="29"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="29"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="29"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="29"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="29"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="29"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="29"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="29"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="29"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="29"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="29"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="29"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="29"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="29"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="29"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="29"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="29"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="29"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="29"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="29"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="29"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="29"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="29"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="29"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="29"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="29"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="29"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="29"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="29"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="29"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="29"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="29"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="29"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="29"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="29"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="29"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="29"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="29"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="29"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="29"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="29"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="29"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="29"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="29"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="29"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="29"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="29"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="29"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="29"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="29"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="29"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="29"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="29"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="29"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="29"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="29"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="29"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="29"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="29"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="29"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="29"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="29"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="29"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="29"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="29"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="29"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="29"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="29"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="29"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="29"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="29"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="29"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="29"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="29"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="29"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="29"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="29"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="29"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="29"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="29"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="29"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="29"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="29"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="29"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="29"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="29"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="29"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="29"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="29"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="29"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="29"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="29"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="29"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="29"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="29"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="29"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="29"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="29"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="29"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="29"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="29"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="29"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="29"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="29"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="29"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="29"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="29"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="29"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="29"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="29"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="29"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="29"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="29"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="29"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="29"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="29"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="29"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="29"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="29"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="29"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="29"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="29"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="29"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="29"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="29"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="29"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="29"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="29"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="29"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="29"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="29"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="29"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="29"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="29"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="29"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="29"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="29"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="29"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="29"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="29"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="29"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="29"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="29"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="29"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="29"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="29"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="29"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="29"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="29"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="29"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="29"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="29"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="29"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="29"/>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="29"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="29"/>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="29"/>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="29"/>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="29"/>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="29"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="29"/>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="29"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="29"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="29"/>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="29"/>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="29"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="29"/>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="29"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="29"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="29"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="29"/>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="29"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="29"/>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="29"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="29"/>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="29"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="29"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="29"/>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="29"/>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="29"/>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="29"/>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="29"/>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="29"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="29"/>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="29"/>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="29"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="29"/>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="29"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="29"/>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="29"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="29"/>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="29"/>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="29"/>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="29"/>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="29"/>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="29"/>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="29"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="29"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="29"/>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="29"/>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="29"/>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="29"/>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="29"/>
     </row>
   </sheetData>
@@ -9312,57 +9312,57 @@
       <selection pane="topRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="24"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="23"/>
-    <col min="5" max="5" width="11.42578125" style="59"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="24"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="23"/>
+    <col min="5" max="5" width="11.5" style="59"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
     <col min="7" max="7" width="13" style="24" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="71" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="192"/>
       <c r="E1" s="64"/>
-      <c r="F1" s="187" t="s">
+      <c r="F1" s="193" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="132"/>
       <c r="H1" s="132"/>
-      <c r="I1" s="190" t="s">
+      <c r="I1" s="196" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="120"/>
       <c r="K1" s="84"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="192" t="s">
+      <c r="N1" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
       <c r="Q1" s="111"/>
-      <c r="R1" s="196" t="s">
+      <c r="R1" s="184" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="51"/>
@@ -9373,7 +9373,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>18</v>
       </c>
@@ -9387,21 +9387,21 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="188"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="125" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="191"/>
-      <c r="J2" s="198" t="s">
+      <c r="I2" s="197"/>
+      <c r="J2" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="199"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
-      <c r="N2" s="193"/>
+      <c r="N2" s="199"/>
       <c r="O2" s="78" t="s">
         <v>39</v>
       </c>
@@ -9411,7 +9411,7 @@
       <c r="Q2" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="197"/>
+      <c r="R2" s="185"/>
       <c r="S2" s="67"/>
       <c r="T2" t="s">
         <v>14</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
         <v>16</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="189"/>
+      <c r="F3" s="195"/>
       <c r="G3" s="121" t="s">
         <v>40</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="194"/>
+      <c r="N3" s="200"/>
       <c r="O3" s="118" t="s">
         <v>40</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="92">
         <v>32</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="92">
         <v>32.9</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>0.87815195180003003</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="92">
         <v>33.799999999999997</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="92">
         <v>34.700000000000003</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
         <v>35.6</v>
       </c>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="S8" s="50"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="92">
         <v>36.5</v>
       </c>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="S9" s="50"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="92">
         <v>37.4</v>
       </c>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="S10" s="50"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="92">
         <v>38.299999999999997</v>
       </c>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="S11" s="50"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="92">
         <v>39.200000000000003</v>
       </c>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="S12" s="50"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="92">
         <v>40.1</v>
       </c>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="S13" s="50"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="92">
         <v>41</v>
       </c>
@@ -10181,7 +10181,7 @@
       </c>
       <c r="S14" s="50"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="92">
         <v>41.9</v>
       </c>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="S15" s="50"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="92">
         <v>42.8</v>
       </c>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="S16" s="50"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="92">
         <v>43.7</v>
       </c>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="S17" s="50"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
         <v>44.6</v>
       </c>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="S18" s="50"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
         <v>45.5</v>
       </c>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="S19" s="50"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="92">
         <v>46.4</v>
       </c>
@@ -10553,7 +10553,7 @@
       </c>
       <c r="S20" s="50"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="92">
         <v>47.3</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="S21" s="50"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="92">
         <v>48.2</v>
       </c>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="S22" s="50"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="92">
         <v>49.1</v>
       </c>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="S23" s="50"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
         <v>50</v>
       </c>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="S24" s="50"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="92">
         <v>50.9</v>
       </c>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="S25" s="50"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="92">
         <v>51.8</v>
       </c>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="S26" s="50"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="92">
         <v>52.7</v>
       </c>
@@ -10987,7 +10987,7 @@
       </c>
       <c r="S27" s="50"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
         <v>53.6</v>
       </c>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="S28" s="50"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="92">
         <v>54.5</v>
       </c>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="S29" s="50"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="92">
         <v>55.4</v>
       </c>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="S30" s="50"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="92">
         <v>56.3</v>
       </c>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="S31" s="50"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="92">
         <v>57.2</v>
       </c>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="S32" s="50"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="92">
         <v>58.1</v>
       </c>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="S33" s="50"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="92">
         <v>59</v>
       </c>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="S34" s="50"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="92">
         <v>59.9</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="S35" s="50"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="92">
         <v>60.8</v>
       </c>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="S36" s="50"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="92">
         <v>61.7</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
         <v>62.6</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>2.0936732477815634E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="92">
         <v>63.5</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>1.7543651536303488E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="92">
         <v>64.400000000000006</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>2.0691309400583079E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="92">
         <v>65.3</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>1.2273017576219479E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="92">
         <v>66.2</v>
       </c>
@@ -11903,7 +11903,7 @@
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="200" t="s">
+      <c r="L42" s="189" t="s">
         <v>56</v>
       </c>
       <c r="M42" s="50"/>
@@ -11931,7 +11931,7 @@
         <v>1.3027920242960137E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="92">
         <v>67.099999999999994</v>
       </c>
@@ -11969,7 +11969,7 @@
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="200"/>
+      <c r="L43" s="189"/>
       <c r="M43" s="50"/>
       <c r="N43" s="112">
         <f t="shared" si="7"/>
@@ -11995,7 +11995,7 @@
         <v>9.7479009578968663E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="92">
         <v>68</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>5.9044695958249474E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="92">
         <v>68.900000000000006</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>7.6272438697695157E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="92">
         <v>69.8</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>4.4848753591775789E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="97">
         <v>70</v>
       </c>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="T47" s="49"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="92">
         <v>70.7</v>
       </c>
@@ -12312,7 +12312,7 @@
       <c r="R48" s="68"/>
       <c r="S48" s="50"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="92">
         <v>71.599999999999994</v>
       </c>
@@ -12361,7 +12361,7 @@
       <c r="R49" s="68"/>
       <c r="S49" s="50"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="92">
         <v>72.5</v>
       </c>
@@ -12410,7 +12410,7 @@
       <c r="R50" s="68"/>
       <c r="S50" s="50"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="92">
         <v>73.400000000000006</v>
       </c>
@@ -12461,7 +12461,7 @@
       <c r="R51" s="68"/>
       <c r="S51" s="50"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="92">
         <v>74.3</v>
       </c>
@@ -12510,7 +12510,7 @@
       <c r="R52" s="68"/>
       <c r="S52" s="50"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="97">
         <v>75</v>
       </c>
@@ -12563,7 +12563,7 @@
       <c r="S53" s="47"/>
       <c r="T53" s="40"/>
     </row>
-    <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="92">
         <v>75.2</v>
       </c>
@@ -12592,7 +12592,7 @@
       <c r="R54" s="68"/>
       <c r="S54" s="50"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="92">
         <v>76.099999999999994</v>
       </c>
@@ -12626,7 +12626,7 @@
       <c r="R55" s="70"/>
       <c r="S55" s="17"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="92">
         <v>77</v>
       </c>
@@ -12660,7 +12660,7 @@
       <c r="R56" s="70"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="92">
         <v>77.900000000000006</v>
       </c>
@@ -12694,7 +12694,7 @@
       <c r="R57" s="70"/>
       <c r="S57" s="17"/>
     </row>
-    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="92">
         <v>78.8</v>
       </c>
@@ -12728,7 +12728,7 @@
       <c r="R58" s="70"/>
       <c r="S58" s="17"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="92">
         <v>79.7</v>
       </c>
@@ -12757,7 +12757,7 @@
       <c r="R59" s="70"/>
       <c r="S59" s="17"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="92">
         <v>80.599999999999994</v>
       </c>
@@ -12771,22 +12771,22 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="183"/>
-      <c r="G60" s="183"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="186"/>
       <c r="H60" s="38"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="183"/>
-      <c r="O60" s="183"/>
+      <c r="N60" s="186"/>
+      <c r="O60" s="186"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="70"/>
       <c r="S60" s="17"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="92">
         <v>81.5</v>
       </c>
@@ -12815,7 +12815,7 @@
       <c r="R61" s="70"/>
       <c r="S61" s="17"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="92">
         <v>82.4</v>
       </c>
@@ -12844,7 +12844,7 @@
       <c r="R62" s="70"/>
       <c r="S62" s="17"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="92">
         <v>83.3</v>
       </c>
@@ -12873,7 +12873,7 @@
       <c r="R63" s="70"/>
       <c r="S63" s="17"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="92">
         <v>84.2</v>
       </c>
@@ -12902,7 +12902,7 @@
       <c r="R64" s="70"/>
       <c r="S64" s="17"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="92">
         <v>85.1</v>
       </c>
@@ -12931,7 +12931,7 @@
       <c r="R65" s="70"/>
       <c r="S65" s="17"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="92">
         <v>86</v>
       </c>
@@ -12960,7 +12960,7 @@
       <c r="R66" s="70"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="92">
         <v>86.9</v>
       </c>
@@ -12989,7 +12989,7 @@
       <c r="R67" s="70"/>
       <c r="S67" s="17"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="92">
         <v>87.8</v>
       </c>
@@ -13018,7 +13018,7 @@
       <c r="R68" s="70"/>
       <c r="S68" s="17"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="92">
         <v>88.7</v>
       </c>
@@ -13047,7 +13047,7 @@
       <c r="R69" s="70"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="92">
         <v>89.6</v>
       </c>
@@ -13076,7 +13076,7 @@
       <c r="R70" s="70"/>
       <c r="S70" s="17"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="92">
         <v>90.5</v>
       </c>
@@ -13105,7 +13105,7 @@
       <c r="R71" s="70"/>
       <c r="S71" s="17"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="92">
         <v>91.4</v>
       </c>
@@ -13134,7 +13134,7 @@
       <c r="R72" s="70"/>
       <c r="S72" s="17"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="92">
         <v>92.3</v>
       </c>
@@ -13163,7 +13163,7 @@
       <c r="R73" s="70"/>
       <c r="S73" s="17"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="92">
         <v>93.2</v>
       </c>
@@ -13192,7 +13192,7 @@
       <c r="R74" s="70"/>
       <c r="S74" s="17"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="92">
         <v>94.1</v>
       </c>
@@ -13221,7 +13221,7 @@
       <c r="R75" s="70"/>
       <c r="S75" s="17"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="92">
         <v>95</v>
       </c>
@@ -13250,7 +13250,7 @@
       <c r="R76" s="70"/>
       <c r="S76" s="17"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="92">
         <v>95.9</v>
       </c>
@@ -13279,7 +13279,7 @@
       <c r="R77" s="70"/>
       <c r="S77" s="17"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="92">
         <v>96.8</v>
       </c>
@@ -13308,7 +13308,7 @@
       <c r="R78" s="70"/>
       <c r="S78" s="17"/>
     </row>
-    <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="101">
         <v>97.47</v>
       </c>
@@ -13338,2238 +13338,2238 @@
       <c r="S79" s="17"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="29"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="29"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="29"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="29"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="29"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="29"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="29"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="29"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="29"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="29"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="29"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="29"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="29"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="29"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="29"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="29"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="29"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="29"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="29"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="29"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="29"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="29"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="29"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="29"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="29"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="29"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="29"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="29"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="29"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="29"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="29"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="29"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="29"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="29"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="29"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="29"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="29"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="29"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="29"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="29"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="29"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="29"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="29"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="29"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="29"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="29"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="29"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="29"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="29"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="29"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="29"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="29"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="29"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="29"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="29"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="29"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="29"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="29"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="29"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="29"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="29"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="29"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="29"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="29"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="29"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="29"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="29"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="29"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="29"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="29"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="29"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="29"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="29"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="29"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="29"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="29"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="29"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="29"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="29"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="29"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="29"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="29"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="29"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="29"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="29"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="29"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="29"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="29"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="29"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="29"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="29"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="29"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="29"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="29"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="29"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="29"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="29"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="29"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="29"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="29"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="29"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="29"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="29"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="29"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="29"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="29"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="29"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="29"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="29"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="29"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="29"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="29"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="29"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="29"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="29"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="29"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="29"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="29"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="29"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="29"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="29"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="29"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="29"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="29"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="29"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="29"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="29"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="29"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="29"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="29"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="29"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="29"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="29"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="29"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="29"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="29"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="29"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="29"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="29"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="29"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="29"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="29"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="29"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="29"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="29"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="29"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="29"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="29"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="29"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="29"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="29"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="29"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="29"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="29"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="29"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="29"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="29"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="29"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="29"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="29"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="29"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="29"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="29"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="29"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="29"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="29"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="29"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="29"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="29"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="29"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="29"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="29"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="29"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="29"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="29"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="29"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="29"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="29"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="29"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="29"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="29"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="29"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="29"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="29"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="29"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="29"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="29"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="29"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="29"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="29"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="29"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="29"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="29"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="29"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="29"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="29"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="29"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="29"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="29"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="29"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="29"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="29"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="29"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="29"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="29"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="29"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="29"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="29"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="29"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="29"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="29"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="29"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="29"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="29"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="29"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="29"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="29"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="29"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="29"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="29"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="29"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="29"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="29"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="29"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="29"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="29"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="29"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="29"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="29"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="29"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="29"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="29"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="29"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="29"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="29"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="29"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="29"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="29"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="29"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="29"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="29"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="29"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="29"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="29"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="29"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="29"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="29"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="29"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="29"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="29"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="29"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="29"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="29"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="29"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="29"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="29"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="29"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="29"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="29"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="29"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="29"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="29"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="29"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="29"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="29"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="29"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="29"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="29"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="29"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="29"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="29"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="29"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="29"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="29"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="29"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="29"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="29"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="29"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="29"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="29"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="29"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="29"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="29"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="29"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="29"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="29"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="29"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="29"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="29"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="29"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="29"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="29"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="29"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="29"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="29"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="29"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="29"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="29"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="29"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="29"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="29"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="29"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="29"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="29"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="29"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="29"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="29"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="29"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="29"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="29"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="29"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="29"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="29"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="29"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="29"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="29"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="29"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="29"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="29"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="29"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="29"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="29"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="29"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="29"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="29"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="29"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="29"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="29"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="29"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="29"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="29"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="29"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="29"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="29"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="29"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="29"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="29"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="29"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="29"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="29"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="29"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="29"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="29"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="29"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="29"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="29"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="29"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="29"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="29"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="29"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="29"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="29"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="29"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="29"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="29"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="29"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="29"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="29"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="29"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="29"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="29"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="29"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="29"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="29"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="29"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="29"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="29"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="29"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="29"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="29"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="29"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="29"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="29"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="29"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="29"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="29"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="29"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="29"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="29"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="29"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="29"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="29"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="29"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="29"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="29"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="29"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="29"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="29"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="29"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="29"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="29"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="29"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="29"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="29"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="29"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="29"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="29"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="29"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="29"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="29"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="29"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="29"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="29"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="29"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="29"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="29"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="29"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="29"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="29"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="29"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="29"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="29"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="29"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="29"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="29"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="29"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="29"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="29"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="29"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="29"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="29"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="29"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="29"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="29"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="29"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="29"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="29"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="29"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="29"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="29"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="29"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="29"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="29"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="29"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="29"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="29"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="29"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="29"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="29"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="29"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="29"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="29"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="29"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="29"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="29"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="29"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="29"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="29"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="29"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="29"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="29"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="29"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="29"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="29"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="29"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="29"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="29"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="29"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="29"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="29"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="29"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="29"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="29"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="29"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="29"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="29"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="29"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="29"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="29"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="29"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="29"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="29"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="29"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="29"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="29"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="29"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="29"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="29"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="29"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="29"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="29"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="29"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="29"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="29"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="29"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="29"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="29"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="29"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="29"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="29"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="29"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="29"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="29"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="29"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="29"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="29"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="29"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="29"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="29"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="29"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="29"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="29"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="29"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="29"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="29"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="29"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="29"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="29"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="29"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="29"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="29"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="29"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="29"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="29"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="29"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="29"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="29"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="29"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="29"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="29"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="29"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="29"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="29"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="29"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="29"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="29"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="29"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="29"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="29"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="29"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="29"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="29"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="29"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="29"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="29"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="29"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="29"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="29"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="29"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="29"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="29"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="29"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="29"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="29"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="29"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="29"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="29"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="29"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="29"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="29"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="29"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="29"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="29"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="29"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="29"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="29"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="29"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="29"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="29"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="29"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="29"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="29"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="29"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="29"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="29"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="29"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="29"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="29"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="29"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="29"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="29"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="29"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="29"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="29"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="29"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="29"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="29"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="29"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="29"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="29"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="29"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="29"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="29"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="29"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="29"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="29"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="29"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="29"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="29"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="29"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="29"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="29"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="29"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="29"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="29"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="29"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="29"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="29"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="29"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="29"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="29"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="29"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="29"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="29"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="29"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="29"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="29"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="29"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="29"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="29"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="29"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="29"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="29"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="29"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="29"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="29"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="29"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="29"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="29"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="29"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="29"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="29"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="29"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="29"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="29"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="29"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="29"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="29"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="29"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="29"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="29"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="29"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="29"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="29"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="29"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="29"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="29"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="29"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="29"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="29"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="29"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="29"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="29"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="29"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="29"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="29"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="29"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="29"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="29"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="29"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="29"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="29"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="29"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="29"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="29"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="29"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="29"/>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="29"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="29"/>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="29"/>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="29"/>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="29"/>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="29"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="29"/>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="29"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="29"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="29"/>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="29"/>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="29"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="29"/>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="29"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="29"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="29"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="29"/>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="29"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="29"/>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="29"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="29"/>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="29"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="29"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="29"/>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="29"/>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="29"/>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="29"/>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="29"/>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="29"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="29"/>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="29"/>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="29"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="29"/>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="29"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="29"/>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="29"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="29"/>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="29"/>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="29"/>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="29"/>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="29"/>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="29"/>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="29"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="29"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="29"/>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="29"/>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="29"/>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="29"/>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="N60:O60"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L42:L43"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="N1:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15585,15 +15585,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
         <v>64</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
         <v>65</v>
       </c>
@@ -15616,7 +15616,7 @@
       </c>
       <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>66</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>67</v>
       </c>
@@ -15664,19 +15664,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD2FB6F-B5B6-45D0-A077-A1579B76EE79}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="160" t="s">
         <v>94</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>72</v>
       </c>
       <c r="I1">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="L1" t="s">
         <v>80</v>
@@ -15693,7 +15693,7 @@
         <v>32.164000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="H5" s="164" t="s">
@@ -15752,7 +15752,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="H6" s="164" t="s">
@@ -15763,7 +15763,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
         <v>93</v>
       </c>
@@ -15772,13 +15772,13 @@
       </c>
       <c r="I7" s="162"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="156" t="s">
         <v>96</v>
       </c>
       <c r="B8">
         <f>I16*I18/(PI()*('BPV Calcs'!B12-(2*'RT Mounting Bolt Calcs'!I1))*'RT Mounting Bolt Calcs'!I1)</f>
-        <v>1096.072768348881</v>
+        <v>569.11470664268825</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -15791,7 +15791,7 @@
         <v>6.1820000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="156" t="s">
         <v>102</v>
       </c>
@@ -15807,13 +15807,13 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="40">
         <f>B9/B8</f>
-        <v>30.107490079979861</v>
+        <v>57.984795709590841</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>76</v>
@@ -15823,7 +15823,7 @@
         <v>199.06040000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
         <v>81</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>23.375</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="161" t="s">
         <v>97</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>0.72674418604651159</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -15858,16 +15858,16 @@
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
       <c r="B15">
         <f>I16/(2*B14*I1)</f>
-        <v>3910.3374089336367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1955.1687044668183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -15885,13 +15885,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="40">
         <f>B16/B15</f>
-        <v>6.3933101892651232</v>
+        <v>12.786620378530246</v>
       </c>
       <c r="H17" s="166" t="s">
         <v>106</v>
@@ -15900,7 +15900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H18" s="157" t="s">
         <v>84</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="159" t="s">
         <v>85</v>
       </c>
@@ -15919,22 +15919,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="73" t="s">
         <v>104</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>105</v>
       </c>
       <c r="B21">
         <f>I16/(I1*I19)</f>
-        <v>11621.522779350767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5810.7613896753837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -15943,30 +15943,30 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="40">
         <f>B22/B21</f>
-        <v>2.8395590342631101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.6791180685262201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>111</v>
       </c>
       <c r="B26">
         <f>I16/(I1*I19)</f>
-        <v>11621.522779350767</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5810.7613896753837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -15975,13 +15975,13 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="40">
         <f>B27/B26</f>
-        <v>7.3140156943140715</v>
+        <v>14.628031388628143</v>
       </c>
     </row>
   </sheetData>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765CA2E2-F615-E345-89B0-E11C507C9083}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44280B-34F7-2B41-BBD7-33971997793D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs" sheetId="1" r:id="rId1"/>
@@ -1458,26 +1458,8 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1511,6 +1493,24 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4196,8 +4196,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.18273382537491975</v>
+        <v>0.16390749311635519</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4287,14 +4287,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>8.7434072670902876E-2</v>
+        <v>7.8775436569913954E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="E10" s="13">
         <f>MAX(E8:E9)</f>
-        <v>0.18273382537491975</v>
+        <v>0.16390749311635519</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="E12" s="134">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>8.8868560081423062E-2</v>
+        <v>7.993798731126131E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E13" s="136">
         <f>E12</f>
-        <v>8.8868560081423062E-2</v>
+        <v>7.993798731126131E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9337,32 +9337,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="192"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="64"/>
-      <c r="F1" s="193" t="s">
+      <c r="F1" s="187" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="132"/>
       <c r="H1" s="132"/>
-      <c r="I1" s="196" t="s">
+      <c r="I1" s="190" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="120"/>
       <c r="K1" s="84"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="198" t="s">
+      <c r="N1" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
       <c r="Q1" s="111"/>
-      <c r="R1" s="184" t="s">
+      <c r="R1" s="196" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="51"/>
@@ -9387,21 +9387,21 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="194"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="125" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="197"/>
-      <c r="J2" s="187" t="s">
+      <c r="I2" s="191"/>
+      <c r="J2" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="199"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
-      <c r="N2" s="199"/>
+      <c r="N2" s="193"/>
       <c r="O2" s="78" t="s">
         <v>39</v>
       </c>
@@ -9411,7 +9411,7 @@
       <c r="Q2" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="185"/>
+      <c r="R2" s="197"/>
       <c r="S2" s="67"/>
       <c r="T2" t="s">
         <v>14</v>
@@ -9435,7 +9435,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="195"/>
+      <c r="F3" s="189"/>
       <c r="G3" s="121" t="s">
         <v>40</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="200"/>
+      <c r="N3" s="194"/>
       <c r="O3" s="118" t="s">
         <v>40</v>
       </c>
@@ -11903,7 +11903,7 @@
         <f t="shared" si="6"/>
         <v>3.5027944354325262</v>
       </c>
-      <c r="L42" s="189" t="s">
+      <c r="L42" s="200" t="s">
         <v>56</v>
       </c>
       <c r="M42" s="50"/>
@@ -11969,7 +11969,7 @@
         <f t="shared" si="6"/>
         <v>3.295912989159274</v>
       </c>
-      <c r="L43" s="189"/>
+      <c r="L43" s="200"/>
       <c r="M43" s="50"/>
       <c r="N43" s="112">
         <f t="shared" si="7"/>
@@ -12771,16 +12771,16 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="186"/>
+      <c r="F60" s="183"/>
+      <c r="G60" s="183"/>
       <c r="H60" s="38"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="186"/>
-      <c r="O60" s="186"/>
+      <c r="N60" s="183"/>
+      <c r="O60" s="183"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="70"/>
@@ -15560,16 +15560,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L42:L43"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L42:L43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15664,7 +15664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD2FB6F-B5B6-45D0-A077-A1579B76EE79}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F2B51-AC73-FC47-AA46-0EA94B45A354}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91995C7-004E-9747-86EC-DBE4FB33F75D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="5" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="BPV Calcs" sheetId="1" r:id="rId1"/>
-    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId2"/>
-    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId3"/>
-    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId4"/>
-    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId5"/>
-    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId6"/>
+    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId1"/>
+    <sheet name="BPV Calcs - T51" sheetId="7" r:id="rId2"/>
+    <sheet name="BPV Calcs - T6" sheetId="1" r:id="rId3"/>
+    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId4"/>
+    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId5"/>
+    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId6"/>
+    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -446,6 +447,15 @@
   <si>
     <t>Actual Tank Volume</t>
   </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t>NO PWHT</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
 </sst>
 </file>
 
@@ -457,7 +467,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,8 +626,37 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,8 +681,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -931,11 +991,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1337,15 +1415,6 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1370,8 +1439,36 @@
     <xf numFmtId="166" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="25" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4050,24 +4147,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC6F123-32E7-44A1-9243-3BCDE965A118}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4CC0F4-5ED0-0840-90E0-925922EF4438}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
         <v>6</v>
       </c>
@@ -4076,8 +4172,9 @@
       <c r="D1" s="147"/>
       <c r="E1" s="147"/>
       <c r="F1" s="147"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G1" s="147"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="148" t="s">
         <v>11</v>
       </c>
@@ -4086,8 +4183,9 @@
       <c r="D2" s="148"/>
       <c r="E2" s="148"/>
       <c r="F2" s="148"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="148"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="150" t="s">
         <v>12</v>
       </c>
@@ -4096,136 +4194,153 @@
       <c r="D3" s="150"/>
       <c r="E3" s="150"/>
       <c r="F3" s="150"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="150"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="185" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="149" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="149"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="175"/>
+      <c r="E5" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="149"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="149"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
         <v>825</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>3.25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.18247949121636881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.34420897681376578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>0.9</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="59"/>
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>8.731761067402441E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>0.15866137015893755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="13">
-        <f>MAX(E8:E9)</f>
-        <v>0.18247949121636881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="13">
+        <f>MAX(F8:F9)</f>
+        <v>0.34420897681376578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>33000</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>18000</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="E12" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="111">
+      <c r="F12" s="111">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>8.874824789701645E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.16344900899936077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="172">
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="C13" s="181">
+        <f>B13/F10</f>
+        <v>0.65367266735096285</v>
+      </c>
+      <c r="E13" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="113">
-        <f>E12</f>
-        <v>8.874824789701645E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="113">
+        <f>F12</f>
+        <v>0.16344900899936077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="123">
-        <v>0.125</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="B14" s="172">
+        <v>0.15</v>
+      </c>
+      <c r="C14" s="181">
+        <f>B14/F13</f>
+        <v>0.91771740262179646</v>
+      </c>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
@@ -4233,10 +4348,11 @@
         <f>'N2O Pressure Calcs'!H53</f>
         <v>806.61716630606907</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="C16" s="178"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
@@ -4244,17 +4360,19 @@
         <f>B10*B16</f>
         <v>1613.2343326121381</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="C17" s="179"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="60"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57" t="s">
         <v>58</v>
       </c>
@@ -4262,47 +4380,55 @@
         <f>'N2O Pressure Calcs'!J53</f>
         <v>809.64703151146546</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="C19" s="180"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55"/>
       <c r="B28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="55"/>
       <c r="B29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="55"/>
       <c r="B30" s="21"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4310,6 +4436,585 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC2D1F1-413C-E74A-9F7B-3532D6FDA3DC}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="184" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="149"/>
+      <c r="C5" s="175"/>
+      <c r="E5" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="149"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>825</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3.25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
+        <v>0.2171733361278812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
+        <v>0.10307640428670727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <f>MAX(F8:F9)</f>
+        <v>0.2171733361278812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>27900</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="111">
+        <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
+        <v>0.10507594595176556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="173">
+        <f>0.25-0.025</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C13" s="182">
+        <f>B13/F10</f>
+        <v>1.0360387882401463</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="113">
+        <f>F12</f>
+        <v>0.10507594595176556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="123">
+        <v>0.15</v>
+      </c>
+      <c r="C14" s="177">
+        <f>B14/F13</f>
+        <v>1.4275388971407075</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="126">
+        <f>'N2O Pressure Calcs'!H53</f>
+        <v>806.61716630606907</v>
+      </c>
+      <c r="C16" s="178"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="128">
+        <f>B10*B16</f>
+        <v>1613.2343326121381</v>
+      </c>
+      <c r="C17" s="179"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="127">
+        <f>'N2O Pressure Calcs'!J53</f>
+        <v>809.64703151146546</v>
+      </c>
+      <c r="C19" s="180"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="54"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC6F123-32E7-44A1-9243-3BCDE965A118}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="183" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="149"/>
+      <c r="C5" s="175"/>
+      <c r="E5" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="149"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>825</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3.25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
+        <v>0.18247949121636881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
+        <v>8.731761067402441E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <f>MAX(F8:F9)</f>
+        <v>0.18247949121636881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>33000</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="111">
+        <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
+        <v>8.874824789701645E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="174">
+        <f>0.25-0.025</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C13" s="176">
+        <f>B13/F10</f>
+        <v>1.2330152747588163</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="113">
+        <f>F12</f>
+        <v>8.874824789701645E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="174">
+        <v>0.15</v>
+      </c>
+      <c r="C14" s="176">
+        <f>B14/F13</f>
+        <v>1.6901742124989345</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="126">
+        <f>'N2O Pressure Calcs'!H53</f>
+        <v>806.61716630606907</v>
+      </c>
+      <c r="C16" s="178"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="128">
+        <f>B10*B16</f>
+        <v>1613.2343326121381</v>
+      </c>
+      <c r="C17" s="179"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="127">
+        <f>'N2O Pressure Calcs'!J53</f>
+        <v>809.64703151146546</v>
+      </c>
+      <c r="C19" s="180"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="54"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2381E3-ED84-DB4C-A4E2-7857F2E34756}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
@@ -4400,7 +5105,7 @@
         <v>31</v>
       </c>
       <c r="P2">
-        <f>'BPV Calcs'!B8</f>
+        <f>'BPV Calcs - T6'!B8</f>
         <v>3.25</v>
       </c>
     </row>
@@ -9160,7 +9865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32C0C-ED9A-4805-89D4-96E4CF8ECC22}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P819"/>
@@ -9189,20 +9894,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
       <c r="E1" s="63"/>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="164" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
-      <c r="J1" s="170" t="s">
+      <c r="J1" s="167" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="100"/>
@@ -9232,7 +9937,7 @@
       <c r="E2" s="50">
         <v>0.75122497093492424</v>
       </c>
-      <c r="F2" s="168"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="105" t="s">
         <v>39</v>
       </c>
@@ -9242,11 +9947,11 @@
       <c r="I2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="161" t="s">
+      <c r="J2" s="168"/>
+      <c r="K2" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="162"/>
+      <c r="L2" s="170"/>
       <c r="M2" s="64"/>
       <c r="N2" s="66"/>
       <c r="O2" t="s">
@@ -9271,7 +9976,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="169"/>
+      <c r="F3" s="166"/>
       <c r="G3" s="101" t="s">
         <v>40</v>
       </c>
@@ -9336,7 +10041,7 @@
         <v>0.12966423767093513</v>
       </c>
       <c r="K4" s="69">
-        <f>IF(J4&gt;0, ('BPV Calcs'!$B$8/12)+(J4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J4&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J4/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.83351933171067216</v>
       </c>
       <c r="L4" s="77">
@@ -9386,7 +10091,7 @@
         <v>0.12806370687434152</v>
       </c>
       <c r="K5" s="69">
-        <f>IF(J5&gt;0, ('BPV Calcs'!$B$8/12)+(J5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J5&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J5/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.82657372908814719</v>
       </c>
       <c r="L5" s="77">
@@ -9436,7 +10141,7 @@
         <v>0.12643767460566988</v>
       </c>
       <c r="K6" s="69">
-        <f>IF(J6&gt;0, ('BPV Calcs'!$B$8/12)+(J6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J6&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J6/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.8195174612464835</v>
       </c>
       <c r="L6" s="77">
@@ -9486,7 +10191,7 @@
         <v>0.12478705276957802</v>
       </c>
       <c r="K7" s="69">
-        <f>IF(J7&gt;0, ('BPV Calcs'!$B$8/12)+(J7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J7&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J7/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.81235448545248023</v>
       </c>
       <c r="L7" s="77">
@@ -9537,7 +10242,7 @@
         <v>0.12311060452519362</v>
       </c>
       <c r="K8" s="69">
-        <f>IF(J8&gt;0, ('BPV Calcs'!$B$8/12)+(J8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J8&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J8/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.80507943435848994</v>
       </c>
       <c r="L8" s="77">
@@ -9581,7 +10286,7 @@
         <v>0.12140704769548594</v>
       </c>
       <c r="K9" s="69">
-        <f>IF(J9&gt;0, ('BPV Calcs'!$B$8/12)+(J9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J9&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J9/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.79768674387779392</v>
       </c>
       <c r="L9" s="77">
@@ -9625,7 +10330,7 @@
         <v>0.11967505574043416</v>
       </c>
       <c r="K10" s="69">
-        <f>IF(J10&gt;0, ('BPV Calcs'!$B$8/12)+(J10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J10&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J10/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.79017065740772896</v>
       </c>
       <c r="L10" s="77">
@@ -9672,7 +10377,7 @@
         <v>0.11791549767875845</v>
       </c>
       <c r="K11" s="69">
-        <f>IF(J11&gt;0, ('BPV Calcs'!$B$8/12)+(J11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J11&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J11/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.78253494610890839</v>
       </c>
       <c r="L11" s="77">
@@ -9722,7 +10427,7 @@
         <v>0.11612475278581602</v>
       </c>
       <c r="K12" s="69">
-        <f>IF(J12&gt;0, ('BPV Calcs'!$B$8/12)+(J12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J12&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J12/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.7747638976222655</v>
       </c>
       <c r="L12" s="77">
@@ -9766,7 +10471,7 @@
         <v>0.11430438712242039</v>
       </c>
       <c r="K13" s="69">
-        <f>IF(J13&gt;0, ('BPV Calcs'!$B$8/12)+(J13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J13&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J13/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.76686430796579397</v>
       </c>
       <c r="L13" s="77">
@@ -9810,7 +10515,7 @@
         <v>0.11245142742662848</v>
       </c>
       <c r="K14" s="69">
-        <f>IF(J14&gt;0, ('BPV Calcs'!$B$8/12)+(J14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J14&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J14/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.75882327448495346</v>
       </c>
       <c r="L14" s="77">
@@ -9854,7 +10559,7 @@
         <v>0.11056588029110168</v>
       </c>
       <c r="K15" s="69">
-        <f>IF(J15&gt;0, ('BPV Calcs'!$B$8/12)+(J15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J15&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J15/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.75064082578900704</v>
       </c>
       <c r="L15" s="77">
@@ -9898,7 +10603,7 @@
         <v>0.10864541522819371</v>
       </c>
       <c r="K16" s="69">
-        <f>IF(J16&gt;0, ('BPV Calcs'!$B$8/12)+(J16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J16&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J16/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.74230684858232654</v>
       </c>
       <c r="L16" s="77">
@@ -9942,7 +10647,7 @@
         <v>0.10668918210272077</v>
       </c>
       <c r="K17" s="69">
-        <f>IF(J17&gt;0, ('BPV Calcs'!$B$8/12)+(J17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J17&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J17/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.73381765365057472</v>
       </c>
       <c r="L17" s="77">
@@ -9986,7 +10691,7 @@
         <v>0.10469629877804729</v>
       </c>
       <c r="K18" s="69">
-        <f>IF(J18&gt;0, ('BPV Calcs'!$B$8/12)+(J18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J18&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J18/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.72516941290713033</v>
       </c>
       <c r="L18" s="77">
@@ -10030,7 +10735,7 @@
         <v>0.10266504611208821</v>
       </c>
       <c r="K19" s="69">
-        <f>IF(J19&gt;0, ('BPV Calcs'!$B$8/12)+(J19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J19&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J19/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.71635466602833064</v>
       </c>
       <c r="L19" s="77">
@@ -10074,7 +10779,7 @@
         <v>0.10059363408232053</v>
       </c>
       <c r="K20" s="69">
-        <f>IF(J20&gt;0, ('BPV Calcs'!$B$8/12)+(J20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J20&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J20/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.70736564510045818</v>
       </c>
       <c r="L20" s="77">
@@ -10118,7 +10823,7 @@
         <v>9.848101353153299E-2</v>
       </c>
       <c r="K21" s="69">
-        <f>IF(J21&gt;0, ('BPV Calcs'!$B$8/12)+(J21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J21&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J21/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.69819779724074849</v>
       </c>
       <c r="L21" s="77">
@@ -10162,7 +10867,7 @@
         <v>9.632444908848023E-2</v>
       </c>
       <c r="K22" s="69">
-        <f>IF(J22&gt;0, ('BPV Calcs'!$B$8/12)+(J22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J22&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J22/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.68883925213609309</v>
       </c>
       <c r="L22" s="77">
@@ -10206,7 +10911,7 @@
         <v>9.4122743394102121E-2</v>
       </c>
       <c r="K23" s="69">
-        <f>IF(J23&gt;0, ('BPV Calcs'!$B$8/12)+(J23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J23&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J23/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.67928481377261574</v>
       </c>
       <c r="L23" s="77">
@@ -10250,7 +10955,7 @@
         <v>9.1873812462305915E-2</v>
       </c>
       <c r="K24" s="69">
-        <f>IF(J24&gt;0, ('BPV Calcs'!$B$8/12)+(J24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J24&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J24/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.66952543856346303</v>
       </c>
       <c r="L24" s="77">
@@ -10294,7 +10999,7 @@
         <v>8.9576320969372958E-2</v>
       </c>
       <c r="K25" s="69">
-        <f>IF(J25&gt;0, ('BPV Calcs'!$B$8/12)+(J25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J25&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J25/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.65955533178856918</v>
       </c>
       <c r="L25" s="77">
@@ -10338,7 +11043,7 @@
         <v>8.7227161748198945E-2</v>
       </c>
       <c r="K26" s="69">
-        <f>IF(J26&gt;0, ('BPV Calcs'!$B$8/12)+(J26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J26&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J26/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.6493610097036453</v>
       </c>
       <c r="L26" s="77">
@@ -10382,7 +11087,7 @@
         <v>8.4823948007446998E-2</v>
       </c>
       <c r="K27" s="69">
-        <f>IF(J27&gt;0, ('BPV Calcs'!$B$8/12)+(J27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J27&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J27/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.63893211467970712</v>
       </c>
       <c r="L27" s="77">
@@ -10426,7 +11131,7 @@
         <v>8.2365054687227046E-2</v>
       </c>
       <c r="K28" s="69">
-        <f>IF(J28&gt;0, ('BPV Calcs'!$B$8/12)+(J28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J28&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J28/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.62826159466861031</v>
       </c>
       <c r="L28" s="77">
@@ -10470,7 +11175,7 @@
         <v>7.9846120423864908E-2</v>
       </c>
       <c r="K29" s="69">
-        <f>IF(J29&gt;0, ('BPV Calcs'!$B$8/12)+(J29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J29&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J29/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.6173305232622921</v>
       </c>
       <c r="L29" s="77">
@@ -10514,7 +11219,7 @@
         <v>7.726615046219501E-2</v>
       </c>
       <c r="K30" s="69">
-        <f>IF(J30&gt;0, ('BPV Calcs'!$B$8/12)+(J30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J30&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J30/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.60613458365903794</v>
       </c>
       <c r="L30" s="77">
@@ -10561,7 +11266,7 @@
         <v>7.4621377051988541E-2</v>
       </c>
       <c r="K31" s="69">
-        <f>IF(J31&gt;0, ('BPV Calcs'!$B$8/12)+(J31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J31&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J31/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.59465742547313483</v>
       </c>
       <c r="L31" s="77">
@@ -10608,7 +11313,7 @@
         <v>7.1908754921387402E-2</v>
       </c>
       <c r="K32" s="69">
-        <f>IF(J32&gt;0, ('BPV Calcs'!$B$8/12)+(J32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J32&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J32/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.58288583355855172</v>
       </c>
       <c r="L32" s="77">
@@ -10655,7 +11360,7 @@
         <v>6.9124148058502033E-2</v>
       </c>
       <c r="K33" s="69">
-        <f>IF(J33&gt;0, ('BPV Calcs'!$B$8/12)+(J33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J33&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J33/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.57080185943526685</v>
       </c>
       <c r="L33" s="77">
@@ -10702,7 +11407,7 @@
         <v>6.6264133900528099E-2</v>
       </c>
       <c r="K34" s="69">
-        <f>IF(J34&gt;0, ('BPV Calcs'!$B$8/12)+(J34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J34&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J34/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.55839065067979654</v>
       </c>
       <c r="L34" s="77">
@@ -10749,7 +11454,7 @@
         <v>6.3324148383448242E-2</v>
       </c>
       <c r="K35" s="69">
-        <f>IF(J35&gt;0, ('BPV Calcs'!$B$8/12)+(J35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J35&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J35/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.54563240125337198</v>
       </c>
       <c r="L35" s="77">
@@ -10796,7 +11501,7 @@
         <v>6.0300327577849082E-2</v>
       </c>
       <c r="K36" s="69">
-        <f>IF(J36&gt;0, ('BPV Calcs'!$B$8/12)+(J36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J36&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J36/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.53251034339474523</v>
       </c>
       <c r="L36" s="77">
@@ -10843,7 +11548,7 @@
         <v>5.7187601803058395E-2</v>
       </c>
       <c r="K37" s="69">
-        <f>IF(J37&gt;0, ('BPV Calcs'!$B$8/12)+(J37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J37&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J37/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.51900247691032608</v>
       </c>
       <c r="L37" s="77">
@@ -10890,7 +11595,7 @@
         <v>5.3980596922350126E-2</v>
       </c>
       <c r="K38" s="69">
-        <f>IF(J38&gt;0, ('BPV Calcs'!$B$8/12)+(J38/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J38&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J38/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.50508548040060286</v>
       </c>
       <c r="L38" s="77">
@@ -10937,7 +11642,7 @@
         <v>5.0673604184623709E-2</v>
       </c>
       <c r="K39" s="69">
-        <f>IF(J39&gt;0, ('BPV Calcs'!$B$8/12)+(J39/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J39&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J39/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.49073458038623985</v>
       </c>
       <c r="L39" s="77">
@@ -10984,7 +11689,7 @@
         <v>4.7261565071100554E-2</v>
       </c>
       <c r="K40" s="69">
-        <f>IF(J40&gt;0, ('BPV Calcs'!$B$8/12)+(J40/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J40&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J40/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.4759278251113761</v>
       </c>
       <c r="L40" s="77">
@@ -11031,7 +11736,7 @@
         <v>4.3735990358310668E-2</v>
       </c>
       <c r="K41" s="69">
-        <f>IF(J41&gt;0, ('BPV Calcs'!$B$8/12)+(J41/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J41&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J41/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.46062837506444343</v>
       </c>
       <c r="L41" s="77">
@@ -11078,14 +11783,14 @@
         <v>4.0089920799285132E-2</v>
       </c>
       <c r="K42" s="69">
-        <f>IF(J42&gt;0, ('BPV Calcs'!$B$8/12)+(J42/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J42&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J42/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.44480603016175646</v>
       </c>
       <c r="L42" s="77">
         <f t="shared" si="4"/>
         <v>5.3376723619410775</v>
       </c>
-      <c r="M42" s="163" t="s">
+      <c r="M42" s="171" t="s">
         <v>53</v>
       </c>
       <c r="N42" s="50"/>
@@ -11127,14 +11832,14 @@
         <v>3.6315906258515572E-2</v>
       </c>
       <c r="K43" s="69">
-        <f>IF(J43&gt;0, ('BPV Calcs'!$B$8/12)+(J43/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J43&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J43/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.42842846007837854</v>
       </c>
       <c r="L43" s="77">
         <f t="shared" si="4"/>
         <v>5.1411415209405424</v>
       </c>
-      <c r="M43" s="163"/>
+      <c r="M43" s="171"/>
       <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -11174,7 +11879,7 @@
         <v>3.2404875549338429E-2</v>
       </c>
       <c r="K44" s="69">
-        <f>IF(J44&gt;0, ('BPV Calcs'!$B$8/12)+(J44/(PI()*(('BPV Calcs'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
+        <f>IF(J44&gt;0, ('BPV Calcs - T6'!$B$8/12)+(J44/(PI()*(('BPV Calcs - T6'!$B$8/12)^2))), "Need to Use Goal Seek tool")</f>
         <v>0.41145629983738197</v>
       </c>
       <c r="L44" s="77">
@@ -11230,7 +11935,7 @@
         <v>2.9624477800273596</v>
       </c>
       <c r="M45" s="50">
-        <f>((1/3)*PI()*(K45^2)*((3*('BPV Calcs'!$B$8/12))-K45))-I45</f>
+        <f>((1/3)*PI()*(K45^2)*((3*('BPV Calcs - T6'!$B$8/12))-K45))-I45</f>
         <v>-3.3853493114861223E-2</v>
       </c>
       <c r="N45" s="50"/>
@@ -11279,7 +11984,7 @@
         <v>2.7088788373566715</v>
       </c>
       <c r="M46" s="50">
-        <f>((1/3)*PI()*(K46^2)*((3*('BPV Calcs'!$B$8/12))-K46))-I46</f>
+        <f>((1/3)*PI()*(K46^2)*((3*('BPV Calcs - T6'!$B$8/12))-K46))-I46</f>
         <v>-3.4425031376727561E-2</v>
       </c>
       <c r="N46" s="50"/>
@@ -11331,7 +12036,7 @@
         <v>2.6499033825597484</v>
       </c>
       <c r="M47" s="50">
-        <f>((1/3)*PI()*(K47^2)*((3*('BPV Calcs'!$B$8/12))-K47))-I47</f>
+        <f>((1/3)*PI()*(K47^2)*((3*('BPV Calcs - T6'!$B$8/12))-K47))-I47</f>
         <v>-3.4556436349633679E-2</v>
       </c>
       <c r="N47" s="50"/>
@@ -11381,7 +12086,7 @@
         <v>2.437379725346343</v>
       </c>
       <c r="M48" s="50">
-        <f>((1/3)*PI()*(K48^2)*((3*('BPV Calcs'!$B$8/12))-K48))-I48</f>
+        <f>((1/3)*PI()*(K48^2)*((3*('BPV Calcs - T6'!$B$8/12))-K48))-I48</f>
         <v>-3.5023565685665392E-2</v>
       </c>
       <c r="N48" s="50"/>
@@ -11430,7 +12135,7 @@
         <v>2.144452838936743</v>
       </c>
       <c r="M49" s="50">
-        <f>((1/3)*PI()*(K49^2)*((3*('BPV Calcs'!$B$8/12))-K49))-I49</f>
+        <f>((1/3)*PI()*(K49^2)*((3*('BPV Calcs - T6'!$B$8/12))-K49))-I49</f>
         <v>-3.5584679345422088E-2</v>
       </c>
       <c r="N49" s="50"/>
@@ -11479,7 +12184,7 @@
         <v>1.785316492051493</v>
       </c>
       <c r="M50" s="50">
-        <f>((1/3)*PI()*(K50^2)*((3*('BPV Calcs'!$B$8/12))-K50))-I50</f>
+        <f>((1/3)*PI()*(K50^2)*((3*('BPV Calcs - T6'!$B$8/12))-K50))-I50</f>
         <v>-3.662644916270065E-2</v>
       </c>
       <c r="N50" s="50"/>
@@ -11528,7 +12233,7 @@
         <v>1.436879811326073</v>
       </c>
       <c r="M51" s="50">
-        <f>((1/3)*PI()*(K51^2)*((3*('BPV Calcs'!$B$8/12))-K51))-I51</f>
+        <f>((1/3)*PI()*(K51^2)*((3*('BPV Calcs - T6'!$B$8/12))-K51))-I51</f>
         <v>-3.662505084928188E-2</v>
       </c>
       <c r="N51" s="50"/>
@@ -11577,7 +12282,7 @@
         <v>0.90593361570221465</v>
       </c>
       <c r="M52" s="50">
-        <f>((1/3)*PI()*(K52^2)*((3*('BPV Calcs'!$B$8/12))-K52))-I52</f>
+        <f>((1/3)*PI()*(K52^2)*((3*('BPV Calcs - T6'!$B$8/12))-K52))-I52</f>
         <v>-3.7408018391000608E-2</v>
       </c>
       <c r="N52" s="50"/>
@@ -11629,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="50">
-        <f>((1/3)*PI()*(K53^2)*((3*('BPV Calcs'!$B$8/12))-K53))-I53</f>
+        <f>((1/3)*PI()*(K53^2)*((3*('BPV Calcs - T6'!$B$8/12))-K53))-I53</f>
         <v>-3.7560000000000052E-2</v>
       </c>
       <c r="N53" s="47"/>
@@ -11683,7 +12388,7 @@
         <v>43</v>
       </c>
       <c r="G55" s="107">
-        <f>(2/3)*PI()*(('BPV Calcs'!B8/12)^3)</f>
+        <f>(2/3)*PI()*(('BPV Calcs - T6'!B8/12)^3)</f>
         <v>4.160686161709571E-2</v>
       </c>
       <c r="H55" s="38"/>
@@ -11740,7 +12445,7 @@
         <v>44</v>
       </c>
       <c r="G57" s="38">
-        <f>G56/(PI()*(('BPV Calcs'!B8/12)^2))</f>
+        <f>G56/(PI()*(('BPV Calcs - T6'!B8/12)^2))</f>
         <v>2.3604618804200448</v>
       </c>
       <c r="H57" s="38"/>
@@ -11769,7 +12474,7 @@
         <v>46</v>
       </c>
       <c r="G58" s="108">
-        <f>G57+(2*'BPV Calcs'!B8/12)</f>
+        <f>G57+(2*'BPV Calcs - T6'!B8/12)</f>
         <v>2.9021285470867113</v>
       </c>
       <c r="H58" s="38"/>
@@ -14507,12 +15212,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M42:M43"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M42:M43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14520,7 +15225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967D90F-7C71-49F2-B312-218C914DF272}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -14603,7 +15308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD2FB6F-B5B6-45D0-A077-A1579B76EE79}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -14648,7 +15353,7 @@
         <v>79</v>
       </c>
       <c r="I2" s="139">
-        <f>'BPV Calcs'!B11</f>
+        <f>'BPV Calcs - T6'!B11</f>
         <v>33000</v>
       </c>
     </row>
@@ -14720,7 +15425,7 @@
         <v>92</v>
       </c>
       <c r="B8">
-        <f>I16*I18/(PI()*('BPV Calcs'!B12-(2*'RT Mounting Bolt Calcs'!I1))*'RT Mounting Bolt Calcs'!I1)</f>
+        <f>I16*I18/(PI()*('BPV Calcs - T6'!B12-(2*'RT Mounting Bolt Calcs'!I1))*'RT Mounting Bolt Calcs'!I1)</f>
         <v>569.11470664268825</v>
       </c>
       <c r="C8" t="s">
@@ -14930,263 +15635,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4CC0F4-5ED0-0840-90E0-925922EF4438}">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="150" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="149"/>
-      <c r="D5" s="149" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="149"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>825</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>3.25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9">
-        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.34420897681376578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11">
-        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>0.15866137015893755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="13">
-        <f>MAX(E8:E9)</f>
-        <v>0.34420897681376578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>18000</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="D12" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="111">
-        <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>0.16344900899936077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="123">
-        <f>0.25-0.025</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D13" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="113">
-        <f>E12</f>
-        <v>0.16344900899936077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="123">
-        <v>0.125</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="126">
-        <f>'N2O Pressure Calcs'!H53</f>
-        <v>806.61716630606907</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="128">
-        <f>B10*B16</f>
-        <v>1613.2343326121381</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="127">
-        <f>'N2O Pressure Calcs'!J53</f>
-        <v>809.64703151146546</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="21"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91995C7-004E-9747-86EC-DBE4FB33F75D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B545EC-25D3-6041-8DDC-68FBE82F598B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -456,6 +456,9 @@
   <si>
     <t>T6</t>
   </si>
+  <si>
+    <t xml:space="preserve">http://www.astro.caltech.edu/sedm/_downloads/Extruded_Alloy_6061.pdf </t>
+  </si>
 </sst>
 </file>
 
@@ -467,7 +470,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +654,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1007,13 +1018,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1373,17 +1385,33 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="25" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1411,6 +1439,9 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,29 +1476,12 @@
     <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="25" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4150,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4CC0F4-5ED0-0840-90E0-925922EF4438}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4164,53 +4178,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
     </row>
     <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="185" t="s">
+      <c r="C4" s="160" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="175"/>
-      <c r="E5" s="149" t="s">
+      <c r="B5" s="164"/>
+      <c r="C5" s="150"/>
+      <c r="E5" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="164"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4306,11 +4320,11 @@
       <c r="A13" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="172">
+      <c r="B13" s="147">
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C13" s="181">
+      <c r="C13" s="156">
         <f>B13/F10</f>
         <v>0.65367266735096285</v>
       </c>
@@ -4326,10 +4340,10 @@
       <c r="A14" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="172">
+      <c r="B14" s="147">
         <v>0.15</v>
       </c>
-      <c r="C14" s="181">
+      <c r="C14" s="156">
         <f>B14/F13</f>
         <v>0.91771740262179646</v>
       </c>
@@ -4348,7 +4362,7 @@
         <f>'N2O Pressure Calcs'!H53</f>
         <v>806.61716630606907</v>
       </c>
-      <c r="C16" s="178"/>
+      <c r="C16" s="153"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
@@ -4360,7 +4374,7 @@
         <f>B10*B16</f>
         <v>1613.2343326121381</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="154"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -4380,7 +4394,7 @@
         <f>'N2O Pressure Calcs'!J53</f>
         <v>809.64703151146546</v>
       </c>
-      <c r="C19" s="180"/>
+      <c r="C19" s="155"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
@@ -4439,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC2D1F1-413C-E74A-9F7B-3532D6FDA3DC}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4453,53 +4467,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="159" t="s">
         <v>112</v>
       </c>
+      <c r="E4" s="186" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="175"/>
-      <c r="E5" s="149" t="s">
+      <c r="B5" s="164"/>
+      <c r="C5" s="150"/>
+      <c r="E5" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="164"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4532,7 +4549,7 @@
       </c>
       <c r="F8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.2171733361278812</v>
+        <v>0.2014059471953378</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4548,7 +4565,7 @@
       </c>
       <c r="F9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>0.10307640428670727</v>
+        <v>9.5946260378849763E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4563,7 +4580,7 @@
       </c>
       <c r="F10" s="13">
         <f>MAX(F8:F9)</f>
-        <v>0.2171733361278812</v>
+        <v>0.2014059471953378</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4571,7 +4588,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>27900</v>
+        <v>30000</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
@@ -4588,27 +4605,27 @@
       </c>
       <c r="F12" s="111">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>0.10507594595176556</v>
+        <v>9.7676417984915123E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="173">
+      <c r="B13" s="148">
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C13" s="182">
+      <c r="C13" s="157">
         <f>B13/F10</f>
-        <v>1.0360387882401463</v>
+        <v>1.1171467532772457</v>
       </c>
       <c r="E13" s="112" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="113">
         <f>F12</f>
-        <v>0.10507594595176556</v>
+        <v>9.7676417984915123E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4618,9 +4635,9 @@
       <c r="B14" s="123">
         <v>0.15</v>
       </c>
-      <c r="C14" s="177">
+      <c r="C14" s="152">
         <f>B14/F13</f>
-        <v>1.4275388971407075</v>
+        <v>1.5356828505235069</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -4637,7 +4654,7 @@
         <f>'N2O Pressure Calcs'!H53</f>
         <v>806.61716630606907</v>
       </c>
-      <c r="C16" s="178"/>
+      <c r="C16" s="153"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
@@ -4649,7 +4666,7 @@
         <f>B10*B16</f>
         <v>1613.2343326121381</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="154"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -4669,7 +4686,7 @@
         <f>'N2O Pressure Calcs'!J53</f>
         <v>809.64703151146546</v>
       </c>
-      <c r="C19" s="180"/>
+      <c r="C19" s="155"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
@@ -4719,8 +4736,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{46F9CDA2-D898-8D40-A700-877636117F58}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4743,53 +4763,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="183" t="s">
+      <c r="C4" s="158" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="175"/>
-      <c r="E5" s="149" t="s">
+      <c r="B5" s="164"/>
+      <c r="C5" s="150"/>
+      <c r="E5" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="164"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4885,11 +4905,11 @@
       <c r="A13" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="174">
+      <c r="B13" s="149">
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C13" s="176">
+      <c r="C13" s="151">
         <f>B13/F10</f>
         <v>1.2330152747588163</v>
       </c>
@@ -4905,10 +4925,10 @@
       <c r="A14" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="174">
+      <c r="B14" s="149">
         <v>0.15</v>
       </c>
-      <c r="C14" s="176">
+      <c r="C14" s="151">
         <f>B14/F13</f>
         <v>1.6901742124989345</v>
       </c>
@@ -4927,7 +4947,7 @@
         <f>'N2O Pressure Calcs'!H53</f>
         <v>806.61716630606907</v>
       </c>
-      <c r="C16" s="178"/>
+      <c r="C16" s="153"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
@@ -4939,7 +4959,7 @@
         <f>B10*B16</f>
         <v>1613.2343326121381</v>
       </c>
-      <c r="C17" s="179"/>
+      <c r="C17" s="154"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -4959,7 +4979,7 @@
         <f>'N2O Pressure Calcs'!J53</f>
         <v>809.64703151146546</v>
       </c>
-      <c r="C19" s="180"/>
+      <c r="C19" s="155"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
@@ -5042,19 +5062,19 @@
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="173"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="154" t="s">
+      <c r="G1" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="156"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="170"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -5085,14 +5105,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="151" t="s">
+      <c r="G2" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152" t="s">
+      <c r="H2" s="166"/>
+      <c r="I2" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="153"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -9894,20 +9914,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="178"/>
       <c r="E1" s="63"/>
-      <c r="F1" s="164" t="s">
+      <c r="F1" s="179" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
-      <c r="J1" s="167" t="s">
+      <c r="J1" s="182" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="100"/>
@@ -9937,7 +9957,7 @@
       <c r="E2" s="50">
         <v>0.75122497093492424</v>
       </c>
-      <c r="F2" s="165"/>
+      <c r="F2" s="180"/>
       <c r="G2" s="105" t="s">
         <v>39</v>
       </c>
@@ -9947,11 +9967,11 @@
       <c r="I2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="168"/>
-      <c r="K2" s="169" t="s">
+      <c r="J2" s="183"/>
+      <c r="K2" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="170"/>
+      <c r="L2" s="185"/>
       <c r="M2" s="64"/>
       <c r="N2" s="66"/>
       <c r="O2" t="s">
@@ -9976,7 +9996,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="166"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="101" t="s">
         <v>40</v>
       </c>
@@ -11790,7 +11810,7 @@
         <f t="shared" si="4"/>
         <v>5.3376723619410775</v>
       </c>
-      <c r="M42" s="171" t="s">
+      <c r="M42" s="174" t="s">
         <v>53</v>
       </c>
       <c r="N42" s="50"/>
@@ -11839,7 +11859,7 @@
         <f t="shared" si="4"/>
         <v>5.1411415209405424</v>
       </c>
-      <c r="M43" s="171"/>
+      <c r="M43" s="174"/>
       <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -12523,8 +12543,8 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="160"/>
-      <c r="G60" s="160"/>
+      <c r="F60" s="175"/>
+      <c r="G60" s="175"/>
       <c r="H60" s="146"/>
       <c r="I60" s="38"/>
       <c r="J60" s="17"/>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,23 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B545EC-25D3-6041-8DDC-68FBE82F598B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED5AA5-4BCF-5640-B879-83CFF0985DA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId1"/>
-    <sheet name="BPV Calcs - T51" sheetId="7" r:id="rId2"/>
-    <sheet name="BPV Calcs - T6" sheetId="1" r:id="rId3"/>
-    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId4"/>
-    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId5"/>
-    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId6"/>
-    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId7"/>
+    <sheet name="Min Yield Strength Allowable" sheetId="9" r:id="rId1"/>
+    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId2"/>
+    <sheet name="BPV Calcs - T51" sheetId="7" r:id="rId3"/>
+    <sheet name="BPV Calcs - T6" sheetId="1" r:id="rId4"/>
+    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId5"/>
+    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId6"/>
+    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId7"/>
+    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -74,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -459,6 +465,40 @@
   <si>
     <t xml:space="preserve">http://www.astro.caltech.edu/sedm/_downloads/Extruded_Alloy_6061.pdf </t>
   </si>
+  <si>
+    <t>FS^</t>
+  </si>
+  <si>
+    <t>FOR MINUMUM YIELD STRENGTH ALLOWABLE AT 0.225" SHELL THICKNESS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="18"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Min. Allowable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tensile Yield Strength (psi)</t>
+    </r>
+  </si>
+  <si>
+    <t>186.2 MPa</t>
+  </si>
 </sst>
 </file>
 
@@ -470,7 +510,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +706,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,8 +794,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1017,15 +1109,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1401,6 +1520,20 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="25" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="28" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1412,6 +1545,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1476,10 +1618,11 @@
     <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="28" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -4161,6 +4304,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65062AE-B621-E545-B314-3586194DA631}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" s="169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1">
+      <c r="A3" s="171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1">
+      <c r="A4" s="173" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="175"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="172"/>
+      <c r="C5" s="150"/>
+      <c r="E5" s="172" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="172"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>825</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3.25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
+        <v>0.2247127649988844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
+        <v>0.10646726181412242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <f>MAX(F8:F9)</f>
+        <v>0.2247127649988844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" customHeight="1">
+      <c r="A11" s="167" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="168">
+        <v>27000</v>
+      </c>
+      <c r="C11" s="197" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="162"/>
+      <c r="E12" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="111">
+        <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
+        <v>0.10860188557756124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1">
+      <c r="A13" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="163">
+        <f>0.25-0.025</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C13" s="164">
+        <f>B13/F10</f>
+        <v>1.001278231795675</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="113">
+        <f>F12</f>
+        <v>0.10860188557756124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1">
+      <c r="A14" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="165">
+        <v>0.15</v>
+      </c>
+      <c r="C14" s="166">
+        <f>B14/F13</f>
+        <v>1.3811914885480792</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="32">
+      <c r="A16" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="126">
+        <f>'N2O Pressure Calcs'!H53</f>
+        <v>806.61716630606907</v>
+      </c>
+      <c r="C16" s="153"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="128">
+        <f>B10*B16</f>
+        <v>1613.2343326121381</v>
+      </c>
+      <c r="C17" s="154"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A19" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="127">
+        <f>'N2O Pressure Calcs'!J53</f>
+        <v>809.64703151146546</v>
+      </c>
+      <c r="C19" s="155"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="A25" s="54"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="52"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="A28" s="55"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="55"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="55"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4CC0F4-5ED0-0840-90E0-925922EF4438}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -4168,7 +4613,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="2" max="3" width="9.5" customWidth="1"/>
@@ -4177,56 +4622,56 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="162" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1">
+      <c r="A3" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1">
       <c r="C4" s="160" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="164" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="164"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="164"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="172"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4236,7 +4681,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4245,7 +4690,7 @@
       </c>
       <c r="C7" s="59"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4260,7 +4705,7 @@
         <v>0.34420897681376578</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4276,7 +4721,7 @@
         <v>0.15866137015893755</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4291,7 +4736,7 @@
         <v>0.34420897681376578</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4301,7 +4746,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4316,7 +4761,7 @@
         <v>0.16344900899936077</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17" thickBot="1">
       <c r="A13" s="122" t="s">
         <v>74</v>
       </c>
@@ -4336,7 +4781,7 @@
         <v>0.16344900899936077</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17" thickBot="1">
       <c r="A14" s="122" t="s">
         <v>75</v>
       </c>
@@ -4350,11 +4795,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="32">
       <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
@@ -4366,7 +4811,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
@@ -4378,7 +4823,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="60"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
@@ -4386,7 +4831,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="46.5" customHeight="1">
       <c r="A19" s="57" t="s">
         <v>58</v>
       </c>
@@ -4398,42 +4843,42 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
       <c r="A24" s="53"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="54"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="52"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="55"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="55"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="55"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="52"/>
     </row>
   </sheetData>
@@ -4449,15 +4894,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC2D1F1-413C-E74A-9F7B-3532D6FDA3DC}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="2" max="3" width="9.5" customWidth="1"/>
@@ -4466,59 +4911,59 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="162" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1">
+      <c r="A3" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="C4" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="186" t="s">
+      <c r="E4" s="161" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="164" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="164"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="164"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="172"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4528,7 +4973,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4537,7 +4982,7 @@
       </c>
       <c r="C7" s="59"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4552,7 +4997,7 @@
         <v>0.2014059471953378</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4568,7 +5013,7 @@
         <v>9.5946260378849763E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4583,7 +5028,7 @@
         <v>0.2014059471953378</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4593,7 +5038,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4608,7 +5053,7 @@
         <v>9.7676417984915123E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17" thickBot="1">
       <c r="A13" s="122" t="s">
         <v>74</v>
       </c>
@@ -4628,7 +5073,7 @@
         <v>9.7676417984915123E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="122" t="s">
         <v>75</v>
       </c>
@@ -4642,11 +5087,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="32">
       <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
@@ -4658,7 +5103,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
@@ -4670,7 +5115,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="60"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
@@ -4678,7 +5123,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="46.5" customHeight="1">
       <c r="A19" s="57" t="s">
         <v>58</v>
       </c>
@@ -4690,42 +5135,42 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
       <c r="A24" s="53"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="54"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="52"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="55"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="55"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="55"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="52"/>
     </row>
   </sheetData>
@@ -4744,7 +5189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC6F123-32E7-44A1-9243-3BCDE965A118}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G31"/>
@@ -4753,7 +5198,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="2" max="3" width="9.5" customWidth="1"/>
@@ -4762,56 +5207,56 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="162" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1">
+      <c r="A3" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="C4" s="158" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="164" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="164"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="164"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="172"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4821,7 +5266,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4830,7 +5275,7 @@
       </c>
       <c r="C7" s="59"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4845,7 +5290,7 @@
         <v>0.18247949121636881</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4861,7 +5306,7 @@
         <v>8.731761067402441E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4876,7 +5321,7 @@
         <v>0.18247949121636881</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4886,7 +5331,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4901,7 +5346,7 @@
         <v>8.874824789701645E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17" thickBot="1">
       <c r="A13" s="122" t="s">
         <v>74</v>
       </c>
@@ -4921,7 +5366,7 @@
         <v>8.874824789701645E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17" thickBot="1">
       <c r="A14" s="122" t="s">
         <v>75</v>
       </c>
@@ -4935,11 +5380,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="32">
       <c r="A16" s="57" t="s">
         <v>41</v>
       </c>
@@ -4951,7 +5396,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
@@ -4963,7 +5408,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="60"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
@@ -4971,7 +5416,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="46.5" customHeight="1">
       <c r="A19" s="57" t="s">
         <v>58</v>
       </c>
@@ -4983,42 +5428,42 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
       <c r="A24" s="53"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="54"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="52"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="55"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="55"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="55"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="52"/>
     </row>
   </sheetData>
@@ -5034,7 +5479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2381E3-ED84-DB4C-A4E2-7857F2E34756}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
@@ -5044,7 +5489,7 @@
       <selection pane="topRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="24"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
@@ -5060,21 +5505,21 @@
     <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="23.25" customHeight="1">
       <c r="A1" s="67"/>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="168" t="s">
+      <c r="G1" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="170"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="181"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -5090,7 +5535,7 @@
         <v>2.3604618804200448</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
@@ -5105,14 +5550,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="165" t="s">
+      <c r="G2" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166" t="s">
+      <c r="H2" s="177"/>
+      <c r="I2" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="167"/>
+      <c r="J2" s="178"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -5129,7 +5574,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5171,7 +5616,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="27">
         <v>32</v>
       </c>
@@ -5209,7 +5654,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="27">
         <v>32.9</v>
       </c>
@@ -5253,7 +5698,7 @@
         <v>6.1820000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="27">
         <v>33.799999999999997</v>
       </c>
@@ -5291,7 +5736,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="27">
         <v>34.700000000000003</v>
       </c>
@@ -5330,7 +5775,7 @@
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="27">
         <v>35.6</v>
       </c>
@@ -5362,7 +5807,7 @@
         <v>488.27716103636425</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="27">
         <v>36.5</v>
       </c>
@@ -5394,7 +5839,7 @@
         <v>494.29799553669284</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="27">
         <v>37.4</v>
       </c>
@@ -5426,7 +5871,7 @@
         <v>500.37368150446275</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="27">
         <v>38.299999999999997</v>
       </c>
@@ -5458,7 +5903,7 @@
         <v>506.50714599693021</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="27">
         <v>39.200000000000003</v>
       </c>
@@ -5490,7 +5935,7 @@
         <v>512.69688603958332</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="27">
         <v>40.1</v>
       </c>
@@ -5522,7 +5967,7 @@
         <v>518.94294107830581</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="27">
         <v>41</v>
       </c>
@@ -5554,7 +5999,7 @@
         <v>525.24817242721406</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="27">
         <v>41.9</v>
       </c>
@@ -5586,7 +6031,7 @@
         <v>531.60969247493585</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="27">
         <v>42.8</v>
       </c>
@@ -5618,7 +6063,7 @@
         <v>538.02892530421548</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="27">
         <v>43.7</v>
       </c>
@@ -5650,7 +6095,7 @@
         <v>544.50732129505286</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="27">
         <v>44.6</v>
       </c>
@@ -5682,7 +6127,7 @@
         <v>551.04488044744789</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="27">
         <v>45.5</v>
       </c>
@@ -5714,7 +6159,7 @@
         <v>557.64303999277286</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="27">
         <v>46.4</v>
       </c>
@@ -5746,7 +6191,7 @@
         <v>564.29888602239953</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="27">
         <v>47.3</v>
       </c>
@@ -5778,7 +6223,7 @@
         <v>571.01531929632824</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="27">
         <v>48.2</v>
       </c>
@@ -5810,7 +6255,7 @@
         <v>577.79376389730317</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="27">
         <v>49.1</v>
       </c>
@@ -5842,7 +6287,7 @@
         <v>584.63131906532396</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="27">
         <v>50</v>
       </c>
@@ -5874,7 +6319,7 @@
         <v>591.53087241176308</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="27">
         <v>50.9</v>
       </c>
@@ -5906,7 +6351,7 @@
         <v>598.49242393662018</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="27">
         <v>51.8</v>
       </c>
@@ -5938,7 +6383,7 @@
         <v>605.51594734263961</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="27">
         <v>52.7</v>
       </c>
@@ -5970,7 +6415,7 @@
         <v>612.60287986119351</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="27">
         <v>53.6</v>
       </c>
@@ -6002,7 +6447,7 @@
         <v>619.75177111228174</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="27">
         <v>54.5</v>
       </c>
@@ -6034,7 +6479,7 @@
         <v>626.96548241002029</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="27">
         <v>55.4</v>
       </c>
@@ -6066,7 +6511,7 @@
         <v>634.24257652303766</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="27">
         <v>56.3</v>
       </c>
@@ -6098,7 +6543,7 @@
         <v>641.58447753407768</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="27">
         <v>57.2</v>
       </c>
@@ -6130,7 +6575,7 @@
         <v>648.99117229451235</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="27">
         <v>58.1</v>
       </c>
@@ -6162,7 +6607,7 @@
         <v>656.46263450708614</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="27">
         <v>59</v>
       </c>
@@ -6194,7 +6639,7 @@
         <v>664.00175178317068</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="27">
         <v>59.9</v>
       </c>
@@ -6226,7 +6671,7 @@
         <v>671.60559706551044</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="27">
         <v>60.8</v>
       </c>
@@ -6258,7 +6703,7 @@
         <v>679.27850834547746</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" s="27">
         <v>61.7</v>
       </c>
@@ -6290,7 +6735,7 @@
         <v>687.01755856581553</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="27">
         <v>62.6</v>
       </c>
@@ -6322,7 +6767,7 @@
         <v>694.8241718092695</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="27">
         <v>63.5</v>
       </c>
@@ -6354,7 +6799,7 @@
         <v>702.69977215858307</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="27">
         <v>64.400000000000006</v>
       </c>
@@ -6386,7 +6831,7 @@
         <v>710.64579684512819</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="27">
         <v>65.3</v>
       </c>
@@ -6418,7 +6863,7 @@
         <v>718.65929251439343</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" s="27">
         <v>66.2</v>
       </c>
@@ -6450,7 +6895,7 @@
         <v>726.74458400912295</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" s="27">
         <v>67.099999999999994</v>
       </c>
@@ -6482,7 +6927,7 @@
         <v>734.90164503206086</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" s="27">
         <v>68</v>
       </c>
@@ -6514,7 +6959,7 @@
         <v>743.12898575732322</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="27">
         <v>68.900000000000006</v>
       </c>
@@ -6546,7 +6991,7 @@
         <v>751.4294543503986</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="27">
         <v>69.8</v>
       </c>
@@ -6578,7 +7023,7 @@
         <v>759.80157413403094</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="61">
         <v>70</v>
       </c>
@@ -6617,7 +7062,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" s="27">
         <v>70.7</v>
       </c>
@@ -6649,7 +7094,7 @@
         <v>768.24819327370858</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" s="27">
         <v>71.599999999999994</v>
       </c>
@@ -6681,7 +7126,7 @@
         <v>776.76924602629197</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" s="27">
         <v>72.5</v>
       </c>
@@ -6713,7 +7158,7 @@
         <v>785.36467979726956</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="27">
         <v>73.400000000000006</v>
       </c>
@@ -6745,7 +7190,7 @@
         <v>794.03589237212941</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="27">
         <v>74.3</v>
       </c>
@@ -6777,7 +7222,7 @@
         <v>802.78280485910409</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" s="117">
         <v>75</v>
       </c>
@@ -6818,7 +7263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54" s="27">
         <v>75.2</v>
       </c>
@@ -6850,7 +7295,7 @@
         <v>811.60823912642581</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" s="27">
         <v>76.099999999999994</v>
       </c>
@@ -6882,7 +7327,7 @@
         <v>820.51210313369961</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="27">
         <v>77</v>
       </c>
@@ -6914,7 +7359,7 @@
         <v>829.49431798915748</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="27">
         <v>77.900000000000006</v>
       </c>
@@ -6946,7 +7391,7 @@
         <v>838.55621573514838</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" s="27">
         <v>78.8</v>
       </c>
@@ -6978,7 +7423,7 @@
         <v>847.69912841402072</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="27">
         <v>79.7</v>
       </c>
@@ -7010,7 +7455,7 @@
         <v>856.92436177086768</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" s="27">
         <v>80.599999999999994</v>
       </c>
@@ -7042,7 +7487,7 @@
         <v>866.23177117078205</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61" s="27">
         <v>81.5</v>
       </c>
@@ -7074,7 +7519,7 @@
         <v>875.62406014434475</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" s="27">
         <v>82.4</v>
       </c>
@@ -7106,7 +7551,7 @@
         <v>885.09959423076509</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="27">
         <v>83.3</v>
       </c>
@@ -7138,7 +7583,7 @@
         <v>894.66246159748425</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="27">
         <v>84.2</v>
       </c>
@@ -7170,7 +7615,7 @@
         <v>904.31382335468834</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" s="27">
         <v>85.1</v>
       </c>
@@ -7202,7 +7647,7 @@
         <v>914.05190040667912</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" s="27">
         <v>86</v>
       </c>
@@ -7234,7 +7679,7 @@
         <v>923.88208666599076</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" s="27">
         <v>86.9</v>
       </c>
@@ -7266,7 +7711,7 @@
         <v>933.80241895613449</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" s="27">
         <v>87.8</v>
       </c>
@@ -7298,7 +7743,7 @@
         <v>943.81664358022579</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" s="27">
         <v>88.7</v>
       </c>
@@ -7330,7 +7775,7 @@
         <v>953.92685923196086</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" s="27">
         <v>89.6</v>
       </c>
@@ -7362,7 +7807,7 @@
         <v>964.13205346699044</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" s="27">
         <v>90.5</v>
       </c>
@@ -7394,7 +7839,7 @@
         <v>974.43524941389353</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" s="27">
         <v>91.4</v>
       </c>
@@ -7426,7 +7871,7 @@
         <v>984.84036833887751</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" s="27">
         <v>92.3</v>
       </c>
@@ -7458,7 +7903,7 @@
         <v>995.34476736772945</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" s="27">
         <v>93.2</v>
       </c>
@@ -7490,7 +7935,7 @@
         <v>1005.9545756803047</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" s="27">
         <v>94.1</v>
       </c>
@@ -7522,7 +7967,7 @@
         <v>1016.6660934253858</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76" s="27">
         <v>95</v>
       </c>
@@ -7554,7 +7999,7 @@
         <v>1027.4773633766554</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="A77" s="27">
         <v>95.9</v>
       </c>
@@ -7586,7 +8031,7 @@
         <v>1038.3731785217767</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="A78" s="27">
         <v>96.8</v>
       </c>
@@ -7618,7 +8063,7 @@
         <v>1049.2894380513371</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
       <c r="A79" s="28">
         <v>97.47</v>
       </c>
@@ -7652,2224 +8097,2224 @@
       <c r="K79" s="48"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="29"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="29"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" s="29"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" s="29"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" s="29"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" s="29"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" s="29"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106" s="29"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" s="29"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" s="29"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" s="29"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110" s="29"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" s="29"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112" s="29"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" s="29"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114" s="29"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115" s="29"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116" s="29"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1">
       <c r="A128" s="29"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129" s="29"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130" s="29"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131" s="29"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132" s="29"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133" s="29"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134" s="29"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135" s="29"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136" s="29"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137" s="29"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138" s="29"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139" s="29"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140" s="29"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141" s="29"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142" s="29"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143" s="29"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144" s="29"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1">
       <c r="A145" s="29"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1">
       <c r="A146" s="29"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1">
       <c r="A147" s="29"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1">
       <c r="A149" s="29"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1">
       <c r="A150" s="29"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1">
       <c r="A151" s="29"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1">
       <c r="A152" s="29"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1">
       <c r="A153" s="29"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1">
       <c r="A154" s="29"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1">
       <c r="A155" s="29"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1">
       <c r="A156" s="29"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1">
       <c r="A157" s="29"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1">
       <c r="A158" s="29"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1">
       <c r="A159" s="29"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1">
       <c r="A160" s="29"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1">
       <c r="A161" s="29"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1">
       <c r="A162" s="29"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1">
       <c r="A163" s="29"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1">
       <c r="A164" s="29"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1">
       <c r="A165" s="29"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1">
       <c r="A166" s="29"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1">
       <c r="A167" s="29"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1">
       <c r="A168" s="29"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1">
       <c r="A169" s="29"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1">
       <c r="A170" s="29"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1">
       <c r="A171" s="29"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1">
       <c r="A172" s="29"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1">
       <c r="A173" s="29"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1">
       <c r="A174" s="29"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1">
       <c r="A175" s="29"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1">
       <c r="A176" s="29"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1">
       <c r="A177" s="29"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1">
       <c r="A178" s="29"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1">
       <c r="A179" s="29"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1">
       <c r="A180" s="29"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1">
       <c r="A181" s="29"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1">
       <c r="A182" s="29"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1">
       <c r="A183" s="29"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1">
       <c r="A184" s="29"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1">
       <c r="A185" s="29"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1">
       <c r="A186" s="29"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1">
       <c r="A187" s="29"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1">
       <c r="A188" s="29"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1">
       <c r="A189" s="29"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1">
       <c r="A190" s="29"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1">
       <c r="A191" s="29"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1">
       <c r="A192" s="29"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1">
       <c r="A193" s="29"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1">
       <c r="A194" s="29"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1">
       <c r="A195" s="29"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1">
       <c r="A196" s="29"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1">
       <c r="A197" s="29"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1">
       <c r="A198" s="29"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1">
       <c r="A199" s="29"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1">
       <c r="A200" s="29"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1">
       <c r="A201" s="29"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1">
       <c r="A202" s="29"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203" s="29"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204" s="29"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205" s="29"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206" s="29"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207" s="29"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208" s="29"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1">
       <c r="A209" s="29"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210" s="29"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1">
       <c r="A211" s="29"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1">
       <c r="A212" s="29"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1">
       <c r="A213" s="29"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1">
       <c r="A214" s="29"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1">
       <c r="A215" s="29"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1">
       <c r="A216" s="29"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217" s="29"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218" s="29"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219" s="29"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1">
       <c r="A220" s="29"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221" s="29"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1">
       <c r="A222" s="29"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223" s="29"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1">
       <c r="A224" s="29"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1">
       <c r="A225" s="29"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1">
       <c r="A226" s="29"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1">
       <c r="A227" s="29"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1">
       <c r="A228" s="29"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1">
       <c r="A229" s="29"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1">
       <c r="A230" s="29"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1">
       <c r="A231" s="29"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1">
       <c r="A232" s="29"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1">
       <c r="A233" s="29"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1">
       <c r="A234" s="29"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" s="29"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" s="29"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" s="29"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238" s="29"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" s="29"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" s="29"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
       <c r="A241" s="29"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" s="29"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" s="29"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" s="29"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" s="29"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246" s="29"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" s="29"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" s="29"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" s="29"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" s="29"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" s="29"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" s="29"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" s="29"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" s="29"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" s="29"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1">
       <c r="A256" s="29"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257" s="29"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258" s="29"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
       <c r="A259" s="29"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260" s="29"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261" s="29"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262" s="29"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" s="29"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264" s="29"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265" s="29"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266" s="29"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1">
       <c r="A267" s="29"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1">
       <c r="A268" s="29"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1">
       <c r="A269" s="29"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1">
       <c r="A270" s="29"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1">
       <c r="A271" s="29"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1">
       <c r="A272" s="29"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273" s="29"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274" s="29"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275" s="29"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276" s="29"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277" s="29"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278" s="29"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279" s="29"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280" s="29"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281" s="29"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282" s="29"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283" s="29"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284" s="29"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285" s="29"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286" s="29"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287" s="29"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288" s="29"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289" s="29"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290" s="29"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291" s="29"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292" s="29"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293" s="29"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294" s="29"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295" s="29"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296" s="29"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297" s="29"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298" s="29"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299" s="29"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300" s="29"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301" s="29"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302" s="29"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303" s="29"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304" s="29"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305" s="29"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306" s="29"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307" s="29"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308" s="29"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309" s="29"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310" s="29"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311" s="29"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312" s="29"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313" s="29"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314" s="29"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315" s="29"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316" s="29"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317" s="29"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318" s="29"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319" s="29"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320" s="29"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321" s="29"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322" s="29"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" s="29"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" s="29"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" s="29"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326" s="29"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" s="29"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" s="29"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329" s="29"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" s="29"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" s="29"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" s="29"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" s="29"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334" s="29"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335" s="29"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336" s="29"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337" s="29"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338" s="29"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339" s="29"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340" s="29"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341" s="29"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342" s="29"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343" s="29"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344" s="29"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345" s="29"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346" s="29"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347" s="29"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348" s="29"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349" s="29"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350" s="29"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351" s="29"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352" s="29"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353" s="29"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354" s="29"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355" s="29"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356" s="29"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357" s="29"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358" s="29"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359" s="29"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360" s="29"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361" s="29"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362" s="29"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363" s="29"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364" s="29"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365" s="29"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366" s="29"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367" s="29"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368" s="29"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369" s="29"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370" s="29"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371" s="29"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372" s="29"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373" s="29"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374" s="29"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375" s="29"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376" s="29"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377" s="29"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378" s="29"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379" s="29"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380" s="29"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381" s="29"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382" s="29"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383" s="29"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384" s="29"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385" s="29"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386" s="29"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387" s="29"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388" s="29"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389" s="29"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390" s="29"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391" s="29"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392" s="29"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393" s="29"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394" s="29"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395" s="29"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396" s="29"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397" s="29"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398" s="29"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399" s="29"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400" s="29"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401" s="29"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402" s="29"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403" s="29"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404" s="29"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405" s="29"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406" s="29"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407" s="29"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408" s="29"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409" s="29"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410" s="29"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411" s="29"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412" s="29"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413" s="29"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414" s="29"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415" s="29"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416" s="29"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417" s="29"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418" s="29"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419" s="29"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420" s="29"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421" s="29"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422" s="29"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423" s="29"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424" s="29"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425" s="29"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426" s="29"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427" s="29"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428" s="29"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429" s="29"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430" s="29"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431" s="29"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432" s="29"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433" s="29"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434" s="29"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435" s="29"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436" s="29"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437" s="29"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438" s="29"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439" s="29"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440" s="29"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441" s="29"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442" s="29"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443" s="29"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444" s="29"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445" s="29"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446" s="29"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447" s="29"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448" s="29"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449" s="29"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450" s="29"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451" s="29"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452" s="29"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453" s="29"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454" s="29"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455" s="29"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456" s="29"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457" s="29"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458" s="29"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459" s="29"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460" s="29"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461" s="29"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462" s="29"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463" s="29"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464" s="29"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465" s="29"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466" s="29"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467" s="29"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468" s="29"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469" s="29"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470" s="29"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471" s="29"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472" s="29"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473" s="29"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474" s="29"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475" s="29"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476" s="29"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477" s="29"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478" s="29"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479" s="29"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480" s="29"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481" s="29"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1">
       <c r="A482" s="29"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1">
       <c r="A483" s="29"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1">
       <c r="A484" s="29"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1">
       <c r="A485" s="29"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1">
       <c r="A486" s="29"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1">
       <c r="A487" s="29"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1">
       <c r="A488" s="29"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1">
       <c r="A489" s="29"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1">
       <c r="A490" s="29"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1">
       <c r="A491" s="29"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1">
       <c r="A492" s="29"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1">
       <c r="A493" s="29"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1">
       <c r="A494" s="29"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1">
       <c r="A495" s="29"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1">
       <c r="A496" s="29"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1">
       <c r="A497" s="29"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1">
       <c r="A498" s="29"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1">
       <c r="A499" s="29"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1">
       <c r="A500" s="29"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1">
       <c r="A501" s="29"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1">
       <c r="A502" s="29"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1">
       <c r="A503" s="29"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1">
       <c r="A504" s="29"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1">
       <c r="A505" s="29"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1">
       <c r="A506" s="29"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1">
       <c r="A507" s="29"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1">
       <c r="A508" s="29"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1">
       <c r="A509" s="29"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1">
       <c r="A510" s="29"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1">
       <c r="A511" s="29"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1">
       <c r="A512" s="29"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1">
       <c r="A513" s="29"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1">
       <c r="A514" s="29"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1">
       <c r="A515" s="29"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1">
       <c r="A516" s="29"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1">
       <c r="A517" s="29"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1">
       <c r="A518" s="29"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1">
       <c r="A519" s="29"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1">
       <c r="A520" s="29"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1">
       <c r="A521" s="29"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1">
       <c r="A522" s="29"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1">
       <c r="A523" s="29"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1">
       <c r="A524" s="29"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1">
       <c r="A525" s="29"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1">
       <c r="A526" s="29"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1">
       <c r="A527" s="29"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1">
       <c r="A528" s="29"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1">
       <c r="A529" s="29"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1">
       <c r="A530" s="29"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1">
       <c r="A531" s="29"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1">
       <c r="A532" s="29"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1">
       <c r="A533" s="29"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1">
       <c r="A534" s="29"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1">
       <c r="A535" s="29"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1">
       <c r="A536" s="29"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1">
       <c r="A537" s="29"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1">
       <c r="A538" s="29"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1">
       <c r="A539" s="29"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1">
       <c r="A540" s="29"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1">
       <c r="A541" s="29"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1">
       <c r="A542" s="29"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1">
       <c r="A543" s="29"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1">
       <c r="A544" s="29"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1">
       <c r="A545" s="29"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1">
       <c r="A546" s="29"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1">
       <c r="A547" s="29"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1">
       <c r="A548" s="29"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1">
       <c r="A549" s="29"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1">
       <c r="A550" s="29"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1">
       <c r="A551" s="29"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1">
       <c r="A552" s="29"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1">
       <c r="A553" s="29"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1">
       <c r="A554" s="29"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1">
       <c r="A555" s="29"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1">
       <c r="A556" s="29"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1">
       <c r="A557" s="29"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1">
       <c r="A558" s="29"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1">
       <c r="A559" s="29"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1">
       <c r="A560" s="29"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1">
       <c r="A561" s="29"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1">
       <c r="A562" s="29"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1">
       <c r="A563" s="29"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1">
       <c r="A564" s="29"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1">
       <c r="A565" s="29"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1">
       <c r="A566" s="29"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1">
       <c r="A567" s="29"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1">
       <c r="A568" s="29"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1">
       <c r="A569" s="29"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1">
       <c r="A570" s="29"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1">
       <c r="A571" s="29"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1">
       <c r="A572" s="29"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1">
       <c r="A573" s="29"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1">
       <c r="A574" s="29"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1">
       <c r="A575" s="29"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1">
       <c r="A576" s="29"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1">
       <c r="A577" s="29"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1">
       <c r="A578" s="29"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1">
       <c r="A579" s="29"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1">
       <c r="A580" s="29"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1">
       <c r="A581" s="29"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1">
       <c r="A582" s="29"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1">
       <c r="A583" s="29"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1">
       <c r="A584" s="29"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1">
       <c r="A585" s="29"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1">
       <c r="A586" s="29"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1">
       <c r="A587" s="29"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1">
       <c r="A588" s="29"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1">
       <c r="A589" s="29"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1">
       <c r="A590" s="29"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1">
       <c r="A591" s="29"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1">
       <c r="A592" s="29"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1">
       <c r="A593" s="29"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1">
       <c r="A594" s="29"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1">
       <c r="A595" s="29"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1">
       <c r="A596" s="29"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1">
       <c r="A597" s="29"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1">
       <c r="A598" s="29"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1">
       <c r="A599" s="29"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1">
       <c r="A600" s="29"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1">
       <c r="A601" s="29"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1">
       <c r="A602" s="29"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1">
       <c r="A603" s="29"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1">
       <c r="A604" s="29"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1">
       <c r="A605" s="29"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1">
       <c r="A606" s="29"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1">
       <c r="A607" s="29"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1">
       <c r="A608" s="29"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1">
       <c r="A609" s="29"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1">
       <c r="A610" s="29"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1">
       <c r="A611" s="29"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1">
       <c r="A612" s="29"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1">
       <c r="A613" s="29"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1">
       <c r="A614" s="29"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1">
       <c r="A615" s="29"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1">
       <c r="A616" s="29"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1">
       <c r="A617" s="29"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1">
       <c r="A618" s="29"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1">
       <c r="A619" s="29"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1">
       <c r="A620" s="29"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1">
       <c r="A621" s="29"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1">
       <c r="A622" s="29"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1">
       <c r="A623" s="29"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1">
       <c r="A624" s="29"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1">
       <c r="A625" s="29"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1">
       <c r="A626" s="29"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1">
       <c r="A627" s="29"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1">
       <c r="A628" s="29"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1">
       <c r="A629" s="29"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1">
       <c r="A630" s="29"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1">
       <c r="A631" s="29"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1">
       <c r="A632" s="29"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1">
       <c r="A633" s="29"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1">
       <c r="A634" s="29"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1">
       <c r="A635" s="29"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1">
       <c r="A636" s="29"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1">
       <c r="A637" s="29"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1">
       <c r="A638" s="29"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1">
       <c r="A639" s="29"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1">
       <c r="A640" s="29"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1">
       <c r="A641" s="29"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1">
       <c r="A642" s="29"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1">
       <c r="A643" s="29"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1">
       <c r="A644" s="29"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1">
       <c r="A645" s="29"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1">
       <c r="A646" s="29"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1">
       <c r="A647" s="29"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1">
       <c r="A648" s="29"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1">
       <c r="A649" s="29"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1">
       <c r="A650" s="29"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1">
       <c r="A651" s="29"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1">
       <c r="A652" s="29"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1">
       <c r="A653" s="29"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1">
       <c r="A654" s="29"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1">
       <c r="A655" s="29"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1">
       <c r="A656" s="29"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1">
       <c r="A657" s="29"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1">
       <c r="A658" s="29"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1">
       <c r="A659" s="29"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1">
       <c r="A660" s="29"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1">
       <c r="A661" s="29"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1">
       <c r="A662" s="29"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1">
       <c r="A663" s="29"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1">
       <c r="A664" s="29"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1">
       <c r="A665" s="29"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1">
       <c r="A666" s="29"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1">
       <c r="A667" s="29"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1">
       <c r="A668" s="29"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1">
       <c r="A669" s="29"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1">
       <c r="A670" s="29"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1">
       <c r="A671" s="29"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1">
       <c r="A672" s="29"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1">
       <c r="A673" s="29"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1">
       <c r="A674" s="29"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1">
       <c r="A675" s="29"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1">
       <c r="A676" s="29"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1">
       <c r="A677" s="29"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1">
       <c r="A678" s="29"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1">
       <c r="A679" s="29"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1">
       <c r="A680" s="29"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1">
       <c r="A681" s="29"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1">
       <c r="A682" s="29"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1">
       <c r="A683" s="29"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1">
       <c r="A684" s="29"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1">
       <c r="A685" s="29"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1">
       <c r="A686" s="29"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1">
       <c r="A687" s="29"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1">
       <c r="A688" s="29"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1">
       <c r="A689" s="29"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1">
       <c r="A690" s="29"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1">
       <c r="A691" s="29"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1">
       <c r="A692" s="29"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1">
       <c r="A693" s="29"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1">
       <c r="A694" s="29"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1">
       <c r="A695" s="29"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1">
       <c r="A696" s="29"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1">
       <c r="A697" s="29"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1">
       <c r="A698" s="29"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1">
       <c r="A699" s="29"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1">
       <c r="A700" s="29"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1">
       <c r="A701" s="29"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1">
       <c r="A702" s="29"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1">
       <c r="A703" s="29"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1">
       <c r="A704" s="29"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1">
       <c r="A705" s="29"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1">
       <c r="A706" s="29"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1">
       <c r="A707" s="29"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1">
       <c r="A708" s="29"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1">
       <c r="A709" s="29"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1">
       <c r="A710" s="29"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1">
       <c r="A711" s="29"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1">
       <c r="A712" s="29"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1">
       <c r="A713" s="29"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1">
       <c r="A714" s="29"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1">
       <c r="A715" s="29"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1">
       <c r="A716" s="29"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1">
       <c r="A717" s="29"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1">
       <c r="A718" s="29"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1">
       <c r="A719" s="29"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1">
       <c r="A720" s="29"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1">
       <c r="A721" s="29"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1">
       <c r="A722" s="29"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1">
       <c r="A723" s="29"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1">
       <c r="A725" s="29"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1">
       <c r="A726" s="29"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1">
       <c r="A727" s="29"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1">
       <c r="A728" s="29"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1">
       <c r="A729" s="29"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1">
       <c r="A730" s="29"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1">
       <c r="A731" s="29"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1">
       <c r="A732" s="29"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1">
       <c r="A733" s="29"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1">
       <c r="A734" s="29"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1">
       <c r="A735" s="29"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1">
       <c r="A736" s="29"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1">
       <c r="A737" s="29"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1">
       <c r="A738" s="29"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1">
       <c r="A739" s="29"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1">
       <c r="A740" s="29"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1">
       <c r="A741" s="29"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1">
       <c r="A742" s="29"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1">
       <c r="A743" s="29"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1">
       <c r="A744" s="29"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1">
       <c r="A745" s="29"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1">
       <c r="A746" s="29"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1">
       <c r="A747" s="29"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1">
       <c r="A748" s="29"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1">
       <c r="A749" s="29"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1">
       <c r="A750" s="29"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1">
       <c r="A751" s="29"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1">
       <c r="A752" s="29"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1">
       <c r="A753" s="29"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1">
       <c r="A754" s="29"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1">
       <c r="A755" s="29"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1">
       <c r="A756" s="29"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1">
       <c r="A757" s="29"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1">
       <c r="A758" s="29"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1">
       <c r="A759" s="29"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1">
       <c r="A760" s="29"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1">
       <c r="A761" s="29"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1">
       <c r="A762" s="29"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1">
       <c r="A763" s="29"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1">
       <c r="A764" s="29"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1">
       <c r="A765" s="29"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1">
       <c r="A766" s="29"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1">
       <c r="A767" s="29"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1">
       <c r="A768" s="29"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1">
       <c r="A769" s="29"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1">
       <c r="A770" s="29"/>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1">
       <c r="A771" s="29"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1">
       <c r="A772" s="29"/>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1">
       <c r="A773" s="29"/>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1">
       <c r="A774" s="29"/>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1">
       <c r="A775" s="29"/>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1">
       <c r="A776" s="29"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1">
       <c r="A777" s="29"/>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1">
       <c r="A778" s="29"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1">
       <c r="A779" s="29"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1">
       <c r="A780" s="29"/>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1">
       <c r="A781" s="29"/>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1">
       <c r="A782" s="29"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1">
       <c r="A783" s="29"/>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1">
       <c r="A784" s="29"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1">
       <c r="A785" s="29"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1">
       <c r="A786" s="29"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1">
       <c r="A787" s="29"/>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1">
       <c r="A788" s="29"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1">
       <c r="A789" s="29"/>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1">
       <c r="A790" s="29"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1">
       <c r="A791" s="29"/>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1">
       <c r="A792" s="29"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1">
       <c r="A793" s="29"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1">
       <c r="A794" s="29"/>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1">
       <c r="A795" s="29"/>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1">
       <c r="A796" s="29"/>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1">
       <c r="A797" s="29"/>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1">
       <c r="A798" s="29"/>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1">
       <c r="A799" s="29"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1">
       <c r="A800" s="29"/>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1">
       <c r="A801" s="29"/>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1">
       <c r="A802" s="29"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1">
       <c r="A803" s="29"/>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1">
       <c r="A804" s="29"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1">
       <c r="A805" s="29"/>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1">
       <c r="A806" s="29"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1">
       <c r="A807" s="29"/>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1">
       <c r="A808" s="29"/>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1">
       <c r="A809" s="29"/>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1">
       <c r="A810" s="29"/>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1">
       <c r="A811" s="29"/>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1">
       <c r="A812" s="29"/>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1">
       <c r="A813" s="29"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1">
       <c r="A814" s="29"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1">
       <c r="A815" s="29"/>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1">
       <c r="A816" s="29"/>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1">
       <c r="A817" s="29"/>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1">
       <c r="A818" s="29"/>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1">
       <c r="A819" s="29"/>
     </row>
   </sheetData>
@@ -9885,7 +10330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32C0C-ED9A-4805-89D4-96E4CF8ECC22}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P819"/>
@@ -9895,7 +10340,7 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="24"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
@@ -9913,21 +10358,21 @@
     <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="176" t="s">
+    <row r="1" spans="1:16" ht="23.25" customHeight="1">
+      <c r="A1" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="178"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="63"/>
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="190" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
-      <c r="J1" s="182" t="s">
+      <c r="J1" s="193" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="100"/>
@@ -9941,7 +10386,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="28" customHeight="1">
       <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
@@ -9957,7 +10402,7 @@
       <c r="E2" s="50">
         <v>0.75122497093492424</v>
       </c>
-      <c r="F2" s="180"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="105" t="s">
         <v>39</v>
       </c>
@@ -9967,11 +10412,11 @@
       <c r="I2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="183"/>
-      <c r="K2" s="184" t="s">
+      <c r="J2" s="194"/>
+      <c r="K2" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="185"/>
+      <c r="L2" s="196"/>
       <c r="M2" s="64"/>
       <c r="N2" s="66"/>
       <c r="O2" t="s">
@@ -9982,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16" thickBot="1">
       <c r="A3" s="96" t="s">
         <v>16</v>
       </c>
@@ -9996,7 +10441,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="181"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="101" t="s">
         <v>40</v>
       </c>
@@ -10024,7 +10469,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="81">
         <v>32</v>
       </c>
@@ -10077,7 +10522,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="81">
         <v>32.9</v>
       </c>
@@ -10127,7 +10572,7 @@
         <v>0.87815195180003003</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="81">
         <v>33.799999999999997</v>
       </c>
@@ -10177,7 +10622,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="81">
         <v>34.700000000000003</v>
       </c>
@@ -10228,7 +10673,7 @@
         <v>1.0537823421600361</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="81">
         <v>35.6</v>
       </c>
@@ -10272,7 +10717,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="50"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="81">
         <v>36.5</v>
       </c>
@@ -10316,7 +10761,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="50"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="81">
         <v>37.4</v>
       </c>
@@ -10363,7 +10808,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="81">
         <v>38.299999999999997</v>
       </c>
@@ -10413,7 +10858,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="81">
         <v>39.200000000000003</v>
       </c>
@@ -10457,7 +10902,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="50"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="81">
         <v>40.1</v>
       </c>
@@ -10501,7 +10946,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="50"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="81">
         <v>41</v>
       </c>
@@ -10545,7 +10990,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="50"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="81">
         <v>41.9</v>
       </c>
@@ -10589,7 +11034,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="50"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="81">
         <v>42.8</v>
       </c>
@@ -10633,7 +11078,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="50"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="81">
         <v>43.7</v>
       </c>
@@ -10677,7 +11122,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="50"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="81">
         <v>44.6</v>
       </c>
@@ -10721,7 +11166,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="50"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="81">
         <v>45.5</v>
       </c>
@@ -10765,7 +11210,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="50"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="81">
         <v>46.4</v>
       </c>
@@ -10809,7 +11254,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="50"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="81">
         <v>47.3</v>
       </c>
@@ -10853,7 +11298,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="50"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="81">
         <v>48.2</v>
       </c>
@@ -10897,7 +11342,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="50"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="81">
         <v>49.1</v>
       </c>
@@ -10941,7 +11386,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="50"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="81">
         <v>50</v>
       </c>
@@ -10985,7 +11430,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="50"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="81">
         <v>50.9</v>
       </c>
@@ -11029,7 +11474,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="50"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="81">
         <v>51.8</v>
       </c>
@@ -11073,7 +11518,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="50"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="81">
         <v>52.7</v>
       </c>
@@ -11117,7 +11562,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="50"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="81">
         <v>53.6</v>
       </c>
@@ -11161,7 +11606,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="50"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="81">
         <v>54.5</v>
       </c>
@@ -11205,7 +11650,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="50"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="81">
         <v>55.4</v>
       </c>
@@ -11249,7 +11694,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="50"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="81">
         <v>56.3</v>
       </c>
@@ -11296,7 +11741,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="50"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="81">
         <v>57.2</v>
       </c>
@@ -11343,7 +11788,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="50"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" s="81">
         <v>58.1</v>
       </c>
@@ -11390,7 +11835,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="50"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="81">
         <v>59</v>
       </c>
@@ -11437,7 +11882,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="50"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="81">
         <v>59.9</v>
       </c>
@@ -11484,7 +11929,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="50"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="81">
         <v>60.8</v>
       </c>
@@ -11531,7 +11976,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="50"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="81">
         <v>61.7</v>
       </c>
@@ -11578,7 +12023,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="50"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="81">
         <v>62.6</v>
       </c>
@@ -11625,7 +12070,7 @@
       <c r="M38" s="50"/>
       <c r="N38" s="50"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="81">
         <v>63.5</v>
       </c>
@@ -11672,7 +12117,7 @@
       <c r="M39" s="50"/>
       <c r="N39" s="50"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="81">
         <v>64.400000000000006</v>
       </c>
@@ -11719,7 +12164,7 @@
       <c r="M40" s="50"/>
       <c r="N40" s="50"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="81">
         <v>65.3</v>
       </c>
@@ -11766,7 +12211,7 @@
       <c r="M41" s="50"/>
       <c r="N41" s="50"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="81">
         <v>66.2</v>
       </c>
@@ -11810,12 +12255,12 @@
         <f t="shared" si="4"/>
         <v>5.3376723619410775</v>
       </c>
-      <c r="M42" s="174" t="s">
+      <c r="M42" s="185" t="s">
         <v>53</v>
       </c>
       <c r="N42" s="50"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" s="81">
         <v>67.099999999999994</v>
       </c>
@@ -11859,10 +12304,10 @@
         <f t="shared" si="4"/>
         <v>5.1411415209405424</v>
       </c>
-      <c r="M43" s="174"/>
+      <c r="M43" s="185"/>
       <c r="N43" s="50"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="81">
         <v>68</v>
       </c>
@@ -11911,7 +12356,7 @@
       </c>
       <c r="N44" s="50"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="81">
         <v>68.900000000000006</v>
       </c>
@@ -11960,7 +12405,7 @@
       </c>
       <c r="N45" s="50"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="81">
         <v>69.8</v>
       </c>
@@ -12009,7 +12454,7 @@
       </c>
       <c r="N46" s="50"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="86">
         <v>70</v>
       </c>
@@ -12062,7 +12507,7 @@
       <c r="N47" s="50"/>
       <c r="O47" s="49"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" s="81">
         <v>70.7</v>
       </c>
@@ -12111,7 +12556,7 @@
       </c>
       <c r="N48" s="50"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" s="81">
         <v>71.599999999999994</v>
       </c>
@@ -12160,7 +12605,7 @@
       </c>
       <c r="N49" s="50"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" s="81">
         <v>72.5</v>
       </c>
@@ -12209,7 +12654,7 @@
       </c>
       <c r="N50" s="50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" s="81">
         <v>73.400000000000006</v>
       </c>
@@ -12258,7 +12703,7 @@
       </c>
       <c r="N51" s="50"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" s="81">
         <v>74.3</v>
       </c>
@@ -12307,7 +12752,7 @@
       </c>
       <c r="N52" s="50"/>
     </row>
-    <row r="53" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="16" thickBot="1">
       <c r="A53" s="86">
         <v>75</v>
       </c>
@@ -12360,7 +12805,7 @@
       <c r="N53" s="47"/>
       <c r="O53" s="40"/>
     </row>
-    <row r="54" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="16" thickBot="1">
       <c r="A54" s="81">
         <v>75.2</v>
       </c>
@@ -12390,7 +12835,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="50"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" s="81">
         <v>76.099999999999994</v>
       </c>
@@ -12418,7 +12863,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" s="81">
         <v>77</v>
       </c>
@@ -12447,7 +12892,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" s="81">
         <v>77.900000000000006</v>
       </c>
@@ -12476,7 +12921,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="16" thickBot="1">
       <c r="A58" s="81">
         <v>78.8</v>
       </c>
@@ -12505,7 +12950,7 @@
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59" s="81">
         <v>79.7</v>
       </c>
@@ -12529,7 +12974,7 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="A60" s="81">
         <v>80.599999999999994</v>
       </c>
@@ -12543,8 +12988,8 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="175"/>
-      <c r="G60" s="175"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="186"/>
       <c r="H60" s="146"/>
       <c r="I60" s="38"/>
       <c r="J60" s="17"/>
@@ -12553,7 +12998,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" s="81">
         <v>81.5</v>
       </c>
@@ -12577,7 +13022,7 @@
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" s="81">
         <v>82.4</v>
       </c>
@@ -12601,7 +13046,7 @@
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" s="81">
         <v>83.3</v>
       </c>
@@ -12625,7 +13070,7 @@
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64" s="81">
         <v>84.2</v>
       </c>
@@ -12649,7 +13094,7 @@
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" s="81">
         <v>85.1</v>
       </c>
@@ -12673,7 +13118,7 @@
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="A66" s="81">
         <v>86</v>
       </c>
@@ -12697,7 +13142,7 @@
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67" s="81">
         <v>86.9</v>
       </c>
@@ -12721,7 +13166,7 @@
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" s="81">
         <v>87.8</v>
       </c>
@@ -12745,7 +13190,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69" s="81">
         <v>88.7</v>
       </c>
@@ -12769,7 +13214,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70" s="81">
         <v>89.6</v>
       </c>
@@ -12793,7 +13238,7 @@
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71" s="81">
         <v>90.5</v>
       </c>
@@ -12817,7 +13262,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72" s="81">
         <v>91.4</v>
       </c>
@@ -12841,7 +13286,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73" s="81">
         <v>92.3</v>
       </c>
@@ -12865,7 +13310,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74" s="81">
         <v>93.2</v>
       </c>
@@ -12889,7 +13334,7 @@
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75" s="81">
         <v>94.1</v>
       </c>
@@ -12913,7 +13358,7 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15">
       <c r="A76" s="81">
         <v>95</v>
       </c>
@@ -12937,7 +13382,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15">
       <c r="A77" s="81">
         <v>95.9</v>
       </c>
@@ -12961,7 +13406,7 @@
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15">
       <c r="A78" s="81">
         <v>96.8</v>
       </c>
@@ -12985,7 +13430,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="16" thickBot="1">
       <c r="A79" s="90">
         <v>97.47</v>
       </c>
@@ -13010,2224 +13455,2224 @@
       <c r="N79" s="17"/>
       <c r="O79" s="22"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="29"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="29"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" s="29"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" s="29"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" s="29"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" s="29"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" s="29"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106" s="29"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" s="29"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" s="29"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" s="29"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110" s="29"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" s="29"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112" s="29"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" s="29"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114" s="29"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115" s="29"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116" s="29"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" s="29"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118" s="29"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119" s="29"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120" s="29"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121" s="29"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122" s="29"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123" s="29"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1">
       <c r="A124" s="29"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125" s="29"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1">
       <c r="A126" s="29"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1">
       <c r="A127" s="29"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1">
       <c r="A128" s="29"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129" s="29"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130" s="29"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131" s="29"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132" s="29"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133" s="29"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134" s="29"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135" s="29"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136" s="29"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137" s="29"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138" s="29"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139" s="29"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140" s="29"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141" s="29"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142" s="29"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143" s="29"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144" s="29"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1">
       <c r="A145" s="29"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1">
       <c r="A146" s="29"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1">
       <c r="A147" s="29"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1">
       <c r="A148" s="29"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1">
       <c r="A149" s="29"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1">
       <c r="A150" s="29"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1">
       <c r="A151" s="29"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1">
       <c r="A152" s="29"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1">
       <c r="A153" s="29"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1">
       <c r="A154" s="29"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1">
       <c r="A155" s="29"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1">
       <c r="A156" s="29"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1">
       <c r="A157" s="29"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1">
       <c r="A158" s="29"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1">
       <c r="A159" s="29"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1">
       <c r="A160" s="29"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1">
       <c r="A161" s="29"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1">
       <c r="A162" s="29"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1">
       <c r="A163" s="29"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1">
       <c r="A164" s="29"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1">
       <c r="A165" s="29"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1">
       <c r="A166" s="29"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1">
       <c r="A167" s="29"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1">
       <c r="A168" s="29"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1">
       <c r="A169" s="29"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1">
       <c r="A170" s="29"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1">
       <c r="A171" s="29"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1">
       <c r="A172" s="29"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1">
       <c r="A173" s="29"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1">
       <c r="A174" s="29"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1">
       <c r="A175" s="29"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1">
       <c r="A176" s="29"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1">
       <c r="A177" s="29"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1">
       <c r="A178" s="29"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1">
       <c r="A179" s="29"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1">
       <c r="A180" s="29"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1">
       <c r="A181" s="29"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1">
       <c r="A182" s="29"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1">
       <c r="A183" s="29"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1">
       <c r="A184" s="29"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1">
       <c r="A185" s="29"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1">
       <c r="A186" s="29"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1">
       <c r="A187" s="29"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1">
       <c r="A188" s="29"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1">
       <c r="A189" s="29"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1">
       <c r="A190" s="29"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1">
       <c r="A191" s="29"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1">
       <c r="A192" s="29"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1">
       <c r="A193" s="29"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1">
       <c r="A194" s="29"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1">
       <c r="A195" s="29"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1">
       <c r="A196" s="29"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1">
       <c r="A197" s="29"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1">
       <c r="A198" s="29"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1">
       <c r="A199" s="29"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1">
       <c r="A200" s="29"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1">
       <c r="A201" s="29"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1">
       <c r="A202" s="29"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203" s="29"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204" s="29"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205" s="29"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206" s="29"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207" s="29"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208" s="29"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1">
       <c r="A209" s="29"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210" s="29"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1">
       <c r="A211" s="29"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1">
       <c r="A212" s="29"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1">
       <c r="A213" s="29"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1">
       <c r="A214" s="29"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1">
       <c r="A215" s="29"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1">
       <c r="A216" s="29"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217" s="29"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218" s="29"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219" s="29"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1">
       <c r="A220" s="29"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221" s="29"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1">
       <c r="A222" s="29"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223" s="29"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1">
       <c r="A224" s="29"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1">
       <c r="A225" s="29"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1">
       <c r="A226" s="29"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1">
       <c r="A227" s="29"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1">
       <c r="A228" s="29"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1">
       <c r="A229" s="29"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1">
       <c r="A230" s="29"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1">
       <c r="A231" s="29"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1">
       <c r="A232" s="29"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1">
       <c r="A233" s="29"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1">
       <c r="A234" s="29"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" s="29"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" s="29"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" s="29"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238" s="29"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" s="29"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" s="29"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
       <c r="A241" s="29"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" s="29"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" s="29"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" s="29"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" s="29"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246" s="29"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" s="29"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" s="29"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" s="29"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" s="29"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" s="29"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" s="29"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" s="29"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" s="29"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" s="29"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1">
       <c r="A256" s="29"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257" s="29"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258" s="29"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
       <c r="A259" s="29"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260" s="29"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261" s="29"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262" s="29"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" s="29"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264" s="29"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265" s="29"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266" s="29"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1">
       <c r="A267" s="29"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1">
       <c r="A268" s="29"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1">
       <c r="A269" s="29"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1">
       <c r="A270" s="29"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1">
       <c r="A271" s="29"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1">
       <c r="A272" s="29"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273" s="29"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274" s="29"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275" s="29"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276" s="29"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277" s="29"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278" s="29"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279" s="29"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280" s="29"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281" s="29"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282" s="29"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283" s="29"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284" s="29"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285" s="29"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286" s="29"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287" s="29"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288" s="29"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289" s="29"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290" s="29"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291" s="29"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292" s="29"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293" s="29"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294" s="29"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295" s="29"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296" s="29"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297" s="29"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298" s="29"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299" s="29"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300" s="29"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301" s="29"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302" s="29"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303" s="29"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304" s="29"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305" s="29"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306" s="29"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307" s="29"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308" s="29"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309" s="29"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310" s="29"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311" s="29"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312" s="29"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313" s="29"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314" s="29"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315" s="29"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316" s="29"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317" s="29"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318" s="29"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319" s="29"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320" s="29"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321" s="29"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322" s="29"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" s="29"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" s="29"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" s="29"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326" s="29"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" s="29"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" s="29"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329" s="29"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" s="29"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" s="29"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" s="29"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" s="29"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334" s="29"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335" s="29"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336" s="29"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337" s="29"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338" s="29"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339" s="29"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340" s="29"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341" s="29"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342" s="29"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343" s="29"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344" s="29"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345" s="29"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346" s="29"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347" s="29"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348" s="29"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349" s="29"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350" s="29"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351" s="29"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352" s="29"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353" s="29"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354" s="29"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355" s="29"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356" s="29"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357" s="29"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358" s="29"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359" s="29"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360" s="29"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361" s="29"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362" s="29"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363" s="29"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364" s="29"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365" s="29"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366" s="29"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367" s="29"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368" s="29"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369" s="29"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370" s="29"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371" s="29"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372" s="29"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373" s="29"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374" s="29"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375" s="29"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376" s="29"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377" s="29"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378" s="29"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379" s="29"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380" s="29"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381" s="29"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382" s="29"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383" s="29"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384" s="29"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385" s="29"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386" s="29"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387" s="29"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388" s="29"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389" s="29"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390" s="29"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391" s="29"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392" s="29"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393" s="29"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394" s="29"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395" s="29"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396" s="29"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397" s="29"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398" s="29"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399" s="29"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400" s="29"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401" s="29"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402" s="29"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403" s="29"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404" s="29"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405" s="29"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406" s="29"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407" s="29"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408" s="29"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409" s="29"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410" s="29"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411" s="29"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412" s="29"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413" s="29"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414" s="29"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415" s="29"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416" s="29"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417" s="29"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418" s="29"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419" s="29"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420" s="29"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421" s="29"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422" s="29"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423" s="29"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424" s="29"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425" s="29"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426" s="29"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427" s="29"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428" s="29"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429" s="29"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430" s="29"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431" s="29"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432" s="29"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433" s="29"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434" s="29"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435" s="29"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436" s="29"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437" s="29"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438" s="29"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439" s="29"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440" s="29"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441" s="29"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442" s="29"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443" s="29"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444" s="29"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445" s="29"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446" s="29"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447" s="29"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448" s="29"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449" s="29"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450" s="29"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451" s="29"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452" s="29"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453" s="29"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454" s="29"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455" s="29"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456" s="29"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457" s="29"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458" s="29"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459" s="29"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460" s="29"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461" s="29"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462" s="29"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463" s="29"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464" s="29"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465" s="29"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466" s="29"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467" s="29"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468" s="29"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469" s="29"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470" s="29"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471" s="29"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472" s="29"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473" s="29"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474" s="29"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475" s="29"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476" s="29"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477" s="29"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478" s="29"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479" s="29"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480" s="29"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481" s="29"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1">
       <c r="A482" s="29"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1">
       <c r="A483" s="29"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1">
       <c r="A484" s="29"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1">
       <c r="A485" s="29"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1">
       <c r="A486" s="29"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1">
       <c r="A487" s="29"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1">
       <c r="A488" s="29"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1">
       <c r="A489" s="29"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1">
       <c r="A490" s="29"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1">
       <c r="A491" s="29"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1">
       <c r="A492" s="29"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1">
       <c r="A493" s="29"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1">
       <c r="A494" s="29"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1">
       <c r="A495" s="29"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1">
       <c r="A496" s="29"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1">
       <c r="A497" s="29"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1">
       <c r="A498" s="29"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1">
       <c r="A499" s="29"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1">
       <c r="A500" s="29"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1">
       <c r="A501" s="29"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1">
       <c r="A502" s="29"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1">
       <c r="A503" s="29"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1">
       <c r="A504" s="29"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1">
       <c r="A505" s="29"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1">
       <c r="A506" s="29"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1">
       <c r="A507" s="29"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1">
       <c r="A508" s="29"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1">
       <c r="A509" s="29"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1">
       <c r="A510" s="29"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1">
       <c r="A511" s="29"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1">
       <c r="A512" s="29"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1">
       <c r="A513" s="29"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1">
       <c r="A514" s="29"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1">
       <c r="A515" s="29"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1">
       <c r="A516" s="29"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1">
       <c r="A517" s="29"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1">
       <c r="A518" s="29"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1">
       <c r="A519" s="29"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1">
       <c r="A520" s="29"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1">
       <c r="A521" s="29"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1">
       <c r="A522" s="29"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1">
       <c r="A523" s="29"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1">
       <c r="A524" s="29"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1">
       <c r="A525" s="29"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1">
       <c r="A526" s="29"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1">
       <c r="A527" s="29"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1">
       <c r="A528" s="29"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1">
       <c r="A529" s="29"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1">
       <c r="A530" s="29"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1">
       <c r="A531" s="29"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1">
       <c r="A532" s="29"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1">
       <c r="A533" s="29"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1">
       <c r="A534" s="29"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1">
       <c r="A535" s="29"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1">
       <c r="A536" s="29"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1">
       <c r="A537" s="29"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1">
       <c r="A538" s="29"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1">
       <c r="A539" s="29"/>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1">
       <c r="A540" s="29"/>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1">
       <c r="A541" s="29"/>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1">
       <c r="A542" s="29"/>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1">
       <c r="A543" s="29"/>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1">
       <c r="A544" s="29"/>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1">
       <c r="A545" s="29"/>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1">
       <c r="A546" s="29"/>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1">
       <c r="A547" s="29"/>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1">
       <c r="A548" s="29"/>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1">
       <c r="A549" s="29"/>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1">
       <c r="A550" s="29"/>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1">
       <c r="A551" s="29"/>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1">
       <c r="A552" s="29"/>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1">
       <c r="A553" s="29"/>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1">
       <c r="A554" s="29"/>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1">
       <c r="A555" s="29"/>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1">
       <c r="A556" s="29"/>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1">
       <c r="A557" s="29"/>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1">
       <c r="A558" s="29"/>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1">
       <c r="A559" s="29"/>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1">
       <c r="A560" s="29"/>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1">
       <c r="A561" s="29"/>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1">
       <c r="A562" s="29"/>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1">
       <c r="A563" s="29"/>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1">
       <c r="A564" s="29"/>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1">
       <c r="A565" s="29"/>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1">
       <c r="A566" s="29"/>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1">
       <c r="A567" s="29"/>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1">
       <c r="A568" s="29"/>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1">
       <c r="A569" s="29"/>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1">
       <c r="A570" s="29"/>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1">
       <c r="A571" s="29"/>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1">
       <c r="A572" s="29"/>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1">
       <c r="A573" s="29"/>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1">
       <c r="A574" s="29"/>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1">
       <c r="A575" s="29"/>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1">
       <c r="A576" s="29"/>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1">
       <c r="A577" s="29"/>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1">
       <c r="A578" s="29"/>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1">
       <c r="A579" s="29"/>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1">
       <c r="A580" s="29"/>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1">
       <c r="A581" s="29"/>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1">
       <c r="A582" s="29"/>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1">
       <c r="A583" s="29"/>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1">
       <c r="A584" s="29"/>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1">
       <c r="A585" s="29"/>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1">
       <c r="A586" s="29"/>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1">
       <c r="A587" s="29"/>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1">
       <c r="A588" s="29"/>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1">
       <c r="A589" s="29"/>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1">
       <c r="A590" s="29"/>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1">
       <c r="A591" s="29"/>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1">
       <c r="A592" s="29"/>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1">
       <c r="A593" s="29"/>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1">
       <c r="A594" s="29"/>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1">
       <c r="A595" s="29"/>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1">
       <c r="A596" s="29"/>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1">
       <c r="A597" s="29"/>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1">
       <c r="A598" s="29"/>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1">
       <c r="A599" s="29"/>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1">
       <c r="A600" s="29"/>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1">
       <c r="A601" s="29"/>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1">
       <c r="A602" s="29"/>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1">
       <c r="A603" s="29"/>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1">
       <c r="A604" s="29"/>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1">
       <c r="A605" s="29"/>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1">
       <c r="A606" s="29"/>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1">
       <c r="A607" s="29"/>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1">
       <c r="A608" s="29"/>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1">
       <c r="A609" s="29"/>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1">
       <c r="A610" s="29"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1">
       <c r="A611" s="29"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1">
       <c r="A612" s="29"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1">
       <c r="A613" s="29"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1">
       <c r="A614" s="29"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1">
       <c r="A615" s="29"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1">
       <c r="A616" s="29"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1">
       <c r="A617" s="29"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1">
       <c r="A618" s="29"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1">
       <c r="A619" s="29"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1">
       <c r="A620" s="29"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1">
       <c r="A621" s="29"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1">
       <c r="A622" s="29"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1">
       <c r="A623" s="29"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1">
       <c r="A624" s="29"/>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1">
       <c r="A625" s="29"/>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1">
       <c r="A626" s="29"/>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1">
       <c r="A627" s="29"/>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1">
       <c r="A628" s="29"/>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1">
       <c r="A629" s="29"/>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1">
       <c r="A630" s="29"/>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1">
       <c r="A631" s="29"/>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1">
       <c r="A632" s="29"/>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1">
       <c r="A633" s="29"/>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1">
       <c r="A634" s="29"/>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1">
       <c r="A635" s="29"/>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1">
       <c r="A636" s="29"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1">
       <c r="A637" s="29"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1">
       <c r="A638" s="29"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1">
       <c r="A639" s="29"/>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1">
       <c r="A640" s="29"/>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1">
       <c r="A641" s="29"/>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1">
       <c r="A642" s="29"/>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1">
       <c r="A643" s="29"/>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1">
       <c r="A644" s="29"/>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1">
       <c r="A645" s="29"/>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1">
       <c r="A646" s="29"/>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1">
       <c r="A647" s="29"/>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1">
       <c r="A648" s="29"/>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1">
       <c r="A649" s="29"/>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1">
       <c r="A650" s="29"/>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1">
       <c r="A651" s="29"/>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1">
       <c r="A652" s="29"/>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1">
       <c r="A653" s="29"/>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1">
       <c r="A654" s="29"/>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1">
       <c r="A655" s="29"/>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1">
       <c r="A656" s="29"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1">
       <c r="A657" s="29"/>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1">
       <c r="A658" s="29"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1">
       <c r="A659" s="29"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1">
       <c r="A660" s="29"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1">
       <c r="A661" s="29"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1">
       <c r="A662" s="29"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1">
       <c r="A663" s="29"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1">
       <c r="A664" s="29"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1">
       <c r="A665" s="29"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1">
       <c r="A666" s="29"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1">
       <c r="A667" s="29"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1">
       <c r="A668" s="29"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1">
       <c r="A669" s="29"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1">
       <c r="A670" s="29"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1">
       <c r="A671" s="29"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1">
       <c r="A672" s="29"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1">
       <c r="A673" s="29"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1">
       <c r="A674" s="29"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1">
       <c r="A675" s="29"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1">
       <c r="A676" s="29"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1">
       <c r="A677" s="29"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1">
       <c r="A678" s="29"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1">
       <c r="A679" s="29"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1">
       <c r="A680" s="29"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1">
       <c r="A681" s="29"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1">
       <c r="A682" s="29"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1">
       <c r="A683" s="29"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1">
       <c r="A684" s="29"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1">
       <c r="A685" s="29"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1">
       <c r="A686" s="29"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1">
       <c r="A687" s="29"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1">
       <c r="A688" s="29"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1">
       <c r="A689" s="29"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1">
       <c r="A690" s="29"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1">
       <c r="A691" s="29"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1">
       <c r="A692" s="29"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1">
       <c r="A693" s="29"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1">
       <c r="A694" s="29"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1">
       <c r="A695" s="29"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1">
       <c r="A696" s="29"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1">
       <c r="A697" s="29"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1">
       <c r="A698" s="29"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1">
       <c r="A699" s="29"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1">
       <c r="A700" s="29"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1">
       <c r="A701" s="29"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1">
       <c r="A702" s="29"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1">
       <c r="A703" s="29"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1">
       <c r="A704" s="29"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1">
       <c r="A705" s="29"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1">
       <c r="A706" s="29"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1">
       <c r="A707" s="29"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1">
       <c r="A708" s="29"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1">
       <c r="A709" s="29"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1">
       <c r="A710" s="29"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1">
       <c r="A711" s="29"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1">
       <c r="A712" s="29"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1">
       <c r="A713" s="29"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1">
       <c r="A714" s="29"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1">
       <c r="A715" s="29"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1">
       <c r="A716" s="29"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1">
       <c r="A717" s="29"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1">
       <c r="A718" s="29"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1">
       <c r="A719" s="29"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1">
       <c r="A720" s="29"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1">
       <c r="A721" s="29"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1">
       <c r="A722" s="29"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1">
       <c r="A723" s="29"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1">
       <c r="A724" s="29"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1">
       <c r="A725" s="29"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1">
       <c r="A726" s="29"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1">
       <c r="A727" s="29"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1">
       <c r="A728" s="29"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1">
       <c r="A729" s="29"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1">
       <c r="A730" s="29"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1">
       <c r="A731" s="29"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1">
       <c r="A732" s="29"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1">
       <c r="A733" s="29"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1">
       <c r="A734" s="29"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1">
       <c r="A735" s="29"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1">
       <c r="A736" s="29"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1">
       <c r="A737" s="29"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1">
       <c r="A738" s="29"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1">
       <c r="A739" s="29"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1">
       <c r="A740" s="29"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1">
       <c r="A741" s="29"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1">
       <c r="A742" s="29"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1">
       <c r="A743" s="29"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1">
       <c r="A744" s="29"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1">
       <c r="A745" s="29"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1">
       <c r="A746" s="29"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1">
       <c r="A747" s="29"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1">
       <c r="A748" s="29"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1">
       <c r="A749" s="29"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1">
       <c r="A750" s="29"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1">
       <c r="A751" s="29"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1">
       <c r="A752" s="29"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1">
       <c r="A753" s="29"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1">
       <c r="A754" s="29"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1">
       <c r="A755" s="29"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1">
       <c r="A756" s="29"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1">
       <c r="A757" s="29"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1">
       <c r="A758" s="29"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1">
       <c r="A759" s="29"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1">
       <c r="A760" s="29"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1">
       <c r="A761" s="29"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1">
       <c r="A762" s="29"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1">
       <c r="A763" s="29"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1">
       <c r="A764" s="29"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1">
       <c r="A765" s="29"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1">
       <c r="A766" s="29"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1">
       <c r="A767" s="29"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1">
       <c r="A768" s="29"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1">
       <c r="A769" s="29"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1">
       <c r="A770" s="29"/>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1">
       <c r="A771" s="29"/>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1">
       <c r="A772" s="29"/>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1">
       <c r="A773" s="29"/>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1">
       <c r="A774" s="29"/>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1">
       <c r="A775" s="29"/>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1">
       <c r="A776" s="29"/>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1">
       <c r="A777" s="29"/>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1">
       <c r="A778" s="29"/>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1">
       <c r="A779" s="29"/>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1">
       <c r="A780" s="29"/>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1">
       <c r="A781" s="29"/>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1">
       <c r="A782" s="29"/>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1">
       <c r="A783" s="29"/>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1">
       <c r="A784" s="29"/>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1">
       <c r="A785" s="29"/>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1">
       <c r="A786" s="29"/>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1">
       <c r="A787" s="29"/>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1">
       <c r="A788" s="29"/>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1">
       <c r="A789" s="29"/>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1">
       <c r="A790" s="29"/>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1">
       <c r="A791" s="29"/>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1">
       <c r="A792" s="29"/>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1">
       <c r="A793" s="29"/>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1">
       <c r="A794" s="29"/>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1">
       <c r="A795" s="29"/>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1">
       <c r="A796" s="29"/>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1">
       <c r="A797" s="29"/>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1">
       <c r="A798" s="29"/>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1">
       <c r="A799" s="29"/>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1">
       <c r="A800" s="29"/>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1">
       <c r="A801" s="29"/>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1">
       <c r="A802" s="29"/>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1">
       <c r="A803" s="29"/>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1">
       <c r="A804" s="29"/>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1">
       <c r="A805" s="29"/>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1">
       <c r="A806" s="29"/>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1">
       <c r="A807" s="29"/>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1">
       <c r="A808" s="29"/>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1">
       <c r="A809" s="29"/>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1">
       <c r="A810" s="29"/>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1">
       <c r="A811" s="29"/>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1">
       <c r="A812" s="29"/>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1">
       <c r="A813" s="29"/>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1">
       <c r="A814" s="29"/>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1">
       <c r="A815" s="29"/>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1">
       <c r="A816" s="29"/>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1">
       <c r="A817" s="29"/>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1">
       <c r="A818" s="29"/>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1">
       <c r="A819" s="29"/>
     </row>
   </sheetData>
@@ -15245,7 +15690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967D90F-7C71-49F2-B312-218C914DF272}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -15253,7 +15698,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
@@ -15261,7 +15706,7 @@
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="125" t="s">
         <v>60</v>
       </c>
@@ -15275,7 +15720,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="B2" s="40" t="s">
         <v>61</v>
       </c>
@@ -15284,7 +15729,7 @@
       </c>
       <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="40" t="s">
         <v>62</v>
       </c>
@@ -15303,7 +15748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="40" t="s">
         <v>63</v>
       </c>
@@ -15328,7 +15773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD2FB6F-B5B6-45D0-A077-A1579B76EE79}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -15336,7 +15781,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
@@ -15344,7 +15789,7 @@
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="21.75" customHeight="1">
       <c r="A1" s="136" t="s">
         <v>90</v>
       </c>
@@ -15361,7 +15806,7 @@
         <v>32.164000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -15377,7 +15822,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -15395,7 +15840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -15410,7 +15855,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="H5" s="140" t="s">
@@ -15420,7 +15865,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="H6" s="140" t="s">
@@ -15431,7 +15876,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1">
       <c r="A7" s="137" t="s">
         <v>89</v>
       </c>
@@ -15440,7 +15885,7 @@
       </c>
       <c r="I7" s="138"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="132" t="s">
         <v>92</v>
       </c>
@@ -15459,7 +15904,7 @@
         <v>6.1820000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="132" t="s">
         <v>98</v>
       </c>
@@ -15475,7 +15920,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="145" t="s">
         <v>5</v>
       </c>
@@ -15491,7 +15936,7 @@
         <v>199.06040000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="H12" t="s">
         <v>77</v>
       </c>
@@ -15499,7 +15944,7 @@
         <v>23.375</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1">
       <c r="A13" s="137" t="s">
         <v>93</v>
       </c>
@@ -15511,7 +15956,7 @@
         <v>0.72674418604651159</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -15526,7 +15971,7 @@
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16" thickBot="1">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -15535,7 +15980,7 @@
         <v>1955.1687044668183</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="16">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -15553,7 +15998,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17" thickBot="1">
       <c r="A17" s="40" t="s">
         <v>5</v>
       </c>
@@ -15568,7 +16013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" thickBot="1">
       <c r="H18" s="133" t="s">
         <v>80</v>
       </c>
@@ -15576,7 +16021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="17" thickBot="1">
       <c r="H19" s="135" t="s">
         <v>81</v>
       </c>
@@ -15587,13 +16032,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="68" t="s">
         <v>100</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -15602,7 +16047,7 @@
         <v>5810.7613896753837</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -15611,7 +16056,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="40" t="s">
         <v>5</v>
       </c>
@@ -15620,12 +16065,12 @@
         <v>5.6791180685262201</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="68" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -15634,7 +16079,7 @@
         <v>5810.7613896753837</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -15643,7 +16088,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="40" t="s">
         <v>5</v>
       </c>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED5AA5-4BCF-5640-B879-83CFF0985DA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B949F7A-ECBA-BC45-AF88-EBC3F676B078}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Min Yield Strength Allowable" sheetId="9" r:id="rId1"/>
-    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId2"/>
-    <sheet name="BPV Calcs - T51" sheetId="7" r:id="rId3"/>
-    <sheet name="BPV Calcs - T6" sheetId="1" r:id="rId4"/>
-    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId5"/>
-    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId6"/>
-    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId7"/>
-    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId8"/>
+    <sheet name="Min Yield Strength Allow - Head" sheetId="10" r:id="rId1"/>
+    <sheet name="Min Yield Strength Allow -Shell" sheetId="9" r:id="rId2"/>
+    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId3"/>
+    <sheet name="BPV Calcs - T51" sheetId="7" r:id="rId4"/>
+    <sheet name="BPV Calcs - T6" sheetId="1" r:id="rId5"/>
+    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId6"/>
+    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId7"/>
+    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId8"/>
+    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -469,9 +470,6 @@
     <t>FS^</t>
   </si>
   <si>
-    <t>FOR MINUMUM YIELD STRENGTH ALLOWABLE AT 0.225" SHELL THICKNESS</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -497,7 +495,38 @@
     </r>
   </si>
   <si>
-    <t>186.2 MPa</t>
+    <t>135.2 Mpa</t>
+  </si>
+  <si>
+    <t>186.2 Mpa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOR MINUMUM YIELD STRENGTH ALLOWABLE AT 0.15" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>HEAD THICKNESS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FOR MINUMUM YIELD STRENGTH ALLOWABLE AT 0.225"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFA7D00"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> SHELL THICKNESS</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -510,7 +539,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +775,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1144,7 +1179,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1534,6 +1569,7 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="28" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1618,7 +1654,7 @@
     <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="28" xfId="5" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="9" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4304,11 +4340,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16077167-0C48-364A-BC9D-17A312718497}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1">
+      <c r="A3" s="172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+    </row>
+    <row r="4" spans="1:7" ht="25" thickBot="1">
+      <c r="A4" s="174" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="176"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="173"/>
+      <c r="C5" s="150"/>
+      <c r="E5" s="173" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="173"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>825</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3.25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
+        <v>0.31447894078720523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
+        <v>0.14594206577542368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <f>MAX(F8:F9)</f>
+        <v>0.31447894078720523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" customHeight="1">
+      <c r="A11" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="168">
+        <v>19600</v>
+      </c>
+      <c r="C11" s="198" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="162"/>
+      <c r="E12" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="111">
+        <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
+        <v>0.14998308255691076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1">
+      <c r="A13" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="163">
+        <f>0.25-0.025</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C13" s="164">
+        <f>B13/F10</f>
+        <v>0.71546921214113379</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="113">
+        <f>F12</f>
+        <v>0.14998308255691076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1">
+      <c r="A14" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="165">
+        <v>0.15</v>
+      </c>
+      <c r="C14" s="166">
+        <f>B14/F13</f>
+        <v>1.0001127956753577</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="32">
+      <c r="A16" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="126">
+        <f>'N2O Pressure Calcs'!H53</f>
+        <v>806.61716630606907</v>
+      </c>
+      <c r="C16" s="153"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="128">
+        <f>B10*B16</f>
+        <v>1613.2343326121381</v>
+      </c>
+      <c r="C17" s="154"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="60"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A19" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="127">
+        <f>'N2O Pressure Calcs'!J53</f>
+        <v>809.64703151146546</v>
+      </c>
+      <c r="C19" s="155"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="A25" s="54"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="52"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="A28" s="55"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="55"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="55"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65062AE-B621-E545-B314-3586194DA631}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4321,58 +4663,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1">
-      <c r="A4" s="173" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="175"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+    </row>
+    <row r="4" spans="1:7" ht="25" thickBot="1">
+      <c r="A4" s="174" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="176"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="172"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="172" t="s">
+      <c r="E5" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="172"/>
+      <c r="F5" s="173"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4441,12 +4783,12 @@
     </row>
     <row r="11" spans="1:7" ht="29" customHeight="1">
       <c r="A11" s="167" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="168">
         <v>27000</v>
       </c>
-      <c r="C11" s="197" t="s">
+      <c r="C11" s="169" t="s">
         <v>119</v>
       </c>
       <c r="E11" s="7"/>
@@ -4605,12 +4947,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4CC0F4-5ED0-0840-90E0-925922EF4438}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4623,37 +4965,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
     </row>
     <row r="4" spans="1:7" ht="16" thickBot="1">
       <c r="C4" s="160" t="s">
@@ -4661,15 +5003,15 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="172"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="172" t="s">
+      <c r="E5" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="172"/>
+      <c r="F5" s="173"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4894,12 +5236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC2D1F1-413C-E74A-9F7B-3532D6FDA3DC}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4912,37 +5254,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="C4" s="159" t="s">
@@ -4953,15 +5295,15 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="172"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="172" t="s">
+      <c r="E5" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="172"/>
+      <c r="F5" s="173"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5189,7 +5531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC6F123-32E7-44A1-9243-3BCDE965A118}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G31"/>
@@ -5208,37 +5550,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="C4" s="158" t="s">
@@ -5246,15 +5588,15 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="172"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="172" t="s">
+      <c r="E5" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="172"/>
+      <c r="F5" s="173"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5479,7 +5821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2381E3-ED84-DB4C-A4E2-7857F2E34756}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
@@ -5507,19 +5849,19 @@
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1">
       <c r="A1" s="67"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="185"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="182"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -5550,14 +5892,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="176" t="s">
+      <c r="G2" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177" t="s">
+      <c r="H2" s="178"/>
+      <c r="I2" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="178"/>
+      <c r="J2" s="179"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -10330,7 +10672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32C0C-ED9A-4805-89D4-96E4CF8ECC22}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P819"/>
@@ -10359,20 +10701,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="189"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="190"/>
       <c r="E1" s="63"/>
-      <c r="F1" s="190" t="s">
+      <c r="F1" s="191" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
-      <c r="J1" s="193" t="s">
+      <c r="J1" s="194" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="100"/>
@@ -10402,7 +10744,7 @@
       <c r="E2" s="50">
         <v>0.75122497093492424</v>
       </c>
-      <c r="F2" s="191"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="105" t="s">
         <v>39</v>
       </c>
@@ -10412,11 +10754,11 @@
       <c r="I2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="194"/>
-      <c r="K2" s="195" t="s">
+      <c r="J2" s="195"/>
+      <c r="K2" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="196"/>
+      <c r="L2" s="197"/>
       <c r="M2" s="64"/>
       <c r="N2" s="66"/>
       <c r="O2" t="s">
@@ -10441,7 +10783,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="192"/>
+      <c r="F3" s="193"/>
       <c r="G3" s="101" t="s">
         <v>40</v>
       </c>
@@ -12255,7 +12597,7 @@
         <f t="shared" si="4"/>
         <v>5.3376723619410775</v>
       </c>
-      <c r="M42" s="185" t="s">
+      <c r="M42" s="186" t="s">
         <v>53</v>
       </c>
       <c r="N42" s="50"/>
@@ -12304,7 +12646,7 @@
         <f t="shared" si="4"/>
         <v>5.1411415209405424</v>
       </c>
-      <c r="M43" s="185"/>
+      <c r="M43" s="186"/>
       <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:15">
@@ -12988,8 +13330,8 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="186"/>
+      <c r="F60" s="187"/>
+      <c r="G60" s="187"/>
       <c r="H60" s="146"/>
       <c r="I60" s="38"/>
       <c r="J60" s="17"/>
@@ -15690,7 +16032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D967D90F-7C71-49F2-B312-218C914DF272}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -15773,7 +16115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD2FB6F-B5B6-45D0-A077-A1579B76EE79}">
   <dimension ref="A1:M28"/>
   <sheetViews>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B949F7A-ECBA-BC45-AF88-EBC3F676B078}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ED1E6C-5984-6D4A-A119-29C46983B903}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
@@ -1570,6 +1570,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="28" xfId="5" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="9" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1579,9 +1580,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,6 +1588,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1654,7 +1655,6 @@
     <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="9" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4358,37 +4358,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
     </row>
     <row r="4" spans="1:7" ht="25" thickBot="1">
       <c r="A4" s="174" t="s">
@@ -4401,15 +4401,15 @@
       <c r="F4" s="176"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="173"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="177"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4483,7 +4483,7 @@
       <c r="B11" s="168">
         <v>19600</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="170" t="s">
         <v>118</v>
       </c>
       <c r="E11" s="7"/>
@@ -4650,7 +4650,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4663,37 +4663,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
     </row>
     <row r="4" spans="1:7" ht="25" thickBot="1">
       <c r="A4" s="174" t="s">
@@ -4706,15 +4706,15 @@
       <c r="F4" s="176"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="173"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="177"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4952,7 +4952,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4965,37 +4965,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
     </row>
     <row r="4" spans="1:7" ht="16" thickBot="1">
       <c r="C4" s="160" t="s">
@@ -5003,15 +5003,15 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="173"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="177"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="F8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.34420897681376578</v>
+        <v>0.36582401973795547</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="F9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>0.15866137015893755</v>
+        <v>0.16780164160993205</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="F10" s="13">
         <f>MAX(F8:F9)</f>
-        <v>0.34420897681376578</v>
+        <v>0.36582401973795547</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5083,7 +5083,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="F12" s="111">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>0.16344900899936077</v>
+        <v>0.17316611388966718</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1">
@@ -5113,14 +5113,14 @@
       </c>
       <c r="C13" s="156">
         <f>B13/F10</f>
-        <v>0.65367266735096285</v>
+        <v>0.61504982685710585</v>
       </c>
       <c r="E13" s="112" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="113">
         <f>F12</f>
-        <v>0.16344900899936077</v>
+        <v>0.17316611388966718</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="C14" s="156">
         <f>B14/F13</f>
-        <v>0.91771740262179646</v>
+        <v>0.86622028196332057</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -5254,37 +5254,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="C4" s="159" t="s">
@@ -5295,15 +5295,15 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="173"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="177"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5550,37 +5550,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="C4" s="158" t="s">
@@ -5588,15 +5588,15 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="173"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="150"/>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="177"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5826,9 +5826,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G53" sqref="G53"/>
+      <selection pane="topRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -5849,19 +5849,19 @@
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1">
       <c r="A1" s="67"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="180" t="s">
+      <c r="G1" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="183"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -5892,14 +5892,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="177" t="s">
+      <c r="G2" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178" t="s">
+      <c r="H2" s="179"/>
+      <c r="I2" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="179"/>
+      <c r="J2" s="180"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -10701,20 +10701,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="190"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="191"/>
       <c r="E1" s="63"/>
-      <c r="F1" s="191" t="s">
+      <c r="F1" s="192" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
-      <c r="J1" s="194" t="s">
+      <c r="J1" s="195" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="100"/>
@@ -10744,7 +10744,7 @@
       <c r="E2" s="50">
         <v>0.75122497093492424</v>
       </c>
-      <c r="F2" s="192"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="105" t="s">
         <v>39</v>
       </c>
@@ -10754,11 +10754,11 @@
       <c r="I2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="195"/>
-      <c r="K2" s="196" t="s">
+      <c r="J2" s="196"/>
+      <c r="K2" s="197" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="197"/>
+      <c r="L2" s="198"/>
       <c r="M2" s="64"/>
       <c r="N2" s="66"/>
       <c r="O2" t="s">
@@ -10783,7 +10783,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="193"/>
+      <c r="F3" s="194"/>
       <c r="G3" s="101" t="s">
         <v>40</v>
       </c>
@@ -12597,7 +12597,7 @@
         <f t="shared" si="4"/>
         <v>5.3376723619410775</v>
       </c>
-      <c r="M42" s="186" t="s">
+      <c r="M42" s="187" t="s">
         <v>53</v>
       </c>
       <c r="N42" s="50"/>
@@ -12646,7 +12646,7 @@
         <f t="shared" si="4"/>
         <v>5.1411415209405424</v>
       </c>
-      <c r="M43" s="186"/>
+      <c r="M43" s="187"/>
       <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:15">
@@ -13330,8 +13330,8 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="187"/>
-      <c r="G60" s="187"/>
+      <c r="F60" s="188"/>
+      <c r="G60" s="188"/>
       <c r="H60" s="146"/>
       <c r="I60" s="38"/>
       <c r="J60" s="17"/>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ED1E6C-5984-6D4A-A119-29C46983B903}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5375F5A2-3AA4-0541-9AC6-599E6DC2799A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Min Yield Strength Allow - Head" sheetId="10" r:id="rId1"/>
@@ -4951,7 +4951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4CC0F4-5ED0-0840-90E0-925922EF4438}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -5536,8 +5536,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Critical_RT_Calcs_IR-3.25.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5375F5A2-3AA4-0541-9AC6-599E6DC2799A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0373401C-00B6-DF4C-94F5-23DAB797304F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Min Yield Strength Allow - Head" sheetId="10" r:id="rId1"/>
-    <sheet name="Min Yield Strength Allow -Shell" sheetId="9" r:id="rId2"/>
-    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId3"/>
-    <sheet name="BPV Calcs - T51" sheetId="7" r:id="rId4"/>
-    <sheet name="BPV Calcs - T6" sheetId="1" r:id="rId5"/>
-    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId6"/>
-    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId7"/>
-    <sheet name="RT Head thickness Mass" sheetId="4" r:id="rId8"/>
-    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId9"/>
+    <sheet name="BPV Calcs - T6" sheetId="1" r:id="rId1"/>
+    <sheet name="BPV Calcs - T51" sheetId="7" r:id="rId2"/>
+    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId3"/>
+    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId4"/>
+    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId5"/>
+    <sheet name="Min Yield Strength Allow -Shell" sheetId="9" r:id="rId6"/>
+    <sheet name="Min Yield Strength Allow - Head" sheetId="10" r:id="rId7"/>
+    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="114">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -261,30 +260,6 @@
   </si>
   <si>
     <t>gees</t>
-  </si>
-  <si>
-    <t>Density of 6061-t6 (lb/in^3)</t>
-  </si>
-  <si>
-    <t>Volume (in3)</t>
-  </si>
-  <si>
-    <t>1/4" thickness</t>
-  </si>
-  <si>
-    <t>1/8" thickness</t>
-  </si>
-  <si>
-    <t>Mass (lbm)</t>
-  </si>
-  <si>
-    <t>Accel due to grav</t>
-  </si>
-  <si>
-    <t>Weight saved per cap (lbf)</t>
-  </si>
-  <si>
-    <t>Total weight saved (lbf)</t>
   </si>
   <si>
     <t>thickness of mounting (in)</t>
@@ -1179,7 +1154,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1503,7 +1478,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -4340,619 +4314,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16077167-0C48-364A-BC9D-17A312718497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC6F123-32E7-44A1-9243-3BCDE965A118}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="171" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="172" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="173" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-    </row>
-    <row r="4" spans="1:7" ht="25" thickBot="1">
-      <c r="A4" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="176"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="177" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="150"/>
-      <c r="E5" s="177" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="177"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>825</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="59"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>3.25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9">
-        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.31447894078720523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11">
-        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>0.14594206577542368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="13">
-        <f>MAX(F8:F9)</f>
-        <v>0.31447894078720523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" customHeight="1">
-      <c r="A11" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="168">
-        <v>19600</v>
-      </c>
-      <c r="C11" s="170" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="162"/>
-      <c r="E12" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="111">
-        <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>0.14998308255691076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1">
-      <c r="A13" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="163">
-        <f>0.25-0.025</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C13" s="164">
-        <f>B13/F10</f>
-        <v>0.71546921214113379</v>
-      </c>
-      <c r="E13" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="113">
-        <f>F12</f>
-        <v>0.14998308255691076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
-      <c r="A14" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="165">
-        <v>0.15</v>
-      </c>
-      <c r="C14" s="166">
-        <f>B14/F13</f>
-        <v>1.0001127956753577</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="32">
-      <c r="A16" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="126">
-        <f>'N2O Pressure Calcs'!H53</f>
-        <v>806.61716630606907</v>
-      </c>
-      <c r="C16" s="153"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="16">
-      <c r="A17" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="128">
-        <f>B10*B16</f>
-        <v>1613.2343326121381</v>
-      </c>
-      <c r="C17" s="154"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="60"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A19" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="127">
-        <f>'N2O Pressure Calcs'!J53</f>
-        <v>809.64703151146546</v>
-      </c>
-      <c r="C19" s="155"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="E20" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="52"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="55"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="55"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65062AE-B621-E545-B314-3586194DA631}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="171" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="172" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="173" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-    </row>
-    <row r="4" spans="1:7" ht="25" thickBot="1">
-      <c r="A4" s="174" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="176"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="177" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="150"/>
-      <c r="E5" s="177" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="177"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>825</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="59"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>3.25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9">
-        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.2247127649988844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11">
-        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>0.10646726181412242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="13">
-        <f>MAX(F8:F9)</f>
-        <v>0.2247127649988844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" customHeight="1">
-      <c r="A11" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="168">
-        <v>27000</v>
-      </c>
-      <c r="C11" s="169" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="162"/>
-      <c r="E12" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="111">
-        <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>0.10860188557756124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1">
-      <c r="A13" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="163">
-        <f>0.25-0.025</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C13" s="164">
-        <f>B13/F10</f>
-        <v>1.001278231795675</v>
-      </c>
-      <c r="E13" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="113">
-        <f>F12</f>
-        <v>0.10860188557756124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
-      <c r="A14" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="165">
-        <v>0.15</v>
-      </c>
-      <c r="C14" s="166">
-        <f>B14/F13</f>
-        <v>1.3811914885480792</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="32">
-      <c r="A16" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="126">
-        <f>'N2O Pressure Calcs'!H53</f>
-        <v>806.61716630606907</v>
-      </c>
-      <c r="C16" s="153"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="16">
-      <c r="A17" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="128">
-        <f>B10*B16</f>
-        <v>1613.2343326121381</v>
-      </c>
-      <c r="C17" s="154"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="60"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A19" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="127">
-        <f>'N2O Pressure Calcs'!J53</f>
-        <v>809.64703151146546</v>
-      </c>
-      <c r="C19" s="155"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="52"/>
-      <c r="B27" s="22"/>
-      <c r="C27" 